--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78167B8A-DA8D-9C49-9E0A-D8C237F55437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771028E-885C-FD45-8F48-ACA4C4193F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18820" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
@@ -435,7 +435,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +463,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +666,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1149,7 +1167,7 @@
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1629,7 +1647,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1637,50 +1655,63 @@
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="50"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="50"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="50"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="50"/>
+    <col min="11" max="11" width="9.1640625" style="1"/>
+    <col min="12" max="12" width="9.1640625" style="50"/>
+    <col min="13" max="13" width="9.1640625" style="1"/>
+    <col min="14" max="14" width="9.1640625" style="50"/>
+    <col min="15" max="15" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="9.1640625" style="50"/>
+    <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="47" t="s">
         <v>35</v>
       </c>
       <c r="E1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="47" t="s">
         <v>37</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="47" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="47" t="s">
         <v>41</v>
       </c>
       <c r="K1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="47" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="47" t="s">
         <v>45</v>
       </c>
       <c r="O1" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="P1" s="47" t="s">
         <v>47</v>
       </c>
       <c r="S1" s="31" t="s">
@@ -1728,15 +1759,21 @@
     </row>
     <row r="2" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="32"/>
+      <c r="D2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="35">
         <v>44106</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="52">
         <v>44288</v>
       </c>
       <c r="K2" s="35">
         <v>44470</v>
       </c>
+      <c r="L2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="P2" s="48"/>
       <c r="V2" s="35">
         <v>44288</v>
       </c>
@@ -1746,12 +1783,19 @@
     </row>
     <row r="3" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="32"/>
+      <c r="D3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="34">
         <v>44510</v>
       </c>
+      <c r="L3" s="48"/>
       <c r="M3" s="34">
         <v>44868</v>
       </c>
+      <c r="N3" s="48"/>
+      <c r="P3" s="48"/>
       <c r="W3" s="34">
         <v>44728</v>
       </c>
@@ -1760,6 +1804,13 @@
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="D4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="P4" s="49"/>
       <c r="V4" s="37">
         <v>1292.3</v>
       </c>
@@ -1782,6 +1833,13 @@
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="D6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="P6" s="49"/>
       <c r="V6" s="37">
         <f>V4-V5</f>
         <v>656.3</v>
@@ -1806,6 +1864,13 @@
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="D8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="P8" s="49"/>
       <c r="V8" s="37">
         <f>V6-V7</f>
         <v>79.5</v>
@@ -1854,6 +1919,13 @@
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="D12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="P12" s="49"/>
       <c r="V12" s="37">
         <f>V10-V11</f>
         <v>53.2</v>
@@ -1891,6 +1963,13 @@
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="D16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="P16" s="49"/>
       <c r="W16" s="39">
         <f>W4/V4-1</f>
         <v>5.9815832237096522E-2</v>
@@ -1977,6 +2056,9 @@
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="V27" s="28">
+        <v>398.3</v>
+      </c>
       <c r="W27" s="28">
         <v>442.4</v>
       </c>
@@ -1985,6 +2067,9 @@
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="V28" s="28">
+        <v>81.3</v>
+      </c>
       <c r="W28" s="28">
         <v>101.7</v>
       </c>
@@ -1993,6 +2078,9 @@
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="V29" s="28">
+        <v>282.8</v>
+      </c>
       <c r="W29" s="28">
         <v>350.2</v>
       </c>
@@ -2001,6 +2089,16 @@
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="V30" s="37">
+        <v>0.1</v>
+      </c>
       <c r="W30" s="37">
         <v>0</v>
       </c>
@@ -2009,6 +2107,9 @@
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="V31" s="28">
+        <v>12.3</v>
+      </c>
       <c r="W31" s="28">
         <v>14.7</v>
       </c>
@@ -2017,9 +2118,9 @@
       <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="28">
         <f t="shared" ref="V32" si="4">SUM(V27:V31)</f>
-        <v>0</v>
+        <v>774.80000000000007</v>
       </c>
       <c r="W32" s="28">
         <f>SUM(W27:W31)</f>
@@ -2030,6 +2131,16 @@
       <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="D33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="V33" s="37">
+        <v>143.9</v>
+      </c>
       <c r="W33" s="37">
         <v>222.1</v>
       </c>
@@ -2038,6 +2149,9 @@
       <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="V34" s="28">
+        <v>74.099999999999994</v>
+      </c>
       <c r="W34" s="28">
         <v>92.6</v>
       </c>
@@ -2046,6 +2160,9 @@
       <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="V35" s="28">
+        <v>6</v>
+      </c>
       <c r="W35" s="28">
         <v>0</v>
       </c>
@@ -2054,6 +2171,16 @@
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="V36" s="37">
+        <v>0.5</v>
+      </c>
       <c r="W36" s="37">
         <v>4.2</v>
       </c>
@@ -2062,6 +2189,9 @@
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="V37" s="28">
+        <v>3.1</v>
+      </c>
       <c r="W37" s="28">
         <v>3.9</v>
       </c>
@@ -2070,6 +2200,16 @@
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="V38" s="37">
+        <v>67.2</v>
+      </c>
       <c r="W38" s="37">
         <v>46.3</v>
       </c>
@@ -2078,19 +2218,32 @@
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39" s="28">
         <f t="shared" ref="V39" si="5">SUM(V32:V38)</f>
-        <v>0</v>
+        <v>1069.6000000000001</v>
       </c>
       <c r="W39" s="28">
         <f>SUM(W32:W38)</f>
         <v>1278.0999999999999</v>
       </c>
     </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="V40" s="28"/>
+    </row>
     <row r="41" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="D41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="L41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="V41" s="37">
+        <v>0.2</v>
+      </c>
       <c r="W41" s="37">
         <v>0.2</v>
       </c>
@@ -2099,6 +2252,9 @@
       <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="V42" s="28">
+        <v>63.4</v>
+      </c>
       <c r="W42" s="28">
         <v>74.5</v>
       </c>
@@ -2107,6 +2263,16 @@
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="V43" s="37">
+        <v>5.9</v>
+      </c>
       <c r="W43" s="37">
         <v>0.5</v>
       </c>
@@ -2115,6 +2281,9 @@
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="V44" s="28">
+        <v>258.2</v>
+      </c>
       <c r="W44" s="28">
         <v>299.60000000000002</v>
       </c>
@@ -2123,6 +2292,9 @@
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="V45" s="28">
+        <v>0</v>
+      </c>
       <c r="W45" s="28">
         <v>4</v>
       </c>
@@ -2131,6 +2303,9 @@
       <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="V46" s="28">
+        <v>24.5</v>
+      </c>
       <c r="W46" s="28">
         <v>20.5</v>
       </c>
@@ -2141,7 +2316,7 @@
       </c>
       <c r="V47" s="28">
         <f>SUM(V41:V46)</f>
-        <v>0</v>
+        <v>352.2</v>
       </c>
       <c r="W47" s="28">
         <f>SUM(W41:W46)</f>
@@ -2152,6 +2327,16 @@
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="D48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="P48" s="49"/>
+      <c r="V48" s="37">
+        <v>0</v>
+      </c>
       <c r="W48" s="37">
         <v>0</v>
       </c>
@@ -2160,6 +2345,9 @@
       <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="V49" s="28">
+        <v>280.89999999999998</v>
+      </c>
       <c r="W49" s="28">
         <v>316.5</v>
       </c>
@@ -2168,6 +2356,16 @@
       <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="D50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="V50" s="37">
+        <v>0.4</v>
+      </c>
       <c r="W50" s="37">
         <v>0</v>
       </c>
@@ -2176,6 +2374,9 @@
       <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="V51" s="28">
+        <v>3.3</v>
+      </c>
       <c r="W51" s="28">
         <v>4.9000000000000004</v>
       </c>
@@ -2184,6 +2385,9 @@
       <c r="B52" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="V52" s="28">
+        <v>0</v>
+      </c>
       <c r="W52" s="28">
         <v>0</v>
       </c>
@@ -2192,6 +2396,9 @@
       <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="V53" s="28">
+        <v>15</v>
+      </c>
       <c r="W53" s="28">
         <v>6.4</v>
       </c>
@@ -2200,9 +2407,9 @@
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V54" s="1">
+      <c r="V54" s="28">
         <f>SUM(V47:V53)</f>
-        <v>0</v>
+        <v>651.79999999999984</v>
       </c>
       <c r="W54" s="28">
         <f>SUM(W47:W53)</f>
@@ -2213,6 +2420,13 @@
       <c r="B56" s="28" t="s">
         <v>98</v>
       </c>
+      <c r="D56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="P56" s="51"/>
       <c r="V56" s="28">
         <v>417.8</v>
       </c>
@@ -2224,9 +2438,16 @@
       <c r="B57" s="28" t="s">
         <v>99</v>
       </c>
+      <c r="D57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="P57" s="51"/>
       <c r="V57" s="28">
         <f>V56+V54</f>
-        <v>417.8</v>
+        <v>1069.5999999999999</v>
       </c>
       <c r="W57" s="28">
         <f>W56+W54</f>
@@ -2237,6 +2458,10 @@
       <c r="B59" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="V59" s="28">
+        <f t="shared" ref="V59:W59" si="6">V39-V54</f>
+        <v>417.8000000000003</v>
+      </c>
       <c r="W59" s="28">
         <f>W39-W54</f>
         <v>551</v>
@@ -2246,6 +2471,10 @@
       <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="V60" s="1">
+        <f t="shared" ref="V60" si="7">V59/V14</f>
+        <v>2.0984429934706195</v>
+      </c>
       <c r="W60" s="1">
         <f>W59/W14</f>
         <v>2.6786582401555665</v>
@@ -2256,8 +2485,8 @@
         <v>6</v>
       </c>
       <c r="V62" s="28">
-        <f t="shared" ref="V62:W62" si="6">V30+V36+V38</f>
-        <v>0</v>
+        <f t="shared" ref="V62:W62" si="8">V30+V36+V38</f>
+        <v>67.8</v>
       </c>
       <c r="W62" s="28">
         <f>W30+W36+W38</f>
@@ -2269,8 +2498,8 @@
         <v>7</v>
       </c>
       <c r="V63" s="28">
-        <f t="shared" ref="V63:W63" si="7">V41+V43+V48+V50</f>
-        <v>0</v>
+        <f t="shared" ref="V63:W63" si="9">V41+V43+V48+V50</f>
+        <v>6.5000000000000009</v>
       </c>
       <c r="W63" s="28">
         <f>W41+W43+W48+W50</f>
@@ -2282,8 +2511,8 @@
         <v>8</v>
       </c>
       <c r="V64" s="28">
-        <f t="shared" ref="V64" si="8">V62-V63</f>
-        <v>0</v>
+        <f t="shared" ref="V64" si="10">V62-V63</f>
+        <v>61.3</v>
       </c>
       <c r="W64" s="28">
         <f>W62-W63</f>

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E771028E-885C-FD45-8F48-ACA4C4193F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1A598-BEAE-7040-847D-B0A4BF90A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18820" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>£HLF</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>FY17</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -566,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,33 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -653,16 +630,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -678,6 +646,46 @@
     <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -766,15 +774,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -824,7 +832,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1167,7 +1175,7 @@
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1179,14 +1187,14 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1194,22 +1202,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="G5" s="19" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="G5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
@@ -1233,7 +1241,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="18">
         <v>205.7</v>
       </c>
       <c r="D7" s="15" t="str">
@@ -1254,7 +1262,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="18">
         <f>C6*C7</f>
         <v>357.91800000000001</v>
       </c>
@@ -1273,8 +1281,8 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28">
-        <f>'Financial Model'!W62</f>
+      <c r="C9" s="18">
+        <f>'Financial Model'!X62</f>
         <v>50.5</v>
       </c>
       <c r="D9" s="15" t="str">
@@ -1295,8 +1303,8 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="28">
-        <f>'Financial Model'!W63</f>
+      <c r="C10" s="18">
+        <f>'Financial Model'!X63</f>
         <v>0.7</v>
       </c>
       <c r="D10" s="15" t="str">
@@ -1317,7 +1325,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="18">
         <f>C9-C10</f>
         <v>49.8</v>
       </c>
@@ -1339,7 +1347,7 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="19">
         <f>C8-C11</f>
         <v>308.11799999999999</v>
       </c>
@@ -1377,11 +1385,11 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1396,10 +1404,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="41"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1414,10 +1422,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="41"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1432,10 +1440,10 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="41"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1450,10 +1458,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="46"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1465,70 +1473,70 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="40">
         <v>1892</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="40">
         <v>2004</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="22">
-        <f>'Financial Model'!W33</f>
+      <c r="C27" s="40">
+        <f>'Financial Model'!X33</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="11"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="32">
         <v>44713</v>
       </c>
     </row>
@@ -1536,84 +1544,77 @@
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="52"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="44">
-        <f>C6/'Financial Model'!W60</f>
+      <c r="C34" s="47">
+        <f>C6/'Financial Model'!X60</f>
         <v>0.64957894736842103</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="44">
-        <f>C8/'Financial Model'!W4</f>
+      <c r="C35" s="47">
+        <f>C8/'Financial Model'!X4</f>
         <v>0.26133031542056079</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="44">
-        <f>C12/'Financial Model'!W4</f>
+      <c r="C36" s="47">
+        <f>C12/'Financial Model'!X4</f>
         <v>0.22496933411214953</v>
       </c>
-      <c r="D36" s="45"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="44">
-        <f>C6/'Financial Model'!W13</f>
+      <c r="C37" s="47">
+        <f>C6/'Financial Model'!X13</f>
         <v>4.6064092664092673</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="44">
-        <f>C12/'Financial Model'!W12</f>
+      <c r="C38" s="47">
+        <f>C12/'Financial Model'!X12</f>
         <v>3.9654826254826259</v>
       </c>
-      <c r="D38" s="45"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1629,6 +1630,13 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1641,13 +1649,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
-  <dimension ref="B1:AF74"/>
+  <dimension ref="B1:AG79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="X76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1655,901 +1663,1459 @@
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="50"/>
+    <col min="4" max="4" width="9.1640625" style="37"/>
     <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="50"/>
+    <col min="6" max="6" width="9.1640625" style="37"/>
     <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="50"/>
+    <col min="8" max="8" width="9.1640625" style="37"/>
     <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="50"/>
+    <col min="10" max="10" width="9.1640625" style="37"/>
     <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="50"/>
+    <col min="12" max="12" width="9.1640625" style="37"/>
     <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="50"/>
+    <col min="14" max="14" width="9.1640625" style="37"/>
     <col min="15" max="15" width="9.1640625" style="1"/>
-    <col min="16" max="16" width="9.1640625" style="50"/>
+    <col min="16" max="16" width="9.1640625" style="37"/>
     <col min="17" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="2:33" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="N1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="P1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="W1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="Y1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Z1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AA1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AB1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AC1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AD1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AE1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AF1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AG1" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="32"/>
-      <c r="D2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="35">
+    <row r="2" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="22"/>
+      <c r="D2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="25">
         <v>44106</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="39">
         <v>44288</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="25">
         <v>44470</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="V2" s="35">
+      <c r="L2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="U2" s="25">
+        <v>43553</v>
+      </c>
+      <c r="V2" s="25">
+        <v>43924</v>
+      </c>
+      <c r="W2" s="25">
         <v>44288</v>
       </c>
-      <c r="W2" s="35">
+      <c r="X2" s="25">
         <v>44652</v>
       </c>
     </row>
-    <row r="3" spans="2:32" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="32"/>
-      <c r="D3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="34">
+    <row r="3" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="22"/>
+      <c r="D3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="24">
         <v>44510</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="34">
+      <c r="L3" s="35"/>
+      <c r="M3" s="24">
         <v>44868</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="W3" s="34">
+      <c r="N3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="V3" s="24"/>
+      <c r="X3" s="24">
         <v>44728</v>
       </c>
     </row>
-    <row r="4" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="V4" s="37">
+      <c r="D4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="U4" s="27">
+        <v>1138.5999999999999</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1155.0999999999999</v>
+      </c>
+      <c r="W4" s="27">
         <v>1292.3</v>
       </c>
-      <c r="W4" s="37">
+      <c r="X4" s="27">
         <v>1369.6</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="28">
+      <c r="U5" s="18">
+        <v>559.6</v>
+      </c>
+      <c r="V5" s="18">
+        <v>565.4</v>
+      </c>
+      <c r="W5" s="18">
         <v>636</v>
       </c>
-      <c r="W5" s="28">
+      <c r="X5" s="18">
         <v>647.9</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="V6" s="37">
+      <c r="D6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="U6" s="27">
+        <f>U4-U5</f>
+        <v>578.99999999999989</v>
+      </c>
+      <c r="V6" s="27">
         <f>V4-V5</f>
+        <v>589.69999999999993</v>
+      </c>
+      <c r="W6" s="27">
+        <f>W4-W5</f>
         <v>656.3</v>
       </c>
-      <c r="W6" s="37">
-        <f>W4-W5</f>
+      <c r="X6" s="27">
+        <f>X4-X5</f>
         <v>721.69999999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="28">
+      <c r="U7" s="18">
+        <v>524.6</v>
+      </c>
+      <c r="V7" s="18">
+        <v>556.70000000000005</v>
+      </c>
+      <c r="W7" s="18">
         <v>576.79999999999995</v>
       </c>
-      <c r="W7" s="28">
+      <c r="X7" s="18">
         <v>613.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="V8" s="37">
+      <c r="D8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="U8" s="27">
+        <f>U6-U7</f>
+        <v>54.399999999999864</v>
+      </c>
+      <c r="V8" s="27">
         <f>V6-V7</f>
+        <v>32.999999999999886</v>
+      </c>
+      <c r="W8" s="27">
+        <f>W6-W7</f>
         <v>79.5</v>
       </c>
-      <c r="W8" s="37">
-        <f>W6-W7</f>
+      <c r="X8" s="27">
+        <f>X6-X7</f>
         <v>107.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="28">
+      <c r="U9" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="V9" s="18">
+        <f>13.9-0.3</f>
+        <v>13.6</v>
+      </c>
+      <c r="W9" s="18">
         <v>15</v>
       </c>
-      <c r="W9" s="28">
+      <c r="X9" s="18">
         <v>11.3</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="28">
+      <c r="U10" s="18">
+        <f>U8-U9</f>
+        <v>50.999999999999865</v>
+      </c>
+      <c r="V10" s="18">
         <f>V8-V9</f>
+        <v>19.399999999999885</v>
+      </c>
+      <c r="W10" s="18">
+        <f>W8-W9</f>
         <v>64.5</v>
       </c>
-      <c r="W10" s="28">
-        <f>W8-W9</f>
+      <c r="X10" s="18">
+        <f>X8-X9</f>
         <v>96.59999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V11" s="28">
+      <c r="U11" s="18">
+        <v>9.1</v>
+      </c>
+      <c r="V11" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="W11" s="18">
         <v>11.3</v>
       </c>
-      <c r="W11" s="28">
+      <c r="X11" s="18">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="V12" s="37">
+      <c r="D12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="U12" s="27">
+        <f>U10-U11</f>
+        <v>41.899999999999864</v>
+      </c>
+      <c r="V12" s="27">
         <f>V10-V11</f>
+        <v>17.499999999999886</v>
+      </c>
+      <c r="W12" s="27">
+        <f>W10-W11</f>
         <v>53.2</v>
       </c>
-      <c r="W12" s="37">
-        <f>W10-W11</f>
+      <c r="X12" s="27">
+        <f>X10-X11</f>
         <v>77.699999999999989</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V13" s="38">
+      <c r="U13" s="28">
+        <f>U12/U14</f>
+        <v>0.21044701155198325</v>
+      </c>
+      <c r="V13" s="28">
         <f>V12/V14</f>
+        <v>8.7895529884479587E-2</v>
+      </c>
+      <c r="W13" s="28">
+        <f>W12/W14</f>
         <v>0.26720241084881974</v>
       </c>
-      <c r="W13" s="38">
-        <f>W12/W14</f>
+      <c r="X13" s="28">
+        <f>X12/X14</f>
         <v>0.37773456490034024</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="U14" s="1">
+        <v>199.1</v>
+      </c>
       <c r="V14" s="1">
         <v>199.1</v>
       </c>
-      <c r="W14" s="28">
+      <c r="W14" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="X14" s="18">
         <v>205.7</v>
       </c>
     </row>
-    <row r="16" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="W16" s="39">
+      <c r="D16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="V16" s="29">
+        <f>V4/U4-1</f>
+        <v>1.4491480765852716E-2</v>
+      </c>
+      <c r="W16" s="29">
         <f>W4/V4-1</f>
+        <v>0.11877759501341889</v>
+      </c>
+      <c r="X16" s="29">
+        <f>X4/W4-1</f>
         <v>5.9815832237096522E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="T17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="T17" s="30" t="s">
+      <c r="U17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="30" t="s">
+      <c r="V17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="30" t="s">
+      <c r="W17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="W17" s="30" t="s">
+      <c r="X17" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="40">
-        <f t="shared" ref="V19:W19" si="0">V6/V4</f>
+      <c r="U19" s="30">
+        <f t="shared" ref="U19:V19" si="0">U6/U4</f>
+        <v>0.50851923414719824</v>
+      </c>
+      <c r="V19" s="30">
+        <f t="shared" ref="V19:W19" si="1">V6/V4</f>
+        <v>0.51051856982079469</v>
+      </c>
+      <c r="W19" s="30">
+        <f t="shared" si="1"/>
         <v>0.50785421341793702</v>
       </c>
-      <c r="W19" s="40">
-        <f>W6/W4</f>
+      <c r="X19" s="30">
+        <f>X6/X4</f>
         <v>0.52694217289719625</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V20" s="40">
-        <f t="shared" ref="V20:W20" si="1">V8/V4</f>
+      <c r="U20" s="30">
+        <f t="shared" ref="U20:V20" si="2">U8/U4</f>
+        <v>4.7777972949235789E-2</v>
+      </c>
+      <c r="V20" s="30">
+        <f t="shared" ref="V20:W20" si="3">V8/V4</f>
+        <v>2.8568955068825112E-2</v>
+      </c>
+      <c r="W20" s="30">
+        <f t="shared" si="3"/>
         <v>6.1518223322757873E-2</v>
       </c>
-      <c r="W20" s="40">
-        <f>W8/W4</f>
+      <c r="X20" s="30">
+        <f>X8/X4</f>
         <v>7.878212616822429E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V21" s="40">
-        <f t="shared" ref="V21:W21" si="2">V12/V4</f>
+      <c r="U21" s="30">
+        <f t="shared" ref="U21:V21" si="4">U12/U4</f>
+        <v>3.6799578429650329E-2</v>
+      </c>
+      <c r="V21" s="30">
+        <f t="shared" ref="V21:W21" si="5">V12/V4</f>
+        <v>1.5150203445589028E-2</v>
+      </c>
+      <c r="W21" s="30">
+        <f t="shared" si="5"/>
         <v>4.1166911707807785E-2</v>
       </c>
-      <c r="W21" s="40">
-        <f>W12/W4</f>
+      <c r="X21" s="30">
+        <f>X12/X4</f>
         <v>5.6731892523364483E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="V22" s="40">
-        <f t="shared" ref="V22:W22" si="3">V11/V10</f>
+      <c r="U22" s="30">
+        <f t="shared" ref="U22:V22" si="6">U11/U10</f>
+        <v>0.17843137254902008</v>
+      </c>
+      <c r="V22" s="30">
+        <f t="shared" ref="V22:W22" si="7">V11/V10</f>
+        <v>9.7938144329897489E-2</v>
+      </c>
+      <c r="W22" s="30">
+        <f t="shared" si="7"/>
         <v>0.17519379844961241</v>
       </c>
-      <c r="W22" s="40">
-        <f>W11/W10</f>
+      <c r="X22" s="30">
+        <f>X11/X10</f>
         <v>0.19565217391304351</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B26" s="41" t="s">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B26" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="V27" s="28">
+      <c r="U27" s="18">
+        <v>387.4</v>
+      </c>
+      <c r="V27" s="18">
+        <v>395.7</v>
+      </c>
+      <c r="W27" s="18">
         <v>398.3</v>
       </c>
-      <c r="W27" s="28">
+      <c r="X27" s="18">
         <v>442.4</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="V28" s="28">
+      <c r="U28" s="18">
+        <v>97.3</v>
+      </c>
+      <c r="V28" s="18">
+        <v>83.1</v>
+      </c>
+      <c r="W28" s="18">
         <v>81.3</v>
       </c>
-      <c r="W28" s="28">
+      <c r="X28" s="18">
         <v>101.7</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V29" s="28">
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>349.9</v>
+      </c>
+      <c r="W29" s="18">
         <v>282.8</v>
       </c>
-      <c r="W29" s="28">
+      <c r="X29" s="18">
         <v>350.2</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="V30" s="37">
+      <c r="D30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="U30" s="27">
+        <v>0</v>
+      </c>
+      <c r="V30" s="27">
+        <v>0</v>
+      </c>
+      <c r="W30" s="27">
         <v>0.1</v>
       </c>
-      <c r="W30" s="37">
+      <c r="X30" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V31" s="28">
+      <c r="U31" s="18">
+        <v>0</v>
+      </c>
+      <c r="V31" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="W31" s="18">
         <v>12.3</v>
       </c>
-      <c r="W31" s="28">
+      <c r="X31" s="18">
         <v>14.7</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="V32" s="28">
-        <f t="shared" ref="V32" si="4">SUM(V27:V31)</f>
+      <c r="U32" s="18">
+        <f t="shared" ref="U32:W32" si="8">SUM(U27:U31)</f>
+        <v>484.7</v>
+      </c>
+      <c r="V32" s="18">
+        <f t="shared" si="8"/>
+        <v>835.99999999999989</v>
+      </c>
+      <c r="W32" s="18">
+        <f t="shared" si="8"/>
         <v>774.80000000000007</v>
       </c>
-      <c r="W32" s="28">
-        <f>SUM(W27:W31)</f>
+      <c r="X32" s="18">
+        <f>SUM(X27:X31)</f>
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="V33" s="37">
+      <c r="D33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="U33" s="27">
+        <v>173.7</v>
+      </c>
+      <c r="V33" s="27">
+        <v>173</v>
+      </c>
+      <c r="W33" s="27">
         <v>143.9</v>
       </c>
-      <c r="W33" s="37">
+      <c r="X33" s="27">
         <v>222.1</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="V34" s="28">
+      <c r="U34" s="18">
+        <v>59.1</v>
+      </c>
+      <c r="V34" s="18">
+        <v>53.5</v>
+      </c>
+      <c r="W34" s="18">
         <v>74.099999999999994</v>
       </c>
-      <c r="W34" s="28">
+      <c r="X34" s="18">
         <v>92.6</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V35" s="28">
+      <c r="U35" s="18">
+        <v>0</v>
+      </c>
+      <c r="V35" s="18">
+        <v>0</v>
+      </c>
+      <c r="W35" s="18">
         <v>6</v>
       </c>
-      <c r="W35" s="28">
+      <c r="X35" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="V36" s="37">
+      <c r="D36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="U36" s="27">
+        <v>3.2</v>
+      </c>
+      <c r="V36" s="27">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="W36" s="27">
         <v>0.5</v>
       </c>
-      <c r="W36" s="37">
+      <c r="X36" s="27">
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="V37" s="28">
+      <c r="U37" s="18">
+        <v>0</v>
+      </c>
+      <c r="V37" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="W37" s="18">
         <v>3.1</v>
       </c>
-      <c r="W37" s="28">
+      <c r="X37" s="18">
         <v>3.9</v>
       </c>
     </row>
-    <row r="38" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="V38" s="37">
+      <c r="D38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="U38" s="27">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V38" s="27">
+        <v>115.5</v>
+      </c>
+      <c r="W38" s="27">
         <v>67.2</v>
       </c>
-      <c r="W38" s="37">
+      <c r="X38" s="27">
         <v>46.3</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="V39" s="28">
-        <f t="shared" ref="V39" si="5">SUM(V32:V38)</f>
+      <c r="U39" s="18">
+        <f t="shared" ref="U39:W39" si="9">SUM(U32:U38)</f>
+        <v>730.5</v>
+      </c>
+      <c r="V39" s="18">
+        <f t="shared" si="9"/>
+        <v>1194.9000000000001</v>
+      </c>
+      <c r="W39" s="18">
+        <f t="shared" si="9"/>
         <v>1069.6000000000001</v>
       </c>
-      <c r="W39" s="28">
-        <f>SUM(W32:W38)</f>
+      <c r="X39" s="18">
+        <f>SUM(X32:X38)</f>
         <v>1278.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="V40" s="28"/>
-    </row>
-    <row r="41" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="V41" s="37">
+      <c r="D41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="P41" s="36"/>
+      <c r="U41" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="V41" s="27">
         <v>0.2</v>
       </c>
-      <c r="W41" s="37">
+      <c r="W41" s="27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X41" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V42" s="28">
+      <c r="U42" s="1">
+        <v>0</v>
+      </c>
+      <c r="V42" s="18">
+        <v>83.2</v>
+      </c>
+      <c r="W42" s="18">
         <v>63.4</v>
       </c>
-      <c r="W42" s="28">
+      <c r="X42" s="18">
         <v>74.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="P43" s="49"/>
-      <c r="V43" s="37">
+      <c r="D43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="U43" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="V43" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W43" s="27">
         <v>5.9</v>
       </c>
-      <c r="W43" s="37">
+      <c r="X43" s="27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V44" s="28">
+      <c r="U44" s="1">
+        <v>176.4</v>
+      </c>
+      <c r="V44" s="18">
+        <v>217</v>
+      </c>
+      <c r="W44" s="18">
         <v>258.2</v>
       </c>
-      <c r="W44" s="28">
+      <c r="X44" s="18">
         <v>299.60000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="V45" s="28">
+      <c r="U45" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="V45" s="18">
         <v>0</v>
       </c>
-      <c r="W45" s="28">
+      <c r="W45" s="18">
+        <v>0</v>
+      </c>
+      <c r="X45" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V46" s="28">
+      <c r="U46" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="V46" s="18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="W46" s="18">
         <v>24.5</v>
       </c>
-      <c r="W46" s="28">
+      <c r="X46" s="18">
         <v>20.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V47" s="28">
+      <c r="U47" s="18">
+        <f>SUM(U41:U46)</f>
+        <v>214.70000000000002</v>
+      </c>
+      <c r="V47" s="18">
         <f>SUM(V41:V46)</f>
+        <v>311.2</v>
+      </c>
+      <c r="W47" s="18">
+        <f>SUM(W41:W46)</f>
         <v>352.2</v>
       </c>
-      <c r="W47" s="28">
-        <f>SUM(W41:W46)</f>
+      <c r="X47" s="18">
+        <f>SUM(X41:X46)</f>
         <v>399.3</v>
       </c>
     </row>
-    <row r="48" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="P48" s="49"/>
-      <c r="V48" s="37">
+      <c r="D48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="U48" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="V48" s="27">
+        <v>179.1</v>
+      </c>
+      <c r="W48" s="27">
         <v>0</v>
       </c>
-      <c r="W48" s="37">
+      <c r="X48" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V49" s="28">
+      <c r="U49" s="1">
+        <v>0</v>
+      </c>
+      <c r="V49" s="18">
+        <v>332.8</v>
+      </c>
+      <c r="W49" s="18">
         <v>280.89999999999998</v>
       </c>
-      <c r="W49" s="28">
+      <c r="X49" s="18">
         <v>316.5</v>
       </c>
     </row>
-    <row r="50" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="P50" s="49"/>
-      <c r="V50" s="37">
+      <c r="D50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="27">
+        <v>0</v>
+      </c>
+      <c r="W50" s="27">
         <v>0.4</v>
       </c>
-      <c r="W50" s="37">
+      <c r="X50" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V51" s="28">
+      <c r="U51" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="V51" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="W51" s="18">
         <v>3.3</v>
       </c>
-      <c r="W51" s="28">
+      <c r="X51" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="V52" s="28">
+      <c r="U52" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V52" s="18">
         <v>0</v>
       </c>
-      <c r="W52" s="28">
+      <c r="W52" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="X52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V53" s="28">
+      <c r="U53" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="V53" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W53" s="18">
         <v>15</v>
       </c>
-      <c r="W53" s="28">
+      <c r="X53" s="18">
         <v>6.4</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V54" s="28">
+      <c r="U54" s="18">
+        <f>SUM(U47:U53)</f>
+        <v>321.20000000000005</v>
+      </c>
+      <c r="V54" s="18">
         <f>SUM(V47:V53)</f>
+        <v>829.09999999999991</v>
+      </c>
+      <c r="W54" s="18">
+        <f>SUM(W47:W53)</f>
         <v>651.79999999999984</v>
       </c>
-      <c r="W54" s="28">
-        <f>SUM(W47:W53)</f>
+      <c r="X54" s="18">
+        <f>SUM(X47:X53)</f>
         <v>727.09999999999991</v>
       </c>
     </row>
-    <row r="56" spans="2:23" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="28" t="s">
+    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="H56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="L56" s="51"/>
-      <c r="N56" s="51"/>
-      <c r="P56" s="51"/>
-      <c r="V56" s="28">
+      <c r="D56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="N56" s="38"/>
+      <c r="P56" s="38"/>
+      <c r="U56" s="18">
+        <v>409.3</v>
+      </c>
+      <c r="V56" s="18">
+        <v>365.8</v>
+      </c>
+      <c r="W56" s="18">
         <v>417.8</v>
       </c>
-      <c r="W56" s="28">
+      <c r="X56" s="18">
         <v>551</v>
       </c>
     </row>
-    <row r="57" spans="2:23" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="28" t="s">
+    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="V57" s="28">
+      <c r="D57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="N57" s="38"/>
+      <c r="P57" s="38"/>
+      <c r="U57" s="18">
+        <f>U56+U54</f>
+        <v>730.5</v>
+      </c>
+      <c r="V57" s="18">
         <f>V56+V54</f>
+        <v>1194.8999999999999</v>
+      </c>
+      <c r="W57" s="18">
+        <f>W56+W54</f>
         <v>1069.5999999999999</v>
       </c>
-      <c r="W57" s="28">
-        <f>W56+W54</f>
+      <c r="X57" s="18">
+        <f>X56+X54</f>
         <v>1278.0999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="V59" s="28">
-        <f t="shared" ref="V59:W59" si="6">V39-V54</f>
+      <c r="U59" s="18">
+        <f t="shared" ref="U59:V59" si="10">U39-U54</f>
+        <v>409.29999999999995</v>
+      </c>
+      <c r="V59" s="18">
+        <f t="shared" ref="V59:W59" si="11">V39-V54</f>
+        <v>365.80000000000018</v>
+      </c>
+      <c r="W59" s="18">
+        <f t="shared" si="11"/>
         <v>417.8000000000003</v>
       </c>
-      <c r="W59" s="28">
-        <f>W39-W54</f>
+      <c r="X59" s="18">
+        <f>X39-X54</f>
         <v>551</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="U60" s="1">
+        <f t="shared" ref="U60:V60" si="12">U59/U14</f>
+        <v>2.0557508789552985</v>
+      </c>
       <c r="V60" s="1">
-        <f t="shared" ref="V60" si="7">V59/V14</f>
+        <f t="shared" ref="V60:W60" si="13">V59/V14</f>
+        <v>1.8372677046710206</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="13"/>
         <v>2.0984429934706195</v>
       </c>
-      <c r="W60" s="1">
-        <f>W59/W14</f>
+      <c r="X60" s="1">
+        <f>X59/X14</f>
         <v>2.6786582401555665</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V62" s="28">
-        <f t="shared" ref="V62:W62" si="8">V30+V36+V38</f>
+      <c r="U62" s="18">
+        <f t="shared" ref="U62:V62" si="14">U30+U36+U38</f>
+        <v>13</v>
+      </c>
+      <c r="V62" s="18">
+        <f t="shared" ref="V62:W62" si="15">V30+V36+V38</f>
+        <v>124.2</v>
+      </c>
+      <c r="W62" s="18">
+        <f t="shared" si="15"/>
         <v>67.8</v>
       </c>
-      <c r="W62" s="28">
-        <f>W30+W36+W38</f>
+      <c r="X62" s="18">
+        <f>X30+X36+X38</f>
         <v>50.5</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V63" s="28">
-        <f t="shared" ref="V63:W63" si="9">V41+V43+V48+V50</f>
+      <c r="U63" s="18">
+        <f t="shared" ref="U63:V63" si="16">U41+U43+U48+U50</f>
+        <v>93</v>
+      </c>
+      <c r="V63" s="18">
+        <f t="shared" ref="V63:W63" si="17">V41+V43+V48+V50</f>
+        <v>180.4</v>
+      </c>
+      <c r="W63" s="18">
+        <f t="shared" si="17"/>
         <v>6.5000000000000009</v>
       </c>
-      <c r="W63" s="28">
-        <f>W41+W43+W48+W50</f>
+      <c r="X63" s="18">
+        <f>X41+X43+X48+X50</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V64" s="28">
-        <f t="shared" ref="V64" si="10">V62-V63</f>
+      <c r="U64" s="18">
+        <f t="shared" ref="U64:V64" si="18">U62-U63</f>
+        <v>-80</v>
+      </c>
+      <c r="V64" s="18">
+        <f t="shared" ref="V64:W64" si="19">V62-V63</f>
+        <v>-56.2</v>
+      </c>
+      <c r="W64" s="18">
+        <f t="shared" si="19"/>
         <v>61.3</v>
       </c>
-      <c r="W64" s="28">
-        <f>W62-W63</f>
+      <c r="X64" s="18">
+        <f>X62-X63</f>
         <v>49.8</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="1" t="s">
+    <row r="66" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
+      <c r="D66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="L66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="P66" s="55"/>
+      <c r="V66" s="30">
+        <f>V33/U33-1</f>
+        <v>-4.029936672423684E-3</v>
+      </c>
+      <c r="W66" s="30">
+        <f>W33/V33-1</f>
+        <v>-0.16820809248554913</v>
+      </c>
+      <c r="X66" s="30">
+        <f>X33/W33-1</f>
+        <v>0.54343293954134797</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" s="53" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="53" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="D68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="P68" s="54"/>
+      <c r="U68" s="53">
+        <v>1.7</v>
+      </c>
+      <c r="V68" s="53">
+        <v>0.60350000000000004</v>
+      </c>
+      <c r="W68" s="53">
+        <v>3.5316000000000001</v>
+      </c>
+      <c r="X68" s="53">
+        <v>2.4632000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="U69" s="18">
+        <f t="shared" ref="U69:V69" si="20">U68*U14</f>
+        <v>338.46999999999997</v>
+      </c>
+      <c r="V69" s="18">
+        <f t="shared" si="20"/>
+        <v>120.15685000000001</v>
+      </c>
+      <c r="W69" s="18">
+        <f>W68*W14</f>
+        <v>703.14156000000003</v>
+      </c>
+      <c r="X69" s="18">
+        <f>X68*X14</f>
+        <v>506.68023999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" s="41" t="s">
+      <c r="U70" s="18">
+        <f>U69-U64</f>
+        <v>418.46999999999997</v>
+      </c>
+      <c r="V70" s="18">
+        <f>V69-V64</f>
+        <v>176.35685000000001</v>
+      </c>
+      <c r="W70" s="18">
+        <f>W69-W64</f>
+        <v>641.84156000000007</v>
+      </c>
+      <c r="X70" s="18">
+        <f>X69-X64</f>
+        <v>456.88023999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="56">
+        <f t="shared" ref="U72:X72" si="21">U68/U60</f>
+        <v>0.82694844857073058</v>
+      </c>
+      <c r="V72" s="56">
+        <f t="shared" si="21"/>
+        <v>0.32847689994532514</v>
+      </c>
+      <c r="W72" s="56">
+        <f t="shared" si="21"/>
+        <v>1.682962087123024</v>
+      </c>
+      <c r="X72" s="56">
+        <f>X68/X60</f>
+        <v>0.91956486388384751</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="57"/>
+      <c r="F73" s="57"/>
+      <c r="H73" s="57"/>
+      <c r="J73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="U73" s="56">
+        <f t="shared" ref="U73:X73" si="22">U69/U4</f>
+        <v>0.29726857544352714</v>
+      </c>
+      <c r="V73" s="56">
+        <f t="shared" si="22"/>
+        <v>0.10402289845035063</v>
+      </c>
+      <c r="W73" s="56">
+        <f t="shared" si="22"/>
+        <v>0.54410087440996679</v>
+      </c>
+      <c r="X73" s="56">
+        <f>X69/X4</f>
+        <v>0.36994760514018693</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="N74" s="57"/>
+      <c r="P74" s="57"/>
+      <c r="U74" s="56">
+        <f t="shared" ref="U74:X74" si="23">U70/U4</f>
+        <v>0.36753030036887407</v>
+      </c>
+      <c r="V74" s="56">
+        <f t="shared" si="23"/>
+        <v>0.15267669465847114</v>
+      </c>
+      <c r="W74" s="56">
+        <f t="shared" si="23"/>
+        <v>0.49666606825040632</v>
+      </c>
+      <c r="X74" s="56">
+        <f>X70/X4</f>
+        <v>0.33358662383177567</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="H75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="U75" s="56">
+        <f t="shared" ref="U75:X75" si="24">U68/U13</f>
+        <v>8.0780429594272327</v>
+      </c>
+      <c r="V75" s="56">
+        <f t="shared" si="24"/>
+        <v>6.8661057142857596</v>
+      </c>
+      <c r="W75" s="56">
+        <f t="shared" si="24"/>
+        <v>13.216946616541351</v>
+      </c>
+      <c r="X75" s="56">
+        <f>X68/X13</f>
+        <v>6.520981209781211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="U76" s="56">
+        <f t="shared" ref="U76:X76" si="25">U70/U12</f>
+        <v>9.9873508353222267</v>
+      </c>
+      <c r="V76" s="56">
+        <f t="shared" si="25"/>
+        <v>10.077534285714352</v>
+      </c>
+      <c r="W76" s="56">
+        <f t="shared" si="25"/>
+        <v>12.064690977443609</v>
+      </c>
+      <c r="X76" s="56">
+        <f>X70/X12</f>
+        <v>5.8800545688545691</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B79" s="31" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
+    <hyperlink ref="X1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
+    <hyperlink ref="V1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="V9" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1A598-BEAE-7040-847D-B0A4BF90A1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00399F-DD4F-4963-90C6-7DC1B82A18DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18820" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18825" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -646,12 +646,19 @@
     <xf numFmtId="14" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,31 +668,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1174,16 +1174,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1196,30 +1196,30 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="G5" s="42" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="G5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1299,7 +1299,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1343,7 +1343,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="7"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="G13" s="13"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1373,7 +1373,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="G14" s="13"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1384,12 +1384,12 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1400,14 +1400,14 @@
       <c r="N15" s="6"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="53"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1418,14 +1418,14 @@
       <c r="N16" s="6"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="53"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1436,14 +1436,14 @@
       <c r="N17" s="6"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="53"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1454,14 +1454,14 @@
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="57"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1472,64 +1472,64 @@
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="41"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D23" s="53"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="52">
         <v>1892</v>
       </c>
-      <c r="D24" s="41"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="52">
         <v>2004</v>
       </c>
-      <c r="D25" s="41"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="52">
         <f>'Financial Model'!X33</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="41"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="D27" s="53"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
@@ -1540,81 +1540,87 @@
         <v>44713</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="52"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="42" t="s">
+      <c r="D30" s="55"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="47">
+      <c r="C34" s="45">
         <f>C6/'Financial Model'!X60</f>
         <v>0.64957894736842103</v>
       </c>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="47">
+      <c r="C35" s="45">
         <f>C8/'Financial Model'!X4</f>
         <v>0.26133031542056079</v>
       </c>
-      <c r="D35" s="48"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="47">
+      <c r="C36" s="45">
         <f>C12/'Financial Model'!X4</f>
         <v>0.22496933411214953</v>
       </c>
-      <c r="D36" s="48"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="45">
         <f>C6/'Financial Model'!X13</f>
         <v>4.6064092664092673</v>
       </c>
-      <c r="D37" s="48"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="47">
+      <c r="C38" s="45">
         <f>C12/'Financial Model'!X12</f>
         <v>3.9654826254826259</v>
       </c>
-      <c r="D38" s="48"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D38" s="46"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1631,12 +1637,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1651,35 +1651,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
   <dimension ref="B1:AG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X76" sqref="A76:XFD76"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9:S39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="37"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="37"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="37"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="37"/>
-    <col min="11" max="11" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="37"/>
-    <col min="13" max="13" width="9.1640625" style="1"/>
-    <col min="14" max="14" width="9.1640625" style="37"/>
-    <col min="15" max="15" width="9.1640625" style="1"/>
-    <col min="16" max="16" width="9.1640625" style="37"/>
-    <col min="17" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="37"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="37"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="37"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="37"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="37"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="37"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="37"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>34</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="D2" s="35"/>
       <c r="F2" s="35"/>
@@ -1798,7 +1798,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="3" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="35"/>
       <c r="F3" s="35"/>
@@ -1818,7 +1818,7 @@
         <v>44728</v>
       </c>
     </row>
-    <row r="4" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1369.6</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>647.9</v>
       </c>
     </row>
-    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>721.69999999999993</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>613.79999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>107.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>96.59999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>77.699999999999989</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>0.37773456490034024</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="16" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>5.9815832237096522E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
@@ -2098,12 +2098,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U19" s="30">
-        <f t="shared" ref="U19:V19" si="0">U6/U4</f>
+        <f t="shared" ref="U19" si="0">U6/U4</f>
         <v>0.50851923414719824</v>
       </c>
       <c r="V19" s="30">
@@ -2119,12 +2119,12 @@
         <v>0.52694217289719625</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="U20" s="30">
-        <f t="shared" ref="U20:V20" si="2">U8/U4</f>
+        <f t="shared" ref="U20" si="2">U8/U4</f>
         <v>4.7777972949235789E-2</v>
       </c>
       <c r="V20" s="30">
@@ -2140,12 +2140,12 @@
         <v>7.878212616822429E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" ref="U21:V21" si="4">U12/U4</f>
+        <f t="shared" ref="U21" si="4">U12/U4</f>
         <v>3.6799578429650329E-2</v>
       </c>
       <c r="V21" s="30">
@@ -2161,12 +2161,12 @@
         <v>5.6731892523364483E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="U22" s="30">
-        <f t="shared" ref="U22:V22" si="6">U11/U10</f>
+        <f t="shared" ref="U22" si="6">U11/U10</f>
         <v>0.17843137254902008</v>
       </c>
       <c r="V22" s="30">
@@ -2182,12 +2182,12 @@
         <v>0.19565217391304351</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>442.4</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>350.2</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>222.1</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
@@ -2444,10 +2444,10 @@
         <v>1278.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="W40" s="18"/>
     </row>
-    <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>299.60000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>399.3</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>316.5</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>84</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>727.09999999999991</v>
       </c>
     </row>
-    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="18" t="s">
         <v>98</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
         <v>99</v>
       </c>
@@ -2773,12 +2773,12 @@
         <v>1278.0999999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>100</v>
       </c>
       <c r="U59" s="18">
-        <f t="shared" ref="U59:V59" si="10">U39-U54</f>
+        <f t="shared" ref="U59" si="10">U39-U54</f>
         <v>409.29999999999995</v>
       </c>
       <c r="V59" s="18">
@@ -2794,12 +2794,12 @@
         <v>551</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" ref="U60:V60" si="12">U59/U14</f>
+        <f t="shared" ref="U60" si="12">U59/U14</f>
         <v>2.0557508789552985</v>
       </c>
       <c r="V60" s="1">
@@ -2815,12 +2815,12 @@
         <v>2.6786582401555665</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="U62" s="18">
-        <f t="shared" ref="U62:V62" si="14">U30+U36+U38</f>
+        <f t="shared" ref="U62" si="14">U30+U36+U38</f>
         <v>13</v>
       </c>
       <c r="V62" s="18">
@@ -2836,12 +2836,12 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U63" s="18">
-        <f t="shared" ref="U63:V63" si="16">U41+U43+U48+U50</f>
+        <f t="shared" ref="U63" si="16">U41+U43+U48+U50</f>
         <v>93</v>
       </c>
       <c r="V63" s="18">
@@ -2857,12 +2857,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U64" s="18">
-        <f t="shared" ref="U64:V64" si="18">U62-U63</f>
+        <f t="shared" ref="U64" si="18">U62-U63</f>
         <v>-80</v>
       </c>
       <c r="V64" s="18">
@@ -2878,17 +2878,17 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="66" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="L66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="P66" s="55"/>
+      <c r="D66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="P66" s="42"/>
       <c r="V66" s="30">
         <f>V33/U33-1</f>
         <v>-4.029936672423684E-3</v>
@@ -2902,31 +2902,31 @@
         <v>0.54343293954134797</v>
       </c>
     </row>
-    <row r="68" spans="2:24" s="53" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="53" t="s">
+    <row r="68" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="U68" s="53">
+      <c r="D68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="U68" s="40">
         <v>1.7</v>
       </c>
-      <c r="V68" s="53">
+      <c r="V68" s="40">
         <v>0.60350000000000004</v>
       </c>
-      <c r="W68" s="53">
+      <c r="W68" s="40">
         <v>3.5316000000000001</v>
       </c>
-      <c r="X68" s="53">
+      <c r="X68" s="40">
         <v>2.4632000000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>506.68023999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
@@ -2968,140 +2968,140 @@
         <v>456.88023999999996</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U72" s="56">
-        <f t="shared" ref="U72:X72" si="21">U68/U60</f>
+      <c r="U72" s="43">
+        <f t="shared" ref="U72:W72" si="21">U68/U60</f>
         <v>0.82694844857073058</v>
       </c>
-      <c r="V72" s="56">
+      <c r="V72" s="43">
         <f t="shared" si="21"/>
         <v>0.32847689994532514</v>
       </c>
-      <c r="W72" s="56">
+      <c r="W72" s="43">
         <f t="shared" si="21"/>
         <v>1.682962087123024</v>
       </c>
-      <c r="X72" s="56">
+      <c r="X72" s="43">
         <f>X68/X60</f>
         <v>0.91956486388384751</v>
       </c>
     </row>
-    <row r="73" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="56" t="s">
+    <row r="73" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="H73" s="57"/>
-      <c r="J73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="U73" s="56">
-        <f t="shared" ref="U73:X73" si="22">U69/U4</f>
+      <c r="D73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="U73" s="43">
+        <f t="shared" ref="U73:W73" si="22">U69/U4</f>
         <v>0.29726857544352714</v>
       </c>
-      <c r="V73" s="56">
+      <c r="V73" s="43">
         <f t="shared" si="22"/>
         <v>0.10402289845035063</v>
       </c>
-      <c r="W73" s="56">
+      <c r="W73" s="43">
         <f t="shared" si="22"/>
         <v>0.54410087440996679</v>
       </c>
-      <c r="X73" s="56">
+      <c r="X73" s="43">
         <f>X69/X4</f>
         <v>0.36994760514018693</v>
       </c>
     </row>
-    <row r="74" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="56" t="s">
+    <row r="74" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="P74" s="57"/>
-      <c r="U74" s="56">
-        <f t="shared" ref="U74:X74" si="23">U70/U4</f>
+      <c r="D74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="U74" s="43">
+        <f t="shared" ref="U74:W74" si="23">U70/U4</f>
         <v>0.36753030036887407</v>
       </c>
-      <c r="V74" s="56">
+      <c r="V74" s="43">
         <f t="shared" si="23"/>
         <v>0.15267669465847114</v>
       </c>
-      <c r="W74" s="56">
+      <c r="W74" s="43">
         <f t="shared" si="23"/>
         <v>0.49666606825040632</v>
       </c>
-      <c r="X74" s="56">
+      <c r="X74" s="43">
         <f>X70/X4</f>
         <v>0.33358662383177567</v>
       </c>
     </row>
-    <row r="75" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="56" t="s">
+    <row r="75" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="J75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="U75" s="56">
-        <f t="shared" ref="U75:X75" si="24">U68/U13</f>
+      <c r="D75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="U75" s="43">
+        <f t="shared" ref="U75:W75" si="24">U68/U13</f>
         <v>8.0780429594272327</v>
       </c>
-      <c r="V75" s="56">
+      <c r="V75" s="43">
         <f t="shared" si="24"/>
         <v>6.8661057142857596</v>
       </c>
-      <c r="W75" s="56">
+      <c r="W75" s="43">
         <f t="shared" si="24"/>
         <v>13.216946616541351</v>
       </c>
-      <c r="X75" s="56">
+      <c r="X75" s="43">
         <f>X68/X13</f>
         <v>6.520981209781211</v>
       </c>
     </row>
-    <row r="76" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="56" t="s">
+    <row r="76" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="U76" s="56">
-        <f t="shared" ref="U76:X76" si="25">U70/U12</f>
+      <c r="D76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="U76" s="43">
+        <f t="shared" ref="U76:W76" si="25">U70/U12</f>
         <v>9.9873508353222267</v>
       </c>
-      <c r="V76" s="56">
+      <c r="V76" s="43">
         <f t="shared" si="25"/>
         <v>10.077534285714352</v>
       </c>
-      <c r="W76" s="56">
+      <c r="W76" s="43">
         <f t="shared" si="25"/>
         <v>12.064690977443609</v>
       </c>
-      <c r="X76" s="56">
+      <c r="X76" s="43">
         <f>X70/X12</f>
         <v>5.8800545688545691</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="31" t="s">
         <v>107</v>
       </c>

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF00399F-DD4F-4963-90C6-7DC1B82A18DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BB4981-B98B-4429-85CA-6A58C719A013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18825" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18825" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>£HLF</t>
   </si>
@@ -363,6 +353,15 @@
   </si>
   <si>
     <t>FY17</t>
+  </si>
+  <si>
+    <t>(EST.)</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY15</t>
   </si>
 </sst>
 </file>
@@ -373,7 +372,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,8 +436,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +494,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +597,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,14 +679,12 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,18 +700,50 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -774,13 +832,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1174,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1202,22 +1260,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="G5" s="49" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="G5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1282,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>'Financial Model'!X62</f>
+        <f>'Financial Model'!Z62</f>
         <v>50.5</v>
       </c>
       <c r="D9" s="15" t="str">
@@ -1304,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!X63</f>
+        <f>'Financial Model'!Z63</f>
         <v>0.7</v>
       </c>
       <c r="D10" s="15" t="str">
@@ -1385,11 +1443,11 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="49"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1404,10 +1462,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="51"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1422,10 +1480,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="51"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1440,10 +1498,10 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="51"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1458,10 +1516,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="46"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1473,61 +1531,61 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="53"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="50">
         <v>1892</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="50">
         <v>2004</v>
       </c>
-      <c r="D25" s="53"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="52">
-        <f>'Financial Model'!X33</f>
+      <c r="C27" s="50">
+        <f>'Financial Model'!Z33</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="53"/>
+      <c r="D27" s="51"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1544,83 +1602,77 @@
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="57"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="51"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="45">
-        <f>C6/'Financial Model'!X60</f>
+      <c r="C34" s="52">
+        <f>C6/'Financial Model'!Z60</f>
         <v>0.64957894736842103</v>
       </c>
-      <c r="D34" s="46"/>
+      <c r="D34" s="53"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="45">
-        <f>C8/'Financial Model'!X4</f>
+      <c r="C35" s="52">
+        <f>C8/'Financial Model'!Z4</f>
         <v>0.26133031542056079</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="53"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="45">
-        <f>C12/'Financial Model'!X4</f>
+      <c r="C36" s="52">
+        <f>C12/'Financial Model'!Z4</f>
         <v>0.22496933411214953</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="53"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="45">
-        <f>C6/'Financial Model'!X13</f>
+      <c r="C37" s="52">
+        <f>C6/'Financial Model'!Z13</f>
         <v>4.6064092664092673</v>
       </c>
-      <c r="D37" s="46"/>
+      <c r="D37" s="53"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="45">
-        <f>C12/'Financial Model'!X12</f>
+      <c r="C38" s="52">
+        <f>C12/'Financial Model'!Z12</f>
         <v>3.9654826254826259</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="53"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1637,6 +1689,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1649,13 +1707,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
-  <dimension ref="B1:AG79"/>
+  <dimension ref="B1:AI79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9:S39"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1676,10 +1734,13 @@
     <col min="14" max="14" width="9.140625" style="37"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="37"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="9.140625" style="70"/>
+    <col min="28" max="35" width="9.140625" style="67"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:35" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>34</v>
       </c>
@@ -1723,52 +1784,58 @@
         <v>47</v>
       </c>
       <c r="S1" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Z1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AB1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AD1" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AE1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AF1" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AG1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AH1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AI1" s="59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="D2" s="35"/>
       <c r="F2" s="35"/>
@@ -1785,20 +1852,31 @@
       <c r="L2" s="35"/>
       <c r="N2" s="35"/>
       <c r="P2" s="35"/>
-      <c r="U2" s="25">
+      <c r="W2" s="25">
         <v>43553</v>
       </c>
-      <c r="V2" s="25">
+      <c r="X2" s="25">
         <v>43924</v>
       </c>
-      <c r="W2" s="25">
+      <c r="Y2" s="25">
         <v>44288</v>
       </c>
-      <c r="X2" s="25">
+      <c r="Z2" s="25">
         <v>44652</v>
       </c>
-    </row>
-    <row r="3" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA2" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+    </row>
+    <row r="3" spans="2:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="35"/>
       <c r="F3" s="35"/>
@@ -1813,12 +1891,21 @@
       </c>
       <c r="N3" s="35"/>
       <c r="P3" s="35"/>
-      <c r="V3" s="24"/>
-      <c r="X3" s="24">
+      <c r="X3" s="24"/>
+      <c r="Z3" s="24">
         <v>44728</v>
       </c>
-    </row>
-    <row r="4" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+    </row>
+    <row r="4" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
@@ -1829,37 +1916,109 @@
       <c r="L4" s="36"/>
       <c r="N4" s="36"/>
       <c r="P4" s="36"/>
-      <c r="U4" s="27">
+      <c r="W4" s="27">
         <v>1138.5999999999999</v>
       </c>
-      <c r="V4" s="27">
+      <c r="X4" s="27">
         <v>1155.0999999999999</v>
       </c>
-      <c r="W4" s="27">
+      <c r="Y4" s="27">
         <v>1292.3</v>
       </c>
-      <c r="X4" s="27">
+      <c r="Z4" s="27">
         <v>1369.6</v>
       </c>
-    </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA4" s="62">
+        <f>Z4*(1+AA16)</f>
+        <v>1438.08</v>
+      </c>
+      <c r="AB4" s="63">
+        <f>AA4*(1+AB16)</f>
+        <v>1509.9839999999999</v>
+      </c>
+      <c r="AC4" s="63">
+        <f t="shared" ref="AC4:AI4" si="0">AB4*(1+AC16)</f>
+        <v>1585.4831999999999</v>
+      </c>
+      <c r="AD4" s="63">
+        <f t="shared" si="0"/>
+        <v>1664.7573600000001</v>
+      </c>
+      <c r="AE4" s="63">
+        <f t="shared" si="0"/>
+        <v>1698.0525072</v>
+      </c>
+      <c r="AF4" s="63">
+        <f t="shared" si="0"/>
+        <v>1732.013557344</v>
+      </c>
+      <c r="AG4" s="63">
+        <f t="shared" si="0"/>
+        <v>1766.65382849088</v>
+      </c>
+      <c r="AH4" s="63">
+        <f t="shared" si="0"/>
+        <v>1801.9869050606976</v>
+      </c>
+      <c r="AI4" s="63">
+        <f t="shared" si="0"/>
+        <v>1838.0266431619116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U5" s="18">
+      <c r="W5" s="18">
         <v>559.6</v>
       </c>
-      <c r="V5" s="18">
+      <c r="X5" s="18">
         <v>565.4</v>
       </c>
-      <c r="W5" s="18">
+      <c r="Y5" s="18">
         <v>636</v>
       </c>
-      <c r="X5" s="18">
+      <c r="Z5" s="18">
         <v>647.9</v>
       </c>
-    </row>
-    <row r="6" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA5" s="64">
+        <f>AA4*(1-AA19)</f>
+        <v>675.8975999999999</v>
+      </c>
+      <c r="AB5" s="65">
+        <f t="shared" ref="AB5:AI5" si="1">AB4*(1-AB19)</f>
+        <v>709.69247999999993</v>
+      </c>
+      <c r="AC5" s="65">
+        <f t="shared" si="1"/>
+        <v>745.17710399999987</v>
+      </c>
+      <c r="AD5" s="65">
+        <f t="shared" si="1"/>
+        <v>782.43595919999996</v>
+      </c>
+      <c r="AE5" s="65">
+        <f t="shared" si="1"/>
+        <v>798.08467838399997</v>
+      </c>
+      <c r="AF5" s="65">
+        <f t="shared" si="1"/>
+        <v>814.04637195167993</v>
+      </c>
+      <c r="AG5" s="65">
+        <f t="shared" si="1"/>
+        <v>830.32729939071351</v>
+      </c>
+      <c r="AH5" s="65">
+        <f t="shared" si="1"/>
+        <v>846.93384537852785</v>
+      </c>
+      <c r="AI5" s="65">
+        <f t="shared" si="1"/>
+        <v>863.87252228609839</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -1870,41 +2029,113 @@
       <c r="L6" s="36"/>
       <c r="N6" s="36"/>
       <c r="P6" s="36"/>
-      <c r="U6" s="27">
-        <f>U4-U5</f>
-        <v>578.99999999999989</v>
-      </c>
-      <c r="V6" s="27">
-        <f>V4-V5</f>
-        <v>589.69999999999993</v>
-      </c>
       <c r="W6" s="27">
         <f>W4-W5</f>
-        <v>656.3</v>
+        <v>578.99999999999989</v>
       </c>
       <c r="X6" s="27">
         <f>X4-X5</f>
+        <v>589.69999999999993</v>
+      </c>
+      <c r="Y6" s="27">
+        <f>Y4-Y5</f>
+        <v>656.3</v>
+      </c>
+      <c r="Z6" s="27">
+        <f>Z4-Z5</f>
         <v>721.69999999999993</v>
       </c>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA6" s="62">
+        <f>AA4-AA5</f>
+        <v>762.18240000000003</v>
+      </c>
+      <c r="AB6" s="27">
+        <f t="shared" ref="AB6:AI6" si="2">AB4-AB5</f>
+        <v>800.29151999999999</v>
+      </c>
+      <c r="AC6" s="27">
+        <f t="shared" si="2"/>
+        <v>840.30609600000003</v>
+      </c>
+      <c r="AD6" s="27">
+        <f t="shared" si="2"/>
+        <v>882.32140080000011</v>
+      </c>
+      <c r="AE6" s="27">
+        <f t="shared" si="2"/>
+        <v>899.96782881600006</v>
+      </c>
+      <c r="AF6" s="27">
+        <f t="shared" si="2"/>
+        <v>917.96718539232006</v>
+      </c>
+      <c r="AG6" s="27">
+        <f t="shared" si="2"/>
+        <v>936.32652910016645</v>
+      </c>
+      <c r="AH6" s="27">
+        <f t="shared" si="2"/>
+        <v>955.05305968216976</v>
+      </c>
+      <c r="AI6" s="27">
+        <f t="shared" si="2"/>
+        <v>974.15412087581319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U7" s="18">
+      <c r="W7" s="18">
         <v>524.6</v>
       </c>
-      <c r="V7" s="18">
+      <c r="X7" s="18">
         <v>556.70000000000005</v>
       </c>
-      <c r="W7" s="18">
+      <c r="Y7" s="18">
         <v>576.79999999999995</v>
       </c>
-      <c r="X7" s="18">
+      <c r="Z7" s="18">
         <v>613.79999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="64">
+        <f>Z7*1.085</f>
+        <v>665.97299999999996</v>
+      </c>
+      <c r="AB7" s="65">
+        <f>AA7*1.06</f>
+        <v>705.93137999999999</v>
+      </c>
+      <c r="AC7" s="65">
+        <f t="shared" ref="AC7" si="3">AB7*1.06</f>
+        <v>748.28726280000001</v>
+      </c>
+      <c r="AD7" s="65">
+        <f>AC7*1.03</f>
+        <v>770.73588068399999</v>
+      </c>
+      <c r="AE7" s="65">
+        <f t="shared" ref="AE7:AI7" si="4">AD7*1.03</f>
+        <v>793.85795710451998</v>
+      </c>
+      <c r="AF7" s="65">
+        <f t="shared" si="4"/>
+        <v>817.67369581765558</v>
+      </c>
+      <c r="AG7" s="65">
+        <f t="shared" si="4"/>
+        <v>842.20390669218523</v>
+      </c>
+      <c r="AH7" s="65">
+        <f t="shared" si="4"/>
+        <v>867.47002389295085</v>
+      </c>
+      <c r="AI7" s="65">
+        <f t="shared" si="4"/>
+        <v>893.4941246097394</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
@@ -1915,80 +2146,224 @@
       <c r="L8" s="36"/>
       <c r="N8" s="36"/>
       <c r="P8" s="36"/>
-      <c r="U8" s="27">
-        <f>U6-U7</f>
-        <v>54.399999999999864</v>
-      </c>
-      <c r="V8" s="27">
-        <f>V6-V7</f>
-        <v>32.999999999999886</v>
-      </c>
       <c r="W8" s="27">
         <f>W6-W7</f>
-        <v>79.5</v>
+        <v>54.399999999999864</v>
       </c>
       <c r="X8" s="27">
         <f>X6-X7</f>
+        <v>32.999999999999886</v>
+      </c>
+      <c r="Y8" s="27">
+        <f>Y6-Y7</f>
+        <v>79.5</v>
+      </c>
+      <c r="Z8" s="27">
+        <f>Z6-Z7</f>
         <v>107.89999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA8" s="62">
+        <f>AA6-AA7</f>
+        <v>96.209400000000073</v>
+      </c>
+      <c r="AB8" s="27">
+        <f t="shared" ref="AB8:AI8" si="5">AB6-AB7</f>
+        <v>94.360140000000001</v>
+      </c>
+      <c r="AC8" s="27">
+        <f t="shared" si="5"/>
+        <v>92.018833200000017</v>
+      </c>
+      <c r="AD8" s="27">
+        <f t="shared" si="5"/>
+        <v>111.58552011600011</v>
+      </c>
+      <c r="AE8" s="27">
+        <f t="shared" si="5"/>
+        <v>106.10987171148008</v>
+      </c>
+      <c r="AF8" s="27">
+        <f t="shared" si="5"/>
+        <v>100.29348957466448</v>
+      </c>
+      <c r="AG8" s="27">
+        <f t="shared" si="5"/>
+        <v>94.122622407981225</v>
+      </c>
+      <c r="AH8" s="27">
+        <f t="shared" si="5"/>
+        <v>87.583035789218911</v>
+      </c>
+      <c r="AI8" s="27">
+        <f t="shared" si="5"/>
+        <v>80.65999626607379</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="18">
+      <c r="W9" s="18">
         <v>3.4</v>
       </c>
-      <c r="V9" s="18">
+      <c r="X9" s="18">
         <f>13.9-0.3</f>
         <v>13.6</v>
       </c>
-      <c r="W9" s="18">
+      <c r="Y9" s="18">
         <v>15</v>
       </c>
-      <c r="X9" s="18">
+      <c r="Z9" s="18">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA9" s="64">
+        <f>AVERAGE(X9:Z9)</f>
+        <v>13.300000000000002</v>
+      </c>
+      <c r="AB9" s="65">
+        <f>AVERAGE(X9:AA9)</f>
+        <v>13.300000000000002</v>
+      </c>
+      <c r="AC9" s="65">
+        <f t="shared" ref="AC9:AI9" si="6">AVERAGE(Y9:AB9)</f>
+        <v>13.225000000000001</v>
+      </c>
+      <c r="AD9" s="65">
+        <f t="shared" si="6"/>
+        <v>12.781250000000002</v>
+      </c>
+      <c r="AE9" s="65">
+        <f t="shared" si="6"/>
+        <v>13.151562500000001</v>
+      </c>
+      <c r="AF9" s="65">
+        <f t="shared" si="6"/>
+        <v>13.114453125000001</v>
+      </c>
+      <c r="AG9" s="65">
+        <f t="shared" si="6"/>
+        <v>13.068066406250001</v>
+      </c>
+      <c r="AH9" s="65">
+        <f t="shared" si="6"/>
+        <v>13.028833007812501</v>
+      </c>
+      <c r="AI9" s="65">
+        <f t="shared" si="6"/>
+        <v>13.090728759765627</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="18">
-        <f>U8-U9</f>
-        <v>50.999999999999865</v>
-      </c>
-      <c r="V10" s="18">
-        <f>V8-V9</f>
-        <v>19.399999999999885</v>
-      </c>
       <c r="W10" s="18">
         <f>W8-W9</f>
-        <v>64.5</v>
+        <v>50.999999999999865</v>
       </c>
       <c r="X10" s="18">
         <f>X8-X9</f>
+        <v>19.399999999999885</v>
+      </c>
+      <c r="Y10" s="18">
+        <f>Y8-Y9</f>
+        <v>64.5</v>
+      </c>
+      <c r="Z10" s="18">
+        <f>Z8-Z9</f>
         <v>96.59999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA10" s="64">
+        <f>AA8-AA9</f>
+        <v>82.909400000000076</v>
+      </c>
+      <c r="AB10" s="18">
+        <f t="shared" ref="AB10:AI10" si="7">AB8-AB9</f>
+        <v>81.060140000000004</v>
+      </c>
+      <c r="AC10" s="18">
+        <f t="shared" si="7"/>
+        <v>78.793833200000023</v>
+      </c>
+      <c r="AD10" s="18">
+        <f t="shared" si="7"/>
+        <v>98.804270116000112</v>
+      </c>
+      <c r="AE10" s="18">
+        <f t="shared" si="7"/>
+        <v>92.958309211480085</v>
+      </c>
+      <c r="AF10" s="18">
+        <f t="shared" si="7"/>
+        <v>87.17903644966448</v>
+      </c>
+      <c r="AG10" s="18">
+        <f t="shared" si="7"/>
+        <v>81.054556001731228</v>
+      </c>
+      <c r="AH10" s="18">
+        <f t="shared" si="7"/>
+        <v>74.554202781406417</v>
+      </c>
+      <c r="AI10" s="18">
+        <f t="shared" si="7"/>
+        <v>67.569267506308165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="18">
+      <c r="W11" s="18">
         <v>9.1</v>
       </c>
-      <c r="V11" s="18">
+      <c r="X11" s="18">
         <v>1.9</v>
       </c>
-      <c r="W11" s="18">
+      <c r="Y11" s="18">
         <v>11.3</v>
       </c>
-      <c r="X11" s="18">
+      <c r="Z11" s="18">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA11" s="64">
+        <f>AA10*AA22</f>
+        <v>16.581880000000016</v>
+      </c>
+      <c r="AB11" s="65">
+        <f t="shared" ref="AB11:AI11" si="8">AB10*AB22</f>
+        <v>16.212028</v>
+      </c>
+      <c r="AC11" s="65">
+        <f t="shared" si="8"/>
+        <v>15.758766640000005</v>
+      </c>
+      <c r="AD11" s="65">
+        <f t="shared" si="8"/>
+        <v>19.760854023200025</v>
+      </c>
+      <c r="AE11" s="65">
+        <f t="shared" si="8"/>
+        <v>18.591661842296016</v>
+      </c>
+      <c r="AF11" s="65">
+        <f t="shared" si="8"/>
+        <v>17.435807289932896</v>
+      </c>
+      <c r="AG11" s="65">
+        <f t="shared" si="8"/>
+        <v>16.210911200346246</v>
+      </c>
+      <c r="AH11" s="65">
+        <f t="shared" si="8"/>
+        <v>14.910840556281284</v>
+      </c>
+      <c r="AI11" s="65">
+        <f t="shared" si="8"/>
+        <v>13.513853501261634</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1999,62 +2374,170 @@
       <c r="L12" s="36"/>
       <c r="N12" s="36"/>
       <c r="P12" s="36"/>
-      <c r="U12" s="27">
-        <f>U10-U11</f>
-        <v>41.899999999999864</v>
-      </c>
-      <c r="V12" s="27">
-        <f>V10-V11</f>
-        <v>17.499999999999886</v>
-      </c>
       <c r="W12" s="27">
         <f>W10-W11</f>
-        <v>53.2</v>
+        <v>41.899999999999864</v>
       </c>
       <c r="X12" s="27">
         <f>X10-X11</f>
+        <v>17.499999999999886</v>
+      </c>
+      <c r="Y12" s="27">
+        <f>Y10-Y11</f>
+        <v>53.2</v>
+      </c>
+      <c r="Z12" s="27">
+        <f>Z10-Z11</f>
         <v>77.699999999999989</v>
       </c>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA12" s="62">
+        <f>AA10-AA11</f>
+        <v>66.327520000000064</v>
+      </c>
+      <c r="AB12" s="27">
+        <f t="shared" ref="AB12:AI12" si="9">AB10-AB11</f>
+        <v>64.848112</v>
+      </c>
+      <c r="AC12" s="27">
+        <f t="shared" si="9"/>
+        <v>63.035066560000018</v>
+      </c>
+      <c r="AD12" s="27">
+        <f t="shared" si="9"/>
+        <v>79.043416092800086</v>
+      </c>
+      <c r="AE12" s="27">
+        <f t="shared" si="9"/>
+        <v>74.366647369184065</v>
+      </c>
+      <c r="AF12" s="27">
+        <f t="shared" si="9"/>
+        <v>69.743229159731584</v>
+      </c>
+      <c r="AG12" s="27">
+        <f t="shared" si="9"/>
+        <v>64.843644801384983</v>
+      </c>
+      <c r="AH12" s="27">
+        <f t="shared" si="9"/>
+        <v>59.643362225125131</v>
+      </c>
+      <c r="AI12" s="27">
+        <f t="shared" si="9"/>
+        <v>54.055414005046529</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U13" s="28">
-        <f>U12/U14</f>
-        <v>0.21044701155198325</v>
-      </c>
-      <c r="V13" s="28">
-        <f>V12/V14</f>
-        <v>8.7895529884479587E-2</v>
-      </c>
       <c r="W13" s="28">
         <f>W12/W14</f>
-        <v>0.26720241084881974</v>
+        <v>0.21044701155198325</v>
       </c>
       <c r="X13" s="28">
         <f>X12/X14</f>
+        <v>8.7895529884479587E-2</v>
+      </c>
+      <c r="Y13" s="28">
+        <f>Y12/Y14</f>
+        <v>0.26720241084881974</v>
+      </c>
+      <c r="Z13" s="28">
+        <f>Z12/Z14</f>
         <v>0.37773456490034024</v>
       </c>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AA13" s="66">
+        <f>AA12/AA14</f>
+        <v>0.32244783665532362</v>
+      </c>
+      <c r="AB13" s="79">
+        <f>AB12/AB14</f>
+        <v>0.31525577053962084</v>
+      </c>
+      <c r="AC13" s="79">
+        <f t="shared" ref="AC13:AI13" si="10">AC12/AC14</f>
+        <v>0.30644174312105016</v>
+      </c>
+      <c r="AD13" s="79">
+        <f t="shared" si="10"/>
+        <v>0.38426551333398196</v>
+      </c>
+      <c r="AE13" s="79">
+        <f t="shared" si="10"/>
+        <v>0.36152964204756477</v>
+      </c>
+      <c r="AF13" s="79">
+        <f t="shared" si="10"/>
+        <v>0.33905313154949729</v>
+      </c>
+      <c r="AG13" s="79">
+        <f t="shared" si="10"/>
+        <v>0.31523405348266886</v>
+      </c>
+      <c r="AH13" s="79">
+        <f t="shared" si="10"/>
+        <v>0.2899531464517508</v>
+      </c>
+      <c r="AI13" s="79">
+        <f t="shared" si="10"/>
+        <v>0.26278762277611345</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="1">
-        <v>199.1</v>
-      </c>
-      <c r="V14" s="1">
-        <v>199.1</v>
-      </c>
       <c r="W14" s="1">
         <v>199.1</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="Z14" s="18">
         <v>205.7</v>
       </c>
-    </row>
-    <row r="16" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA14" s="64">
+        <f>Z14</f>
+        <v>205.7</v>
+      </c>
+      <c r="AB14" s="65">
+        <f>AA14</f>
+        <v>205.7</v>
+      </c>
+      <c r="AC14" s="65">
+        <f t="shared" ref="AC14:AI14" si="11">AB14</f>
+        <v>205.7</v>
+      </c>
+      <c r="AD14" s="65">
+        <f t="shared" si="11"/>
+        <v>205.7</v>
+      </c>
+      <c r="AE14" s="65">
+        <f t="shared" si="11"/>
+        <v>205.7</v>
+      </c>
+      <c r="AF14" s="65">
+        <f t="shared" si="11"/>
+        <v>205.7</v>
+      </c>
+      <c r="AG14" s="65">
+        <f t="shared" si="11"/>
+        <v>205.7</v>
+      </c>
+      <c r="AH14" s="65">
+        <f t="shared" si="11"/>
+        <v>205.7</v>
+      </c>
+      <c r="AI14" s="65">
+        <f t="shared" si="11"/>
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -2065,29 +2548,50 @@
       <c r="L16" s="36"/>
       <c r="N16" s="36"/>
       <c r="P16" s="36"/>
-      <c r="V16" s="29">
-        <f>V4/U4-1</f>
-        <v>1.4491480765852716E-2</v>
-      </c>
-      <c r="W16" s="29">
-        <f>W4/V4-1</f>
-        <v>0.11877759501341889</v>
-      </c>
       <c r="X16" s="29">
         <f>X4/W4-1</f>
+        <v>1.4491480765852716E-2</v>
+      </c>
+      <c r="Y16" s="29">
+        <f>Y4/X4-1</f>
+        <v>0.11877759501341889</v>
+      </c>
+      <c r="Z16" s="29">
+        <f>Z4/Y4-1</f>
         <v>5.9815832237096522E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA16" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="AB16" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AC16" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AD16" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="AE16" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="AF16" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="AG16" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="AH16" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="AI16" s="69">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="U17" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="V17" s="20" t="s">
         <v>78</v>
       </c>
@@ -2097,148 +2601,288 @@
       <c r="X17" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U19" s="30">
-        <f t="shared" ref="U19" si="0">U6/U4</f>
+      <c r="W19" s="30">
+        <f t="shared" ref="W19" si="12">W6/W4</f>
         <v>0.50851923414719824</v>
       </c>
-      <c r="V19" s="30">
-        <f t="shared" ref="V19:W19" si="1">V6/V4</f>
+      <c r="X19" s="30">
+        <f t="shared" ref="X19:Y19" si="13">X6/X4</f>
         <v>0.51051856982079469</v>
       </c>
-      <c r="W19" s="30">
-        <f t="shared" si="1"/>
+      <c r="Y19" s="30">
+        <f t="shared" si="13"/>
         <v>0.50785421341793702</v>
       </c>
-      <c r="X19" s="30">
-        <f>X6/X4</f>
+      <c r="Z19" s="30">
+        <f>Z6/Z4</f>
         <v>0.52694217289719625</v>
       </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA19" s="71">
+        <v>0.53</v>
+      </c>
+      <c r="AB19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AC19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AD19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AE19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AF19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AG19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AH19" s="74">
+        <v>0.53</v>
+      </c>
+      <c r="AI19" s="74">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="U20" s="30">
-        <f t="shared" ref="U20" si="2">U8/U4</f>
+      <c r="W20" s="30">
+        <f t="shared" ref="W20" si="14">W8/W4</f>
         <v>4.7777972949235789E-2</v>
       </c>
-      <c r="V20" s="30">
-        <f t="shared" ref="V20:W20" si="3">V8/V4</f>
+      <c r="X20" s="30">
+        <f t="shared" ref="X20:Y20" si="15">X8/X4</f>
         <v>2.8568955068825112E-2</v>
       </c>
-      <c r="W20" s="30">
-        <f t="shared" si="3"/>
+      <c r="Y20" s="30">
+        <f t="shared" si="15"/>
         <v>6.1518223322757873E-2</v>
       </c>
-      <c r="X20" s="30">
-        <f>X8/X4</f>
+      <c r="Z20" s="30">
+        <f>Z8/Z4</f>
         <v>7.878212616822429E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA20" s="71">
+        <f>AA8/AA4</f>
+        <v>6.6901285046729028E-2</v>
+      </c>
+      <c r="AB20" s="30">
+        <f t="shared" ref="AB20:AI20" si="16">AB8/AB4</f>
+        <v>6.2490821094793064E-2</v>
+      </c>
+      <c r="AC20" s="30">
+        <f t="shared" si="16"/>
+        <v>5.8038352724267293E-2</v>
+      </c>
+      <c r="AD20" s="30">
+        <f t="shared" si="16"/>
+        <v>6.7028098386662252E-2</v>
+      </c>
+      <c r="AE20" s="30">
+        <f t="shared" si="16"/>
+        <v>6.2489158174766767E-2</v>
+      </c>
+      <c r="AF20" s="30">
+        <f t="shared" si="16"/>
+        <v>5.7905718549029178E-2</v>
+      </c>
+      <c r="AG20" s="30">
+        <f t="shared" si="16"/>
+        <v>5.3277343240686337E-2</v>
+      </c>
+      <c r="AH20" s="30">
+        <f t="shared" si="16"/>
+        <v>4.8603591703830273E-2</v>
+      </c>
+      <c r="AI20" s="30">
+        <f t="shared" si="16"/>
+        <v>4.3884019073475673E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U21" s="30">
-        <f t="shared" ref="U21" si="4">U12/U4</f>
+      <c r="W21" s="30">
+        <f t="shared" ref="W21" si="17">W12/W4</f>
         <v>3.6799578429650329E-2</v>
       </c>
-      <c r="V21" s="30">
-        <f t="shared" ref="V21:W21" si="5">V12/V4</f>
+      <c r="X21" s="30">
+        <f t="shared" ref="X21:Y21" si="18">X12/X4</f>
         <v>1.5150203445589028E-2</v>
       </c>
-      <c r="W21" s="30">
-        <f t="shared" si="5"/>
+      <c r="Y21" s="30">
+        <f t="shared" si="18"/>
         <v>4.1166911707807785E-2</v>
       </c>
-      <c r="X21" s="30">
-        <f>X12/X4</f>
+      <c r="Z21" s="30">
+        <f>Z12/Z4</f>
         <v>5.6731892523364483E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA21" s="71">
+        <f>AA12/AA4</f>
+        <v>4.6122274143302229E-2</v>
+      </c>
+      <c r="AB21" s="30">
+        <f t="shared" ref="AB21:AI21" si="19">AB12/AB4</f>
+        <v>4.294622459575731E-2</v>
+      </c>
+      <c r="AC21" s="30">
+        <f t="shared" si="19"/>
+        <v>3.9757637646365487E-2</v>
+      </c>
+      <c r="AD21" s="30">
+        <f t="shared" si="19"/>
+        <v>4.748044249091056E-2</v>
+      </c>
+      <c r="AE21" s="30">
+        <f t="shared" si="19"/>
+        <v>4.3795257834406305E-2</v>
+      </c>
+      <c r="AF21" s="30">
+        <f t="shared" si="19"/>
+        <v>4.0267138131806025E-2</v>
+      </c>
+      <c r="AG21" s="30">
+        <f t="shared" si="19"/>
+        <v>3.6704216613152818E-2</v>
+      </c>
+      <c r="AH21" s="30">
+        <f t="shared" si="19"/>
+        <v>3.3098665732599272E-2</v>
+      </c>
+      <c r="AI21" s="30">
+        <f t="shared" si="19"/>
+        <v>2.9409483375092072E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U22" s="30">
-        <f t="shared" ref="U22" si="6">U11/U10</f>
+      <c r="W22" s="30">
+        <f t="shared" ref="W22" si="20">W11/W10</f>
         <v>0.17843137254902008</v>
       </c>
-      <c r="V22" s="30">
-        <f t="shared" ref="V22:W22" si="7">V11/V10</f>
+      <c r="X22" s="30">
+        <f t="shared" ref="X22:Y22" si="21">X11/X10</f>
         <v>9.7938144329897489E-2</v>
       </c>
-      <c r="W22" s="30">
-        <f t="shared" si="7"/>
+      <c r="Y22" s="30">
+        <f t="shared" si="21"/>
         <v>0.17519379844961241</v>
       </c>
-      <c r="X22" s="30">
-        <f>X11/X10</f>
+      <c r="Z22" s="30">
+        <f>Z11/Z10</f>
         <v>0.19565217391304351</v>
       </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA22" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="AB22" s="74">
+        <f>AA22</f>
+        <v>0.2</v>
+      </c>
+      <c r="AC22" s="74">
+        <f t="shared" ref="AC22:AI22" si="22">AB22</f>
+        <v>0.2</v>
+      </c>
+      <c r="AD22" s="74">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE22" s="74">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF22" s="74">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG22" s="74">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH22" s="74">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI22" s="74">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B26" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U27" s="18">
+      <c r="W27" s="18">
         <v>387.4</v>
       </c>
-      <c r="V27" s="18">
+      <c r="X27" s="18">
         <v>395.7</v>
       </c>
-      <c r="W27" s="18">
+      <c r="Y27" s="18">
         <v>398.3</v>
       </c>
-      <c r="X27" s="18">
+      <c r="Z27" s="18">
         <v>442.4</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U28" s="18">
+      <c r="W28" s="18">
         <v>97.3</v>
       </c>
-      <c r="V28" s="18">
+      <c r="X28" s="18">
         <v>83.1</v>
       </c>
-      <c r="W28" s="18">
+      <c r="Y28" s="18">
         <v>81.3</v>
       </c>
-      <c r="X28" s="18">
+      <c r="Z28" s="18">
         <v>101.7</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="U29" s="18">
+      <c r="W29" s="18">
         <v>0</v>
       </c>
-      <c r="V29" s="18">
+      <c r="X29" s="18">
         <v>349.9</v>
       </c>
-      <c r="W29" s="18">
+      <c r="Y29" s="18">
         <v>282.8</v>
       </c>
-      <c r="X29" s="18">
+      <c r="Z29" s="18">
         <v>350.2</v>
       </c>
     </row>
-    <row r="30" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
@@ -2249,58 +2893,67 @@
       <c r="L30" s="36"/>
       <c r="N30" s="36"/>
       <c r="P30" s="36"/>
-      <c r="U30" s="27">
+      <c r="W30" s="27">
         <v>0</v>
-      </c>
-      <c r="V30" s="27">
-        <v>0</v>
-      </c>
-      <c r="W30" s="27">
-        <v>0.1</v>
       </c>
       <c r="X30" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="Z30" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="73"/>
+      <c r="AC30" s="73"/>
+      <c r="AD30" s="73"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="73"/>
+      <c r="AI30" s="73"/>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U31" s="18">
+      <c r="W31" s="18">
         <v>0</v>
       </c>
-      <c r="V31" s="18">
+      <c r="X31" s="18">
         <v>7.3</v>
       </c>
-      <c r="W31" s="18">
+      <c r="Y31" s="18">
         <v>12.3</v>
       </c>
-      <c r="X31" s="18">
+      <c r="Z31" s="18">
         <v>14.7</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U32" s="18">
-        <f t="shared" ref="U32:W32" si="8">SUM(U27:U31)</f>
+      <c r="W32" s="18">
+        <f t="shared" ref="W32:Y32" si="23">SUM(W27:W31)</f>
         <v>484.7</v>
       </c>
-      <c r="V32" s="18">
-        <f t="shared" si="8"/>
+      <c r="X32" s="18">
+        <f t="shared" si="23"/>
         <v>835.99999999999989</v>
       </c>
-      <c r="W32" s="18">
-        <f t="shared" si="8"/>
+      <c r="Y32" s="18">
+        <f t="shared" si="23"/>
         <v>774.80000000000007</v>
       </c>
-      <c r="X32" s="18">
-        <f>SUM(X27:X31)</f>
+      <c r="Z32" s="18">
+        <f>SUM(Z27:Z31)</f>
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>86</v>
       </c>
@@ -2311,54 +2964,63 @@
       <c r="L33" s="36"/>
       <c r="N33" s="36"/>
       <c r="P33" s="36"/>
-      <c r="U33" s="27">
+      <c r="W33" s="27">
         <v>173.7</v>
       </c>
-      <c r="V33" s="27">
+      <c r="X33" s="27">
         <v>173</v>
       </c>
-      <c r="W33" s="27">
+      <c r="Y33" s="27">
         <v>143.9</v>
       </c>
-      <c r="X33" s="27">
+      <c r="Z33" s="27">
         <v>222.1</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="73"/>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="18">
+      <c r="W34" s="18">
         <v>59.1</v>
       </c>
-      <c r="V34" s="18">
+      <c r="X34" s="18">
         <v>53.5</v>
       </c>
-      <c r="W34" s="18">
+      <c r="Y34" s="18">
         <v>74.099999999999994</v>
       </c>
-      <c r="X34" s="18">
+      <c r="Z34" s="18">
         <v>92.6</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U35" s="18">
+      <c r="W35" s="18">
         <v>0</v>
-      </c>
-      <c r="V35" s="18">
-        <v>0</v>
-      </c>
-      <c r="W35" s="18">
-        <v>6</v>
       </c>
       <c r="X35" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y35" s="18">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>83</v>
       </c>
@@ -2369,37 +3031,46 @@
       <c r="L36" s="36"/>
       <c r="N36" s="36"/>
       <c r="P36" s="36"/>
-      <c r="U36" s="27">
+      <c r="W36" s="27">
         <v>3.2</v>
       </c>
-      <c r="V36" s="27">
+      <c r="X36" s="27">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W36" s="27">
+      <c r="Y36" s="27">
         <v>0.5</v>
       </c>
-      <c r="X36" s="27">
+      <c r="Z36" s="27">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="73"/>
+      <c r="AC36" s="73"/>
+      <c r="AD36" s="73"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U37" s="18">
+      <c r="W37" s="18">
         <v>0</v>
       </c>
-      <c r="V37" s="18">
+      <c r="X37" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="W37" s="18">
+      <c r="Y37" s="18">
         <v>3.1</v>
       </c>
-      <c r="X37" s="18">
+      <c r="Z37" s="18">
         <v>3.9</v>
       </c>
     </row>
-    <row r="38" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
@@ -2410,44 +3081,53 @@
       <c r="L38" s="36"/>
       <c r="N38" s="36"/>
       <c r="P38" s="36"/>
-      <c r="U38" s="27">
+      <c r="W38" s="27">
         <v>9.8000000000000007</v>
       </c>
-      <c r="V38" s="27">
+      <c r="X38" s="27">
         <v>115.5</v>
       </c>
-      <c r="W38" s="27">
+      <c r="Y38" s="27">
         <v>67.2</v>
       </c>
-      <c r="X38" s="27">
+      <c r="Z38" s="27">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="73"/>
+      <c r="AC38" s="73"/>
+      <c r="AD38" s="73"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="18">
-        <f t="shared" ref="U39:W39" si="9">SUM(U32:U38)</f>
+      <c r="W39" s="18">
+        <f t="shared" ref="W39:Y39" si="24">SUM(W32:W38)</f>
         <v>730.5</v>
       </c>
-      <c r="V39" s="18">
-        <f t="shared" si="9"/>
+      <c r="X39" s="18">
+        <f t="shared" si="24"/>
         <v>1194.9000000000001</v>
       </c>
-      <c r="W39" s="18">
-        <f t="shared" si="9"/>
+      <c r="Y39" s="18">
+        <f t="shared" si="24"/>
         <v>1069.6000000000001</v>
       </c>
-      <c r="X39" s="18">
-        <f>SUM(X32:X38)</f>
+      <c r="Z39" s="18">
+        <f>SUM(Z32:Z38)</f>
         <v>1278.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="W40" s="18"/>
-    </row>
-    <row r="41" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Y40" s="18"/>
+    </row>
+    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
@@ -2458,37 +3138,46 @@
       <c r="L41" s="36"/>
       <c r="N41" s="36"/>
       <c r="P41" s="36"/>
-      <c r="U41" s="2">
+      <c r="W41" s="2">
         <v>18.5</v>
-      </c>
-      <c r="V41" s="27">
-        <v>0.2</v>
-      </c>
-      <c r="W41" s="27">
-        <v>0.2</v>
       </c>
       <c r="X41" s="27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="Z41" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="73"/>
+      <c r="AC41" s="73"/>
+      <c r="AD41" s="73"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U42" s="1">
+      <c r="W42" s="1">
         <v>0</v>
       </c>
-      <c r="V42" s="18">
+      <c r="X42" s="18">
         <v>83.2</v>
       </c>
-      <c r="W42" s="18">
+      <c r="Y42" s="18">
         <v>63.4</v>
       </c>
-      <c r="X42" s="18">
+      <c r="Z42" s="18">
         <v>74.5</v>
       </c>
     </row>
-    <row r="43" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
@@ -2499,92 +3188,101 @@
       <c r="L43" s="36"/>
       <c r="N43" s="36"/>
       <c r="P43" s="36"/>
-      <c r="U43" s="2">
+      <c r="W43" s="2">
         <v>1.4</v>
       </c>
-      <c r="V43" s="27">
+      <c r="X43" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="W43" s="27">
+      <c r="Y43" s="27">
         <v>5.9</v>
       </c>
-      <c r="X43" s="27">
+      <c r="Z43" s="27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="73"/>
+      <c r="AC43" s="73"/>
+      <c r="AD43" s="73"/>
+      <c r="AE43" s="73"/>
+      <c r="AF43" s="73"/>
+      <c r="AG43" s="73"/>
+      <c r="AH43" s="73"/>
+      <c r="AI43" s="73"/>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U44" s="1">
+      <c r="W44" s="1">
         <v>176.4</v>
       </c>
-      <c r="V44" s="18">
+      <c r="X44" s="18">
         <v>217</v>
       </c>
-      <c r="W44" s="18">
+      <c r="Y44" s="18">
         <v>258.2</v>
       </c>
-      <c r="X44" s="18">
+      <c r="Z44" s="18">
         <v>299.60000000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U45" s="1">
+      <c r="W45" s="1">
         <v>3.3</v>
       </c>
-      <c r="V45" s="18">
+      <c r="X45" s="18">
         <v>0</v>
       </c>
-      <c r="W45" s="18">
+      <c r="Y45" s="18">
         <v>0</v>
       </c>
-      <c r="X45" s="18">
+      <c r="Z45" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U46" s="1">
+      <c r="W46" s="1">
         <v>15.1</v>
       </c>
-      <c r="V46" s="18">
+      <c r="X46" s="18">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W46" s="18">
+      <c r="Y46" s="18">
         <v>24.5</v>
       </c>
-      <c r="X46" s="18">
+      <c r="Z46" s="18">
         <v>20.5</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U47" s="18">
-        <f>SUM(U41:U46)</f>
-        <v>214.70000000000002</v>
-      </c>
-      <c r="V47" s="18">
-        <f>SUM(V41:V46)</f>
-        <v>311.2</v>
-      </c>
       <c r="W47" s="18">
         <f>SUM(W41:W46)</f>
-        <v>352.2</v>
+        <v>214.70000000000002</v>
       </c>
       <c r="X47" s="18">
         <f>SUM(X41:X46)</f>
+        <v>311.2</v>
+      </c>
+      <c r="Y47" s="18">
+        <f>SUM(Y41:Y46)</f>
+        <v>352.2</v>
+      </c>
+      <c r="Z47" s="18">
+        <f>SUM(Z41:Z46)</f>
         <v>399.3</v>
       </c>
     </row>
-    <row r="48" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
@@ -2595,37 +3293,46 @@
       <c r="L48" s="36"/>
       <c r="N48" s="36"/>
       <c r="P48" s="36"/>
-      <c r="U48" s="2">
+      <c r="W48" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="V48" s="27">
+      <c r="X48" s="27">
         <v>179.1</v>
       </c>
-      <c r="W48" s="27">
+      <c r="Y48" s="27">
         <v>0</v>
       </c>
-      <c r="X48" s="27">
+      <c r="Z48" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="73"/>
+      <c r="AC48" s="73"/>
+      <c r="AD48" s="73"/>
+      <c r="AE48" s="73"/>
+      <c r="AF48" s="73"/>
+      <c r="AG48" s="73"/>
+      <c r="AH48" s="73"/>
+      <c r="AI48" s="73"/>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="U49" s="1">
+      <c r="W49" s="1">
         <v>0</v>
       </c>
-      <c r="V49" s="18">
+      <c r="X49" s="18">
         <v>332.8</v>
       </c>
-      <c r="W49" s="18">
+      <c r="Y49" s="18">
         <v>280.89999999999998</v>
       </c>
-      <c r="X49" s="18">
+      <c r="Z49" s="18">
         <v>316.5</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
@@ -2636,92 +3343,101 @@
       <c r="L50" s="36"/>
       <c r="N50" s="36"/>
       <c r="P50" s="36"/>
-      <c r="U50" s="2">
+      <c r="W50" s="2">
         <v>0</v>
-      </c>
-      <c r="V50" s="27">
-        <v>0</v>
-      </c>
-      <c r="W50" s="27">
-        <v>0.4</v>
       </c>
       <c r="X50" s="27">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="Z50" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="72"/>
+      <c r="AB50" s="73"/>
+      <c r="AC50" s="73"/>
+      <c r="AD50" s="73"/>
+      <c r="AE50" s="73"/>
+      <c r="AF50" s="73"/>
+      <c r="AG50" s="73"/>
+      <c r="AH50" s="73"/>
+      <c r="AI50" s="73"/>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U51" s="1">
+      <c r="W51" s="1">
         <v>28.1</v>
       </c>
-      <c r="V51" s="18">
+      <c r="X51" s="18">
         <v>1.9</v>
       </c>
-      <c r="W51" s="18">
+      <c r="Y51" s="18">
         <v>3.3</v>
       </c>
-      <c r="X51" s="18">
+      <c r="Z51" s="18">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="U52" s="1">
+      <c r="W52" s="1">
         <v>0.1</v>
-      </c>
-      <c r="V52" s="18">
-        <v>0</v>
-      </c>
-      <c r="W52" s="18">
-        <v>0</v>
       </c>
       <c r="X52" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U53" s="1">
+      <c r="W53" s="1">
         <v>5.2</v>
       </c>
-      <c r="V53" s="18">
+      <c r="X53" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W53" s="18">
+      <c r="Y53" s="18">
         <v>15</v>
       </c>
-      <c r="X53" s="18">
+      <c r="Z53" s="18">
         <v>6.4</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U54" s="18">
-        <f>SUM(U47:U53)</f>
-        <v>321.20000000000005</v>
-      </c>
-      <c r="V54" s="18">
-        <f>SUM(V47:V53)</f>
-        <v>829.09999999999991</v>
-      </c>
       <c r="W54" s="18">
         <f>SUM(W47:W53)</f>
-        <v>651.79999999999984</v>
+        <v>321.20000000000005</v>
       </c>
       <c r="X54" s="18">
         <f>SUM(X47:X53)</f>
+        <v>829.09999999999991</v>
+      </c>
+      <c r="Y54" s="18">
+        <f>SUM(Y47:Y53)</f>
+        <v>651.79999999999984</v>
+      </c>
+      <c r="Z54" s="18">
+        <f>SUM(Z47:Z53)</f>
         <v>727.09999999999991</v>
       </c>
     </row>
-    <row r="56" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="18" t="s">
         <v>98</v>
       </c>
@@ -2732,20 +3448,29 @@
       <c r="L56" s="38"/>
       <c r="N56" s="38"/>
       <c r="P56" s="38"/>
-      <c r="U56" s="18">
+      <c r="W56" s="18">
         <v>409.3</v>
       </c>
-      <c r="V56" s="18">
+      <c r="X56" s="18">
         <v>365.8</v>
       </c>
-      <c r="W56" s="18">
+      <c r="Y56" s="18">
         <v>417.8</v>
       </c>
-      <c r="X56" s="18">
+      <c r="Z56" s="18">
         <v>551</v>
       </c>
-    </row>
-    <row r="57" spans="2:24" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA56" s="64"/>
+      <c r="AB56" s="65"/>
+      <c r="AC56" s="65"/>
+      <c r="AD56" s="65"/>
+      <c r="AE56" s="65"/>
+      <c r="AF56" s="65"/>
+      <c r="AG56" s="65"/>
+      <c r="AH56" s="65"/>
+      <c r="AI56" s="65"/>
+    </row>
+    <row r="57" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
         <v>99</v>
       </c>
@@ -2756,129 +3481,138 @@
       <c r="L57" s="38"/>
       <c r="N57" s="38"/>
       <c r="P57" s="38"/>
-      <c r="U57" s="18">
-        <f>U56+U54</f>
-        <v>730.5</v>
-      </c>
-      <c r="V57" s="18">
-        <f>V56+V54</f>
-        <v>1194.8999999999999</v>
-      </c>
       <c r="W57" s="18">
         <f>W56+W54</f>
-        <v>1069.5999999999999</v>
+        <v>730.5</v>
       </c>
       <c r="X57" s="18">
         <f>X56+X54</f>
+        <v>1194.8999999999999</v>
+      </c>
+      <c r="Y57" s="18">
+        <f>Y56+Y54</f>
+        <v>1069.5999999999999</v>
+      </c>
+      <c r="Z57" s="18">
+        <f>Z56+Z54</f>
         <v>1278.0999999999999</v>
       </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA57" s="64"/>
+      <c r="AB57" s="65"/>
+      <c r="AC57" s="65"/>
+      <c r="AD57" s="65"/>
+      <c r="AE57" s="65"/>
+      <c r="AF57" s="65"/>
+      <c r="AG57" s="65"/>
+      <c r="AH57" s="65"/>
+      <c r="AI57" s="65"/>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="U59" s="18">
-        <f t="shared" ref="U59" si="10">U39-U54</f>
+      <c r="W59" s="18">
+        <f t="shared" ref="W59" si="25">W39-W54</f>
         <v>409.29999999999995</v>
       </c>
-      <c r="V59" s="18">
-        <f t="shared" ref="V59:W59" si="11">V39-V54</f>
+      <c r="X59" s="18">
+        <f t="shared" ref="X59:Y59" si="26">X39-X54</f>
         <v>365.80000000000018</v>
       </c>
-      <c r="W59" s="18">
-        <f t="shared" si="11"/>
+      <c r="Y59" s="18">
+        <f t="shared" si="26"/>
         <v>417.8000000000003</v>
       </c>
-      <c r="X59" s="18">
-        <f>X39-X54</f>
+      <c r="Z59" s="18">
+        <f>Z39-Z54</f>
         <v>551</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U60" s="1">
-        <f t="shared" ref="U60" si="12">U59/U14</f>
+      <c r="W60" s="1">
+        <f t="shared" ref="W60" si="27">W59/W14</f>
         <v>2.0557508789552985</v>
       </c>
-      <c r="V60" s="1">
-        <f t="shared" ref="V60:W60" si="13">V59/V14</f>
+      <c r="X60" s="1">
+        <f t="shared" ref="X60:Y60" si="28">X59/X14</f>
         <v>1.8372677046710206</v>
       </c>
-      <c r="W60" s="1">
-        <f t="shared" si="13"/>
+      <c r="Y60" s="1">
+        <f t="shared" si="28"/>
         <v>2.0984429934706195</v>
       </c>
-      <c r="X60" s="1">
-        <f>X59/X14</f>
+      <c r="Z60" s="1">
+        <f>Z59/Z14</f>
         <v>2.6786582401555665</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U62" s="18">
-        <f t="shared" ref="U62" si="14">U30+U36+U38</f>
+      <c r="W62" s="18">
+        <f t="shared" ref="W62" si="29">W30+W36+W38</f>
         <v>13</v>
       </c>
-      <c r="V62" s="18">
-        <f t="shared" ref="V62:W62" si="15">V30+V36+V38</f>
+      <c r="X62" s="18">
+        <f t="shared" ref="X62:Y62" si="30">X30+X36+X38</f>
         <v>124.2</v>
       </c>
-      <c r="W62" s="18">
-        <f t="shared" si="15"/>
+      <c r="Y62" s="18">
+        <f t="shared" si="30"/>
         <v>67.8</v>
       </c>
-      <c r="X62" s="18">
-        <f>X30+X36+X38</f>
+      <c r="Z62" s="18">
+        <f>Z30+Z36+Z38</f>
         <v>50.5</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U63" s="18">
-        <f t="shared" ref="U63" si="16">U41+U43+U48+U50</f>
+      <c r="W63" s="18">
+        <f t="shared" ref="W63" si="31">W41+W43+W48+W50</f>
         <v>93</v>
       </c>
-      <c r="V63" s="18">
-        <f t="shared" ref="V63:W63" si="17">V41+V43+V48+V50</f>
+      <c r="X63" s="18">
+        <f t="shared" ref="X63:Y63" si="32">X41+X43+X48+X50</f>
         <v>180.4</v>
       </c>
-      <c r="W63" s="18">
-        <f t="shared" si="17"/>
+      <c r="Y63" s="18">
+        <f t="shared" si="32"/>
         <v>6.5000000000000009</v>
       </c>
-      <c r="X63" s="18">
-        <f>X41+X43+X48+X50</f>
+      <c r="Z63" s="18">
+        <f>Z41+Z43+Z48+Z50</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U64" s="18">
-        <f t="shared" ref="U64" si="18">U62-U63</f>
+      <c r="W64" s="18">
+        <f t="shared" ref="W64" si="33">W62-W63</f>
         <v>-80</v>
       </c>
-      <c r="V64" s="18">
-        <f t="shared" ref="V64:W64" si="19">V62-V63</f>
+      <c r="X64" s="18">
+        <f t="shared" ref="X64:Y64" si="34">X62-X63</f>
         <v>-56.2</v>
       </c>
-      <c r="W64" s="18">
-        <f t="shared" si="19"/>
+      <c r="Y64" s="18">
+        <f t="shared" si="34"/>
         <v>61.3</v>
       </c>
-      <c r="X64" s="18">
-        <f>X62-X63</f>
+      <c r="Z64" s="18">
+        <f>Z62-Z63</f>
         <v>49.8</v>
       </c>
     </row>
-    <row r="66" spans="2:24" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="30" t="s">
         <v>102</v>
       </c>
@@ -2889,20 +3623,29 @@
       <c r="L66" s="42"/>
       <c r="N66" s="42"/>
       <c r="P66" s="42"/>
-      <c r="V66" s="30">
-        <f>V33/U33-1</f>
-        <v>-4.029936672423684E-3</v>
-      </c>
-      <c r="W66" s="30">
-        <f>W33/V33-1</f>
-        <v>-0.16820809248554913</v>
-      </c>
       <c r="X66" s="30">
         <f>X33/W33-1</f>
+        <v>-4.029936672423684E-3</v>
+      </c>
+      <c r="Y66" s="30">
+        <f>Y33/X33-1</f>
+        <v>-0.16820809248554913</v>
+      </c>
+      <c r="Z66" s="30">
+        <f>Z33/Y33-1</f>
         <v>0.54343293954134797</v>
       </c>
-    </row>
-    <row r="68" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA66" s="71"/>
+      <c r="AB66" s="74"/>
+      <c r="AC66" s="74"/>
+      <c r="AD66" s="74"/>
+      <c r="AE66" s="74"/>
+      <c r="AF66" s="74"/>
+      <c r="AG66" s="74"/>
+      <c r="AH66" s="74"/>
+      <c r="AI66" s="74"/>
+    </row>
+    <row r="68" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="40" t="s">
         <v>103</v>
       </c>
@@ -2913,83 +3656,92 @@
       <c r="L68" s="41"/>
       <c r="N68" s="41"/>
       <c r="P68" s="41"/>
-      <c r="U68" s="40">
+      <c r="W68" s="40">
         <v>1.7</v>
       </c>
-      <c r="V68" s="40">
+      <c r="X68" s="40">
         <v>0.60350000000000004</v>
       </c>
-      <c r="W68" s="40">
+      <c r="Y68" s="40">
         <v>3.5316000000000001</v>
       </c>
-      <c r="X68" s="40">
+      <c r="Z68" s="40">
         <v>2.4632000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA68" s="75"/>
+      <c r="AB68" s="76"/>
+      <c r="AC68" s="76"/>
+      <c r="AD68" s="76"/>
+      <c r="AE68" s="76"/>
+      <c r="AF68" s="76"/>
+      <c r="AG68" s="76"/>
+      <c r="AH68" s="76"/>
+      <c r="AI68" s="76"/>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U69" s="18">
-        <f t="shared" ref="U69:V69" si="20">U68*U14</f>
+      <c r="W69" s="18">
+        <f t="shared" ref="W69:X69" si="35">W68*W14</f>
         <v>338.46999999999997</v>
       </c>
-      <c r="V69" s="18">
-        <f t="shared" si="20"/>
+      <c r="X69" s="18">
+        <f t="shared" si="35"/>
         <v>120.15685000000001</v>
       </c>
-      <c r="W69" s="18">
-        <f>W68*W14</f>
+      <c r="Y69" s="18">
+        <f>Y68*Y14</f>
         <v>703.14156000000003</v>
       </c>
-      <c r="X69" s="18">
-        <f>X68*X14</f>
+      <c r="Z69" s="18">
+        <f>Z68*Z14</f>
         <v>506.68023999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U70" s="18">
-        <f>U69-U64</f>
-        <v>418.46999999999997</v>
-      </c>
-      <c r="V70" s="18">
-        <f>V69-V64</f>
-        <v>176.35685000000001</v>
-      </c>
       <c r="W70" s="18">
         <f>W69-W64</f>
-        <v>641.84156000000007</v>
+        <v>418.46999999999997</v>
       </c>
       <c r="X70" s="18">
         <f>X69-X64</f>
+        <v>176.35685000000001</v>
+      </c>
+      <c r="Y70" s="18">
+        <f>Y69-Y64</f>
+        <v>641.84156000000007</v>
+      </c>
+      <c r="Z70" s="18">
+        <f>Z69-Z64</f>
         <v>456.88023999999996</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U72" s="43">
-        <f t="shared" ref="U72:W72" si="21">U68/U60</f>
+      <c r="W72" s="43">
+        <f t="shared" ref="W72:Y72" si="36">W68/W60</f>
         <v>0.82694844857073058</v>
       </c>
-      <c r="V72" s="43">
-        <f t="shared" si="21"/>
+      <c r="X72" s="43">
+        <f t="shared" si="36"/>
         <v>0.32847689994532514</v>
       </c>
-      <c r="W72" s="43">
-        <f t="shared" si="21"/>
+      <c r="Y72" s="43">
+        <f t="shared" si="36"/>
         <v>1.682962087123024</v>
       </c>
-      <c r="X72" s="43">
-        <f>X68/X60</f>
+      <c r="Z72" s="43">
+        <f>Z68/Z60</f>
         <v>0.91956486388384751</v>
       </c>
     </row>
-    <row r="73" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="43" t="s">
         <v>22</v>
       </c>
@@ -3000,24 +3752,33 @@
       <c r="L73" s="44"/>
       <c r="N73" s="44"/>
       <c r="P73" s="44"/>
-      <c r="U73" s="43">
-        <f t="shared" ref="U73:W73" si="22">U69/U4</f>
+      <c r="W73" s="43">
+        <f t="shared" ref="W73:Y73" si="37">W69/W4</f>
         <v>0.29726857544352714</v>
       </c>
-      <c r="V73" s="43">
-        <f t="shared" si="22"/>
+      <c r="X73" s="43">
+        <f t="shared" si="37"/>
         <v>0.10402289845035063</v>
       </c>
-      <c r="W73" s="43">
-        <f t="shared" si="22"/>
+      <c r="Y73" s="43">
+        <f t="shared" si="37"/>
         <v>0.54410087440996679</v>
       </c>
-      <c r="X73" s="43">
-        <f>X69/X4</f>
+      <c r="Z73" s="43">
+        <f>Z69/Z4</f>
         <v>0.36994760514018693</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA73" s="77"/>
+      <c r="AB73" s="78"/>
+      <c r="AC73" s="78"/>
+      <c r="AD73" s="78"/>
+      <c r="AE73" s="78"/>
+      <c r="AF73" s="78"/>
+      <c r="AG73" s="78"/>
+      <c r="AH73" s="78"/>
+      <c r="AI73" s="78"/>
+    </row>
+    <row r="74" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="43" t="s">
         <v>25</v>
       </c>
@@ -3028,24 +3789,33 @@
       <c r="L74" s="44"/>
       <c r="N74" s="44"/>
       <c r="P74" s="44"/>
-      <c r="U74" s="43">
-        <f t="shared" ref="U74:W74" si="23">U70/U4</f>
+      <c r="W74" s="43">
+        <f t="shared" ref="W74:Y74" si="38">W70/W4</f>
         <v>0.36753030036887407</v>
       </c>
-      <c r="V74" s="43">
-        <f t="shared" si="23"/>
+      <c r="X74" s="43">
+        <f t="shared" si="38"/>
         <v>0.15267669465847114</v>
       </c>
-      <c r="W74" s="43">
-        <f t="shared" si="23"/>
+      <c r="Y74" s="43">
+        <f t="shared" si="38"/>
         <v>0.49666606825040632</v>
       </c>
-      <c r="X74" s="43">
-        <f>X70/X4</f>
+      <c r="Z74" s="43">
+        <f>Z70/Z4</f>
         <v>0.33358662383177567</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA74" s="77"/>
+      <c r="AB74" s="78"/>
+      <c r="AC74" s="78"/>
+      <c r="AD74" s="78"/>
+      <c r="AE74" s="78"/>
+      <c r="AF74" s="78"/>
+      <c r="AG74" s="78"/>
+      <c r="AH74" s="78"/>
+      <c r="AI74" s="78"/>
+    </row>
+    <row r="75" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="43" t="s">
         <v>23</v>
       </c>
@@ -3056,24 +3826,33 @@
       <c r="L75" s="44"/>
       <c r="N75" s="44"/>
       <c r="P75" s="44"/>
-      <c r="U75" s="43">
-        <f t="shared" ref="U75:W75" si="24">U68/U13</f>
+      <c r="W75" s="43">
+        <f t="shared" ref="W75:Y75" si="39">W68/W13</f>
         <v>8.0780429594272327</v>
       </c>
-      <c r="V75" s="43">
-        <f t="shared" si="24"/>
+      <c r="X75" s="43">
+        <f t="shared" si="39"/>
         <v>6.8661057142857596</v>
       </c>
-      <c r="W75" s="43">
-        <f t="shared" si="24"/>
+      <c r="Y75" s="43">
+        <f t="shared" si="39"/>
         <v>13.216946616541351</v>
       </c>
-      <c r="X75" s="43">
-        <f>X68/X13</f>
+      <c r="Z75" s="43">
+        <f>Z68/Z13</f>
         <v>6.520981209781211</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA75" s="77"/>
+      <c r="AB75" s="78"/>
+      <c r="AC75" s="78"/>
+      <c r="AD75" s="78"/>
+      <c r="AE75" s="78"/>
+      <c r="AF75" s="78"/>
+      <c r="AG75" s="78"/>
+      <c r="AH75" s="78"/>
+      <c r="AI75" s="78"/>
+    </row>
+    <row r="76" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="43" t="s">
         <v>24</v>
       </c>
@@ -3084,24 +3863,33 @@
       <c r="L76" s="44"/>
       <c r="N76" s="44"/>
       <c r="P76" s="44"/>
-      <c r="U76" s="43">
-        <f t="shared" ref="U76:W76" si="25">U70/U12</f>
+      <c r="W76" s="43">
+        <f t="shared" ref="W76:Y76" si="40">W70/W12</f>
         <v>9.9873508353222267</v>
       </c>
-      <c r="V76" s="43">
-        <f t="shared" si="25"/>
+      <c r="X76" s="43">
+        <f t="shared" si="40"/>
         <v>10.077534285714352</v>
       </c>
-      <c r="W76" s="43">
-        <f t="shared" si="25"/>
+      <c r="Y76" s="43">
+        <f t="shared" si="40"/>
         <v>12.064690977443609</v>
       </c>
-      <c r="X76" s="43">
-        <f>X70/X12</f>
+      <c r="Z76" s="43">
+        <f>Z70/Z12</f>
         <v>5.8800545688545691</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="AA76" s="77"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="78"/>
+      <c r="AD76" s="78"/>
+      <c r="AE76" s="78"/>
+      <c r="AF76" s="78"/>
+      <c r="AG76" s="78"/>
+      <c r="AH76" s="78"/>
+      <c r="AI76" s="78"/>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B79" s="31" t="s">
         <v>107</v>
       </c>
@@ -3109,12 +3897,12 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="X1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
-    <hyperlink ref="V1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
+    <hyperlink ref="Z1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
+    <hyperlink ref="X1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="V9" formula="1"/>
+    <ignoredError sqref="X9 AA7 AA11 AA9 AB11:AI11 AB9:AI9 AB7:AC7 AD7:AI7" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BB4981-B98B-4429-85CA-6A58C719A013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FBC16-C188-4612-A0F9-F113D7C4C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18825" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>£HLF</t>
   </si>
@@ -362,6 +371,9 @@
   </si>
   <si>
     <t>FY15</t>
+  </si>
+  <si>
+    <t>Investments</t>
   </si>
 </sst>
 </file>
@@ -679,6 +691,36 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,36 +756,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -840,7 +852,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -890,7 +902,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1233,7 +1245,7 @@
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1260,22 +1272,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="G5" s="47" t="s">
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="G5" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="71"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1340,7 +1352,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="18">
-        <f>'Financial Model'!Z62</f>
+        <f>'Financial Model'!Z63</f>
         <v>50.5</v>
       </c>
       <c r="D9" s="15" t="str">
@@ -1362,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="18">
-        <f>'Financial Model'!Z63</f>
+        <f>'Financial Model'!Z64</f>
         <v>0.7</v>
       </c>
       <c r="D10" s="15" t="str">
@@ -1443,11 +1455,11 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="71"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1462,10 +1474,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="73"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1480,10 +1492,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="73"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1498,10 +1510,10 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="73"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1516,10 +1528,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="46"/>
+      <c r="D19" s="68"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1531,61 +1543,61 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="73"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="72">
         <v>1892</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="73"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="72">
         <v>2004</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="50">
-        <f>'Financial Model'!Z33</f>
+      <c r="C27" s="72">
+        <f>'Financial Model'!Z34</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="73"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1602,74 +1614,74 @@
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="79"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="52">
-        <f>C6/'Financial Model'!Z60</f>
+      <c r="C34" s="74">
+        <f>C6/'Financial Model'!Z61</f>
         <v>0.64957894736842103</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="75"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="52">
+      <c r="C35" s="74">
         <f>C8/'Financial Model'!Z4</f>
         <v>0.26133031542056079</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="75"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="52">
+      <c r="C36" s="74">
         <f>C12/'Financial Model'!Z4</f>
         <v>0.22496933411214953</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="75"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="52">
+      <c r="C37" s="74">
         <f>C6/'Financial Model'!Z13</f>
         <v>4.6064092664092673</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="74">
         <f>C12/'Financial Model'!Z12</f>
         <v>3.9654826254826259</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="75"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1707,13 +1719,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
-  <dimension ref="B1:AI79"/>
+  <dimension ref="B1:AI80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1735,8 +1747,8 @@
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="9.140625" style="37"/>
     <col min="17" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="9.140625" style="70"/>
-    <col min="28" max="35" width="9.140625" style="67"/>
+    <col min="27" max="27" width="9.140625" style="57"/>
+    <col min="28" max="35" width="9.140625" style="54"/>
     <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1792,7 +1804,7 @@
       <c r="U1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="26" t="s">
         <v>48</v>
       </c>
       <c r="W1" s="21" t="s">
@@ -1807,31 +1819,31 @@
       <c r="Z1" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="59" t="s">
+      <c r="AB1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="59" t="s">
+      <c r="AC1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="59" t="s">
+      <c r="AD1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="59" t="s">
+      <c r="AE1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="59" t="s">
+      <c r="AF1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="59" t="s">
+      <c r="AG1" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="59" t="s">
+      <c r="AH1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="59" t="s">
+      <c r="AI1" s="46" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1852,6 +1864,12 @@
       <c r="L2" s="35"/>
       <c r="N2" s="35"/>
       <c r="P2" s="35"/>
+      <c r="U2" s="25">
+        <v>42825</v>
+      </c>
+      <c r="V2" s="25">
+        <v>43189</v>
+      </c>
       <c r="W2" s="25">
         <v>43553</v>
       </c>
@@ -1864,17 +1882,17 @@
       <c r="Z2" s="25">
         <v>44652</v>
       </c>
-      <c r="AA2" s="60" t="s">
+      <c r="AA2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
     </row>
     <row r="3" spans="2:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
@@ -1895,15 +1913,15 @@
       <c r="Z3" s="24">
         <v>44728</v>
       </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
     </row>
     <row r="4" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -1916,6 +1934,12 @@
       <c r="L4" s="36"/>
       <c r="N4" s="36"/>
       <c r="P4" s="36"/>
+      <c r="U4" s="27">
+        <v>1095</v>
+      </c>
+      <c r="V4" s="27">
+        <v>1135.0999999999999</v>
+      </c>
       <c r="W4" s="27">
         <v>1138.5999999999999</v>
       </c>
@@ -1928,39 +1952,39 @@
       <c r="Z4" s="27">
         <v>1369.6</v>
       </c>
-      <c r="AA4" s="62">
+      <c r="AA4" s="49">
         <f>Z4*(1+AA16)</f>
         <v>1438.08</v>
       </c>
-      <c r="AB4" s="63">
+      <c r="AB4" s="50">
         <f>AA4*(1+AB16)</f>
         <v>1509.9839999999999</v>
       </c>
-      <c r="AC4" s="63">
+      <c r="AC4" s="50">
         <f t="shared" ref="AC4:AI4" si="0">AB4*(1+AC16)</f>
         <v>1585.4831999999999</v>
       </c>
-      <c r="AD4" s="63">
+      <c r="AD4" s="50">
         <f t="shared" si="0"/>
         <v>1664.7573600000001</v>
       </c>
-      <c r="AE4" s="63">
+      <c r="AE4" s="50">
         <f t="shared" si="0"/>
         <v>1698.0525072</v>
       </c>
-      <c r="AF4" s="63">
+      <c r="AF4" s="50">
         <f t="shared" si="0"/>
         <v>1732.013557344</v>
       </c>
-      <c r="AG4" s="63">
+      <c r="AG4" s="50">
         <f t="shared" si="0"/>
         <v>1766.65382849088</v>
       </c>
-      <c r="AH4" s="63">
+      <c r="AH4" s="50">
         <f t="shared" si="0"/>
         <v>1801.9869050606976</v>
       </c>
-      <c r="AI4" s="63">
+      <c r="AI4" s="50">
         <f t="shared" si="0"/>
         <v>1838.0266431619116</v>
       </c>
@@ -1969,6 +1993,12 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="U5" s="18">
+        <v>536.4</v>
+      </c>
+      <c r="V5" s="18">
+        <v>564.9</v>
+      </c>
       <c r="W5" s="18">
         <v>559.6</v>
       </c>
@@ -1981,39 +2011,39 @@
       <c r="Z5" s="18">
         <v>647.9</v>
       </c>
-      <c r="AA5" s="64">
+      <c r="AA5" s="51">
         <f>AA4*(1-AA19)</f>
         <v>675.8975999999999</v>
       </c>
-      <c r="AB5" s="65">
+      <c r="AB5" s="52">
         <f t="shared" ref="AB5:AI5" si="1">AB4*(1-AB19)</f>
         <v>709.69247999999993</v>
       </c>
-      <c r="AC5" s="65">
+      <c r="AC5" s="52">
         <f t="shared" si="1"/>
         <v>745.17710399999987</v>
       </c>
-      <c r="AD5" s="65">
+      <c r="AD5" s="52">
         <f t="shared" si="1"/>
         <v>782.43595919999996</v>
       </c>
-      <c r="AE5" s="65">
+      <c r="AE5" s="52">
         <f t="shared" si="1"/>
         <v>798.08467838399997</v>
       </c>
-      <c r="AF5" s="65">
+      <c r="AF5" s="52">
         <f t="shared" si="1"/>
         <v>814.04637195167993</v>
       </c>
-      <c r="AG5" s="65">
+      <c r="AG5" s="52">
         <f t="shared" si="1"/>
         <v>830.32729939071351</v>
       </c>
-      <c r="AH5" s="65">
+      <c r="AH5" s="52">
         <f t="shared" si="1"/>
         <v>846.93384537852785</v>
       </c>
-      <c r="AI5" s="65">
+      <c r="AI5" s="52">
         <f t="shared" si="1"/>
         <v>863.87252228609839</v>
       </c>
@@ -2029,6 +2059,14 @@
       <c r="L6" s="36"/>
       <c r="N6" s="36"/>
       <c r="P6" s="36"/>
+      <c r="U6" s="27">
+        <f t="shared" ref="U6:V6" si="2">U4-U5</f>
+        <v>558.6</v>
+      </c>
+      <c r="V6" s="27">
+        <f t="shared" si="2"/>
+        <v>570.19999999999993</v>
+      </c>
       <c r="W6" s="27">
         <f>W4-W5</f>
         <v>578.99999999999989</v>
@@ -2045,40 +2083,40 @@
         <f>Z4-Z5</f>
         <v>721.69999999999993</v>
       </c>
-      <c r="AA6" s="62">
+      <c r="AA6" s="49">
         <f>AA4-AA5</f>
         <v>762.18240000000003</v>
       </c>
       <c r="AB6" s="27">
-        <f t="shared" ref="AB6:AI6" si="2">AB4-AB5</f>
+        <f t="shared" ref="AB6:AI6" si="3">AB4-AB5</f>
         <v>800.29151999999999</v>
       </c>
       <c r="AC6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>840.30609600000003</v>
       </c>
       <c r="AD6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>882.32140080000011</v>
       </c>
       <c r="AE6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>899.96782881600006</v>
       </c>
       <c r="AF6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>917.96718539232006</v>
       </c>
       <c r="AG6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>936.32652910016645</v>
       </c>
       <c r="AH6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>955.05305968216976</v>
       </c>
       <c r="AI6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>974.15412087581319</v>
       </c>
     </row>
@@ -2086,6 +2124,12 @@
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="U7" s="18">
+        <v>484.9</v>
+      </c>
+      <c r="V7" s="18">
+        <v>500.4</v>
+      </c>
       <c r="W7" s="18">
         <v>524.6</v>
       </c>
@@ -2098,40 +2142,40 @@
       <c r="Z7" s="18">
         <v>613.79999999999995</v>
       </c>
-      <c r="AA7" s="64">
+      <c r="AA7" s="51">
         <f>Z7*1.085</f>
         <v>665.97299999999996</v>
       </c>
-      <c r="AB7" s="65">
+      <c r="AB7" s="52">
         <f>AA7*1.06</f>
         <v>705.93137999999999</v>
       </c>
-      <c r="AC7" s="65">
-        <f t="shared" ref="AC7" si="3">AB7*1.06</f>
+      <c r="AC7" s="52">
+        <f t="shared" ref="AC7" si="4">AB7*1.06</f>
         <v>748.28726280000001</v>
       </c>
-      <c r="AD7" s="65">
+      <c r="AD7" s="52">
         <f>AC7*1.03</f>
         <v>770.73588068399999</v>
       </c>
-      <c r="AE7" s="65">
-        <f t="shared" ref="AE7:AI7" si="4">AD7*1.03</f>
+      <c r="AE7" s="52">
+        <f t="shared" ref="AE7:AI7" si="5">AD7*1.03</f>
         <v>793.85795710451998</v>
       </c>
-      <c r="AF7" s="65">
-        <f t="shared" si="4"/>
+      <c r="AF7" s="52">
+        <f t="shared" si="5"/>
         <v>817.67369581765558</v>
       </c>
-      <c r="AG7" s="65">
-        <f t="shared" si="4"/>
+      <c r="AG7" s="52">
+        <f t="shared" si="5"/>
         <v>842.20390669218523</v>
       </c>
-      <c r="AH7" s="65">
-        <f t="shared" si="4"/>
+      <c r="AH7" s="52">
+        <f t="shared" si="5"/>
         <v>867.47002389295085</v>
       </c>
-      <c r="AI7" s="65">
-        <f t="shared" si="4"/>
+      <c r="AI7" s="52">
+        <f t="shared" si="5"/>
         <v>893.4941246097394</v>
       </c>
     </row>
@@ -2146,6 +2190,14 @@
       <c r="L8" s="36"/>
       <c r="N8" s="36"/>
       <c r="P8" s="36"/>
+      <c r="U8" s="27">
+        <f t="shared" ref="U8:V8" si="6">U6-U7</f>
+        <v>73.700000000000045</v>
+      </c>
+      <c r="V8" s="27">
+        <f t="shared" si="6"/>
+        <v>69.799999999999955</v>
+      </c>
       <c r="W8" s="27">
         <f>W6-W7</f>
         <v>54.399999999999864</v>
@@ -2162,40 +2214,40 @@
         <f>Z6-Z7</f>
         <v>107.89999999999998</v>
       </c>
-      <c r="AA8" s="62">
+      <c r="AA8" s="49">
         <f>AA6-AA7</f>
         <v>96.209400000000073</v>
       </c>
       <c r="AB8" s="27">
-        <f t="shared" ref="AB8:AI8" si="5">AB6-AB7</f>
+        <f t="shared" ref="AB8:AI8" si="7">AB6-AB7</f>
         <v>94.360140000000001</v>
       </c>
       <c r="AC8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92.018833200000017</v>
       </c>
       <c r="AD8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>111.58552011600011</v>
       </c>
       <c r="AE8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>106.10987171148008</v>
       </c>
       <c r="AF8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100.29348957466448</v>
       </c>
       <c r="AG8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94.122622407981225</v>
       </c>
       <c r="AH8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>87.583035789218911</v>
       </c>
       <c r="AI8" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80.65999626607379</v>
       </c>
     </row>
@@ -2203,6 +2255,12 @@
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="U9" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V9" s="18">
+        <v>2.7</v>
+      </c>
       <c r="W9" s="18">
         <v>3.4</v>
       </c>
@@ -2216,40 +2274,40 @@
       <c r="Z9" s="18">
         <v>11.3</v>
       </c>
-      <c r="AA9" s="64">
+      <c r="AA9" s="51">
         <f>AVERAGE(X9:Z9)</f>
         <v>13.300000000000002</v>
       </c>
-      <c r="AB9" s="65">
+      <c r="AB9" s="52">
         <f>AVERAGE(X9:AA9)</f>
         <v>13.300000000000002</v>
       </c>
-      <c r="AC9" s="65">
-        <f t="shared" ref="AC9:AI9" si="6">AVERAGE(Y9:AB9)</f>
+      <c r="AC9" s="52">
+        <f t="shared" ref="AC9:AI9" si="8">AVERAGE(Y9:AB9)</f>
         <v>13.225000000000001</v>
       </c>
-      <c r="AD9" s="65">
-        <f t="shared" si="6"/>
+      <c r="AD9" s="52">
+        <f t="shared" si="8"/>
         <v>12.781250000000002</v>
       </c>
-      <c r="AE9" s="65">
-        <f t="shared" si="6"/>
+      <c r="AE9" s="52">
+        <f t="shared" si="8"/>
         <v>13.151562500000001</v>
       </c>
-      <c r="AF9" s="65">
-        <f t="shared" si="6"/>
+      <c r="AF9" s="52">
+        <f t="shared" si="8"/>
         <v>13.114453125000001</v>
       </c>
-      <c r="AG9" s="65">
-        <f t="shared" si="6"/>
+      <c r="AG9" s="52">
+        <f t="shared" si="8"/>
         <v>13.068066406250001</v>
       </c>
-      <c r="AH9" s="65">
-        <f t="shared" si="6"/>
+      <c r="AH9" s="52">
+        <f t="shared" si="8"/>
         <v>13.028833007812501</v>
       </c>
-      <c r="AI9" s="65">
-        <f t="shared" si="6"/>
+      <c r="AI9" s="52">
+        <f t="shared" si="8"/>
         <v>13.090728759765627</v>
       </c>
     </row>
@@ -2257,6 +2315,14 @@
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="U10" s="18">
+        <f t="shared" ref="U10:V10" si="9">U8-U9</f>
+        <v>71.400000000000048</v>
+      </c>
+      <c r="V10" s="18">
+        <f t="shared" si="9"/>
+        <v>67.099999999999952</v>
+      </c>
       <c r="W10" s="18">
         <f>W8-W9</f>
         <v>50.999999999999865</v>
@@ -2273,40 +2339,40 @@
         <f>Z8-Z9</f>
         <v>96.59999999999998</v>
       </c>
-      <c r="AA10" s="64">
+      <c r="AA10" s="51">
         <f>AA8-AA9</f>
         <v>82.909400000000076</v>
       </c>
       <c r="AB10" s="18">
-        <f t="shared" ref="AB10:AI10" si="7">AB8-AB9</f>
+        <f t="shared" ref="AB10:AI10" si="10">AB8-AB9</f>
         <v>81.060140000000004</v>
       </c>
       <c r="AC10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>78.793833200000023</v>
       </c>
       <c r="AD10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>98.804270116000112</v>
       </c>
       <c r="AE10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92.958309211480085</v>
       </c>
       <c r="AF10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>87.17903644966448</v>
       </c>
       <c r="AG10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>81.054556001731228</v>
       </c>
       <c r="AH10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>74.554202781406417</v>
       </c>
       <c r="AI10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>67.569267506308165</v>
       </c>
     </row>
@@ -2314,6 +2380,12 @@
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="U11" s="18">
+        <v>15</v>
+      </c>
+      <c r="V11" s="18">
+        <v>12.4</v>
+      </c>
       <c r="W11" s="18">
         <v>9.1</v>
       </c>
@@ -2326,40 +2398,40 @@
       <c r="Z11" s="18">
         <v>18.899999999999999</v>
       </c>
-      <c r="AA11" s="64">
+      <c r="AA11" s="51">
         <f>AA10*AA22</f>
         <v>16.581880000000016</v>
       </c>
-      <c r="AB11" s="65">
-        <f t="shared" ref="AB11:AI11" si="8">AB10*AB22</f>
+      <c r="AB11" s="52">
+        <f t="shared" ref="AB11:AI11" si="11">AB10*AB22</f>
         <v>16.212028</v>
       </c>
-      <c r="AC11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AC11" s="52">
+        <f t="shared" si="11"/>
         <v>15.758766640000005</v>
       </c>
-      <c r="AD11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AD11" s="52">
+        <f t="shared" si="11"/>
         <v>19.760854023200025</v>
       </c>
-      <c r="AE11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AE11" s="52">
+        <f t="shared" si="11"/>
         <v>18.591661842296016</v>
       </c>
-      <c r="AF11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AF11" s="52">
+        <f t="shared" si="11"/>
         <v>17.435807289932896</v>
       </c>
-      <c r="AG11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AG11" s="52">
+        <f t="shared" si="11"/>
         <v>16.210911200346246</v>
       </c>
-      <c r="AH11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AH11" s="52">
+        <f t="shared" si="11"/>
         <v>14.910840556281284</v>
       </c>
-      <c r="AI11" s="65">
-        <f t="shared" si="8"/>
+      <c r="AI11" s="52">
+        <f t="shared" si="11"/>
         <v>13.513853501261634</v>
       </c>
     </row>
@@ -2374,6 +2446,14 @@
       <c r="L12" s="36"/>
       <c r="N12" s="36"/>
       <c r="P12" s="36"/>
+      <c r="U12" s="27">
+        <f t="shared" ref="U12:V12" si="12">U10-U11</f>
+        <v>56.400000000000048</v>
+      </c>
+      <c r="V12" s="27">
+        <f t="shared" si="12"/>
+        <v>54.699999999999953</v>
+      </c>
       <c r="W12" s="27">
         <f>W10-W11</f>
         <v>41.899999999999864</v>
@@ -2390,40 +2470,40 @@
         <f>Z10-Z11</f>
         <v>77.699999999999989</v>
       </c>
-      <c r="AA12" s="62">
+      <c r="AA12" s="49">
         <f>AA10-AA11</f>
         <v>66.327520000000064</v>
       </c>
       <c r="AB12" s="27">
-        <f t="shared" ref="AB12:AI12" si="9">AB10-AB11</f>
+        <f t="shared" ref="AB12:AI12" si="13">AB10-AB11</f>
         <v>64.848112</v>
       </c>
       <c r="AC12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>63.035066560000018</v>
       </c>
       <c r="AD12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>79.043416092800086</v>
       </c>
       <c r="AE12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>74.366647369184065</v>
       </c>
       <c r="AF12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>69.743229159731584</v>
       </c>
       <c r="AG12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>64.843644801384983</v>
       </c>
       <c r="AH12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>59.643362225125131</v>
       </c>
       <c r="AI12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>54.055414005046529</v>
       </c>
     </row>
@@ -2431,56 +2511,64 @@
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="U13" s="28">
+        <f t="shared" ref="U13" si="14">U12/U14</f>
+        <v>0.28614916286149189</v>
+      </c>
+      <c r="V13" s="28">
+        <f t="shared" ref="V13" si="15">V12/V14</f>
+        <v>0.2754279959718024</v>
+      </c>
       <c r="W13" s="28">
-        <f>W12/W14</f>
+        <f t="shared" ref="W13:AB13" si="16">W12/W14</f>
         <v>0.21044701155198325</v>
       </c>
       <c r="X13" s="28">
-        <f>X12/X14</f>
+        <f t="shared" si="16"/>
         <v>8.7895529884479587E-2</v>
       </c>
       <c r="Y13" s="28">
-        <f>Y12/Y14</f>
+        <f t="shared" si="16"/>
         <v>0.26720241084881974</v>
       </c>
       <c r="Z13" s="28">
-        <f>Z12/Z14</f>
+        <f t="shared" si="16"/>
         <v>0.37773456490034024</v>
       </c>
-      <c r="AA13" s="66">
-        <f>AA12/AA14</f>
+      <c r="AA13" s="53">
+        <f t="shared" si="16"/>
         <v>0.32244783665532362</v>
       </c>
-      <c r="AB13" s="79">
-        <f>AB12/AB14</f>
+      <c r="AB13" s="66">
+        <f t="shared" si="16"/>
         <v>0.31525577053962084</v>
       </c>
-      <c r="AC13" s="79">
-        <f t="shared" ref="AC13:AI13" si="10">AC12/AC14</f>
+      <c r="AC13" s="66">
+        <f t="shared" ref="AC13:AI13" si="17">AC12/AC14</f>
         <v>0.30644174312105016</v>
       </c>
-      <c r="AD13" s="79">
-        <f t="shared" si="10"/>
+      <c r="AD13" s="66">
+        <f t="shared" si="17"/>
         <v>0.38426551333398196</v>
       </c>
-      <c r="AE13" s="79">
-        <f t="shared" si="10"/>
+      <c r="AE13" s="66">
+        <f t="shared" si="17"/>
         <v>0.36152964204756477</v>
       </c>
-      <c r="AF13" s="79">
-        <f t="shared" si="10"/>
+      <c r="AF13" s="66">
+        <f t="shared" si="17"/>
         <v>0.33905313154949729</v>
       </c>
-      <c r="AG13" s="79">
-        <f t="shared" si="10"/>
+      <c r="AG13" s="66">
+        <f t="shared" si="17"/>
         <v>0.31523405348266886</v>
       </c>
-      <c r="AH13" s="79">
-        <f t="shared" si="10"/>
+      <c r="AH13" s="66">
+        <f t="shared" si="17"/>
         <v>0.2899531464517508</v>
       </c>
-      <c r="AI13" s="79">
-        <f t="shared" si="10"/>
+      <c r="AI13" s="66">
+        <f t="shared" si="17"/>
         <v>0.26278762277611345</v>
       </c>
     </row>
@@ -2488,6 +2576,12 @@
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="U14" s="1">
+        <v>197.1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>198.6</v>
+      </c>
       <c r="W14" s="1">
         <v>199.1</v>
       </c>
@@ -2500,40 +2594,40 @@
       <c r="Z14" s="18">
         <v>205.7</v>
       </c>
-      <c r="AA14" s="64">
+      <c r="AA14" s="51">
         <f>Z14</f>
         <v>205.7</v>
       </c>
-      <c r="AB14" s="65">
+      <c r="AB14" s="52">
         <f>AA14</f>
         <v>205.7</v>
       </c>
-      <c r="AC14" s="65">
-        <f t="shared" ref="AC14:AI14" si="11">AB14</f>
+      <c r="AC14" s="52">
+        <f t="shared" ref="AC14:AI14" si="18">AB14</f>
         <v>205.7</v>
       </c>
-      <c r="AD14" s="65">
-        <f t="shared" si="11"/>
+      <c r="AD14" s="52">
+        <f t="shared" si="18"/>
         <v>205.7</v>
       </c>
-      <c r="AE14" s="65">
-        <f t="shared" si="11"/>
+      <c r="AE14" s="52">
+        <f t="shared" si="18"/>
         <v>205.7</v>
       </c>
-      <c r="AF14" s="65">
-        <f t="shared" si="11"/>
+      <c r="AF14" s="52">
+        <f t="shared" si="18"/>
         <v>205.7</v>
       </c>
-      <c r="AG14" s="65">
-        <f t="shared" si="11"/>
+      <c r="AG14" s="52">
+        <f t="shared" si="18"/>
         <v>205.7</v>
       </c>
-      <c r="AH14" s="65">
-        <f t="shared" si="11"/>
+      <c r="AH14" s="52">
+        <f t="shared" si="18"/>
         <v>205.7</v>
       </c>
-      <c r="AI14" s="65">
-        <f t="shared" si="11"/>
+      <c r="AI14" s="52">
+        <f t="shared" si="18"/>
         <v>205.7</v>
       </c>
     </row>
@@ -2548,6 +2642,14 @@
       <c r="L16" s="36"/>
       <c r="N16" s="36"/>
       <c r="P16" s="36"/>
+      <c r="V16" s="29">
+        <f t="shared" ref="V16:W16" si="19">V4/U4-1</f>
+        <v>3.6621004566209869E-2</v>
+      </c>
+      <c r="W16" s="29">
+        <f t="shared" si="19"/>
+        <v>3.0834287727954379E-3</v>
+      </c>
       <c r="X16" s="29">
         <f>X4/W4-1</f>
         <v>1.4491480765852716E-2</v>
@@ -2560,31 +2662,31 @@
         <f>Z4/Y4-1</f>
         <v>5.9815832237096522E-2</v>
       </c>
-      <c r="AA16" s="68">
+      <c r="AA16" s="55">
         <v>0.05</v>
       </c>
-      <c r="AB16" s="69">
+      <c r="AB16" s="56">
         <v>0.05</v>
       </c>
-      <c r="AC16" s="69">
+      <c r="AC16" s="56">
         <v>0.05</v>
       </c>
-      <c r="AD16" s="69">
+      <c r="AD16" s="56">
         <v>0.05</v>
       </c>
-      <c r="AE16" s="69">
+      <c r="AE16" s="56">
         <v>0.02</v>
       </c>
-      <c r="AF16" s="69">
+      <c r="AF16" s="56">
         <v>0.02</v>
       </c>
-      <c r="AG16" s="69">
+      <c r="AG16" s="56">
         <v>0.02</v>
       </c>
-      <c r="AH16" s="69">
+      <c r="AH16" s="56">
         <v>0.02</v>
       </c>
-      <c r="AI16" s="69">
+      <c r="AI16" s="56">
         <v>0.02</v>
       </c>
     </row>
@@ -2592,6 +2694,15 @@
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="S17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="T17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="U17" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="V17" s="20" t="s">
         <v>78</v>
       </c>
@@ -2612,47 +2723,55 @@
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="U19" s="30">
+        <f t="shared" ref="U19:W19" si="20">U6/U4</f>
+        <v>0.51013698630136983</v>
+      </c>
+      <c r="V19" s="30">
+        <f t="shared" si="20"/>
+        <v>0.50233459607083075</v>
+      </c>
       <c r="W19" s="30">
-        <f t="shared" ref="W19" si="12">W6/W4</f>
+        <f t="shared" si="20"/>
         <v>0.50851923414719824</v>
       </c>
       <c r="X19" s="30">
-        <f t="shared" ref="X19:Y19" si="13">X6/X4</f>
+        <f t="shared" ref="X19:Y19" si="21">X6/X4</f>
         <v>0.51051856982079469</v>
       </c>
       <c r="Y19" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.50785421341793702</v>
       </c>
       <c r="Z19" s="30">
         <f>Z6/Z4</f>
         <v>0.52694217289719625</v>
       </c>
-      <c r="AA19" s="71">
+      <c r="AA19" s="58">
         <v>0.53</v>
       </c>
-      <c r="AB19" s="74">
+      <c r="AB19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AC19" s="74">
+      <c r="AC19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AD19" s="74">
+      <c r="AD19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AE19" s="74">
+      <c r="AE19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AF19" s="74">
+      <c r="AF19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AG19" s="74">
+      <c r="AG19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AH19" s="74">
+      <c r="AH19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AI19" s="74">
+      <c r="AI19" s="61">
         <v>0.53</v>
       </c>
     </row>
@@ -2660,56 +2779,64 @@
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="U20" s="30">
+        <f t="shared" ref="U20:W20" si="22">U8/U4</f>
+        <v>6.7305936073059403E-2</v>
+      </c>
+      <c r="V20" s="30">
+        <f t="shared" si="22"/>
+        <v>6.1492379526032911E-2</v>
+      </c>
       <c r="W20" s="30">
-        <f t="shared" ref="W20" si="14">W8/W4</f>
+        <f t="shared" si="22"/>
         <v>4.7777972949235789E-2</v>
       </c>
       <c r="X20" s="30">
-        <f t="shared" ref="X20:Y20" si="15">X8/X4</f>
+        <f t="shared" ref="X20:Y20" si="23">X8/X4</f>
         <v>2.8568955068825112E-2</v>
       </c>
       <c r="Y20" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6.1518223322757873E-2</v>
       </c>
       <c r="Z20" s="30">
         <f>Z8/Z4</f>
         <v>7.878212616822429E-2</v>
       </c>
-      <c r="AA20" s="71">
+      <c r="AA20" s="58">
         <f>AA8/AA4</f>
         <v>6.6901285046729028E-2</v>
       </c>
       <c r="AB20" s="30">
-        <f t="shared" ref="AB20:AI20" si="16">AB8/AB4</f>
+        <f t="shared" ref="AB20:AI20" si="24">AB8/AB4</f>
         <v>6.2490821094793064E-2</v>
       </c>
       <c r="AC20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5.8038352724267293E-2</v>
       </c>
       <c r="AD20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.7028098386662252E-2</v>
       </c>
       <c r="AE20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.2489158174766767E-2</v>
       </c>
       <c r="AF20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5.7905718549029178E-2</v>
       </c>
       <c r="AG20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5.3277343240686337E-2</v>
       </c>
       <c r="AH20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.8603591703830273E-2</v>
       </c>
       <c r="AI20" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>4.3884019073475673E-2</v>
       </c>
     </row>
@@ -2717,56 +2844,64 @@
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="U21" s="30">
+        <f t="shared" ref="U21:W21" si="25">U12/U4</f>
+        <v>5.1506849315068534E-2</v>
+      </c>
+      <c r="V21" s="30">
+        <f t="shared" si="25"/>
+        <v>4.818958682054441E-2</v>
+      </c>
       <c r="W21" s="30">
-        <f t="shared" ref="W21" si="17">W12/W4</f>
+        <f t="shared" si="25"/>
         <v>3.6799578429650329E-2</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" ref="X21:Y21" si="18">X12/X4</f>
+        <f t="shared" ref="X21:Y21" si="26">X12/X4</f>
         <v>1.5150203445589028E-2</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>4.1166911707807785E-2</v>
       </c>
       <c r="Z21" s="30">
         <f>Z12/Z4</f>
         <v>5.6731892523364483E-2</v>
       </c>
-      <c r="AA21" s="71">
+      <c r="AA21" s="58">
         <f>AA12/AA4</f>
         <v>4.6122274143302229E-2</v>
       </c>
       <c r="AB21" s="30">
-        <f t="shared" ref="AB21:AI21" si="19">AB12/AB4</f>
+        <f t="shared" ref="AB21:AI21" si="27">AB12/AB4</f>
         <v>4.294622459575731E-2</v>
       </c>
       <c r="AC21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.9757637646365487E-2</v>
       </c>
       <c r="AD21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>4.748044249091056E-2</v>
       </c>
       <c r="AE21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>4.3795257834406305E-2</v>
       </c>
       <c r="AF21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>4.0267138131806025E-2</v>
       </c>
       <c r="AG21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.6704216613152818E-2</v>
       </c>
       <c r="AH21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>3.3098665732599272E-2</v>
       </c>
       <c r="AI21" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2.9409483375092072E-2</v>
       </c>
     </row>
@@ -2774,55 +2909,63 @@
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="U22" s="30">
+        <f t="shared" ref="U22:W22" si="28">U11/U10</f>
+        <v>0.21008403361344524</v>
+      </c>
+      <c r="V22" s="30">
+        <f t="shared" si="28"/>
+        <v>0.18479880774962756</v>
+      </c>
       <c r="W22" s="30">
-        <f t="shared" ref="W22" si="20">W11/W10</f>
+        <f t="shared" si="28"/>
         <v>0.17843137254902008</v>
       </c>
       <c r="X22" s="30">
-        <f t="shared" ref="X22:Y22" si="21">X11/X10</f>
+        <f t="shared" ref="X22:Y22" si="29">X11/X10</f>
         <v>9.7938144329897489E-2</v>
       </c>
       <c r="Y22" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.17519379844961241</v>
       </c>
       <c r="Z22" s="30">
         <f>Z11/Z10</f>
         <v>0.19565217391304351</v>
       </c>
-      <c r="AA22" s="71">
+      <c r="AA22" s="58">
         <v>0.2</v>
       </c>
-      <c r="AB22" s="74">
+      <c r="AB22" s="61">
         <f>AA22</f>
         <v>0.2</v>
       </c>
-      <c r="AC22" s="74">
-        <f t="shared" ref="AC22:AI22" si="22">AB22</f>
+      <c r="AC22" s="61">
+        <f t="shared" ref="AC22:AI22" si="30">AB22</f>
         <v>0.2</v>
       </c>
-      <c r="AD22" s="74">
-        <f t="shared" si="22"/>
+      <c r="AD22" s="61">
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
-      <c r="AE22" s="74">
-        <f t="shared" si="22"/>
+      <c r="AE22" s="61">
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
-      <c r="AF22" s="74">
-        <f t="shared" si="22"/>
+      <c r="AF22" s="61">
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
-      <c r="AG22" s="74">
-        <f t="shared" si="22"/>
+      <c r="AG22" s="61">
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
-      <c r="AH22" s="74">
-        <f t="shared" si="22"/>
+      <c r="AH22" s="61">
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
-      <c r="AI22" s="74">
-        <f t="shared" si="22"/>
+      <c r="AI22" s="61">
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
     </row>
@@ -2835,6 +2978,12 @@
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="U27" s="18">
+        <v>394.1</v>
+      </c>
+      <c r="V27" s="18">
+        <v>393.9</v>
+      </c>
       <c r="W27" s="18">
         <v>387.4</v>
       </c>
@@ -2852,6 +3001,12 @@
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="U28" s="18">
+        <v>102.8</v>
+      </c>
+      <c r="V28" s="18">
+        <v>101.3</v>
+      </c>
       <c r="W28" s="18">
         <v>97.3</v>
       </c>
@@ -2868,6 +3023,12 @@
     <row r="29" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="U29" s="18">
+        <v>0</v>
+      </c>
+      <c r="V29" s="18">
+        <v>0</v>
       </c>
       <c r="W29" s="18">
         <v>0</v>
@@ -2893,6 +3054,12 @@
       <c r="L30" s="36"/>
       <c r="N30" s="36"/>
       <c r="P30" s="36"/>
+      <c r="U30" s="27">
+        <v>0</v>
+      </c>
+      <c r="V30" s="27">
+        <v>0</v>
+      </c>
       <c r="W30" s="27">
         <v>0</v>
       </c>
@@ -2905,20 +3072,26 @@
       <c r="Z30" s="27">
         <v>0</v>
       </c>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="73"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="73"/>
-      <c r="AI30" s="73"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="U31" s="18">
+        <v>0</v>
+      </c>
+      <c r="V31" s="18">
+        <v>0</v>
+      </c>
       <c r="W31" s="18">
         <v>0</v>
       </c>
@@ -2934,545 +3107,675 @@
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="V32" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="W32" s="18">
+        <v>0</v>
+      </c>
+      <c r="X32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W32" s="18">
-        <f t="shared" ref="W32:Y32" si="23">SUM(W27:W31)</f>
+      <c r="U33" s="18">
+        <f t="shared" ref="U33:Z33" si="31">SUM(U27:U32)</f>
+        <v>505.00000000000006</v>
+      </c>
+      <c r="V33" s="18">
+        <f t="shared" si="31"/>
+        <v>503.3</v>
+      </c>
+      <c r="W33" s="18">
+        <f t="shared" si="31"/>
         <v>484.7</v>
       </c>
-      <c r="X32" s="18">
-        <f t="shared" si="23"/>
+      <c r="X33" s="18">
+        <f t="shared" si="31"/>
         <v>835.99999999999989</v>
       </c>
-      <c r="Y32" s="18">
-        <f t="shared" si="23"/>
+      <c r="Y33" s="18">
+        <f t="shared" si="31"/>
         <v>774.80000000000007</v>
       </c>
-      <c r="Z32" s="18">
-        <f>SUM(Z27:Z31)</f>
+      <c r="Z33" s="18">
+        <f t="shared" si="31"/>
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="W33" s="27">
+      <c r="D34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="U34" s="27">
+        <v>191.1</v>
+      </c>
+      <c r="V34" s="27">
+        <v>195.5</v>
+      </c>
+      <c r="W34" s="27">
         <v>173.7</v>
       </c>
-      <c r="X33" s="27">
+      <c r="X34" s="27">
         <v>173</v>
       </c>
-      <c r="Y33" s="27">
+      <c r="Y34" s="27">
         <v>143.9</v>
       </c>
-      <c r="Z33" s="27">
+      <c r="Z34" s="27">
         <v>222.1</v>
       </c>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-    </row>
-    <row r="34" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W34" s="18">
-        <v>59.1</v>
-      </c>
-      <c r="X34" s="18">
-        <v>53.5</v>
-      </c>
-      <c r="Y34" s="18">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="Z34" s="18">
-        <v>92.6</v>
-      </c>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="60"/>
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AH34" s="60"/>
+      <c r="AI34" s="60"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U35" s="18">
+        <v>58.4</v>
+      </c>
+      <c r="V35" s="18">
+        <v>56</v>
+      </c>
+      <c r="W35" s="18">
+        <v>59.1</v>
+      </c>
+      <c r="X35" s="18">
+        <v>53.5</v>
+      </c>
+      <c r="Y35" s="18">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="Z35" s="18">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="W35" s="18">
+      <c r="U36" s="18">
         <v>0</v>
       </c>
-      <c r="X35" s="18">
+      <c r="V36" s="18">
         <v>0</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="W36" s="18">
+        <v>0</v>
+      </c>
+      <c r="X36" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="18">
         <v>6</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z36" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="W36" s="27">
+      <c r="D37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="U37" s="27">
+        <v>5.2</v>
+      </c>
+      <c r="V37" s="27">
+        <v>0.3</v>
+      </c>
+      <c r="W37" s="27">
         <v>3.2</v>
       </c>
-      <c r="X36" s="27">
+      <c r="X37" s="27">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Y36" s="27">
+      <c r="Y37" s="27">
         <v>0.5</v>
       </c>
-      <c r="Z36" s="27">
+      <c r="Z37" s="27">
         <v>4.2</v>
       </c>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="73"/>
-      <c r="AC36" s="73"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="73"/>
-      <c r="AF36" s="73"/>
-      <c r="AG36" s="73"/>
-      <c r="AH36" s="73"/>
-      <c r="AI36" s="73"/>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="60"/>
+      <c r="AC37" s="60"/>
+      <c r="AD37" s="60"/>
+      <c r="AE37" s="60"/>
+      <c r="AF37" s="60"/>
+      <c r="AG37" s="60"/>
+      <c r="AH37" s="60"/>
+      <c r="AI37" s="60"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W37" s="18">
+      <c r="U38" s="18">
         <v>0</v>
       </c>
-      <c r="X37" s="18">
+      <c r="V38" s="18">
+        <v>0</v>
+      </c>
+      <c r="W38" s="18">
+        <v>0</v>
+      </c>
+      <c r="X38" s="18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Y37" s="18">
+      <c r="Y38" s="18">
         <v>3.1</v>
       </c>
-      <c r="Z37" s="18">
+      <c r="Z38" s="18">
         <v>3.9</v>
       </c>
     </row>
-    <row r="38" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="W38" s="27">
+      <c r="D39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="U39" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="V39" s="27">
+        <v>27</v>
+      </c>
+      <c r="W39" s="27">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X38" s="27">
+      <c r="X39" s="27">
         <v>115.5</v>
       </c>
-      <c r="Y38" s="27">
+      <c r="Y39" s="27">
         <v>67.2</v>
       </c>
-      <c r="Z38" s="27">
+      <c r="Z39" s="27">
         <v>46.3</v>
       </c>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="73"/>
-      <c r="AC38" s="73"/>
-      <c r="AD38" s="73"/>
-      <c r="AE38" s="73"/>
-      <c r="AF38" s="73"/>
-      <c r="AG38" s="73"/>
-      <c r="AH38" s="73"/>
-      <c r="AI38" s="73"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="60"/>
+      <c r="AC39" s="60"/>
+      <c r="AD39" s="60"/>
+      <c r="AE39" s="60"/>
+      <c r="AF39" s="60"/>
+      <c r="AG39" s="60"/>
+      <c r="AH39" s="60"/>
+      <c r="AI39" s="60"/>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="W39" s="18">
-        <f t="shared" ref="W39:Y39" si="24">SUM(W32:W38)</f>
+      <c r="U40" s="18">
+        <f t="shared" ref="U40:Y40" si="32">SUM(U33:U39)</f>
+        <v>776.2</v>
+      </c>
+      <c r="V40" s="18">
+        <f t="shared" si="32"/>
+        <v>782.09999999999991</v>
+      </c>
+      <c r="W40" s="18">
+        <f t="shared" si="32"/>
         <v>730.5</v>
       </c>
-      <c r="X39" s="18">
-        <f t="shared" si="24"/>
+      <c r="X40" s="18">
+        <f t="shared" si="32"/>
         <v>1194.9000000000001</v>
       </c>
-      <c r="Y39" s="18">
-        <f t="shared" si="24"/>
+      <c r="Y40" s="18">
+        <f t="shared" si="32"/>
         <v>1069.6000000000001</v>
       </c>
-      <c r="Z39" s="18">
-        <f>SUM(Z32:Z38)</f>
+      <c r="Z40" s="18">
+        <f>SUM(Z33:Z39)</f>
         <v>1278.0999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="Y40" s="18"/>
-    </row>
-    <row r="41" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="Y41" s="18"/>
+    </row>
+    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="W41" s="2">
+      <c r="D42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="P42" s="36"/>
+      <c r="U42" s="27">
+        <v>19.8</v>
+      </c>
+      <c r="V42" s="27">
+        <v>20.8</v>
+      </c>
+      <c r="W42" s="2">
         <v>18.5</v>
       </c>
-      <c r="X41" s="27">
+      <c r="X42" s="27">
         <v>0.2</v>
       </c>
-      <c r="Y41" s="27">
+      <c r="Y42" s="27">
         <v>0.2</v>
       </c>
-      <c r="Z41" s="27">
+      <c r="Z42" s="27">
         <v>0.2</v>
       </c>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="73"/>
-      <c r="AC41" s="73"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="73"/>
-      <c r="AG41" s="73"/>
-      <c r="AH41" s="73"/>
-      <c r="AI41" s="73"/>
-    </row>
-    <row r="42" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="60"/>
+      <c r="AC42" s="60"/>
+      <c r="AD42" s="60"/>
+      <c r="AE42" s="60"/>
+      <c r="AF42" s="60"/>
+      <c r="AG42" s="60"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="60"/>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="1">
+      <c r="U43" s="18">
         <v>0</v>
       </c>
-      <c r="X42" s="18">
+      <c r="V43" s="18">
+        <v>0</v>
+      </c>
+      <c r="W43" s="18">
+        <v>0</v>
+      </c>
+      <c r="X43" s="18">
         <v>83.2</v>
       </c>
-      <c r="Y42" s="18">
+      <c r="Y43" s="18">
         <v>63.4</v>
       </c>
-      <c r="Z42" s="18">
+      <c r="Z43" s="18">
         <v>74.5</v>
       </c>
     </row>
-    <row r="43" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+    <row r="44" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="W43" s="2">
+      <c r="D44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="U44" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="V44" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="W44" s="2">
         <v>1.4</v>
       </c>
-      <c r="X43" s="27">
+      <c r="X44" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y43" s="27">
+      <c r="Y44" s="27">
         <v>5.9</v>
       </c>
-      <c r="Z43" s="27">
+      <c r="Z44" s="27">
         <v>0.5</v>
       </c>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="73"/>
-      <c r="AC43" s="73"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="73"/>
-      <c r="AF43" s="73"/>
-      <c r="AG43" s="73"/>
-      <c r="AH43" s="73"/>
-      <c r="AI43" s="73"/>
-    </row>
-    <row r="44" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W44" s="1">
-        <v>176.4</v>
-      </c>
-      <c r="X44" s="18">
-        <v>217</v>
-      </c>
-      <c r="Y44" s="18">
-        <v>258.2</v>
-      </c>
-      <c r="Z44" s="18">
-        <v>299.60000000000002</v>
-      </c>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="60"/>
+      <c r="AI44" s="60"/>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="U45" s="18">
+        <v>206.2</v>
+      </c>
+      <c r="V45" s="18">
+        <v>187</v>
       </c>
       <c r="W45" s="1">
-        <v>3.3</v>
+        <v>176.4</v>
       </c>
       <c r="X45" s="18">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="Y45" s="18">
-        <v>0</v>
+        <v>258.2</v>
       </c>
       <c r="Z45" s="18">
-        <v>4</v>
+        <v>299.60000000000002</v>
       </c>
     </row>
     <row r="46" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="U46" s="18">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="V46" s="18">
+        <v>3.3</v>
       </c>
       <c r="W46" s="1">
-        <v>15.1</v>
+        <v>3.3</v>
       </c>
       <c r="X46" s="18">
-        <v>9.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="18">
-        <v>24.5</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="18">
-        <v>20.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U47" s="18">
+        <v>11</v>
+      </c>
+      <c r="V47" s="18">
+        <v>11.9</v>
+      </c>
+      <c r="W47" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="X47" s="18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y47" s="18">
+        <v>24.5</v>
+      </c>
+      <c r="Z47" s="18">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W47" s="18">
-        <f>SUM(W41:W46)</f>
+      <c r="U48" s="18">
+        <f t="shared" ref="U48:V48" si="33">SUM(U42:U47)</f>
+        <v>247.2</v>
+      </c>
+      <c r="V48" s="18">
+        <f t="shared" si="33"/>
+        <v>228.4</v>
+      </c>
+      <c r="W48" s="18">
+        <f>SUM(W42:W47)</f>
         <v>214.70000000000002</v>
       </c>
-      <c r="X47" s="18">
-        <f>SUM(X41:X46)</f>
+      <c r="X48" s="18">
+        <f>SUM(X42:X47)</f>
         <v>311.2</v>
       </c>
-      <c r="Y47" s="18">
-        <f>SUM(Y41:Y46)</f>
+      <c r="Y48" s="18">
+        <f>SUM(Y42:Y47)</f>
         <v>352.2</v>
       </c>
-      <c r="Z47" s="18">
-        <f>SUM(Z41:Z46)</f>
+      <c r="Z48" s="18">
+        <f>SUM(Z42:Z47)</f>
         <v>399.3</v>
       </c>
     </row>
-    <row r="48" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="W48" s="2">
+      <c r="D49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="U49" s="27">
+        <v>82.6</v>
+      </c>
+      <c r="V49" s="27">
+        <v>94</v>
+      </c>
+      <c r="W49" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="X48" s="27">
+      <c r="X49" s="27">
         <v>179.1</v>
       </c>
-      <c r="Y48" s="27">
+      <c r="Y49" s="27">
         <v>0</v>
       </c>
-      <c r="Z48" s="27">
+      <c r="Z49" s="27">
         <v>0</v>
       </c>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="73"/>
-      <c r="AC48" s="73"/>
-      <c r="AD48" s="73"/>
-      <c r="AE48" s="73"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-    </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="60"/>
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="60"/>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="1">
+      <c r="U50" s="18">
+        <v>31.9</v>
+      </c>
+      <c r="V50" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="W50" s="1">
         <v>0</v>
       </c>
-      <c r="X49" s="18">
+      <c r="X50" s="18">
         <v>332.8</v>
       </c>
-      <c r="Y49" s="18">
+      <c r="Y50" s="18">
         <v>280.89999999999998</v>
       </c>
-      <c r="Z49" s="18">
+      <c r="Z50" s="18">
         <v>316.5</v>
       </c>
     </row>
-    <row r="50" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+    <row r="51" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="W50" s="2">
+      <c r="D51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="U51" s="27">
         <v>0</v>
       </c>
-      <c r="X50" s="27">
+      <c r="V51" s="27">
         <v>0</v>
       </c>
-      <c r="Y50" s="27">
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="27">
         <v>0.4</v>
       </c>
-      <c r="Z50" s="27">
+      <c r="Z51" s="27">
         <v>0</v>
       </c>
-      <c r="AA50" s="72"/>
-      <c r="AB50" s="73"/>
-      <c r="AC50" s="73"/>
-      <c r="AD50" s="73"/>
-      <c r="AE50" s="73"/>
-      <c r="AF50" s="73"/>
-      <c r="AG50" s="73"/>
-      <c r="AH50" s="73"/>
-      <c r="AI50" s="73"/>
-    </row>
-    <row r="51" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W51" s="1">
-        <v>28.1</v>
-      </c>
-      <c r="X51" s="18">
-        <v>1.9</v>
-      </c>
-      <c r="Y51" s="18">
-        <v>3.3</v>
-      </c>
-      <c r="Z51" s="18">
-        <v>4.9000000000000004</v>
-      </c>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="60"/>
+      <c r="AE51" s="60"/>
+      <c r="AF51" s="60"/>
+      <c r="AG51" s="60"/>
+      <c r="AH51" s="60"/>
+      <c r="AI51" s="60"/>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
+      </c>
+      <c r="U52" s="18">
+        <v>0</v>
+      </c>
+      <c r="V52" s="18">
+        <v>0</v>
       </c>
       <c r="W52" s="1">
-        <v>0.1</v>
+        <v>28.1</v>
       </c>
       <c r="X52" s="18">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y52" s="18">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Z52" s="18">
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="53" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="U53" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="V53" s="18">
+        <v>2.7</v>
       </c>
       <c r="W53" s="1">
-        <v>5.2</v>
+        <v>0.1</v>
       </c>
       <c r="X53" s="18">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="18">
-        <v>6.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U54" s="18">
+        <v>6.2</v>
+      </c>
+      <c r="V54" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="W54" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="X54" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y54" s="18">
+        <v>15</v>
+      </c>
+      <c r="Z54" s="18">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W54" s="18">
-        <f>SUM(W47:W53)</f>
+      <c r="U55" s="18">
+        <f t="shared" ref="U55:V55" si="34">SUM(U48:U54)</f>
+        <v>368.69999999999993</v>
+      </c>
+      <c r="V55" s="18">
+        <f t="shared" si="34"/>
+        <v>360.19999999999993</v>
+      </c>
+      <c r="W55" s="18">
+        <f>SUM(W48:W54)</f>
         <v>321.20000000000005</v>
       </c>
-      <c r="X54" s="18">
-        <f>SUM(X47:X53)</f>
+      <c r="X55" s="18">
+        <f>SUM(X48:X54)</f>
         <v>829.09999999999991</v>
       </c>
-      <c r="Y54" s="18">
-        <f>SUM(Y47:Y53)</f>
+      <c r="Y55" s="18">
+        <f>SUM(Y48:Y54)</f>
         <v>651.79999999999984</v>
       </c>
-      <c r="Z54" s="18">
-        <f>SUM(Z47:Z53)</f>
+      <c r="Z55" s="18">
+        <f>SUM(Z48:Z54)</f>
         <v>727.09999999999991</v>
       </c>
-    </row>
-    <row r="56" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="P56" s="38"/>
-      <c r="W56" s="18">
-        <v>409.3</v>
-      </c>
-      <c r="X56" s="18">
-        <v>365.8</v>
-      </c>
-      <c r="Y56" s="18">
-        <v>417.8</v>
-      </c>
-      <c r="Z56" s="18">
-        <v>551</v>
-      </c>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="65"/>
-      <c r="AC56" s="65"/>
-      <c r="AD56" s="65"/>
-      <c r="AE56" s="65"/>
-      <c r="AF56" s="65"/>
-      <c r="AG56" s="65"/>
-      <c r="AH56" s="65"/>
-      <c r="AI56" s="65"/>
     </row>
     <row r="57" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="38"/>
       <c r="F57" s="38"/>
@@ -3481,306 +3784,364 @@
       <c r="L57" s="38"/>
       <c r="N57" s="38"/>
       <c r="P57" s="38"/>
+      <c r="U57" s="18">
+        <v>407.5</v>
+      </c>
+      <c r="V57" s="18">
+        <v>421.9</v>
+      </c>
       <c r="W57" s="18">
-        <f>W56+W54</f>
+        <v>409.3</v>
+      </c>
+      <c r="X57" s="18">
+        <v>365.8</v>
+      </c>
+      <c r="Y57" s="18">
+        <v>417.8</v>
+      </c>
+      <c r="Z57" s="18">
+        <v>551</v>
+      </c>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="52"/>
+      <c r="AC57" s="52"/>
+      <c r="AD57" s="52"/>
+      <c r="AE57" s="52"/>
+      <c r="AF57" s="52"/>
+      <c r="AG57" s="52"/>
+      <c r="AH57" s="52"/>
+      <c r="AI57" s="52"/>
+    </row>
+    <row r="58" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="P58" s="38"/>
+      <c r="U58" s="18">
+        <f t="shared" ref="U58:V58" si="35">U57+U55</f>
+        <v>776.19999999999993</v>
+      </c>
+      <c r="V58" s="18">
+        <f t="shared" si="35"/>
+        <v>782.09999999999991</v>
+      </c>
+      <c r="W58" s="18">
+        <f>W57+W55</f>
         <v>730.5</v>
       </c>
-      <c r="X57" s="18">
-        <f>X56+X54</f>
+      <c r="X58" s="18">
+        <f>X57+X55</f>
         <v>1194.8999999999999</v>
       </c>
-      <c r="Y57" s="18">
-        <f>Y56+Y54</f>
+      <c r="Y58" s="18">
+        <f>Y57+Y55</f>
         <v>1069.5999999999999</v>
       </c>
-      <c r="Z57" s="18">
-        <f>Z56+Z54</f>
+      <c r="Z58" s="18">
+        <f>Z57+Z55</f>
         <v>1278.0999999999999</v>
       </c>
-      <c r="AA57" s="64"/>
-      <c r="AB57" s="65"/>
-      <c r="AC57" s="65"/>
-      <c r="AD57" s="65"/>
-      <c r="AE57" s="65"/>
-      <c r="AF57" s="65"/>
-      <c r="AG57" s="65"/>
-      <c r="AH57" s="65"/>
-      <c r="AI57" s="65"/>
-    </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W59" s="18">
-        <f t="shared" ref="W59" si="25">W39-W54</f>
-        <v>409.29999999999995</v>
-      </c>
-      <c r="X59" s="18">
-        <f t="shared" ref="X59:Y59" si="26">X39-X54</f>
-        <v>365.80000000000018</v>
-      </c>
-      <c r="Y59" s="18">
-        <f t="shared" si="26"/>
-        <v>417.8000000000003</v>
-      </c>
-      <c r="Z59" s="18">
-        <f>Z39-Z54</f>
-        <v>551</v>
-      </c>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="52"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="52"/>
+      <c r="AF58" s="52"/>
+      <c r="AG58" s="52"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U60" s="18">
+        <f t="shared" ref="U60:W60" si="36">U40-U55</f>
+        <v>407.50000000000011</v>
+      </c>
+      <c r="V60" s="18">
+        <f t="shared" si="36"/>
+        <v>421.9</v>
+      </c>
+      <c r="W60" s="18">
+        <f t="shared" si="36"/>
+        <v>409.29999999999995</v>
+      </c>
+      <c r="X60" s="18">
+        <f t="shared" ref="X60:Y60" si="37">X40-X55</f>
+        <v>365.80000000000018</v>
+      </c>
+      <c r="Y60" s="18">
+        <f t="shared" si="37"/>
+        <v>417.8000000000003</v>
+      </c>
+      <c r="Z60" s="18">
+        <f>Z40-Z55</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="W60" s="1">
-        <f t="shared" ref="W60" si="27">W59/W14</f>
+      <c r="U61" s="1">
+        <f t="shared" ref="U61:W61" si="38">U60/U14</f>
+        <v>2.0674784373414519</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" si="38"/>
+        <v>2.1243705941591138</v>
+      </c>
+      <c r="W61" s="1">
+        <f t="shared" si="38"/>
         <v>2.0557508789552985</v>
       </c>
-      <c r="X60" s="1">
-        <f t="shared" ref="X60:Y60" si="28">X59/X14</f>
+      <c r="X61" s="1">
+        <f t="shared" ref="X61:Y61" si="39">X60/X14</f>
         <v>1.8372677046710206</v>
       </c>
-      <c r="Y60" s="1">
-        <f t="shared" si="28"/>
+      <c r="Y61" s="1">
+        <f t="shared" si="39"/>
         <v>2.0984429934706195</v>
       </c>
-      <c r="Z60" s="1">
-        <f>Z59/Z14</f>
+      <c r="Z61" s="1">
+        <f>Z60/Z14</f>
         <v>2.6786582401555665</v>
-      </c>
-    </row>
-    <row r="62" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W62" s="18">
-        <f t="shared" ref="W62" si="29">W30+W36+W38</f>
-        <v>13</v>
-      </c>
-      <c r="X62" s="18">
-        <f t="shared" ref="X62:Y62" si="30">X30+X36+X38</f>
-        <v>124.2</v>
-      </c>
-      <c r="Y62" s="18">
-        <f t="shared" si="30"/>
-        <v>67.8</v>
-      </c>
-      <c r="Z62" s="18">
-        <f>Z30+Z36+Z38</f>
-        <v>50.5</v>
       </c>
     </row>
     <row r="63" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="U63" s="18">
+        <f t="shared" ref="U63:W63" si="40">U30+U37+U39</f>
+        <v>21.7</v>
+      </c>
+      <c r="V63" s="18">
+        <f t="shared" si="40"/>
+        <v>27.3</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" ref="W63" si="31">W41+W43+W48+W50</f>
-        <v>93</v>
+        <f t="shared" si="40"/>
+        <v>13</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" ref="X63:Y63" si="32">X41+X43+X48+X50</f>
-        <v>180.4</v>
+        <f t="shared" ref="X63:Y63" si="41">X30+X37+X39</f>
+        <v>124.2</v>
       </c>
       <c r="Y63" s="18">
-        <f t="shared" si="32"/>
-        <v>6.5000000000000009</v>
+        <f t="shared" si="41"/>
+        <v>67.8</v>
       </c>
       <c r="Z63" s="18">
-        <f>Z41+Z43+Z48+Z50</f>
-        <v>0.7</v>
+        <f>Z30+Z37+Z39</f>
+        <v>50.5</v>
       </c>
     </row>
     <row r="64" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U64" s="18">
+        <f t="shared" ref="U64:W64" si="42">U42+U44+U49+U51</f>
+        <v>103.89999999999999</v>
+      </c>
+      <c r="V64" s="18">
+        <f t="shared" si="42"/>
+        <v>120.2</v>
+      </c>
+      <c r="W64" s="18">
+        <f t="shared" si="42"/>
+        <v>93</v>
+      </c>
+      <c r="X64" s="18">
+        <f t="shared" ref="X64:Y64" si="43">X42+X44+X49+X51</f>
+        <v>180.4</v>
+      </c>
+      <c r="Y64" s="18">
+        <f t="shared" si="43"/>
+        <v>6.5000000000000009</v>
+      </c>
+      <c r="Z64" s="18">
+        <f>Z42+Z44+Z49+Z51</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W64" s="18">
-        <f t="shared" ref="W64" si="33">W62-W63</f>
+      <c r="U65" s="18">
+        <f t="shared" ref="U65:W65" si="44">U63-U64</f>
+        <v>-82.199999999999989</v>
+      </c>
+      <c r="V65" s="18">
+        <f t="shared" si="44"/>
+        <v>-92.9</v>
+      </c>
+      <c r="W65" s="18">
+        <f t="shared" si="44"/>
         <v>-80</v>
       </c>
-      <c r="X64" s="18">
-        <f t="shared" ref="X64:Y64" si="34">X62-X63</f>
+      <c r="X65" s="18">
+        <f t="shared" ref="X65:Y65" si="45">X63-X64</f>
         <v>-56.2</v>
       </c>
-      <c r="Y64" s="18">
-        <f t="shared" si="34"/>
+      <c r="Y65" s="18">
+        <f t="shared" si="45"/>
         <v>61.3</v>
       </c>
-      <c r="Z64" s="18">
-        <f>Z62-Z63</f>
+      <c r="Z65" s="18">
+        <f>Z63-Z64</f>
         <v>49.8</v>
       </c>
     </row>
-    <row r="66" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="30" t="s">
+    <row r="67" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="X66" s="30">
-        <f>X33/W33-1</f>
+      <c r="D67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="V67" s="30">
+        <f t="shared" ref="V67:W67" si="46">V34/U34-1</f>
+        <v>2.3024594453165959E-2</v>
+      </c>
+      <c r="W67" s="30">
+        <f t="shared" si="46"/>
+        <v>-0.11150895140664963</v>
+      </c>
+      <c r="X67" s="30">
+        <f>X34/W34-1</f>
         <v>-4.029936672423684E-3</v>
       </c>
-      <c r="Y66" s="30">
-        <f>Y33/X33-1</f>
+      <c r="Y67" s="30">
+        <f>Y34/X34-1</f>
         <v>-0.16820809248554913</v>
       </c>
-      <c r="Z66" s="30">
-        <f>Z33/Y33-1</f>
+      <c r="Z67" s="30">
+        <f>Z34/Y34-1</f>
         <v>0.54343293954134797</v>
       </c>
-      <c r="AA66" s="71"/>
-      <c r="AB66" s="74"/>
-      <c r="AC66" s="74"/>
-      <c r="AD66" s="74"/>
-      <c r="AE66" s="74"/>
-      <c r="AF66" s="74"/>
-      <c r="AG66" s="74"/>
-      <c r="AH66" s="74"/>
-      <c r="AI66" s="74"/>
-    </row>
-    <row r="68" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="40" t="s">
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="61"/>
+      <c r="AC67" s="61"/>
+      <c r="AD67" s="61"/>
+      <c r="AE67" s="61"/>
+      <c r="AF67" s="61"/>
+      <c r="AG67" s="61"/>
+      <c r="AH67" s="61"/>
+      <c r="AI67" s="61"/>
+    </row>
+    <row r="69" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="W68" s="40">
+      <c r="D69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="W69" s="40">
         <v>1.7</v>
       </c>
-      <c r="X68" s="40">
+      <c r="X69" s="40">
         <v>0.60350000000000004</v>
       </c>
-      <c r="Y68" s="40">
+      <c r="Y69" s="40">
         <v>3.5316000000000001</v>
       </c>
-      <c r="Z68" s="40">
+      <c r="Z69" s="40">
         <v>2.4632000000000001</v>
       </c>
-      <c r="AA68" s="75"/>
-      <c r="AB68" s="76"/>
-      <c r="AC68" s="76"/>
-      <c r="AD68" s="76"/>
-      <c r="AE68" s="76"/>
-      <c r="AF68" s="76"/>
-      <c r="AG68" s="76"/>
-      <c r="AH68" s="76"/>
-      <c r="AI68" s="76"/>
-    </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W69" s="18">
-        <f t="shared" ref="W69:X69" si="35">W68*W14</f>
-        <v>338.46999999999997</v>
-      </c>
-      <c r="X69" s="18">
-        <f t="shared" si="35"/>
-        <v>120.15685000000001</v>
-      </c>
-      <c r="Y69" s="18">
-        <f>Y68*Y14</f>
-        <v>703.14156000000003</v>
-      </c>
-      <c r="Z69" s="18">
-        <f>Z68*Z14</f>
-        <v>506.68023999999997</v>
-      </c>
+      <c r="AA69" s="62"/>
+      <c r="AB69" s="63"/>
+      <c r="AC69" s="63"/>
+      <c r="AD69" s="63"/>
+      <c r="AE69" s="63"/>
+      <c r="AF69" s="63"/>
+      <c r="AG69" s="63"/>
+      <c r="AH69" s="63"/>
+      <c r="AI69" s="63"/>
     </row>
     <row r="70" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W70" s="18">
+        <f t="shared" ref="W70:X70" si="47">W69*W14</f>
+        <v>338.46999999999997</v>
+      </c>
+      <c r="X70" s="18">
+        <f t="shared" si="47"/>
+        <v>120.15685000000001</v>
+      </c>
+      <c r="Y70" s="18">
+        <f>Y69*Y14</f>
+        <v>703.14156000000003</v>
+      </c>
+      <c r="Z70" s="18">
+        <f>Z69*Z14</f>
+        <v>506.68023999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W70" s="18">
-        <f>W69-W64</f>
+      <c r="W71" s="18">
+        <f>W70-W65</f>
         <v>418.46999999999997</v>
       </c>
-      <c r="X70" s="18">
-        <f>X69-X64</f>
+      <c r="X71" s="18">
+        <f>X70-X65</f>
         <v>176.35685000000001</v>
       </c>
-      <c r="Y70" s="18">
-        <f>Y69-Y64</f>
+      <c r="Y71" s="18">
+        <f>Y70-Y65</f>
         <v>641.84156000000007</v>
       </c>
-      <c r="Z70" s="18">
-        <f>Z69-Z64</f>
+      <c r="Z71" s="18">
+        <f>Z70-Z65</f>
         <v>456.88023999999996</v>
       </c>
     </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W72" s="43">
-        <f t="shared" ref="W72:Y72" si="36">W68/W60</f>
+      <c r="W73" s="43">
+        <f t="shared" ref="W73:Y73" si="48">W69/W61</f>
         <v>0.82694844857073058</v>
       </c>
-      <c r="X72" s="43">
-        <f t="shared" si="36"/>
+      <c r="X73" s="43">
+        <f t="shared" si="48"/>
         <v>0.32847689994532514</v>
       </c>
-      <c r="Y72" s="43">
-        <f t="shared" si="36"/>
+      <c r="Y73" s="43">
+        <f t="shared" si="48"/>
         <v>1.682962087123024</v>
       </c>
-      <c r="Z72" s="43">
-        <f>Z68/Z60</f>
+      <c r="Z73" s="43">
+        <f>Z69/Z61</f>
         <v>0.91956486388384751</v>
       </c>
-    </row>
-    <row r="73" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="W73" s="43">
-        <f t="shared" ref="W73:Y73" si="37">W69/W4</f>
-        <v>0.29726857544352714</v>
-      </c>
-      <c r="X73" s="43">
-        <f t="shared" si="37"/>
-        <v>0.10402289845035063</v>
-      </c>
-      <c r="Y73" s="43">
-        <f t="shared" si="37"/>
-        <v>0.54410087440996679</v>
-      </c>
-      <c r="Z73" s="43">
-        <f>Z69/Z4</f>
-        <v>0.36994760514018693</v>
-      </c>
-      <c r="AA73" s="77"/>
-      <c r="AB73" s="78"/>
-      <c r="AC73" s="78"/>
-      <c r="AD73" s="78"/>
-      <c r="AE73" s="78"/>
-      <c r="AF73" s="78"/>
-      <c r="AG73" s="78"/>
-      <c r="AH73" s="78"/>
-      <c r="AI73" s="78"/>
     </row>
     <row r="74" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D74" s="44"/>
       <c r="F74" s="44"/>
@@ -3790,34 +4151,34 @@
       <c r="N74" s="44"/>
       <c r="P74" s="44"/>
       <c r="W74" s="43">
-        <f t="shared" ref="W74:Y74" si="38">W70/W4</f>
-        <v>0.36753030036887407</v>
+        <f t="shared" ref="W74:Y74" si="49">W70/W4</f>
+        <v>0.29726857544352714</v>
       </c>
       <c r="X74" s="43">
-        <f t="shared" si="38"/>
-        <v>0.15267669465847114</v>
+        <f t="shared" si="49"/>
+        <v>0.10402289845035063</v>
       </c>
       <c r="Y74" s="43">
-        <f t="shared" si="38"/>
-        <v>0.49666606825040632</v>
+        <f t="shared" si="49"/>
+        <v>0.54410087440996679</v>
       </c>
       <c r="Z74" s="43">
         <f>Z70/Z4</f>
-        <v>0.33358662383177567</v>
-      </c>
-      <c r="AA74" s="77"/>
-      <c r="AB74" s="78"/>
-      <c r="AC74" s="78"/>
-      <c r="AD74" s="78"/>
-      <c r="AE74" s="78"/>
-      <c r="AF74" s="78"/>
-      <c r="AG74" s="78"/>
-      <c r="AH74" s="78"/>
-      <c r="AI74" s="78"/>
+        <v>0.36994760514018693</v>
+      </c>
+      <c r="AA74" s="64"/>
+      <c r="AB74" s="65"/>
+      <c r="AC74" s="65"/>
+      <c r="AD74" s="65"/>
+      <c r="AE74" s="65"/>
+      <c r="AF74" s="65"/>
+      <c r="AG74" s="65"/>
+      <c r="AH74" s="65"/>
+      <c r="AI74" s="65"/>
     </row>
     <row r="75" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D75" s="44"/>
       <c r="F75" s="44"/>
@@ -3827,34 +4188,34 @@
       <c r="N75" s="44"/>
       <c r="P75" s="44"/>
       <c r="W75" s="43">
-        <f t="shared" ref="W75:Y75" si="39">W68/W13</f>
-        <v>8.0780429594272327</v>
+        <f t="shared" ref="W75:Y75" si="50">W71/W4</f>
+        <v>0.36753030036887407</v>
       </c>
       <c r="X75" s="43">
-        <f t="shared" si="39"/>
-        <v>6.8661057142857596</v>
+        <f t="shared" si="50"/>
+        <v>0.15267669465847114</v>
       </c>
       <c r="Y75" s="43">
-        <f t="shared" si="39"/>
-        <v>13.216946616541351</v>
+        <f t="shared" si="50"/>
+        <v>0.49666606825040632</v>
       </c>
       <c r="Z75" s="43">
-        <f>Z68/Z13</f>
-        <v>6.520981209781211</v>
-      </c>
-      <c r="AA75" s="77"/>
-      <c r="AB75" s="78"/>
-      <c r="AC75" s="78"/>
-      <c r="AD75" s="78"/>
-      <c r="AE75" s="78"/>
-      <c r="AF75" s="78"/>
-      <c r="AG75" s="78"/>
-      <c r="AH75" s="78"/>
-      <c r="AI75" s="78"/>
+        <f>Z71/Z4</f>
+        <v>0.33358662383177567</v>
+      </c>
+      <c r="AA75" s="64"/>
+      <c r="AB75" s="65"/>
+      <c r="AC75" s="65"/>
+      <c r="AD75" s="65"/>
+      <c r="AE75" s="65"/>
+      <c r="AF75" s="65"/>
+      <c r="AG75" s="65"/>
+      <c r="AH75" s="65"/>
+      <c r="AI75" s="65"/>
     </row>
     <row r="76" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76" s="44"/>
       <c r="F76" s="44"/>
@@ -3864,33 +4225,70 @@
       <c r="N76" s="44"/>
       <c r="P76" s="44"/>
       <c r="W76" s="43">
-        <f t="shared" ref="W76:Y76" si="40">W70/W12</f>
+        <f t="shared" ref="W76:Y76" si="51">W69/W13</f>
+        <v>8.0780429594272327</v>
+      </c>
+      <c r="X76" s="43">
+        <f t="shared" si="51"/>
+        <v>6.8661057142857596</v>
+      </c>
+      <c r="Y76" s="43">
+        <f t="shared" si="51"/>
+        <v>13.216946616541351</v>
+      </c>
+      <c r="Z76" s="43">
+        <f>Z69/Z13</f>
+        <v>6.520981209781211</v>
+      </c>
+      <c r="AA76" s="64"/>
+      <c r="AB76" s="65"/>
+      <c r="AC76" s="65"/>
+      <c r="AD76" s="65"/>
+      <c r="AE76" s="65"/>
+      <c r="AF76" s="65"/>
+      <c r="AG76" s="65"/>
+      <c r="AH76" s="65"/>
+      <c r="AI76" s="65"/>
+    </row>
+    <row r="77" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="W77" s="43">
+        <f t="shared" ref="W77:Y77" si="52">W71/W12</f>
         <v>9.9873508353222267</v>
       </c>
-      <c r="X76" s="43">
-        <f t="shared" si="40"/>
+      <c r="X77" s="43">
+        <f t="shared" si="52"/>
         <v>10.077534285714352</v>
       </c>
-      <c r="Y76" s="43">
-        <f t="shared" si="40"/>
+      <c r="Y77" s="43">
+        <f t="shared" si="52"/>
         <v>12.064690977443609</v>
       </c>
-      <c r="Z76" s="43">
-        <f>Z70/Z12</f>
+      <c r="Z77" s="43">
+        <f>Z71/Z12</f>
         <v>5.8800545688545691</v>
       </c>
-      <c r="AA76" s="77"/>
-      <c r="AB76" s="78"/>
-      <c r="AC76" s="78"/>
-      <c r="AD76" s="78"/>
-      <c r="AE76" s="78"/>
-      <c r="AF76" s="78"/>
-      <c r="AG76" s="78"/>
-      <c r="AH76" s="78"/>
-      <c r="AI76" s="78"/>
-    </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B79" s="31" t="s">
+      <c r="AA77" s="64"/>
+      <c r="AB77" s="65"/>
+      <c r="AC77" s="65"/>
+      <c r="AD77" s="65"/>
+      <c r="AE77" s="65"/>
+      <c r="AF77" s="65"/>
+      <c r="AG77" s="65"/>
+      <c r="AH77" s="65"/>
+      <c r="AI77" s="65"/>
+    </row>
+    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="B80" s="31" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3899,11 +4297,12 @@
   <hyperlinks>
     <hyperlink ref="Z1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
     <hyperlink ref="X1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
+    <hyperlink ref="V1" r:id="rId3" xr:uid="{13285A00-2106-4F98-B9F0-34A6A260A094}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="X9 AA7 AA11 AA9 AB11:AI11 AB9:AI9 AB7:AC7 AD7:AI7" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FBC16-C188-4612-A0F9-F113D7C4C33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AAC932-F34C-41C2-A30A-B1E9B84030FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>£HLF</t>
   </si>
@@ -374,6 +374,27 @@
   </si>
   <si>
     <t>Investments</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current SP</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -609,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,12 +742,14 @@
     <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,20 +765,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,22 +1299,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="G5" s="69" t="s">
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
+      <c r="G5" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="71"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1455,11 +1482,11 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1474,10 +1501,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="75"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1492,10 +1519,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="75"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1510,10 +1537,10 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="75"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1528,10 +1555,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="79"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1543,61 +1570,61 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="75"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="74">
         <v>1892</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="75"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="74">
         <v>2004</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="74">
         <f>'Financial Model'!Z34</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="75"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="73"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="75"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1614,77 +1641,83 @@
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="77"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="71"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="73"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="67">
         <f>C6/'Financial Model'!Z61</f>
         <v>0.64957894736842103</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="68"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="67">
         <f>C8/'Financial Model'!Z4</f>
         <v>0.26133031542056079</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="68"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="67">
         <f>C12/'Financial Model'!Z4</f>
         <v>0.22496933411214953</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="68"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="67">
         <f>C6/'Financial Model'!Z13</f>
         <v>4.6064092664092673</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="68"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="67">
         <f>C12/'Financial Model'!Z12</f>
         <v>3.9654826254826259</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="68"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1701,12 +1734,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1719,13 +1746,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
-  <dimension ref="B1:AI80"/>
+  <dimension ref="B1:CS80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1749,10 +1776,12 @@
     <col min="17" max="26" width="9.140625" style="1"/>
     <col min="27" max="27" width="9.140625" style="57"/>
     <col min="28" max="35" width="9.140625" style="54"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="36" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:97" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>34</v>
       </c>
@@ -1847,7 +1876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:97" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
       <c r="D2" s="35"/>
       <c r="F2" s="35"/>
@@ -1894,7 +1923,7 @@
       <c r="AH2" s="48"/>
       <c r="AI2" s="48"/>
     </row>
-    <row r="3" spans="2:35" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:97" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="22"/>
       <c r="D3" s="35"/>
       <c r="F3" s="35"/>
@@ -1923,7 +1952,7 @@
       <c r="AH3" s="48"/>
       <c r="AI3" s="48"/>
     </row>
-    <row r="4" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
@@ -1962,34 +1991,34 @@
       </c>
       <c r="AC4" s="50">
         <f t="shared" ref="AC4:AI4" si="0">AB4*(1+AC16)</f>
-        <v>1585.4831999999999</v>
+        <v>1555.28352</v>
       </c>
       <c r="AD4" s="50">
         <f t="shared" si="0"/>
-        <v>1664.7573600000001</v>
+        <v>1586.3891904</v>
       </c>
       <c r="AE4" s="50">
         <f t="shared" si="0"/>
-        <v>1698.0525072</v>
+        <v>1618.1169742080001</v>
       </c>
       <c r="AF4" s="50">
         <f t="shared" si="0"/>
-        <v>1732.013557344</v>
+        <v>1650.4793136921601</v>
       </c>
       <c r="AG4" s="50">
         <f t="shared" si="0"/>
-        <v>1766.65382849088</v>
+        <v>1683.4888999660034</v>
       </c>
       <c r="AH4" s="50">
         <f t="shared" si="0"/>
-        <v>1801.9869050606976</v>
+        <v>1717.1586779653235</v>
       </c>
       <c r="AI4" s="50">
         <f t="shared" si="0"/>
-        <v>1838.0266431619116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.2">
+        <v>1751.50185152463</v>
+      </c>
+    </row>
+    <row r="5" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
@@ -2021,34 +2050,34 @@
       </c>
       <c r="AC5" s="52">
         <f t="shared" si="1"/>
-        <v>745.17710399999987</v>
+        <v>730.98325439999996</v>
       </c>
       <c r="AD5" s="52">
         <f t="shared" si="1"/>
-        <v>782.43595919999996</v>
+        <v>745.60291948799988</v>
       </c>
       <c r="AE5" s="52">
         <f t="shared" si="1"/>
-        <v>798.08467838399997</v>
+        <v>760.51497787775997</v>
       </c>
       <c r="AF5" s="52">
         <f t="shared" si="1"/>
-        <v>814.04637195167993</v>
+        <v>775.72527743531521</v>
       </c>
       <c r="AG5" s="52">
         <f t="shared" si="1"/>
-        <v>830.32729939071351</v>
+        <v>791.23978298402153</v>
       </c>
       <c r="AH5" s="52">
         <f t="shared" si="1"/>
-        <v>846.93384537852785</v>
+        <v>807.06457864370202</v>
       </c>
       <c r="AI5" s="52">
         <f t="shared" si="1"/>
-        <v>863.87252228609839</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>823.20587021657605</v>
+      </c>
+    </row>
+    <row r="6" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
@@ -2093,34 +2122,34 @@
       </c>
       <c r="AC6" s="27">
         <f t="shared" si="3"/>
-        <v>840.30609600000003</v>
+        <v>824.30026559999999</v>
       </c>
       <c r="AD6" s="27">
         <f t="shared" si="3"/>
-        <v>882.32140080000011</v>
+        <v>840.78627091200008</v>
       </c>
       <c r="AE6" s="27">
         <f t="shared" si="3"/>
-        <v>899.96782881600006</v>
+        <v>857.60199633024013</v>
       </c>
       <c r="AF6" s="27">
         <f t="shared" si="3"/>
-        <v>917.96718539232006</v>
+        <v>874.75403625684487</v>
       </c>
       <c r="AG6" s="27">
         <f t="shared" si="3"/>
-        <v>936.32652910016645</v>
+        <v>892.24911698198184</v>
       </c>
       <c r="AH6" s="27">
         <f t="shared" si="3"/>
-        <v>955.05305968216976</v>
+        <v>910.09409932162146</v>
       </c>
       <c r="AI6" s="27">
         <f t="shared" si="3"/>
-        <v>974.15412087581319</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
+        <v>928.29598130805391</v>
+      </c>
+    </row>
+    <row r="7" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -2179,7 +2208,7 @@
         <v>893.4941246097394</v>
       </c>
     </row>
-    <row r="8" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
@@ -2224,34 +2253,34 @@
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="7"/>
-        <v>92.018833200000017</v>
+        <v>76.013002799999981</v>
       </c>
       <c r="AD8" s="27">
         <f t="shared" si="7"/>
-        <v>111.58552011600011</v>
+        <v>70.050390228000083</v>
       </c>
       <c r="AE8" s="27">
         <f t="shared" si="7"/>
-        <v>106.10987171148008</v>
+        <v>63.744039225720144</v>
       </c>
       <c r="AF8" s="27">
         <f t="shared" si="7"/>
-        <v>100.29348957466448</v>
+        <v>57.080340439189285</v>
       </c>
       <c r="AG8" s="27">
         <f t="shared" si="7"/>
-        <v>94.122622407981225</v>
+        <v>50.045210289796614</v>
       </c>
       <c r="AH8" s="27">
         <f t="shared" si="7"/>
-        <v>87.583035789218911</v>
+        <v>42.624075428670608</v>
       </c>
       <c r="AI8" s="27">
         <f t="shared" si="7"/>
-        <v>80.65999626607379</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.2">
+        <v>34.801856698314509</v>
+      </c>
+    </row>
+    <row r="9" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
@@ -2311,7 +2340,7 @@
         <v>13.090728759765627</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -2349,34 +2378,34 @@
       </c>
       <c r="AC10" s="18">
         <f t="shared" si="10"/>
-        <v>78.793833200000023</v>
+        <v>62.78800279999998</v>
       </c>
       <c r="AD10" s="18">
         <f t="shared" si="10"/>
-        <v>98.804270116000112</v>
+        <v>57.269140228000083</v>
       </c>
       <c r="AE10" s="18">
         <f t="shared" si="10"/>
-        <v>92.958309211480085</v>
+        <v>50.592476725720147</v>
       </c>
       <c r="AF10" s="18">
         <f t="shared" si="10"/>
-        <v>87.17903644966448</v>
+        <v>43.965887314189288</v>
       </c>
       <c r="AG10" s="18">
         <f t="shared" si="10"/>
-        <v>81.054556001731228</v>
+        <v>36.977143883546617</v>
       </c>
       <c r="AH10" s="18">
         <f t="shared" si="10"/>
-        <v>74.554202781406417</v>
+        <v>29.595242420858106</v>
       </c>
       <c r="AI10" s="18">
         <f t="shared" si="10"/>
-        <v>67.569267506308165</v>
-      </c>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
+        <v>21.711127938548884</v>
+      </c>
+    </row>
+    <row r="11" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
@@ -2408,34 +2437,34 @@
       </c>
       <c r="AC11" s="52">
         <f t="shared" si="11"/>
-        <v>15.758766640000005</v>
+        <v>12.557600559999997</v>
       </c>
       <c r="AD11" s="52">
         <f t="shared" si="11"/>
-        <v>19.760854023200025</v>
+        <v>11.453828045600018</v>
       </c>
       <c r="AE11" s="52">
         <f t="shared" si="11"/>
-        <v>18.591661842296016</v>
+        <v>10.11849534514403</v>
       </c>
       <c r="AF11" s="52">
         <f t="shared" si="11"/>
-        <v>17.435807289932896</v>
+        <v>8.7931774628378587</v>
       </c>
       <c r="AG11" s="52">
         <f t="shared" si="11"/>
-        <v>16.210911200346246</v>
+        <v>7.3954287767093234</v>
       </c>
       <c r="AH11" s="52">
         <f t="shared" si="11"/>
-        <v>14.910840556281284</v>
+        <v>5.919048484171622</v>
       </c>
       <c r="AI11" s="52">
         <f t="shared" si="11"/>
-        <v>13.513853501261634</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4.3422255877097768</v>
+      </c>
+    </row>
+    <row r="12" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
@@ -2480,99 +2509,347 @@
       </c>
       <c r="AC12" s="27">
         <f t="shared" si="13"/>
-        <v>63.035066560000018</v>
+        <v>50.230402239999982</v>
       </c>
       <c r="AD12" s="27">
         <f t="shared" si="13"/>
-        <v>79.043416092800086</v>
+        <v>45.815312182400064</v>
       </c>
       <c r="AE12" s="27">
         <f t="shared" si="13"/>
-        <v>74.366647369184065</v>
+        <v>40.47398138057612</v>
       </c>
       <c r="AF12" s="27">
         <f t="shared" si="13"/>
-        <v>69.743229159731584</v>
+        <v>35.172709851351428</v>
       </c>
       <c r="AG12" s="27">
         <f t="shared" si="13"/>
-        <v>64.843644801384983</v>
+        <v>29.581715106837294</v>
       </c>
       <c r="AH12" s="27">
         <f t="shared" si="13"/>
-        <v>59.643362225125131</v>
+        <v>23.676193936686484</v>
       </c>
       <c r="AI12" s="27">
         <f t="shared" si="13"/>
-        <v>54.055414005046529</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
+        <v>17.368902350839107</v>
+      </c>
+      <c r="AJ12" s="27">
+        <f>AI12*(1+$AL$19)</f>
+        <v>17.71628039785589</v>
+      </c>
+      <c r="AK12" s="27">
+        <f t="shared" ref="AK12:CS12" si="14">AJ12*(1+$AL$19)</f>
+        <v>18.070606005813008</v>
+      </c>
+      <c r="AL12" s="27">
+        <f t="shared" si="14"/>
+        <v>18.432018125929268</v>
+      </c>
+      <c r="AM12" s="27">
+        <f t="shared" si="14"/>
+        <v>18.800658488447855</v>
+      </c>
+      <c r="AN12" s="27">
+        <f t="shared" si="14"/>
+        <v>19.176671658216812</v>
+      </c>
+      <c r="AO12" s="27">
+        <f t="shared" si="14"/>
+        <v>19.56020509138115</v>
+      </c>
+      <c r="AP12" s="27">
+        <f t="shared" si="14"/>
+        <v>19.951409193208772</v>
+      </c>
+      <c r="AQ12" s="27">
+        <f t="shared" si="14"/>
+        <v>20.350437377072947</v>
+      </c>
+      <c r="AR12" s="27">
+        <f t="shared" si="14"/>
+        <v>20.757446124614408</v>
+      </c>
+      <c r="AS12" s="27">
+        <f t="shared" si="14"/>
+        <v>21.172595047106697</v>
+      </c>
+      <c r="AT12" s="27">
+        <f t="shared" si="14"/>
+        <v>21.59604694804883</v>
+      </c>
+      <c r="AU12" s="27">
+        <f t="shared" si="14"/>
+        <v>22.027967887009808</v>
+      </c>
+      <c r="AV12" s="27">
+        <f t="shared" si="14"/>
+        <v>22.468527244750003</v>
+      </c>
+      <c r="AW12" s="27">
+        <f t="shared" si="14"/>
+        <v>22.917897789645004</v>
+      </c>
+      <c r="AX12" s="27">
+        <f t="shared" si="14"/>
+        <v>23.376255745437906</v>
+      </c>
+      <c r="AY12" s="27">
+        <f t="shared" si="14"/>
+        <v>23.843780860346666</v>
+      </c>
+      <c r="AZ12" s="27">
+        <f t="shared" si="14"/>
+        <v>24.320656477553598</v>
+      </c>
+      <c r="BA12" s="27">
+        <f t="shared" si="14"/>
+        <v>24.807069607104669</v>
+      </c>
+      <c r="BB12" s="27">
+        <f t="shared" si="14"/>
+        <v>25.303210999246762</v>
+      </c>
+      <c r="BC12" s="27">
+        <f t="shared" si="14"/>
+        <v>25.809275219231697</v>
+      </c>
+      <c r="BD12" s="27">
+        <f t="shared" si="14"/>
+        <v>26.325460723616331</v>
+      </c>
+      <c r="BE12" s="27">
+        <f t="shared" si="14"/>
+        <v>26.851969938088658</v>
+      </c>
+      <c r="BF12" s="27">
+        <f t="shared" si="14"/>
+        <v>27.389009336850432</v>
+      </c>
+      <c r="BG12" s="27">
+        <f t="shared" si="14"/>
+        <v>27.936789523587439</v>
+      </c>
+      <c r="BH12" s="27">
+        <f t="shared" si="14"/>
+        <v>28.49552531405919</v>
+      </c>
+      <c r="BI12" s="27">
+        <f t="shared" si="14"/>
+        <v>29.065435820340376</v>
+      </c>
+      <c r="BJ12" s="27">
+        <f t="shared" si="14"/>
+        <v>29.646744536747185</v>
+      </c>
+      <c r="BK12" s="27">
+        <f t="shared" si="14"/>
+        <v>30.23967942748213</v>
+      </c>
+      <c r="BL12" s="27">
+        <f t="shared" si="14"/>
+        <v>30.844473016031774</v>
+      </c>
+      <c r="BM12" s="27">
+        <f t="shared" si="14"/>
+        <v>31.461362476352409</v>
+      </c>
+      <c r="BN12" s="27">
+        <f t="shared" si="14"/>
+        <v>32.090589725879461</v>
+      </c>
+      <c r="BO12" s="27">
+        <f t="shared" si="14"/>
+        <v>32.732401520397048</v>
+      </c>
+      <c r="BP12" s="27">
+        <f t="shared" si="14"/>
+        <v>33.387049550804988</v>
+      </c>
+      <c r="BQ12" s="27">
+        <f t="shared" si="14"/>
+        <v>34.054790541821092</v>
+      </c>
+      <c r="BR12" s="27">
+        <f t="shared" si="14"/>
+        <v>34.735886352657516</v>
+      </c>
+      <c r="BS12" s="27">
+        <f t="shared" si="14"/>
+        <v>35.430604079710669</v>
+      </c>
+      <c r="BT12" s="27">
+        <f t="shared" si="14"/>
+        <v>36.13921616130488</v>
+      </c>
+      <c r="BU12" s="27">
+        <f t="shared" si="14"/>
+        <v>36.862000484530981</v>
+      </c>
+      <c r="BV12" s="27">
+        <f t="shared" si="14"/>
+        <v>37.599240494221604</v>
+      </c>
+      <c r="BW12" s="27">
+        <f t="shared" si="14"/>
+        <v>38.351225304106038</v>
+      </c>
+      <c r="BX12" s="27">
+        <f t="shared" si="14"/>
+        <v>39.118249810188161</v>
+      </c>
+      <c r="BY12" s="27">
+        <f t="shared" si="14"/>
+        <v>39.900614806391921</v>
+      </c>
+      <c r="BZ12" s="27">
+        <f t="shared" si="14"/>
+        <v>40.698627102519758</v>
+      </c>
+      <c r="CA12" s="27">
+        <f t="shared" si="14"/>
+        <v>41.512599644570152</v>
+      </c>
+      <c r="CB12" s="27">
+        <f t="shared" si="14"/>
+        <v>42.342851637461557</v>
+      </c>
+      <c r="CC12" s="27">
+        <f t="shared" si="14"/>
+        <v>43.189708670210791</v>
+      </c>
+      <c r="CD12" s="27">
+        <f t="shared" si="14"/>
+        <v>44.053502843615007</v>
+      </c>
+      <c r="CE12" s="27">
+        <f t="shared" si="14"/>
+        <v>44.934572900487311</v>
+      </c>
+      <c r="CF12" s="27">
+        <f t="shared" si="14"/>
+        <v>45.833264358497061</v>
+      </c>
+      <c r="CG12" s="27">
+        <f t="shared" si="14"/>
+        <v>46.749929645667002</v>
+      </c>
+      <c r="CH12" s="27">
+        <f t="shared" si="14"/>
+        <v>47.684928238580341</v>
+      </c>
+      <c r="CI12" s="27">
+        <f t="shared" si="14"/>
+        <v>48.638626803351947</v>
+      </c>
+      <c r="CJ12" s="27">
+        <f t="shared" si="14"/>
+        <v>49.611399339418988</v>
+      </c>
+      <c r="CK12" s="27">
+        <f t="shared" si="14"/>
+        <v>50.603627326207366</v>
+      </c>
+      <c r="CL12" s="27">
+        <f t="shared" si="14"/>
+        <v>51.615699872731511</v>
+      </c>
+      <c r="CM12" s="27">
+        <f t="shared" si="14"/>
+        <v>52.648013870186141</v>
+      </c>
+      <c r="CN12" s="27">
+        <f t="shared" si="14"/>
+        <v>53.700974147589868</v>
+      </c>
+      <c r="CO12" s="27">
+        <f t="shared" si="14"/>
+        <v>54.774993630541665</v>
+      </c>
+      <c r="CP12" s="27">
+        <f t="shared" si="14"/>
+        <v>55.870493503152503</v>
+      </c>
+      <c r="CQ12" s="27">
+        <f t="shared" si="14"/>
+        <v>56.987903373215552</v>
+      </c>
+      <c r="CR12" s="27">
+        <f t="shared" si="14"/>
+        <v>58.127661440679866</v>
+      </c>
+      <c r="CS12" s="27">
+        <f t="shared" si="14"/>
+        <v>59.290214669493466</v>
+      </c>
+    </row>
+    <row r="13" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
       <c r="U13" s="28">
-        <f t="shared" ref="U13" si="14">U12/U14</f>
+        <f t="shared" ref="U13" si="15">U12/U14</f>
         <v>0.28614916286149189</v>
       </c>
       <c r="V13" s="28">
-        <f t="shared" ref="V13" si="15">V12/V14</f>
+        <f t="shared" ref="V13" si="16">V12/V14</f>
         <v>0.2754279959718024</v>
       </c>
       <c r="W13" s="28">
-        <f t="shared" ref="W13:AB13" si="16">W12/W14</f>
+        <f t="shared" ref="W13:AB13" si="17">W12/W14</f>
         <v>0.21044701155198325</v>
       </c>
       <c r="X13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.7895529884479587E-2</v>
       </c>
       <c r="Y13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26720241084881974</v>
       </c>
       <c r="Z13" s="28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.37773456490034024</v>
       </c>
       <c r="AA13" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.32244783665532362</v>
       </c>
       <c r="AB13" s="66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.31525577053962084</v>
       </c>
       <c r="AC13" s="66">
-        <f t="shared" ref="AC13:AI13" si="17">AC12/AC14</f>
-        <v>0.30644174312105016</v>
+        <f t="shared" ref="AC13:AI13" si="18">AC12/AC14</f>
+        <v>0.244192524258629</v>
       </c>
       <c r="AD13" s="66">
-        <f t="shared" si="17"/>
-        <v>0.38426551333398196</v>
+        <f t="shared" si="18"/>
+        <v>0.22272879038599935</v>
       </c>
       <c r="AE13" s="66">
-        <f t="shared" si="17"/>
-        <v>0.36152964204756477</v>
+        <f t="shared" si="18"/>
+        <v>0.19676218464062287</v>
       </c>
       <c r="AF13" s="66">
-        <f t="shared" si="17"/>
-        <v>0.33905313154949729</v>
+        <f t="shared" si="18"/>
+        <v>0.1709903249944163</v>
       </c>
       <c r="AG13" s="66">
-        <f t="shared" si="17"/>
-        <v>0.31523405348266886</v>
+        <f t="shared" si="18"/>
+        <v>0.1438099907964866</v>
       </c>
       <c r="AH13" s="66">
-        <f t="shared" si="17"/>
-        <v>0.2899531464517508</v>
+        <f t="shared" si="18"/>
+        <v>0.11510060251184485</v>
       </c>
       <c r="AI13" s="66">
-        <f t="shared" si="17"/>
-        <v>0.26278762277611345</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>8.4438027957409373E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2603,35 +2880,35 @@
         <v>205.7</v>
       </c>
       <c r="AC14" s="52">
-        <f t="shared" ref="AC14:AI14" si="18">AB14</f>
+        <f t="shared" ref="AC14:AI14" si="19">AB14</f>
         <v>205.7</v>
       </c>
       <c r="AD14" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
       <c r="AE14" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
       <c r="AF14" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
       <c r="AG14" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
       <c r="AH14" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
       <c r="AI14" s="52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
     </row>
-    <row r="16" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -2643,11 +2920,11 @@
       <c r="N16" s="36"/>
       <c r="P16" s="36"/>
       <c r="V16" s="29">
-        <f t="shared" ref="V16:W16" si="19">V4/U4-1</f>
+        <f t="shared" ref="V16:W16" si="20">V4/U4-1</f>
         <v>3.6621004566209869E-2</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.0834287727954379E-3</v>
       </c>
       <c r="X16" s="29">
@@ -2669,10 +2946,10 @@
         <v>0.05</v>
       </c>
       <c r="AC16" s="56">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AD16" s="56">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AE16" s="56">
         <v>0.02</v>
@@ -2690,7 +2967,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
@@ -2719,28 +2996,28 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="U19" s="30">
-        <f t="shared" ref="U19:W19" si="20">U6/U4</f>
+        <f t="shared" ref="U19:W19" si="21">U6/U4</f>
         <v>0.51013698630136983</v>
       </c>
       <c r="V19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.50233459607083075</v>
       </c>
       <c r="W19" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.50851923414719824</v>
       </c>
       <c r="X19" s="30">
-        <f t="shared" ref="X19:Y19" si="21">X6/X4</f>
+        <f t="shared" ref="X19:Y19" si="22">X6/X4</f>
         <v>0.51051856982079469</v>
       </c>
       <c r="Y19" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.50785421341793702</v>
       </c>
       <c r="Z19" s="30">
@@ -2774,29 +3051,35 @@
       <c r="AI19" s="61">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AK19" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL19" s="81">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="U20" s="30">
-        <f t="shared" ref="U20:W20" si="22">U8/U4</f>
+        <f t="shared" ref="U20:W20" si="23">U8/U4</f>
         <v>6.7305936073059403E-2</v>
       </c>
       <c r="V20" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6.1492379526032911E-2</v>
       </c>
       <c r="W20" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.7777972949235789E-2</v>
       </c>
       <c r="X20" s="30">
-        <f t="shared" ref="X20:Y20" si="23">X8/X4</f>
+        <f t="shared" ref="X20:Y20" si="24">X8/X4</f>
         <v>2.8568955068825112E-2</v>
       </c>
       <c r="Y20" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.1518223322757873E-2</v>
       </c>
       <c r="Z20" s="30">
@@ -2808,60 +3091,66 @@
         <v>6.6901285046729028E-2</v>
       </c>
       <c r="AB20" s="30">
-        <f t="shared" ref="AB20:AI20" si="24">AB8/AB4</f>
+        <f t="shared" ref="AB20:AI20" si="25">AB8/AB4</f>
         <v>6.2490821094793064E-2</v>
       </c>
       <c r="AC20" s="30">
-        <f t="shared" si="24"/>
-        <v>5.8038352724267293E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.8874048893670516E-2</v>
       </c>
       <c r="AD20" s="30">
-        <f t="shared" si="24"/>
-        <v>6.7028098386662252E-2</v>
+        <f t="shared" si="25"/>
+        <v>4.4157127804392841E-2</v>
       </c>
       <c r="AE20" s="30">
-        <f t="shared" si="24"/>
-        <v>6.2489158174766767E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.9393962390710448E-2</v>
       </c>
       <c r="AF20" s="30">
-        <f t="shared" si="24"/>
-        <v>5.7905718549029178E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.4584099276893848E-2</v>
       </c>
       <c r="AG20" s="30">
-        <f t="shared" si="24"/>
-        <v>5.3277343240686337E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.9727080642353645E-2</v>
       </c>
       <c r="AH20" s="30">
-        <f t="shared" si="24"/>
-        <v>4.8603591703830273E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.4822444178062945E-2</v>
       </c>
       <c r="AI20" s="30">
-        <f t="shared" si="24"/>
-        <v>4.3884019073475673E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1.9869723042553758E-2</v>
+      </c>
+      <c r="AK20" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL20" s="82">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="U21" s="30">
-        <f t="shared" ref="U21:W21" si="25">U12/U4</f>
+        <f t="shared" ref="U21:W21" si="26">U12/U4</f>
         <v>5.1506849315068534E-2</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>4.818958682054441E-2</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3.6799578429650329E-2</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" ref="X21:Y21" si="26">X12/X4</f>
+        <f t="shared" ref="X21:Y21" si="27">X12/X4</f>
         <v>1.5150203445589028E-2</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>4.1166911707807785E-2</v>
       </c>
       <c r="Z21" s="30">
@@ -2873,60 +3162,67 @@
         <v>4.6122274143302229E-2</v>
       </c>
       <c r="AB21" s="30">
-        <f t="shared" ref="AB21:AI21" si="27">AB12/AB4</f>
+        <f t="shared" ref="AB21:AI21" si="28">AB12/AB4</f>
         <v>4.294622459575731E-2</v>
       </c>
       <c r="AC21" s="30">
-        <f t="shared" si="27"/>
-        <v>3.9757637646365487E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.2296620901634696E-2</v>
       </c>
       <c r="AD21" s="30">
-        <f t="shared" si="27"/>
-        <v>4.748044249091056E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.8880247331266779E-2</v>
       </c>
       <c r="AE21" s="30">
-        <f t="shared" si="27"/>
-        <v>4.3795257834406305E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.5013013289960959E-2</v>
       </c>
       <c r="AF21" s="30">
-        <f t="shared" si="27"/>
-        <v>4.0267138131806025E-2</v>
+        <f t="shared" si="28"/>
+        <v>2.1310603265101983E-2</v>
       </c>
       <c r="AG21" s="30">
-        <f t="shared" si="27"/>
-        <v>3.6704216613152818E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.7571672202551899E-2</v>
       </c>
       <c r="AH21" s="30">
-        <f t="shared" si="27"/>
-        <v>3.3098665732599272E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.3788005873016125E-2</v>
       </c>
       <c r="AI21" s="30">
-        <f t="shared" si="27"/>
-        <v>2.9409483375092072E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
+        <f t="shared" si="28"/>
+        <v>9.9165766429079125E-3</v>
+      </c>
+      <c r="AK21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL21" s="83">
+        <f>NPV(AL20,AA12:CS12)</f>
+        <v>536.61304829928838</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="U22" s="30">
-        <f t="shared" ref="U22:W22" si="28">U11/U10</f>
+        <f t="shared" ref="U22:W22" si="29">U11/U10</f>
         <v>0.21008403361344524</v>
       </c>
       <c r="V22" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.18479880774962756</v>
       </c>
       <c r="W22" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.17843137254902008</v>
       </c>
       <c r="X22" s="30">
-        <f t="shared" ref="X22:Y22" si="29">X11/X10</f>
+        <f t="shared" ref="X22:Y22" si="30">X11/X10</f>
         <v>9.7938144329897489E-2</v>
       </c>
       <c r="Y22" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.17519379844961241</v>
       </c>
       <c r="Z22" s="30">
@@ -2941,40 +3237,81 @@
         <v>0.2</v>
       </c>
       <c r="AC22" s="61">
-        <f t="shared" ref="AC22:AI22" si="30">AB22</f>
+        <f t="shared" ref="AC22:AI22" si="31">AB22</f>
         <v>0.2</v>
       </c>
       <c r="AD22" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="AE22" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="AF22" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="AG22" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="AH22" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
       <c r="AI22" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AK22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL22" s="83">
+        <f>Main!C11</f>
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AK23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL23" s="83">
+        <f>AL21-AL22</f>
+        <v>486.81304829928837</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AK24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL24" s="84">
+        <f>AL23/Main!C7</f>
+        <v>2.3666166665011588</v>
+      </c>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AK25" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL25" s="7">
+        <f>Main!C6</f>
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B26" s="31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AK26" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL26" s="85">
+        <f>AL24/AL25-1</f>
+        <v>0.36012452097767755</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2997,7 +3334,7 @@
         <v>442.4</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3020,7 +3357,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="29" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
@@ -3043,7 +3380,7 @@
         <v>350.2</v>
       </c>
     </row>
-    <row r="30" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
@@ -3082,7 +3419,7 @@
       <c r="AH30" s="60"/>
       <c r="AI30" s="60"/>
     </row>
-    <row r="31" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
@@ -3105,7 +3442,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="32" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
@@ -3133,27 +3470,27 @@
         <v>85</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" ref="U33:Z33" si="31">SUM(U27:U32)</f>
+        <f t="shared" ref="U33:Z33" si="32">SUM(U27:U32)</f>
         <v>505.00000000000006</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>503.3</v>
       </c>
       <c r="W33" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>484.7</v>
       </c>
       <c r="X33" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>835.99999999999989</v>
       </c>
       <c r="Y33" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>774.80000000000007</v>
       </c>
       <c r="Z33" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>909</v>
       </c>
     </row>
@@ -3348,23 +3685,23 @@
         <v>90</v>
       </c>
       <c r="U40" s="18">
-        <f t="shared" ref="U40:Y40" si="32">SUM(U33:U39)</f>
+        <f t="shared" ref="U40:Y40" si="33">SUM(U33:U39)</f>
         <v>776.2</v>
       </c>
       <c r="V40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>782.09999999999991</v>
       </c>
       <c r="W40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>730.5</v>
       </c>
       <c r="X40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1194.9000000000001</v>
       </c>
       <c r="Y40" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1069.6000000000001</v>
       </c>
       <c r="Z40" s="18">
@@ -3550,11 +3887,11 @@
         <v>96</v>
       </c>
       <c r="U48" s="18">
-        <f t="shared" ref="U48:V48" si="33">SUM(U42:U47)</f>
+        <f t="shared" ref="U48:V48" si="34">SUM(U42:U47)</f>
         <v>247.2</v>
       </c>
       <c r="V48" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>228.4</v>
       </c>
       <c r="W48" s="18">
@@ -3749,11 +4086,11 @@
         <v>97</v>
       </c>
       <c r="U55" s="18">
-        <f t="shared" ref="U55:V55" si="34">SUM(U48:U54)</f>
+        <f t="shared" ref="U55:V55" si="35">SUM(U48:U54)</f>
         <v>368.69999999999993</v>
       </c>
       <c r="V55" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>360.19999999999993</v>
       </c>
       <c r="W55" s="18">
@@ -3824,11 +4161,11 @@
       <c r="N58" s="38"/>
       <c r="P58" s="38"/>
       <c r="U58" s="18">
-        <f t="shared" ref="U58:V58" si="35">U57+U55</f>
+        <f t="shared" ref="U58:V58" si="36">U57+U55</f>
         <v>776.19999999999993</v>
       </c>
       <c r="V58" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>782.09999999999991</v>
       </c>
       <c r="W58" s="18">
@@ -3862,23 +4199,23 @@
         <v>100</v>
       </c>
       <c r="U60" s="18">
-        <f t="shared" ref="U60:W60" si="36">U40-U55</f>
+        <f t="shared" ref="U60:W60" si="37">U40-U55</f>
         <v>407.50000000000011</v>
       </c>
       <c r="V60" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>421.9</v>
       </c>
       <c r="W60" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>409.29999999999995</v>
       </c>
       <c r="X60" s="18">
-        <f t="shared" ref="X60:Y60" si="37">X40-X55</f>
+        <f t="shared" ref="X60:Y60" si="38">X40-X55</f>
         <v>365.80000000000018</v>
       </c>
       <c r="Y60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>417.8000000000003</v>
       </c>
       <c r="Z60" s="18">
@@ -3891,23 +4228,23 @@
         <v>101</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" ref="U61:W61" si="38">U60/U14</f>
+        <f t="shared" ref="U61:W61" si="39">U60/U14</f>
         <v>2.0674784373414519</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.1243705941591138</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.0557508789552985</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" ref="X61:Y61" si="39">X60/X14</f>
+        <f t="shared" ref="X61:Y61" si="40">X60/X14</f>
         <v>1.8372677046710206</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>2.0984429934706195</v>
       </c>
       <c r="Z61" s="1">
@@ -3920,23 +4257,23 @@
         <v>6</v>
       </c>
       <c r="U63" s="18">
-        <f t="shared" ref="U63:W63" si="40">U30+U37+U39</f>
+        <f t="shared" ref="U63:W63" si="41">U30+U37+U39</f>
         <v>21.7</v>
       </c>
       <c r="V63" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>27.3</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" ref="X63:Y63" si="41">X30+X37+X39</f>
+        <f t="shared" ref="X63:Y63" si="42">X30+X37+X39</f>
         <v>124.2</v>
       </c>
       <c r="Y63" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>67.8</v>
       </c>
       <c r="Z63" s="18">
@@ -3949,23 +4286,23 @@
         <v>7</v>
       </c>
       <c r="U64" s="18">
-        <f t="shared" ref="U64:W64" si="42">U42+U44+U49+U51</f>
+        <f t="shared" ref="U64:W64" si="43">U42+U44+U49+U51</f>
         <v>103.89999999999999</v>
       </c>
       <c r="V64" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>120.2</v>
       </c>
       <c r="W64" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>93</v>
       </c>
       <c r="X64" s="18">
-        <f t="shared" ref="X64:Y64" si="43">X42+X44+X49+X51</f>
+        <f t="shared" ref="X64:Y64" si="44">X42+X44+X49+X51</f>
         <v>180.4</v>
       </c>
       <c r="Y64" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6.5000000000000009</v>
       </c>
       <c r="Z64" s="18">
@@ -3978,23 +4315,23 @@
         <v>8</v>
       </c>
       <c r="U65" s="18">
-        <f t="shared" ref="U65:W65" si="44">U63-U64</f>
+        <f t="shared" ref="U65:W65" si="45">U63-U64</f>
         <v>-82.199999999999989</v>
       </c>
       <c r="V65" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-92.9</v>
       </c>
       <c r="W65" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-80</v>
       </c>
       <c r="X65" s="18">
-        <f t="shared" ref="X65:Y65" si="45">X63-X64</f>
+        <f t="shared" ref="X65:Y65" si="46">X63-X64</f>
         <v>-56.2</v>
       </c>
       <c r="Y65" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>61.3</v>
       </c>
       <c r="Z65" s="18">
@@ -4014,11 +4351,11 @@
       <c r="N67" s="42"/>
       <c r="P67" s="42"/>
       <c r="V67" s="30">
-        <f t="shared" ref="V67:W67" si="46">V34/U34-1</f>
+        <f t="shared" ref="V67:W67" si="47">V34/U34-1</f>
         <v>2.3024594453165959E-2</v>
       </c>
       <c r="W67" s="30">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.11150895140664963</v>
       </c>
       <c r="X67" s="30">
@@ -4081,11 +4418,11 @@
         <v>5</v>
       </c>
       <c r="W70" s="18">
-        <f t="shared" ref="W70:X70" si="47">W69*W14</f>
+        <f t="shared" ref="W70:X70" si="48">W69*W14</f>
         <v>338.46999999999997</v>
       </c>
       <c r="X70" s="18">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>120.15685000000001</v>
       </c>
       <c r="Y70" s="18">
@@ -4123,15 +4460,15 @@
         <v>21</v>
       </c>
       <c r="W73" s="43">
-        <f t="shared" ref="W73:Y73" si="48">W69/W61</f>
+        <f t="shared" ref="W73:Y73" si="49">W69/W61</f>
         <v>0.82694844857073058</v>
       </c>
       <c r="X73" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.32847689994532514</v>
       </c>
       <c r="Y73" s="43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.682962087123024</v>
       </c>
       <c r="Z73" s="43">
@@ -4151,15 +4488,15 @@
       <c r="N74" s="44"/>
       <c r="P74" s="44"/>
       <c r="W74" s="43">
-        <f t="shared" ref="W74:Y74" si="49">W70/W4</f>
+        <f t="shared" ref="W74:Y74" si="50">W70/W4</f>
         <v>0.29726857544352714</v>
       </c>
       <c r="X74" s="43">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.10402289845035063</v>
       </c>
       <c r="Y74" s="43">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.54410087440996679</v>
       </c>
       <c r="Z74" s="43">
@@ -4188,15 +4525,15 @@
       <c r="N75" s="44"/>
       <c r="P75" s="44"/>
       <c r="W75" s="43">
-        <f t="shared" ref="W75:Y75" si="50">W71/W4</f>
+        <f t="shared" ref="W75:Y75" si="51">W71/W4</f>
         <v>0.36753030036887407</v>
       </c>
       <c r="X75" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.15267669465847114</v>
       </c>
       <c r="Y75" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.49666606825040632</v>
       </c>
       <c r="Z75" s="43">
@@ -4225,15 +4562,15 @@
       <c r="N76" s="44"/>
       <c r="P76" s="44"/>
       <c r="W76" s="43">
-        <f t="shared" ref="W76:Y76" si="51">W69/W13</f>
+        <f t="shared" ref="W76:Y76" si="52">W69/W13</f>
         <v>8.0780429594272327</v>
       </c>
       <c r="X76" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6.8661057142857596</v>
       </c>
       <c r="Y76" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>13.216946616541351</v>
       </c>
       <c r="Z76" s="43">
@@ -4262,15 +4599,15 @@
       <c r="N77" s="44"/>
       <c r="P77" s="44"/>
       <c r="W77" s="43">
-        <f t="shared" ref="W77:Y77" si="52">W71/W12</f>
+        <f t="shared" ref="W77:Y77" si="53">W71/W12</f>
         <v>9.9873508353222267</v>
       </c>
       <c r="X77" s="43">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10.077534285714352</v>
       </c>
       <c r="Y77" s="43">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>12.064690977443609</v>
       </c>
       <c r="Z77" s="43">

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AAC932-F34C-41C2-A30A-B1E9B84030FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C5BB5-F46D-4551-80C5-B4E59B56A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
@@ -405,7 +405,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +489,13 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -630,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,14 +749,18 @@
     <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,24 +776,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1272,7 +1280,7 @@
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="E34" sqref="E34:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1299,29 +1307,29 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
-      <c r="G5" s="71" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="G5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
       <c r="D6" s="15"/>
       <c r="G6" s="13"/>
@@ -1361,7 +1369,7 @@
       </c>
       <c r="C8" s="18">
         <f>C6*C7</f>
-        <v>357.91800000000001</v>
+        <v>376.22529999999995</v>
       </c>
       <c r="D8" s="15"/>
       <c r="G8" s="13"/>
@@ -1446,7 +1454,7 @@
       </c>
       <c r="C12" s="19">
         <f>C8-C11</f>
-        <v>308.11799999999999</v>
+        <v>326.42529999999994</v>
       </c>
       <c r="D12" s="16"/>
       <c r="G12" s="13"/>
@@ -1482,11 +1490,11 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1501,10 +1509,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="79"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1519,10 +1527,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="79"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1537,10 +1545,10 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="79"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1555,10 +1563,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="74"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1570,61 +1578,61 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="78">
         <v>1892</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="79"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="78">
         <v>2004</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="78">
         <f>'Financial Model'!Z34</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="79"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1641,83 +1649,82 @@
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="77"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="71" t="s">
+      <c r="D30" s="85"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="80">
         <f>C6/'Financial Model'!Z61</f>
-        <v>0.64957894736842103</v>
-      </c>
-      <c r="D34" s="68"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.68280453720508161</v>
+      </c>
+      <c r="D34" s="81"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="80">
         <f>C8/'Financial Model'!Z4</f>
-        <v>0.26133031542056079</v>
-      </c>
-      <c r="D35" s="68"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.27469721086448595</v>
+      </c>
+      <c r="D35" s="81"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="80">
         <f>C12/'Financial Model'!Z4</f>
-        <v>0.22496933411214953</v>
-      </c>
-      <c r="D36" s="68"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.23833622955607472</v>
+      </c>
+      <c r="D36" s="81"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="80">
         <f>C6/'Financial Model'!Z13</f>
-        <v>4.6064092664092673</v>
-      </c>
-      <c r="D37" s="68"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+        <v>4.8420244530244538</v>
+      </c>
+      <c r="D37" s="81"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="80">
         <f>C12/'Financial Model'!Z12</f>
-        <v>3.9654826254826259</v>
-      </c>
-      <c r="D38" s="68"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>4.201097812097812</v>
+      </c>
+      <c r="D38" s="81"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1734,6 +1741,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1746,18 +1759,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
-  <dimension ref="B1:CS80"/>
+  <dimension ref="A1:CS80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL21" sqref="AL21"/>
+      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="37"/>
@@ -1827,7 +1840,7 @@
       <c r="S1" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="26" t="s">
         <v>110</v>
       </c>
       <c r="U1" s="21" t="s">
@@ -1893,6 +1906,12 @@
       <c r="L2" s="35"/>
       <c r="N2" s="35"/>
       <c r="P2" s="35"/>
+      <c r="S2" s="25">
+        <v>42097</v>
+      </c>
+      <c r="T2" s="25">
+        <v>42461</v>
+      </c>
       <c r="U2" s="25">
         <v>42825</v>
       </c>
@@ -1938,6 +1957,9 @@
       </c>
       <c r="N3" s="35"/>
       <c r="P3" s="35"/>
+      <c r="T3" s="24">
+        <v>42522</v>
+      </c>
       <c r="X3" s="24"/>
       <c r="Z3" s="24">
         <v>44728</v>
@@ -1963,6 +1985,12 @@
       <c r="L4" s="36"/>
       <c r="N4" s="36"/>
       <c r="P4" s="36"/>
+      <c r="S4" s="27">
+        <v>1025.4000000000001</v>
+      </c>
+      <c r="T4" s="27">
+        <v>1021.5</v>
+      </c>
       <c r="U4" s="27">
         <v>1095</v>
       </c>
@@ -2021,6 +2049,12 @@
     <row r="5" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="S5" s="18">
+        <v>479.1</v>
+      </c>
+      <c r="T5" s="18">
+        <v>478.4</v>
       </c>
       <c r="U5" s="18">
         <v>536.4</v>
@@ -2088,8 +2122,16 @@
       <c r="L6" s="36"/>
       <c r="N6" s="36"/>
       <c r="P6" s="36"/>
+      <c r="S6" s="27">
+        <f t="shared" ref="S6:V6" si="2">S4-S5</f>
+        <v>546.30000000000007</v>
+      </c>
+      <c r="T6" s="27">
+        <f t="shared" si="2"/>
+        <v>543.1</v>
+      </c>
       <c r="U6" s="27">
-        <f t="shared" ref="U6:V6" si="2">U4-U5</f>
+        <f t="shared" si="2"/>
         <v>558.6</v>
       </c>
       <c r="V6" s="27">
@@ -2152,6 +2194,12 @@
     <row r="7" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="S7" s="18">
+        <v>459</v>
+      </c>
+      <c r="T7" s="18">
+        <v>460.3</v>
       </c>
       <c r="U7" s="18">
         <v>484.9</v>
@@ -2219,8 +2267,16 @@
       <c r="L8" s="36"/>
       <c r="N8" s="36"/>
       <c r="P8" s="36"/>
+      <c r="S8" s="27">
+        <f t="shared" ref="S8:V8" si="6">S6-S7</f>
+        <v>87.300000000000068</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" si="6"/>
+        <v>82.800000000000011</v>
+      </c>
       <c r="U8" s="27">
-        <f t="shared" ref="U8:V8" si="6">U6-U7</f>
+        <f t="shared" si="6"/>
         <v>73.700000000000045</v>
       </c>
       <c r="V8" s="27">
@@ -2284,6 +2340,12 @@
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="S9" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="T9" s="18">
+        <v>3</v>
+      </c>
       <c r="U9" s="18">
         <v>2.2999999999999998</v>
       </c>
@@ -2344,8 +2406,16 @@
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="S10" s="18">
+        <f t="shared" ref="S10:V10" si="9">S8-S9</f>
+        <v>83.800000000000068</v>
+      </c>
+      <c r="T10" s="18">
+        <f t="shared" si="9"/>
+        <v>79.800000000000011</v>
+      </c>
       <c r="U10" s="18">
-        <f t="shared" ref="U10:V10" si="9">U8-U9</f>
+        <f t="shared" si="9"/>
         <v>71.400000000000048</v>
       </c>
       <c r="V10" s="18">
@@ -2408,6 +2478,12 @@
     <row r="11" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="S11" s="18">
+        <v>18</v>
+      </c>
+      <c r="T11" s="18">
+        <v>16.3</v>
       </c>
       <c r="U11" s="18">
         <v>15</v>
@@ -2475,8 +2551,16 @@
       <c r="L12" s="36"/>
       <c r="N12" s="36"/>
       <c r="P12" s="36"/>
+      <c r="S12" s="27">
+        <f t="shared" ref="S12:V12" si="12">S10-S11</f>
+        <v>65.800000000000068</v>
+      </c>
+      <c r="T12" s="27">
+        <f t="shared" si="12"/>
+        <v>63.500000000000014</v>
+      </c>
       <c r="U12" s="27">
-        <f t="shared" ref="U12:V12" si="12">U10-U11</f>
+        <f t="shared" si="12"/>
         <v>56.400000000000048</v>
       </c>
       <c r="V12" s="27">
@@ -2537,259 +2621,267 @@
       </c>
       <c r="AJ12" s="27">
         <f>AI12*(1+$AL$19)</f>
-        <v>17.71628039785589</v>
+        <v>17.542591374347499</v>
       </c>
       <c r="AK12" s="27">
         <f t="shared" ref="AK12:CS12" si="14">AJ12*(1+$AL$19)</f>
-        <v>18.070606005813008</v>
+        <v>17.718017288090973</v>
       </c>
       <c r="AL12" s="27">
         <f t="shared" si="14"/>
-        <v>18.432018125929268</v>
+        <v>17.895197460971882</v>
       </c>
       <c r="AM12" s="27">
         <f t="shared" si="14"/>
-        <v>18.800658488447855</v>
+        <v>18.074149435581603</v>
       </c>
       <c r="AN12" s="27">
         <f t="shared" si="14"/>
-        <v>19.176671658216812</v>
+        <v>18.254890929937421</v>
       </c>
       <c r="AO12" s="27">
         <f t="shared" si="14"/>
-        <v>19.56020509138115</v>
+        <v>18.437439839236795</v>
       </c>
       <c r="AP12" s="27">
         <f t="shared" si="14"/>
-        <v>19.951409193208772</v>
+        <v>18.621814237629163</v>
       </c>
       <c r="AQ12" s="27">
         <f t="shared" si="14"/>
-        <v>20.350437377072947</v>
+        <v>18.808032380005454</v>
       </c>
       <c r="AR12" s="27">
         <f t="shared" si="14"/>
-        <v>20.757446124614408</v>
+        <v>18.996112703805508</v>
       </c>
       <c r="AS12" s="27">
         <f t="shared" si="14"/>
-        <v>21.172595047106697</v>
+        <v>19.186073830843565</v>
       </c>
       <c r="AT12" s="27">
         <f t="shared" si="14"/>
-        <v>21.59604694804883</v>
+        <v>19.377934569152</v>
       </c>
       <c r="AU12" s="27">
         <f t="shared" si="14"/>
-        <v>22.027967887009808</v>
+        <v>19.571713914843521</v>
       </c>
       <c r="AV12" s="27">
         <f t="shared" si="14"/>
-        <v>22.468527244750003</v>
+        <v>19.767431053991956</v>
       </c>
       <c r="AW12" s="27">
         <f t="shared" si="14"/>
-        <v>22.917897789645004</v>
+        <v>19.965105364531876</v>
       </c>
       <c r="AX12" s="27">
         <f t="shared" si="14"/>
-        <v>23.376255745437906</v>
+        <v>20.164756418177195</v>
       </c>
       <c r="AY12" s="27">
         <f t="shared" si="14"/>
-        <v>23.843780860346666</v>
+        <v>20.366403982358968</v>
       </c>
       <c r="AZ12" s="27">
         <f t="shared" si="14"/>
-        <v>24.320656477553598</v>
+        <v>20.570068022182557</v>
       </c>
       <c r="BA12" s="27">
         <f t="shared" si="14"/>
-        <v>24.807069607104669</v>
+        <v>20.775768702404385</v>
       </c>
       <c r="BB12" s="27">
         <f t="shared" si="14"/>
-        <v>25.303210999246762</v>
+        <v>20.98352638942843</v>
       </c>
       <c r="BC12" s="27">
         <f t="shared" si="14"/>
-        <v>25.809275219231697</v>
+        <v>21.193361653322714</v>
       </c>
       <c r="BD12" s="27">
         <f t="shared" si="14"/>
-        <v>26.325460723616331</v>
+        <v>21.405295269855941</v>
       </c>
       <c r="BE12" s="27">
         <f t="shared" si="14"/>
-        <v>26.851969938088658</v>
+        <v>21.6193482225545</v>
       </c>
       <c r="BF12" s="27">
         <f t="shared" si="14"/>
-        <v>27.389009336850432</v>
+        <v>21.835541704780045</v>
       </c>
       <c r="BG12" s="27">
         <f t="shared" si="14"/>
-        <v>27.936789523587439</v>
+        <v>22.053897121827845</v>
       </c>
       <c r="BH12" s="27">
         <f t="shared" si="14"/>
-        <v>28.49552531405919</v>
+        <v>22.274436093046123</v>
       </c>
       <c r="BI12" s="27">
         <f t="shared" si="14"/>
-        <v>29.065435820340376</v>
+        <v>22.497180453976586</v>
       </c>
       <c r="BJ12" s="27">
         <f t="shared" si="14"/>
-        <v>29.646744536747185</v>
+        <v>22.722152258516353</v>
       </c>
       <c r="BK12" s="27">
         <f t="shared" si="14"/>
-        <v>30.23967942748213</v>
+        <v>22.949373781101517</v>
       </c>
       <c r="BL12" s="27">
         <f t="shared" si="14"/>
-        <v>30.844473016031774</v>
+        <v>23.178867518912533</v>
       </c>
       <c r="BM12" s="27">
         <f t="shared" si="14"/>
-        <v>31.461362476352409</v>
+        <v>23.410656194101659</v>
       </c>
       <c r="BN12" s="27">
         <f t="shared" si="14"/>
-        <v>32.090589725879461</v>
+        <v>23.644762756042674</v>
       </c>
       <c r="BO12" s="27">
         <f t="shared" si="14"/>
-        <v>32.732401520397048</v>
+        <v>23.881210383603101</v>
       </c>
       <c r="BP12" s="27">
         <f t="shared" si="14"/>
-        <v>33.387049550804988</v>
+        <v>24.120022487439133</v>
       </c>
       <c r="BQ12" s="27">
         <f t="shared" si="14"/>
-        <v>34.054790541821092</v>
+        <v>24.361222712313523</v>
       </c>
       <c r="BR12" s="27">
         <f t="shared" si="14"/>
-        <v>34.735886352657516</v>
+        <v>24.60483493943666</v>
       </c>
       <c r="BS12" s="27">
         <f t="shared" si="14"/>
-        <v>35.430604079710669</v>
+        <v>24.850883288831028</v>
       </c>
       <c r="BT12" s="27">
         <f t="shared" si="14"/>
-        <v>36.13921616130488</v>
+        <v>25.09939212171934</v>
       </c>
       <c r="BU12" s="27">
         <f t="shared" si="14"/>
-        <v>36.862000484530981</v>
+        <v>25.350386042936535</v>
       </c>
       <c r="BV12" s="27">
         <f t="shared" si="14"/>
-        <v>37.599240494221604</v>
+        <v>25.6038899033659</v>
       </c>
       <c r="BW12" s="27">
         <f t="shared" si="14"/>
-        <v>38.351225304106038</v>
+        <v>25.859928802399558</v>
       </c>
       <c r="BX12" s="27">
         <f t="shared" si="14"/>
-        <v>39.118249810188161</v>
+        <v>26.118528090423553</v>
       </c>
       <c r="BY12" s="27">
         <f t="shared" si="14"/>
-        <v>39.900614806391921</v>
+        <v>26.379713371327789</v>
       </c>
       <c r="BZ12" s="27">
         <f t="shared" si="14"/>
-        <v>40.698627102519758</v>
+        <v>26.643510505041068</v>
       </c>
       <c r="CA12" s="27">
         <f t="shared" si="14"/>
-        <v>41.512599644570152</v>
+        <v>26.90994561009148</v>
       </c>
       <c r="CB12" s="27">
         <f t="shared" si="14"/>
-        <v>42.342851637461557</v>
+        <v>27.179045066192394</v>
       </c>
       <c r="CC12" s="27">
         <f t="shared" si="14"/>
-        <v>43.189708670210791</v>
+        <v>27.450835516854319</v>
       </c>
       <c r="CD12" s="27">
         <f t="shared" si="14"/>
-        <v>44.053502843615007</v>
+        <v>27.725343872022862</v>
       </c>
       <c r="CE12" s="27">
         <f t="shared" si="14"/>
-        <v>44.934572900487311</v>
+        <v>28.002597310743091</v>
       </c>
       <c r="CF12" s="27">
         <f t="shared" si="14"/>
-        <v>45.833264358497061</v>
+        <v>28.282623283850523</v>
       </c>
       <c r="CG12" s="27">
         <f t="shared" si="14"/>
-        <v>46.749929645667002</v>
+        <v>28.565449516689029</v>
       </c>
       <c r="CH12" s="27">
         <f t="shared" si="14"/>
-        <v>47.684928238580341</v>
+        <v>28.85110401185592</v>
       </c>
       <c r="CI12" s="27">
         <f t="shared" si="14"/>
-        <v>48.638626803351947</v>
+        <v>29.139615051974481</v>
       </c>
       <c r="CJ12" s="27">
         <f t="shared" si="14"/>
-        <v>49.611399339418988</v>
+        <v>29.431011202494226</v>
       </c>
       <c r="CK12" s="27">
         <f t="shared" si="14"/>
-        <v>50.603627326207366</v>
+        <v>29.725321314519167</v>
       </c>
       <c r="CL12" s="27">
         <f t="shared" si="14"/>
-        <v>51.615699872731511</v>
+        <v>30.022574527664361</v>
       </c>
       <c r="CM12" s="27">
         <f t="shared" si="14"/>
-        <v>52.648013870186141</v>
+        <v>30.322800272941006</v>
       </c>
       <c r="CN12" s="27">
         <f t="shared" si="14"/>
-        <v>53.700974147589868</v>
+        <v>30.626028275670418</v>
       </c>
       <c r="CO12" s="27">
         <f t="shared" si="14"/>
-        <v>54.774993630541665</v>
+        <v>30.932288558427121</v>
       </c>
       <c r="CP12" s="27">
         <f t="shared" si="14"/>
-        <v>55.870493503152503</v>
+        <v>31.241611444011394</v>
       </c>
       <c r="CQ12" s="27">
         <f t="shared" si="14"/>
-        <v>56.987903373215552</v>
+        <v>31.554027558451509</v>
       </c>
       <c r="CR12" s="27">
         <f t="shared" si="14"/>
-        <v>58.127661440679866</v>
+        <v>31.869567834036022</v>
       </c>
       <c r="CS12" s="27">
         <f t="shared" si="14"/>
-        <v>59.290214669493466</v>
+        <v>32.188263512376381</v>
       </c>
     </row>
     <row r="13" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="S13" s="28">
+        <f t="shared" ref="S13:U13" si="15">S12/S14</f>
+        <v>0.33333333333333365</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="15"/>
+        <v>0.32348446255731028</v>
+      </c>
       <c r="U13" s="28">
-        <f t="shared" ref="U13" si="15">U12/U14</f>
+        <f t="shared" si="15"/>
         <v>0.28614916286149189</v>
       </c>
       <c r="V13" s="28">
@@ -2852,6 +2944,12 @@
     <row r="14" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>197.4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>196.3</v>
       </c>
       <c r="U14" s="1">
         <v>197.1</v>
@@ -2919,12 +3017,20 @@
       <c r="L16" s="36"/>
       <c r="N16" s="36"/>
       <c r="P16" s="36"/>
+      <c r="T16" s="29">
+        <f t="shared" ref="T16" si="20">T4/S4-1</f>
+        <v>-3.8033937975424648E-3</v>
+      </c>
+      <c r="U16" s="29">
+        <f t="shared" ref="U16" si="21">U4/T4-1</f>
+        <v>7.1953010279001361E-2</v>
+      </c>
       <c r="V16" s="29">
-        <f t="shared" ref="V16:W16" si="20">V4/U4-1</f>
+        <f t="shared" ref="V16:W16" si="22">V4/U4-1</f>
         <v>3.6621004566209869E-2</v>
       </c>
       <c r="W16" s="29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.0834287727954379E-3</v>
       </c>
       <c r="X16" s="29">
@@ -3000,24 +3106,32 @@
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="S19" s="30">
+        <f t="shared" ref="S19:U19" si="23">S6/S4</f>
+        <v>0.53276770040959631</v>
+      </c>
+      <c r="T19" s="30">
+        <f t="shared" si="23"/>
+        <v>0.53166911404796868</v>
+      </c>
       <c r="U19" s="30">
-        <f t="shared" ref="U19:W19" si="21">U6/U4</f>
+        <f t="shared" ref="U19:W19" si="24">U6/U4</f>
         <v>0.51013698630136983</v>
       </c>
       <c r="V19" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.50233459607083075</v>
       </c>
       <c r="W19" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>0.50851923414719824</v>
       </c>
       <c r="X19" s="30">
-        <f t="shared" ref="X19:Y19" si="22">X6/X4</f>
+        <f t="shared" ref="X19:Y19" si="25">X6/X4</f>
         <v>0.51051856982079469</v>
       </c>
       <c r="Y19" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0.50785421341793702</v>
       </c>
       <c r="Z19" s="30">
@@ -3051,35 +3165,43 @@
       <c r="AI19" s="61">
         <v>0.53</v>
       </c>
-      <c r="AK19" s="80" t="s">
+      <c r="AK19" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AL19" s="81">
-        <v>0.02</v>
+      <c r="AL19" s="68">
+        <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="S20" s="30">
+        <f t="shared" ref="S20:U20" si="26">S8/S4</f>
+        <v>8.5137507314218902E-2</v>
+      </c>
+      <c r="T20" s="30">
+        <f t="shared" si="26"/>
+        <v>8.1057268722466977E-2</v>
+      </c>
       <c r="U20" s="30">
-        <f t="shared" ref="U20:W20" si="23">U8/U4</f>
+        <f t="shared" ref="U20:W20" si="27">U8/U4</f>
         <v>6.7305936073059403E-2</v>
       </c>
       <c r="V20" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>6.1492379526032911E-2</v>
       </c>
       <c r="W20" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4.7777972949235789E-2</v>
       </c>
       <c r="X20" s="30">
-        <f t="shared" ref="X20:Y20" si="24">X8/X4</f>
+        <f t="shared" ref="X20:Y20" si="28">X8/X4</f>
         <v>2.8568955068825112E-2</v>
       </c>
       <c r="Y20" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>6.1518223322757873E-2</v>
       </c>
       <c r="Z20" s="30">
@@ -3091,41 +3213,41 @@
         <v>6.6901285046729028E-2</v>
       </c>
       <c r="AB20" s="30">
-        <f t="shared" ref="AB20:AI20" si="25">AB8/AB4</f>
+        <f t="shared" ref="AB20:AI20" si="29">AB8/AB4</f>
         <v>6.2490821094793064E-2</v>
       </c>
       <c r="AC20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.8874048893670516E-2</v>
       </c>
       <c r="AD20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>4.4157127804392841E-2</v>
       </c>
       <c r="AE20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.9393962390710448E-2</v>
       </c>
       <c r="AF20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.4584099276893848E-2</v>
       </c>
       <c r="AG20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.9727080642353645E-2</v>
       </c>
       <c r="AH20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.4822444178062945E-2</v>
       </c>
       <c r="AI20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.9869723042553758E-2</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AL20" s="82">
+      <c r="AL20" s="69">
         <v>0.06</v>
       </c>
     </row>
@@ -3133,24 +3255,32 @@
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="S21" s="30">
+        <f t="shared" ref="S21:U21" si="30">S12/S4</f>
+        <v>6.4170079968792731E-2</v>
+      </c>
+      <c r="T21" s="30">
+        <f t="shared" si="30"/>
+        <v>6.2163485070974071E-2</v>
+      </c>
       <c r="U21" s="30">
-        <f t="shared" ref="U21:W21" si="26">U12/U4</f>
+        <f t="shared" ref="U21:W21" si="31">U12/U4</f>
         <v>5.1506849315068534E-2</v>
       </c>
       <c r="V21" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>4.818958682054441E-2</v>
       </c>
       <c r="W21" s="30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>3.6799578429650329E-2</v>
       </c>
       <c r="X21" s="30">
-        <f t="shared" ref="X21:Y21" si="27">X12/X4</f>
+        <f t="shared" ref="X21:Y21" si="32">X12/X4</f>
         <v>1.5150203445589028E-2</v>
       </c>
       <c r="Y21" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>4.1166911707807785E-2</v>
       </c>
       <c r="Z21" s="30">
@@ -3162,67 +3292,75 @@
         <v>4.6122274143302229E-2</v>
       </c>
       <c r="AB21" s="30">
-        <f t="shared" ref="AB21:AI21" si="28">AB12/AB4</f>
+        <f t="shared" ref="AB21:AI21" si="33">AB12/AB4</f>
         <v>4.294622459575731E-2</v>
       </c>
       <c r="AC21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>3.2296620901634696E-2</v>
       </c>
       <c r="AD21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2.8880247331266779E-2</v>
       </c>
       <c r="AE21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2.5013013289960959E-2</v>
       </c>
       <c r="AF21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>2.1310603265101983E-2</v>
       </c>
       <c r="AG21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1.7571672202551899E-2</v>
       </c>
       <c r="AH21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>1.3788005873016125E-2</v>
       </c>
       <c r="AI21" s="30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>9.9165766429079125E-3</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AL21" s="83">
+      <c r="AL21" s="70">
         <f>NPV(AL20,AA12:CS12)</f>
-        <v>536.61304829928838</v>
+        <v>495.88636064297134</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="S22" s="30">
+        <f t="shared" ref="S22:U22" si="34">S11/S10</f>
+        <v>0.21479713603818598</v>
+      </c>
+      <c r="T22" s="30">
+        <f t="shared" si="34"/>
+        <v>0.20426065162907267</v>
+      </c>
       <c r="U22" s="30">
-        <f t="shared" ref="U22:W22" si="29">U11/U10</f>
+        <f t="shared" ref="U22:W22" si="35">U11/U10</f>
         <v>0.21008403361344524</v>
       </c>
       <c r="V22" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.18479880774962756</v>
       </c>
       <c r="W22" s="30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0.17843137254902008</v>
       </c>
       <c r="X22" s="30">
-        <f t="shared" ref="X22:Y22" si="30">X11/X10</f>
+        <f t="shared" ref="X22:Y22" si="36">X11/X10</f>
         <v>9.7938144329897489E-2</v>
       </c>
       <c r="Y22" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.17519379844961241</v>
       </c>
       <c r="Z22" s="30">
@@ -3237,37 +3375,37 @@
         <v>0.2</v>
       </c>
       <c r="AC22" s="61">
-        <f t="shared" ref="AC22:AI22" si="31">AB22</f>
+        <f t="shared" ref="AC22:AI22" si="37">AB22</f>
         <v>0.2</v>
       </c>
       <c r="AD22" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AE22" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AF22" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AG22" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AH22" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AI22" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AK22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AL22" s="83">
+      <c r="AL22" s="70">
         <f>Main!C11</f>
         <v>49.8</v>
       </c>
@@ -3276,18 +3414,18 @@
       <c r="AK23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AL23" s="83">
+      <c r="AL23" s="70">
         <f>AL21-AL22</f>
-        <v>486.81304829928837</v>
+        <v>446.08636064297133</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.2">
       <c r="AK24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AL24" s="84">
+      <c r="AL24" s="71">
         <f>AL23/Main!C7</f>
-        <v>2.3666166665011588</v>
+        <v>2.1686259632618929</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.2">
@@ -3296,7 +3434,7 @@
       </c>
       <c r="AL25" s="7">
         <f>Main!C6</f>
-        <v>1.74</v>
+        <v>1.829</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
@@ -3306,15 +3444,21 @@
       <c r="AK26" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AL26" s="85">
+      <c r="AL26" s="72">
         <f>AL24/AL25-1</f>
-        <v>0.36012452097767755</v>
+        <v>0.18568942769923069</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="S27" s="1">
+        <v>356.8</v>
+      </c>
+      <c r="T27" s="1">
+        <v>362.9</v>
+      </c>
       <c r="U27" s="18">
         <v>394.1</v>
       </c>
@@ -3338,6 +3482,12 @@
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="S28" s="1">
+        <v>103.8</v>
+      </c>
+      <c r="T28" s="1">
+        <v>107.3</v>
+      </c>
       <c r="U28" s="18">
         <v>102.8</v>
       </c>
@@ -3360,6 +3510,12 @@
     <row r="29" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="S29" s="18">
+        <v>0</v>
+      </c>
+      <c r="T29" s="18">
+        <v>0</v>
       </c>
       <c r="U29" s="18">
         <v>0</v>
@@ -3391,6 +3547,12 @@
       <c r="L30" s="36"/>
       <c r="N30" s="36"/>
       <c r="P30" s="36"/>
+      <c r="S30" s="27">
+        <v>0</v>
+      </c>
+      <c r="T30" s="27">
+        <v>0</v>
+      </c>
       <c r="U30" s="27">
         <v>0</v>
       </c>
@@ -3423,6 +3585,12 @@
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="S31" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0</v>
+      </c>
       <c r="U31" s="18">
         <v>0</v>
       </c>
@@ -3446,6 +3614,12 @@
       <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="S32" s="18">
+        <v>0</v>
+      </c>
+      <c r="T32" s="18">
+        <v>0</v>
+      </c>
       <c r="U32" s="18">
         <v>8.1</v>
       </c>
@@ -3469,28 +3643,36 @@
       <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="S33" s="18">
+        <f t="shared" ref="S33:Z33" si="38">SUM(S27:S32)</f>
+        <v>464.70000000000005</v>
+      </c>
+      <c r="T33" s="18">
+        <f t="shared" si="38"/>
+        <v>470.2</v>
+      </c>
       <c r="U33" s="18">
-        <f t="shared" ref="U33:Z33" si="32">SUM(U27:U32)</f>
+        <f t="shared" si="38"/>
         <v>505.00000000000006</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>503.3</v>
       </c>
       <c r="W33" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>484.7</v>
       </c>
       <c r="X33" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>835.99999999999989</v>
       </c>
       <c r="Y33" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>774.80000000000007</v>
       </c>
       <c r="Z33" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>909</v>
       </c>
     </row>
@@ -3505,6 +3687,12 @@
       <c r="L34" s="36"/>
       <c r="N34" s="36"/>
       <c r="P34" s="36"/>
+      <c r="S34" s="2">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="T34" s="2">
+        <v>157.9</v>
+      </c>
       <c r="U34" s="27">
         <v>191.1</v>
       </c>
@@ -3537,6 +3725,12 @@
       <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="S35" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="T35" s="1">
+        <v>60.7</v>
+      </c>
       <c r="U35" s="18">
         <v>58.4</v>
       </c>
@@ -3559,6 +3753,12 @@
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="S36" s="18">
+        <v>0</v>
+      </c>
+      <c r="T36" s="18">
+        <v>0</v>
       </c>
       <c r="U36" s="18">
         <v>0</v>
@@ -3590,6 +3790,12 @@
       <c r="L37" s="36"/>
       <c r="N37" s="36"/>
       <c r="P37" s="36"/>
+      <c r="S37" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="T37" s="2">
+        <v>4.2</v>
+      </c>
       <c r="U37" s="27">
         <v>5.2</v>
       </c>
@@ -3622,6 +3828,12 @@
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="S38" s="18">
+        <v>0</v>
+      </c>
+      <c r="T38" s="18">
+        <v>0</v>
+      </c>
       <c r="U38" s="18">
         <v>0</v>
       </c>
@@ -3652,6 +3864,12 @@
       <c r="L39" s="36"/>
       <c r="N39" s="36"/>
       <c r="P39" s="36"/>
+      <c r="S39" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="T39" s="2">
+        <v>11.9</v>
+      </c>
       <c r="U39" s="27">
         <v>16.5</v>
       </c>
@@ -3684,24 +3902,32 @@
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="S40" s="18">
+        <f t="shared" ref="S40:Y40" si="39">SUM(S33:S39)</f>
+        <v>696.09999999999991</v>
+      </c>
+      <c r="T40" s="18">
+        <f t="shared" si="39"/>
+        <v>704.90000000000009</v>
+      </c>
       <c r="U40" s="18">
-        <f t="shared" ref="U40:Y40" si="33">SUM(U33:U39)</f>
+        <f t="shared" si="39"/>
         <v>776.2</v>
       </c>
       <c r="V40" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>782.09999999999991</v>
       </c>
       <c r="W40" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>730.5</v>
       </c>
       <c r="X40" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1194.9000000000001</v>
       </c>
       <c r="Y40" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1069.6000000000001</v>
       </c>
       <c r="Z40" s="18">
@@ -3723,6 +3949,12 @@
       <c r="L42" s="36"/>
       <c r="N42" s="36"/>
       <c r="P42" s="36"/>
+      <c r="S42" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="T42" s="2">
+        <v>23.4</v>
+      </c>
       <c r="U42" s="27">
         <v>19.8</v>
       </c>
@@ -3755,6 +3987,12 @@
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="S43" s="18">
+        <v>0</v>
+      </c>
+      <c r="T43" s="18">
+        <v>0</v>
+      </c>
       <c r="U43" s="18">
         <v>0</v>
       </c>
@@ -3785,6 +4023,12 @@
       <c r="L44" s="36"/>
       <c r="N44" s="36"/>
       <c r="P44" s="36"/>
+      <c r="S44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="T44" s="27">
+        <v>0</v>
+      </c>
       <c r="U44" s="27">
         <v>1.5</v>
       </c>
@@ -3817,6 +4061,12 @@
       <c r="B45" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="S45" s="1">
+        <v>181.4</v>
+      </c>
+      <c r="T45" s="1">
+        <v>182.5</v>
+      </c>
       <c r="U45" s="18">
         <v>206.2</v>
       </c>
@@ -3840,6 +4090,12 @@
       <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="S46" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="T46" s="1">
+        <v>7.5</v>
+      </c>
       <c r="U46" s="18">
         <v>8.6999999999999993</v>
       </c>
@@ -3863,6 +4119,12 @@
       <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="S47" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="T47" s="1">
+        <v>9.5</v>
+      </c>
       <c r="U47" s="18">
         <v>11</v>
       </c>
@@ -3886,12 +4148,20 @@
       <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="S48" s="18">
+        <f t="shared" ref="S48:V48" si="40">SUM(S42:S47)</f>
+        <v>227.4</v>
+      </c>
+      <c r="T48" s="18">
+        <f t="shared" si="40"/>
+        <v>222.9</v>
+      </c>
       <c r="U48" s="18">
-        <f t="shared" ref="U48:V48" si="34">SUM(U42:U47)</f>
+        <f t="shared" si="40"/>
         <v>247.2</v>
       </c>
       <c r="V48" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>228.4</v>
       </c>
       <c r="W48" s="18">
@@ -3922,6 +4192,12 @@
       <c r="L49" s="36"/>
       <c r="N49" s="36"/>
       <c r="P49" s="36"/>
+      <c r="S49" s="2">
+        <v>61.3</v>
+      </c>
+      <c r="T49" s="2">
+        <v>36.4</v>
+      </c>
       <c r="U49" s="27">
         <v>82.6</v>
       </c>
@@ -3954,6 +4230,12 @@
       <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="S50" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="T50" s="1">
+        <v>32.299999999999997</v>
+      </c>
       <c r="U50" s="18">
         <v>31.9</v>
       </c>
@@ -3984,6 +4266,12 @@
       <c r="L51" s="36"/>
       <c r="N51" s="36"/>
       <c r="P51" s="36"/>
+      <c r="S51" s="27">
+        <v>0</v>
+      </c>
+      <c r="T51" s="27">
+        <v>0</v>
+      </c>
       <c r="U51" s="27">
         <v>0</v>
       </c>
@@ -4016,6 +4304,12 @@
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="S52" s="18">
+        <v>0</v>
+      </c>
+      <c r="T52" s="18">
+        <v>0</v>
+      </c>
       <c r="U52" s="18">
         <v>0</v>
       </c>
@@ -4039,6 +4333,12 @@
       <c r="B53" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="S53" s="18">
+        <v>0</v>
+      </c>
+      <c r="T53" s="18">
+        <v>0</v>
+      </c>
       <c r="U53" s="18">
         <v>0.8</v>
       </c>
@@ -4062,6 +4362,12 @@
       <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="S54" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T54" s="1">
+        <v>7.9</v>
+      </c>
       <c r="U54" s="18">
         <v>6.2</v>
       </c>
@@ -4085,12 +4391,20 @@
       <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="S55" s="18">
+        <f t="shared" ref="S55:V55" si="41">SUM(S48:S54)</f>
+        <v>328.4</v>
+      </c>
+      <c r="T55" s="18">
+        <f t="shared" si="41"/>
+        <v>299.5</v>
+      </c>
       <c r="U55" s="18">
-        <f t="shared" ref="U55:V55" si="35">SUM(U48:U54)</f>
+        <f t="shared" si="41"/>
         <v>368.69999999999993</v>
       </c>
       <c r="V55" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>360.19999999999993</v>
       </c>
       <c r="W55" s="18">
@@ -4121,6 +4435,12 @@
       <c r="L57" s="38"/>
       <c r="N57" s="38"/>
       <c r="P57" s="38"/>
+      <c r="S57" s="18">
+        <v>367.7</v>
+      </c>
+      <c r="T57" s="18">
+        <v>405.4</v>
+      </c>
       <c r="U57" s="18">
         <v>407.5</v>
       </c>
@@ -4160,12 +4480,20 @@
       <c r="L58" s="38"/>
       <c r="N58" s="38"/>
       <c r="P58" s="38"/>
+      <c r="S58" s="18">
+        <f t="shared" ref="S58:V58" si="42">S57+S55</f>
+        <v>696.09999999999991</v>
+      </c>
+      <c r="T58" s="18">
+        <f t="shared" si="42"/>
+        <v>704.9</v>
+      </c>
       <c r="U58" s="18">
-        <f t="shared" ref="U58:V58" si="36">U57+U55</f>
+        <f t="shared" si="42"/>
         <v>776.19999999999993</v>
       </c>
       <c r="V58" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>782.09999999999991</v>
       </c>
       <c r="W58" s="18">
@@ -4198,24 +4526,32 @@
       <c r="B60" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="S60" s="18">
+        <f t="shared" ref="S60:U60" si="43">S40-S55</f>
+        <v>367.69999999999993</v>
+      </c>
+      <c r="T60" s="18">
+        <f t="shared" si="43"/>
+        <v>405.40000000000009</v>
+      </c>
       <c r="U60" s="18">
-        <f t="shared" ref="U60:W60" si="37">U40-U55</f>
+        <f t="shared" ref="U60:W60" si="44">U40-U55</f>
         <v>407.50000000000011</v>
       </c>
       <c r="V60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>421.9</v>
       </c>
       <c r="W60" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>409.29999999999995</v>
       </c>
       <c r="X60" s="18">
-        <f t="shared" ref="X60:Y60" si="38">X40-X55</f>
+        <f t="shared" ref="X60:Y60" si="45">X40-X55</f>
         <v>365.80000000000018</v>
       </c>
       <c r="Y60" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>417.8000000000003</v>
       </c>
       <c r="Z60" s="18">
@@ -4227,24 +4563,32 @@
       <c r="B61" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="S61" s="1">
+        <f t="shared" ref="S61:U61" si="46">S60/S14</f>
+        <v>1.8627152988855114</v>
+      </c>
+      <c r="T61" s="1">
+        <f t="shared" si="46"/>
+        <v>2.0652063168619463</v>
+      </c>
       <c r="U61" s="1">
-        <f t="shared" ref="U61:W61" si="39">U60/U14</f>
+        <f t="shared" ref="U61:W61" si="47">U60/U14</f>
         <v>2.0674784373414519</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2.1243705941591138</v>
       </c>
       <c r="W61" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2.0557508789552985</v>
       </c>
       <c r="X61" s="1">
-        <f t="shared" ref="X61:Y61" si="40">X60/X14</f>
+        <f t="shared" ref="X61:Y61" si="48">X60/X14</f>
         <v>1.8372677046710206</v>
       </c>
       <c r="Y61" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.0984429934706195</v>
       </c>
       <c r="Z61" s="1">
@@ -4256,24 +4600,32 @@
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="S63" s="18">
+        <f t="shared" ref="S63:U63" si="49">S30+S37+S39</f>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="T63" s="18">
+        <f t="shared" si="49"/>
+        <v>16.100000000000001</v>
+      </c>
       <c r="U63" s="18">
-        <f t="shared" ref="U63:W63" si="41">U30+U37+U39</f>
+        <f t="shared" ref="U63:W63" si="50">U30+U37+U39</f>
         <v>21.7</v>
       </c>
       <c r="V63" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>27.3</v>
       </c>
       <c r="W63" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>13</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" ref="X63:Y63" si="42">X30+X37+X39</f>
+        <f t="shared" ref="X63:Y63" si="51">X30+X37+X39</f>
         <v>124.2</v>
       </c>
       <c r="Y63" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>67.8</v>
       </c>
       <c r="Z63" s="18">
@@ -4285,24 +4637,32 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="S64" s="18">
+        <f t="shared" ref="S64:U64" si="52">S42+S44+S49+S51</f>
+        <v>84.3</v>
+      </c>
+      <c r="T64" s="18">
+        <f t="shared" si="52"/>
+        <v>59.8</v>
+      </c>
       <c r="U64" s="18">
-        <f t="shared" ref="U64:W64" si="43">U42+U44+U49+U51</f>
+        <f t="shared" ref="U64:W64" si="53">U42+U44+U49+U51</f>
         <v>103.89999999999999</v>
       </c>
       <c r="V64" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>120.2</v>
       </c>
       <c r="W64" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="53"/>
         <v>93</v>
       </c>
       <c r="X64" s="18">
-        <f t="shared" ref="X64:Y64" si="44">X42+X44+X49+X51</f>
+        <f t="shared" ref="X64:Y64" si="54">X42+X44+X49+X51</f>
         <v>180.4</v>
       </c>
       <c r="Y64" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="54"/>
         <v>6.5000000000000009</v>
       </c>
       <c r="Z64" s="18">
@@ -4310,28 +4670,36 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="S65" s="18">
+        <f t="shared" ref="S65:U65" si="55">S63-S64</f>
+        <v>-58</v>
+      </c>
+      <c r="T65" s="18">
+        <f t="shared" si="55"/>
+        <v>-43.699999999999996</v>
+      </c>
       <c r="U65" s="18">
-        <f t="shared" ref="U65:W65" si="45">U63-U64</f>
+        <f t="shared" ref="U65:W65" si="56">U63-U64</f>
         <v>-82.199999999999989</v>
       </c>
       <c r="V65" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>-92.9</v>
       </c>
       <c r="W65" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>-80</v>
       </c>
       <c r="X65" s="18">
-        <f t="shared" ref="X65:Y65" si="46">X63-X64</f>
+        <f t="shared" ref="X65:Y65" si="57">X63-X64</f>
         <v>-56.2</v>
       </c>
       <c r="Y65" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>61.3</v>
       </c>
       <c r="Z65" s="18">
@@ -4339,7 +4707,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="67" spans="2:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="30" t="s">
         <v>102</v>
       </c>
@@ -4350,12 +4718,20 @@
       <c r="L67" s="42"/>
       <c r="N67" s="42"/>
       <c r="P67" s="42"/>
+      <c r="T67" s="30">
+        <f t="shared" ref="T67" si="58">T34/S34-1</f>
+        <v>5.7602143335566014E-2</v>
+      </c>
+      <c r="U67" s="30">
+        <f t="shared" ref="U67" si="59">U34/T34-1</f>
+        <v>0.21025965801139956</v>
+      </c>
       <c r="V67" s="30">
-        <f t="shared" ref="V67:W67" si="47">V34/U34-1</f>
+        <f t="shared" ref="V67:W67" si="60">V34/U34-1</f>
         <v>2.3024594453165959E-2</v>
       </c>
       <c r="W67" s="30">
-        <f t="shared" si="47"/>
+        <f t="shared" si="60"/>
         <v>-0.11150895140664963</v>
       </c>
       <c r="X67" s="30">
@@ -4380,7 +4756,7 @@
       <c r="AH67" s="61"/>
       <c r="AI67" s="61"/>
     </row>
-    <row r="69" spans="2:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="40" t="s">
         <v>103</v>
       </c>
@@ -4391,6 +4767,18 @@
       <c r="L69" s="41"/>
       <c r="N69" s="41"/>
       <c r="P69" s="41"/>
+      <c r="S69" s="40">
+        <v>3.0615000000000001</v>
+      </c>
+      <c r="T69" s="40">
+        <v>2.6158000000000001</v>
+      </c>
+      <c r="U69" s="40">
+        <v>2.5855999999999999</v>
+      </c>
+      <c r="V69" s="40">
+        <v>2.4986999999999999</v>
+      </c>
       <c r="W69" s="40">
         <v>1.7</v>
       </c>
@@ -4413,16 +4801,32 @@
       <c r="AH69" s="63"/>
       <c r="AI69" s="63"/>
     </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="S70" s="18">
+        <f t="shared" ref="S70:W70" si="61">S69*S14</f>
+        <v>604.34010000000001</v>
+      </c>
+      <c r="T70" s="18">
+        <f t="shared" si="61"/>
+        <v>513.48154000000011</v>
+      </c>
+      <c r="U70" s="18">
+        <f t="shared" si="61"/>
+        <v>509.62175999999994</v>
+      </c>
+      <c r="V70" s="18">
+        <f t="shared" si="61"/>
+        <v>496.24181999999996</v>
+      </c>
       <c r="W70" s="18">
-        <f t="shared" ref="W70:X70" si="48">W69*W14</f>
+        <f t="shared" ref="W70:X70" si="62">W69*W14</f>
         <v>338.46999999999997</v>
       </c>
       <c r="X70" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>120.15685000000001</v>
       </c>
       <c r="Y70" s="18">
@@ -4434,9 +4838,25 @@
         <v>506.68023999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="S71" s="18">
+        <f t="shared" ref="S71:V71" si="63">S70-S65</f>
+        <v>662.34010000000001</v>
+      </c>
+      <c r="T71" s="18">
+        <f t="shared" si="63"/>
+        <v>557.18154000000015</v>
+      </c>
+      <c r="U71" s="18">
+        <f t="shared" si="63"/>
+        <v>591.82175999999993</v>
+      </c>
+      <c r="V71" s="18">
+        <f t="shared" si="63"/>
+        <v>589.14181999999994</v>
       </c>
       <c r="W71" s="18">
         <f>W70-W65</f>
@@ -4455,20 +4875,40 @@
         <v>456.88023999999996</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A73" s="86">
+        <f>AVERAGE(S73:Z73)</f>
+        <v>1.1368672669892439</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="S73" s="43">
+        <f t="shared" ref="S73:W73" si="64">S69/S61</f>
+        <v>1.6435683981506666</v>
+      </c>
+      <c r="T73" s="43">
+        <f t="shared" si="64"/>
+        <v>1.2666046867291563</v>
+      </c>
+      <c r="U73" s="43">
+        <f t="shared" si="64"/>
+        <v>1.2506055460122694</v>
+      </c>
+      <c r="V73" s="43">
+        <f t="shared" si="64"/>
+        <v>1.1762072054989334</v>
+      </c>
       <c r="W73" s="43">
-        <f t="shared" ref="W73:Y73" si="49">W69/W61</f>
+        <f t="shared" ref="W73:Y73" si="65">W69/W61</f>
         <v>0.82694844857073058</v>
       </c>
       <c r="X73" s="43">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>0.32847689994532514</v>
       </c>
       <c r="Y73" s="43">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>1.682962087123024</v>
       </c>
       <c r="Z73" s="43">
@@ -4476,7 +4916,11 @@
         <v>0.91956486388384751</v>
       </c>
     </row>
-    <row r="74" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="86">
+        <f t="shared" ref="A74:A77" si="66">AVERAGE(S74:Z74)</f>
+        <v>0.41374638068405767</v>
+      </c>
       <c r="B74" s="43" t="s">
         <v>22</v>
       </c>
@@ -4487,16 +4931,32 @@
       <c r="L74" s="44"/>
       <c r="N74" s="44"/>
       <c r="P74" s="44"/>
+      <c r="S74" s="43">
+        <f t="shared" ref="S74:W74" si="67">S70/S4</f>
+        <v>0.58937009947337615</v>
+      </c>
+      <c r="T74" s="43">
+        <f t="shared" si="67"/>
+        <v>0.50267404796867365</v>
+      </c>
+      <c r="U74" s="43">
+        <f t="shared" si="67"/>
+        <v>0.46540799999999993</v>
+      </c>
+      <c r="V74" s="43">
+        <f t="shared" si="67"/>
+        <v>0.43717894458638007</v>
+      </c>
       <c r="W74" s="43">
-        <f t="shared" ref="W74:Y74" si="50">W70/W4</f>
+        <f t="shared" ref="W74:Y74" si="68">W70/W4</f>
         <v>0.29726857544352714</v>
       </c>
       <c r="X74" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="68"/>
         <v>0.10402289845035063</v>
       </c>
       <c r="Y74" s="43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="68"/>
         <v>0.54410087440996679</v>
       </c>
       <c r="Z74" s="43">
@@ -4513,7 +4973,11 @@
       <c r="AH74" s="65"/>
       <c r="AI74" s="65"/>
     </row>
-    <row r="75" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="86">
+        <f t="shared" si="66"/>
+        <v>0.45016822490598901</v>
+      </c>
       <c r="B75" s="43" t="s">
         <v>25</v>
       </c>
@@ -4524,16 +4988,32 @@
       <c r="L75" s="44"/>
       <c r="N75" s="44"/>
       <c r="P75" s="44"/>
+      <c r="S75" s="43">
+        <f t="shared" ref="S75:W75" si="69">S71/S4</f>
+        <v>0.64593339184708398</v>
+      </c>
+      <c r="T75" s="43">
+        <f t="shared" si="69"/>
+        <v>0.54545427312775341</v>
+      </c>
+      <c r="U75" s="43">
+        <f t="shared" si="69"/>
+        <v>0.54047649315068491</v>
+      </c>
+      <c r="V75" s="43">
+        <f t="shared" si="69"/>
+        <v>0.51902195401286233</v>
+      </c>
       <c r="W75" s="43">
-        <f t="shared" ref="W75:Y75" si="51">W71/W4</f>
+        <f t="shared" ref="W75:Y75" si="70">W71/W4</f>
         <v>0.36753030036887407</v>
       </c>
       <c r="X75" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>0.15267669465847114</v>
       </c>
       <c r="Y75" s="43">
-        <f t="shared" si="51"/>
+        <f t="shared" si="70"/>
         <v>0.49666606825040632</v>
       </c>
       <c r="Z75" s="43">
@@ -4550,7 +5030,11 @@
       <c r="AH75" s="65"/>
       <c r="AI75" s="65"/>
     </row>
-    <row r="76" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="86">
+        <f t="shared" si="66"/>
+        <v>8.7576011619956287</v>
+      </c>
       <c r="B76" s="43" t="s">
         <v>23</v>
       </c>
@@ -4561,16 +5045,32 @@
       <c r="L76" s="44"/>
       <c r="N76" s="44"/>
       <c r="P76" s="44"/>
+      <c r="S76" s="43">
+        <f t="shared" ref="S76:W76" si="71">S69/S13</f>
+        <v>9.184499999999991</v>
+      </c>
+      <c r="T76" s="43">
+        <f t="shared" si="71"/>
+        <v>8.0863234645669291</v>
+      </c>
+      <c r="U76" s="43">
+        <f t="shared" si="71"/>
+        <v>9.0358468085106303</v>
+      </c>
+      <c r="V76" s="43">
+        <f t="shared" si="71"/>
+        <v>9.072062522851926</v>
+      </c>
       <c r="W76" s="43">
-        <f t="shared" ref="W76:Y76" si="52">W69/W13</f>
+        <f t="shared" ref="W76:Y76" si="72">W69/W13</f>
         <v>8.0780429594272327</v>
       </c>
       <c r="X76" s="43">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>6.8661057142857596</v>
       </c>
       <c r="Y76" s="43">
-        <f t="shared" si="52"/>
+        <f t="shared" si="72"/>
         <v>13.216946616541351</v>
       </c>
       <c r="Z76" s="43">
@@ -4587,7 +5087,11 @@
       <c r="AH76" s="65"/>
       <c r="AI76" s="65"/>
     </row>
-    <row r="77" spans="2:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="86">
+        <f t="shared" si="66"/>
+        <v>9.7642266095637211</v>
+      </c>
       <c r="B77" s="43" t="s">
         <v>24</v>
       </c>
@@ -4598,16 +5102,32 @@
       <c r="L77" s="44"/>
       <c r="N77" s="44"/>
       <c r="P77" s="44"/>
+      <c r="S77" s="43">
+        <f t="shared" ref="S77:W77" si="73">S71/S12</f>
+        <v>10.06595896656534</v>
+      </c>
+      <c r="T77" s="43">
+        <f t="shared" si="73"/>
+        <v>8.774512440944882</v>
+      </c>
+      <c r="U77" s="43">
+        <f t="shared" si="73"/>
+        <v>10.493293617021266</v>
+      </c>
+      <c r="V77" s="43">
+        <f t="shared" si="73"/>
+        <v>10.770417184643518</v>
+      </c>
       <c r="W77" s="43">
-        <f t="shared" ref="W77:Y77" si="53">W71/W12</f>
+        <f t="shared" ref="W77:Y77" si="74">W71/W12</f>
         <v>9.9873508353222267</v>
       </c>
       <c r="X77" s="43">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>10.077534285714352</v>
       </c>
       <c r="Y77" s="43">
-        <f t="shared" si="53"/>
+        <f t="shared" si="74"/>
         <v>12.064690977443609</v>
       </c>
       <c r="Z77" s="43">
@@ -4624,7 +5144,7 @@
       <c r="AH77" s="65"/>
       <c r="AI77" s="65"/>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B80" s="31" t="s">
         <v>107</v>
       </c>
@@ -4635,11 +5155,12 @@
     <hyperlink ref="Z1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
     <hyperlink ref="X1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
     <hyperlink ref="V1" r:id="rId3" xr:uid="{13285A00-2106-4F98-B9F0-34A6A260A094}"/>
+    <hyperlink ref="T1" r:id="rId4" xr:uid="{769CF0C5-F50D-4DA3-90F8-F8D13713771E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="X9 AA7 AA11 AA9 AB11:AI11 AB9:AI9 AB7:AC7 AD7:AI7" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064C5BB5-F46D-4551-80C5-B4E59B56A449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA062A0-A977-48A7-BBBE-6CC867C28391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
   <si>
     <t>£HLF</t>
   </si>
@@ -637,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -667,9 +658,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -698,9 +686,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -755,12 +740,15 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,21 +764,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1279,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1292,14 +1287,14 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1307,22 +1302,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="G5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="78"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1346,7 +1341,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>205.7</v>
       </c>
       <c r="D7" s="15" t="str">
@@ -1367,7 +1362,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f>C6*C7</f>
         <v>376.22529999999995</v>
       </c>
@@ -1386,7 +1381,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f>'Financial Model'!Z63</f>
         <v>50.5</v>
       </c>
@@ -1408,7 +1403,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f>'Financial Model'!Z64</f>
         <v>0.7</v>
       </c>
@@ -1430,7 +1425,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f>C9-C10</f>
         <v>49.8</v>
       </c>
@@ -1452,7 +1447,7 @@
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f>C8-C11</f>
         <v>326.42529999999994</v>
       </c>
@@ -1490,11 +1485,11 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
       <c r="G15" s="13"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1509,10 +1504,10 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="80"/>
       <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1527,10 +1522,10 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="80"/>
       <c r="G17" s="13"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1545,10 +1540,10 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="80"/>
       <c r="G18" s="13"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1563,10 +1558,10 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="84"/>
       <c r="G19" s="14"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1578,153 +1573,160 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="80"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="86">
         <v>1892</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="80"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="78">
+      <c r="C25" s="86">
         <v>2004</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="86">
         <f>'Financial Model'!Z34</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="79"/>
+      <c r="D27" s="80"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="80"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="32">
-        <v>44713</v>
-      </c>
+      <c r="D29" s="88">
+        <v>45093</v>
+      </c>
+      <c r="F29" s="85"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="84" t="s">
+      <c r="C30" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="85"/>
+      <c r="D30" s="82"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="80">
+      <c r="C34" s="72">
         <f>C6/'Financial Model'!Z61</f>
         <v>0.68280453720508161</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="30"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="72">
         <f>C8/'Financial Model'!Z4</f>
         <v>0.27469721086448595</v>
       </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="80">
+      <c r="C36" s="72">
         <f>C12/'Financial Model'!Z4</f>
         <v>0.23833622955607472</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="30"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="80">
+      <c r="C37" s="72">
         <f>C6/'Financial Model'!Z13</f>
         <v>4.8420244530244538</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="80">
+      <c r="C38" s="72">
         <f>C12/'Financial Model'!Z12</f>
         <v>4.201097812097812</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="30"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1741,12 +1743,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1761,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
   <dimension ref="A1:CS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1773,275 +1769,275 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="37"/>
+    <col min="4" max="4" width="9.140625" style="35"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="37"/>
+    <col min="6" max="6" width="9.140625" style="35"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="37"/>
+    <col min="8" max="8" width="9.140625" style="35"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="37"/>
+    <col min="10" max="10" width="9.140625" style="35"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="37"/>
+    <col min="12" max="12" width="9.140625" style="35"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="37"/>
+    <col min="14" max="14" width="9.140625" style="35"/>
     <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="37"/>
+    <col min="16" max="16" width="9.140625" style="35"/>
     <col min="17" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="9.140625" style="57"/>
-    <col min="28" max="35" width="9.140625" style="54"/>
+    <col min="27" max="27" width="9.140625" style="55"/>
+    <col min="28" max="35" width="9.140625" style="52"/>
     <col min="36" max="36" width="9.140625" style="1"/>
     <col min="37" max="37" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:97" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="2:97" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="46" t="s">
+      <c r="AB1" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AC1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="46" t="s">
+      <c r="AD1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="46" t="s">
+      <c r="AE1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="46" t="s">
+      <c r="AF1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="46" t="s">
+      <c r="AI1" s="44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:97" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22"/>
-      <c r="D2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="25">
+    <row r="2" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="21"/>
+      <c r="D2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="24">
         <v>44106</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="37">
         <v>44288</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="24">
         <v>44470</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="S2" s="25">
+      <c r="L2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="S2" s="24">
         <v>42097</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="24">
         <v>42461</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="24">
         <v>42825</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="24">
         <v>43189</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="24">
         <v>43553</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="24">
         <v>43924</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="24">
         <v>44288</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="24">
         <v>44652</v>
       </c>
-      <c r="AA2" s="47" t="s">
+      <c r="AA2" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-    </row>
-    <row r="3" spans="2:97" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="D3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="24">
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+    </row>
+    <row r="3" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="23">
         <v>44510</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="24">
+      <c r="L3" s="33"/>
+      <c r="M3" s="23">
         <v>44868</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="T3" s="24">
+      <c r="N3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="T3" s="23">
         <v>42522</v>
       </c>
-      <c r="X3" s="24"/>
-      <c r="Z3" s="24">
+      <c r="X3" s="23"/>
+      <c r="Z3" s="23">
         <v>44728</v>
       </c>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
     </row>
     <row r="4" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="S4" s="27">
+      <c r="D4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="S4" s="26">
         <v>1025.4000000000001</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="26">
         <v>1021.5</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="26">
         <v>1095</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="26">
         <v>1135.0999999999999</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="26">
         <v>1138.5999999999999</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="26">
         <v>1155.0999999999999</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="26">
         <v>1292.3</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="Z4" s="26">
         <v>1369.6</v>
       </c>
-      <c r="AA4" s="49">
+      <c r="AA4" s="47">
         <f>Z4*(1+AA16)</f>
         <v>1438.08</v>
       </c>
-      <c r="AB4" s="50">
+      <c r="AB4" s="48">
         <f>AA4*(1+AB16)</f>
         <v>1509.9839999999999</v>
       </c>
-      <c r="AC4" s="50">
+      <c r="AC4" s="48">
         <f t="shared" ref="AC4:AI4" si="0">AB4*(1+AC16)</f>
         <v>1555.28352</v>
       </c>
-      <c r="AD4" s="50">
+      <c r="AD4" s="48">
         <f t="shared" si="0"/>
         <v>1586.3891904</v>
       </c>
-      <c r="AE4" s="50">
+      <c r="AE4" s="48">
         <f t="shared" si="0"/>
         <v>1618.1169742080001</v>
       </c>
-      <c r="AF4" s="50">
+      <c r="AF4" s="48">
         <f t="shared" si="0"/>
         <v>1650.4793136921601</v>
       </c>
-      <c r="AG4" s="50">
+      <c r="AG4" s="48">
         <f t="shared" si="0"/>
         <v>1683.4888999660034</v>
       </c>
-      <c r="AH4" s="50">
+      <c r="AH4" s="48">
         <f t="shared" si="0"/>
         <v>1717.1586779653235</v>
       </c>
-      <c r="AI4" s="50">
+      <c r="AI4" s="48">
         <f t="shared" si="0"/>
         <v>1751.50185152463</v>
       </c>
@@ -2050,63 +2046,63 @@
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <v>479.1</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="17">
         <v>478.4</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="17">
         <v>536.4</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="17">
         <v>564.9</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="17">
         <v>559.6</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="17">
         <v>565.4</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="17">
         <v>636</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="17">
         <v>647.9</v>
       </c>
-      <c r="AA5" s="51">
+      <c r="AA5" s="49">
         <f>AA4*(1-AA19)</f>
         <v>675.8975999999999</v>
       </c>
-      <c r="AB5" s="52">
+      <c r="AB5" s="50">
         <f t="shared" ref="AB5:AI5" si="1">AB4*(1-AB19)</f>
         <v>709.69247999999993</v>
       </c>
-      <c r="AC5" s="52">
+      <c r="AC5" s="50">
         <f t="shared" si="1"/>
         <v>730.98325439999996</v>
       </c>
-      <c r="AD5" s="52">
+      <c r="AD5" s="50">
         <f t="shared" si="1"/>
         <v>745.60291948799988</v>
       </c>
-      <c r="AE5" s="52">
+      <c r="AE5" s="50">
         <f t="shared" si="1"/>
         <v>760.51497787775997</v>
       </c>
-      <c r="AF5" s="52">
+      <c r="AF5" s="50">
         <f t="shared" si="1"/>
         <v>775.72527743531521</v>
       </c>
-      <c r="AG5" s="52">
+      <c r="AG5" s="50">
         <f t="shared" si="1"/>
         <v>791.23978298402153</v>
       </c>
-      <c r="AH5" s="52">
+      <c r="AH5" s="50">
         <f t="shared" si="1"/>
         <v>807.06457864370202</v>
       </c>
-      <c r="AI5" s="52">
+      <c r="AI5" s="50">
         <f t="shared" si="1"/>
         <v>823.20587021657605</v>
       </c>
@@ -2115,78 +2111,78 @@
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="S6" s="27">
+      <c r="D6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="S6" s="26">
         <f t="shared" ref="S6:V6" si="2">S4-S5</f>
         <v>546.30000000000007</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="26">
         <f t="shared" si="2"/>
         <v>543.1</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="26">
         <f t="shared" si="2"/>
         <v>558.6</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="26">
         <f t="shared" si="2"/>
         <v>570.19999999999993</v>
       </c>
-      <c r="W6" s="27">
+      <c r="W6" s="26">
         <f>W4-W5</f>
         <v>578.99999999999989</v>
       </c>
-      <c r="X6" s="27">
+      <c r="X6" s="26">
         <f>X4-X5</f>
         <v>589.69999999999993</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="Y6" s="26">
         <f>Y4-Y5</f>
         <v>656.3</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="26">
         <f>Z4-Z5</f>
         <v>721.69999999999993</v>
       </c>
-      <c r="AA6" s="49">
+      <c r="AA6" s="47">
         <f>AA4-AA5</f>
         <v>762.18240000000003</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AB6" s="26">
         <f t="shared" ref="AB6:AI6" si="3">AB4-AB5</f>
         <v>800.29151999999999</v>
       </c>
-      <c r="AC6" s="27">
+      <c r="AC6" s="26">
         <f t="shared" si="3"/>
         <v>824.30026559999999</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AD6" s="26">
         <f t="shared" si="3"/>
         <v>840.78627091200008</v>
       </c>
-      <c r="AE6" s="27">
+      <c r="AE6" s="26">
         <f t="shared" si="3"/>
         <v>857.60199633024013</v>
       </c>
-      <c r="AF6" s="27">
+      <c r="AF6" s="26">
         <f t="shared" si="3"/>
         <v>874.75403625684487</v>
       </c>
-      <c r="AG6" s="27">
+      <c r="AG6" s="26">
         <f t="shared" si="3"/>
         <v>892.24911698198184</v>
       </c>
-      <c r="AH6" s="27">
+      <c r="AH6" s="26">
         <f t="shared" si="3"/>
         <v>910.09409932162146</v>
       </c>
-      <c r="AI6" s="27">
+      <c r="AI6" s="26">
         <f t="shared" si="3"/>
         <v>928.29598130805391</v>
       </c>
@@ -2195,63 +2191,63 @@
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <v>459</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <v>460.3</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <v>484.9</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="17">
         <v>500.4</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="17">
         <v>524.6</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="17">
         <v>556.70000000000005</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="17">
         <v>576.79999999999995</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="17">
         <v>613.79999999999995</v>
       </c>
-      <c r="AA7" s="51">
+      <c r="AA7" s="49">
         <f>Z7*1.085</f>
         <v>665.97299999999996</v>
       </c>
-      <c r="AB7" s="52">
+      <c r="AB7" s="50">
         <f>AA7*1.06</f>
         <v>705.93137999999999</v>
       </c>
-      <c r="AC7" s="52">
+      <c r="AC7" s="50">
         <f t="shared" ref="AC7" si="4">AB7*1.06</f>
         <v>748.28726280000001</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="50">
         <f>AC7*1.03</f>
         <v>770.73588068399999</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="50">
         <f t="shared" ref="AE7:AI7" si="5">AD7*1.03</f>
         <v>793.85795710451998</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="50">
         <f t="shared" si="5"/>
         <v>817.67369581765558</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="50">
         <f t="shared" si="5"/>
         <v>842.20390669218523</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AH7" s="50">
         <f t="shared" si="5"/>
         <v>867.47002389295085</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AI7" s="50">
         <f t="shared" si="5"/>
         <v>893.4941246097394</v>
       </c>
@@ -2260,78 +2256,78 @@
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="S8" s="27">
+      <c r="D8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="S8" s="26">
         <f t="shared" ref="S8:V8" si="6">S6-S7</f>
         <v>87.300000000000068</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="26">
         <f t="shared" si="6"/>
         <v>82.800000000000011</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="26">
         <f t="shared" si="6"/>
         <v>73.700000000000045</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="26">
         <f t="shared" si="6"/>
         <v>69.799999999999955</v>
       </c>
-      <c r="W8" s="27">
+      <c r="W8" s="26">
         <f>W6-W7</f>
         <v>54.399999999999864</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="26">
         <f>X6-X7</f>
         <v>32.999999999999886</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="26">
         <f>Y6-Y7</f>
         <v>79.5</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="26">
         <f>Z6-Z7</f>
         <v>107.89999999999998</v>
       </c>
-      <c r="AA8" s="49">
+      <c r="AA8" s="47">
         <f>AA6-AA7</f>
         <v>96.209400000000073</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="26">
         <f t="shared" ref="AB8:AI8" si="7">AB6-AB7</f>
         <v>94.360140000000001</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="26">
         <f t="shared" si="7"/>
         <v>76.013002799999981</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="26">
         <f t="shared" si="7"/>
         <v>70.050390228000083</v>
       </c>
-      <c r="AE8" s="27">
+      <c r="AE8" s="26">
         <f t="shared" si="7"/>
         <v>63.744039225720144</v>
       </c>
-      <c r="AF8" s="27">
+      <c r="AF8" s="26">
         <f t="shared" si="7"/>
         <v>57.080340439189285</v>
       </c>
-      <c r="AG8" s="27">
+      <c r="AG8" s="26">
         <f t="shared" si="7"/>
         <v>50.045210289796614</v>
       </c>
-      <c r="AH8" s="27">
+      <c r="AH8" s="26">
         <f t="shared" si="7"/>
         <v>42.624075428670608</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AI8" s="26">
         <f t="shared" si="7"/>
         <v>34.801856698314509</v>
       </c>
@@ -2340,64 +2336,64 @@
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <v>3.5</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="17">
         <v>3</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="17">
         <v>2.7</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="17">
         <v>3.4</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="17">
         <f>13.9-0.3</f>
         <v>13.6</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="17">
         <v>15</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="Z9" s="17">
         <v>11.3</v>
       </c>
-      <c r="AA9" s="51">
+      <c r="AA9" s="49">
         <f>AVERAGE(X9:Z9)</f>
         <v>13.300000000000002</v>
       </c>
-      <c r="AB9" s="52">
+      <c r="AB9" s="50">
         <f>AVERAGE(X9:AA9)</f>
         <v>13.300000000000002</v>
       </c>
-      <c r="AC9" s="52">
+      <c r="AC9" s="50">
         <f t="shared" ref="AC9:AI9" si="8">AVERAGE(Y9:AB9)</f>
         <v>13.225000000000001</v>
       </c>
-      <c r="AD9" s="52">
+      <c r="AD9" s="50">
         <f t="shared" si="8"/>
         <v>12.781250000000002</v>
       </c>
-      <c r="AE9" s="52">
+      <c r="AE9" s="50">
         <f t="shared" si="8"/>
         <v>13.151562500000001</v>
       </c>
-      <c r="AF9" s="52">
+      <c r="AF9" s="50">
         <f t="shared" si="8"/>
         <v>13.114453125000001</v>
       </c>
-      <c r="AG9" s="52">
+      <c r="AG9" s="50">
         <f t="shared" si="8"/>
         <v>13.068066406250001</v>
       </c>
-      <c r="AH9" s="52">
+      <c r="AH9" s="50">
         <f t="shared" si="8"/>
         <v>13.028833007812501</v>
       </c>
-      <c r="AI9" s="52">
+      <c r="AI9" s="50">
         <f t="shared" si="8"/>
         <v>13.090728759765627</v>
       </c>
@@ -2406,71 +2402,71 @@
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="17">
         <f t="shared" ref="S10:V10" si="9">S8-S9</f>
         <v>83.800000000000068</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="17">
         <f t="shared" si="9"/>
         <v>79.800000000000011</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="17">
         <f t="shared" si="9"/>
         <v>71.400000000000048</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="17">
         <f t="shared" si="9"/>
         <v>67.099999999999952</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="17">
         <f>W8-W9</f>
         <v>50.999999999999865</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="17">
         <f>X8-X9</f>
         <v>19.399999999999885</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="17">
         <f>Y8-Y9</f>
         <v>64.5</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="Z10" s="17">
         <f>Z8-Z9</f>
         <v>96.59999999999998</v>
       </c>
-      <c r="AA10" s="51">
+      <c r="AA10" s="49">
         <f>AA8-AA9</f>
         <v>82.909400000000076</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB10" s="17">
         <f t="shared" ref="AB10:AI10" si="10">AB8-AB9</f>
         <v>81.060140000000004</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
         <f t="shared" si="10"/>
         <v>62.78800279999998</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="17">
         <f t="shared" si="10"/>
         <v>57.269140228000083</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="17">
         <f t="shared" si="10"/>
         <v>50.592476725720147</v>
       </c>
-      <c r="AF10" s="18">
+      <c r="AF10" s="17">
         <f t="shared" si="10"/>
         <v>43.965887314189288</v>
       </c>
-      <c r="AG10" s="18">
+      <c r="AG10" s="17">
         <f t="shared" si="10"/>
         <v>36.977143883546617</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH10" s="17">
         <f t="shared" si="10"/>
         <v>29.595242420858106</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AI10" s="17">
         <f t="shared" si="10"/>
         <v>21.711127938548884</v>
       </c>
@@ -2479,63 +2475,63 @@
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <v>18</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="17">
         <v>16.3</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="17">
         <v>15</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="17">
         <v>12.4</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="17">
         <v>9.1</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="17">
         <v>1.9</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="17">
         <v>11.3</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="Z11" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="AA11" s="51">
+      <c r="AA11" s="49">
         <f>AA10*AA22</f>
         <v>16.581880000000016</v>
       </c>
-      <c r="AB11" s="52">
+      <c r="AB11" s="50">
         <f t="shared" ref="AB11:AI11" si="11">AB10*AB22</f>
         <v>16.212028</v>
       </c>
-      <c r="AC11" s="52">
+      <c r="AC11" s="50">
         <f t="shared" si="11"/>
         <v>12.557600559999997</v>
       </c>
-      <c r="AD11" s="52">
+      <c r="AD11" s="50">
         <f t="shared" si="11"/>
         <v>11.453828045600018</v>
       </c>
-      <c r="AE11" s="52">
+      <c r="AE11" s="50">
         <f t="shared" si="11"/>
         <v>10.11849534514403</v>
       </c>
-      <c r="AF11" s="52">
+      <c r="AF11" s="50">
         <f t="shared" si="11"/>
         <v>8.7931774628378587</v>
       </c>
-      <c r="AG11" s="52">
+      <c r="AG11" s="50">
         <f t="shared" si="11"/>
         <v>7.3954287767093234</v>
       </c>
-      <c r="AH11" s="52">
+      <c r="AH11" s="50">
         <f t="shared" si="11"/>
         <v>5.919048484171622</v>
       </c>
-      <c r="AI11" s="52">
+      <c r="AI11" s="50">
         <f t="shared" si="11"/>
         <v>4.3422255877097768</v>
       </c>
@@ -2544,326 +2540,326 @@
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="S12" s="27">
+      <c r="D12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="S12" s="26">
         <f t="shared" ref="S12:V12" si="12">S10-S11</f>
         <v>65.800000000000068</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="26">
         <f t="shared" si="12"/>
         <v>63.500000000000014</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="26">
         <f t="shared" si="12"/>
         <v>56.400000000000048</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="26">
         <f t="shared" si="12"/>
         <v>54.699999999999953</v>
       </c>
-      <c r="W12" s="27">
+      <c r="W12" s="26">
         <f>W10-W11</f>
         <v>41.899999999999864</v>
       </c>
-      <c r="X12" s="27">
+      <c r="X12" s="26">
         <f>X10-X11</f>
         <v>17.499999999999886</v>
       </c>
-      <c r="Y12" s="27">
+      <c r="Y12" s="26">
         <f>Y10-Y11</f>
         <v>53.2</v>
       </c>
-      <c r="Z12" s="27">
+      <c r="Z12" s="26">
         <f>Z10-Z11</f>
         <v>77.699999999999989</v>
       </c>
-      <c r="AA12" s="49">
+      <c r="AA12" s="47">
         <f>AA10-AA11</f>
         <v>66.327520000000064</v>
       </c>
-      <c r="AB12" s="27">
+      <c r="AB12" s="26">
         <f t="shared" ref="AB12:AI12" si="13">AB10-AB11</f>
         <v>64.848112</v>
       </c>
-      <c r="AC12" s="27">
+      <c r="AC12" s="26">
         <f t="shared" si="13"/>
         <v>50.230402239999982</v>
       </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="26">
         <f t="shared" si="13"/>
         <v>45.815312182400064</v>
       </c>
-      <c r="AE12" s="27">
+      <c r="AE12" s="26">
         <f t="shared" si="13"/>
         <v>40.47398138057612</v>
       </c>
-      <c r="AF12" s="27">
+      <c r="AF12" s="26">
         <f t="shared" si="13"/>
         <v>35.172709851351428</v>
       </c>
-      <c r="AG12" s="27">
+      <c r="AG12" s="26">
         <f t="shared" si="13"/>
         <v>29.581715106837294</v>
       </c>
-      <c r="AH12" s="27">
+      <c r="AH12" s="26">
         <f t="shared" si="13"/>
         <v>23.676193936686484</v>
       </c>
-      <c r="AI12" s="27">
+      <c r="AI12" s="26">
         <f t="shared" si="13"/>
         <v>17.368902350839107</v>
       </c>
-      <c r="AJ12" s="27">
+      <c r="AJ12" s="26">
         <f>AI12*(1+$AL$19)</f>
         <v>17.542591374347499</v>
       </c>
-      <c r="AK12" s="27">
+      <c r="AK12" s="26">
         <f t="shared" ref="AK12:CS12" si="14">AJ12*(1+$AL$19)</f>
         <v>17.718017288090973</v>
       </c>
-      <c r="AL12" s="27">
+      <c r="AL12" s="26">
         <f t="shared" si="14"/>
         <v>17.895197460971882</v>
       </c>
-      <c r="AM12" s="27">
+      <c r="AM12" s="26">
         <f t="shared" si="14"/>
         <v>18.074149435581603</v>
       </c>
-      <c r="AN12" s="27">
+      <c r="AN12" s="26">
         <f t="shared" si="14"/>
         <v>18.254890929937421</v>
       </c>
-      <c r="AO12" s="27">
+      <c r="AO12" s="26">
         <f t="shared" si="14"/>
         <v>18.437439839236795</v>
       </c>
-      <c r="AP12" s="27">
+      <c r="AP12" s="26">
         <f t="shared" si="14"/>
         <v>18.621814237629163</v>
       </c>
-      <c r="AQ12" s="27">
+      <c r="AQ12" s="26">
         <f t="shared" si="14"/>
         <v>18.808032380005454</v>
       </c>
-      <c r="AR12" s="27">
+      <c r="AR12" s="26">
         <f t="shared" si="14"/>
         <v>18.996112703805508</v>
       </c>
-      <c r="AS12" s="27">
+      <c r="AS12" s="26">
         <f t="shared" si="14"/>
         <v>19.186073830843565</v>
       </c>
-      <c r="AT12" s="27">
+      <c r="AT12" s="26">
         <f t="shared" si="14"/>
         <v>19.377934569152</v>
       </c>
-      <c r="AU12" s="27">
+      <c r="AU12" s="26">
         <f t="shared" si="14"/>
         <v>19.571713914843521</v>
       </c>
-      <c r="AV12" s="27">
+      <c r="AV12" s="26">
         <f t="shared" si="14"/>
         <v>19.767431053991956</v>
       </c>
-      <c r="AW12" s="27">
+      <c r="AW12" s="26">
         <f t="shared" si="14"/>
         <v>19.965105364531876</v>
       </c>
-      <c r="AX12" s="27">
+      <c r="AX12" s="26">
         <f t="shared" si="14"/>
         <v>20.164756418177195</v>
       </c>
-      <c r="AY12" s="27">
+      <c r="AY12" s="26">
         <f t="shared" si="14"/>
         <v>20.366403982358968</v>
       </c>
-      <c r="AZ12" s="27">
+      <c r="AZ12" s="26">
         <f t="shared" si="14"/>
         <v>20.570068022182557</v>
       </c>
-      <c r="BA12" s="27">
+      <c r="BA12" s="26">
         <f t="shared" si="14"/>
         <v>20.775768702404385</v>
       </c>
-      <c r="BB12" s="27">
+      <c r="BB12" s="26">
         <f t="shared" si="14"/>
         <v>20.98352638942843</v>
       </c>
-      <c r="BC12" s="27">
+      <c r="BC12" s="26">
         <f t="shared" si="14"/>
         <v>21.193361653322714</v>
       </c>
-      <c r="BD12" s="27">
+      <c r="BD12" s="26">
         <f t="shared" si="14"/>
         <v>21.405295269855941</v>
       </c>
-      <c r="BE12" s="27">
+      <c r="BE12" s="26">
         <f t="shared" si="14"/>
         <v>21.6193482225545</v>
       </c>
-      <c r="BF12" s="27">
+      <c r="BF12" s="26">
         <f t="shared" si="14"/>
         <v>21.835541704780045</v>
       </c>
-      <c r="BG12" s="27">
+      <c r="BG12" s="26">
         <f t="shared" si="14"/>
         <v>22.053897121827845</v>
       </c>
-      <c r="BH12" s="27">
+      <c r="BH12" s="26">
         <f t="shared" si="14"/>
         <v>22.274436093046123</v>
       </c>
-      <c r="BI12" s="27">
+      <c r="BI12" s="26">
         <f t="shared" si="14"/>
         <v>22.497180453976586</v>
       </c>
-      <c r="BJ12" s="27">
+      <c r="BJ12" s="26">
         <f t="shared" si="14"/>
         <v>22.722152258516353</v>
       </c>
-      <c r="BK12" s="27">
+      <c r="BK12" s="26">
         <f t="shared" si="14"/>
         <v>22.949373781101517</v>
       </c>
-      <c r="BL12" s="27">
+      <c r="BL12" s="26">
         <f t="shared" si="14"/>
         <v>23.178867518912533</v>
       </c>
-      <c r="BM12" s="27">
+      <c r="BM12" s="26">
         <f t="shared" si="14"/>
         <v>23.410656194101659</v>
       </c>
-      <c r="BN12" s="27">
+      <c r="BN12" s="26">
         <f t="shared" si="14"/>
         <v>23.644762756042674</v>
       </c>
-      <c r="BO12" s="27">
+      <c r="BO12" s="26">
         <f t="shared" si="14"/>
         <v>23.881210383603101</v>
       </c>
-      <c r="BP12" s="27">
+      <c r="BP12" s="26">
         <f t="shared" si="14"/>
         <v>24.120022487439133</v>
       </c>
-      <c r="BQ12" s="27">
+      <c r="BQ12" s="26">
         <f t="shared" si="14"/>
         <v>24.361222712313523</v>
       </c>
-      <c r="BR12" s="27">
+      <c r="BR12" s="26">
         <f t="shared" si="14"/>
         <v>24.60483493943666</v>
       </c>
-      <c r="BS12" s="27">
+      <c r="BS12" s="26">
         <f t="shared" si="14"/>
         <v>24.850883288831028</v>
       </c>
-      <c r="BT12" s="27">
+      <c r="BT12" s="26">
         <f t="shared" si="14"/>
         <v>25.09939212171934</v>
       </c>
-      <c r="BU12" s="27">
+      <c r="BU12" s="26">
         <f t="shared" si="14"/>
         <v>25.350386042936535</v>
       </c>
-      <c r="BV12" s="27">
+      <c r="BV12" s="26">
         <f t="shared" si="14"/>
         <v>25.6038899033659</v>
       </c>
-      <c r="BW12" s="27">
+      <c r="BW12" s="26">
         <f t="shared" si="14"/>
         <v>25.859928802399558</v>
       </c>
-      <c r="BX12" s="27">
+      <c r="BX12" s="26">
         <f t="shared" si="14"/>
         <v>26.118528090423553</v>
       </c>
-      <c r="BY12" s="27">
+      <c r="BY12" s="26">
         <f t="shared" si="14"/>
         <v>26.379713371327789</v>
       </c>
-      <c r="BZ12" s="27">
+      <c r="BZ12" s="26">
         <f t="shared" si="14"/>
         <v>26.643510505041068</v>
       </c>
-      <c r="CA12" s="27">
+      <c r="CA12" s="26">
         <f t="shared" si="14"/>
         <v>26.90994561009148</v>
       </c>
-      <c r="CB12" s="27">
+      <c r="CB12" s="26">
         <f t="shared" si="14"/>
         <v>27.179045066192394</v>
       </c>
-      <c r="CC12" s="27">
+      <c r="CC12" s="26">
         <f t="shared" si="14"/>
         <v>27.450835516854319</v>
       </c>
-      <c r="CD12" s="27">
+      <c r="CD12" s="26">
         <f t="shared" si="14"/>
         <v>27.725343872022862</v>
       </c>
-      <c r="CE12" s="27">
+      <c r="CE12" s="26">
         <f t="shared" si="14"/>
         <v>28.002597310743091</v>
       </c>
-      <c r="CF12" s="27">
+      <c r="CF12" s="26">
         <f t="shared" si="14"/>
         <v>28.282623283850523</v>
       </c>
-      <c r="CG12" s="27">
+      <c r="CG12" s="26">
         <f t="shared" si="14"/>
         <v>28.565449516689029</v>
       </c>
-      <c r="CH12" s="27">
+      <c r="CH12" s="26">
         <f t="shared" si="14"/>
         <v>28.85110401185592</v>
       </c>
-      <c r="CI12" s="27">
+      <c r="CI12" s="26">
         <f t="shared" si="14"/>
         <v>29.139615051974481</v>
       </c>
-      <c r="CJ12" s="27">
+      <c r="CJ12" s="26">
         <f t="shared" si="14"/>
         <v>29.431011202494226</v>
       </c>
-      <c r="CK12" s="27">
+      <c r="CK12" s="26">
         <f t="shared" si="14"/>
         <v>29.725321314519167</v>
       </c>
-      <c r="CL12" s="27">
+      <c r="CL12" s="26">
         <f t="shared" si="14"/>
         <v>30.022574527664361</v>
       </c>
-      <c r="CM12" s="27">
+      <c r="CM12" s="26">
         <f t="shared" si="14"/>
         <v>30.322800272941006</v>
       </c>
-      <c r="CN12" s="27">
+      <c r="CN12" s="26">
         <f t="shared" si="14"/>
         <v>30.626028275670418</v>
       </c>
-      <c r="CO12" s="27">
+      <c r="CO12" s="26">
         <f t="shared" si="14"/>
         <v>30.932288558427121</v>
       </c>
-      <c r="CP12" s="27">
+      <c r="CP12" s="26">
         <f t="shared" si="14"/>
         <v>31.241611444011394</v>
       </c>
-      <c r="CQ12" s="27">
+      <c r="CQ12" s="26">
         <f t="shared" si="14"/>
         <v>31.554027558451509</v>
       </c>
-      <c r="CR12" s="27">
+      <c r="CR12" s="26">
         <f t="shared" si="14"/>
         <v>31.869567834036022</v>
       </c>
-      <c r="CS12" s="27">
+      <c r="CS12" s="26">
         <f t="shared" si="14"/>
         <v>32.188263512376381</v>
       </c>
@@ -2872,71 +2868,71 @@
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="27">
         <f t="shared" ref="S13:U13" si="15">S12/S14</f>
         <v>0.33333333333333365</v>
       </c>
-      <c r="T13" s="28">
+      <c r="T13" s="27">
         <f t="shared" si="15"/>
         <v>0.32348446255731028</v>
       </c>
-      <c r="U13" s="28">
+      <c r="U13" s="27">
         <f t="shared" si="15"/>
         <v>0.28614916286149189</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="27">
         <f t="shared" ref="V13" si="16">V12/V14</f>
         <v>0.2754279959718024</v>
       </c>
-      <c r="W13" s="28">
+      <c r="W13" s="27">
         <f t="shared" ref="W13:AB13" si="17">W12/W14</f>
         <v>0.21044701155198325</v>
       </c>
-      <c r="X13" s="28">
+      <c r="X13" s="27">
         <f t="shared" si="17"/>
         <v>8.7895529884479587E-2</v>
       </c>
-      <c r="Y13" s="28">
+      <c r="Y13" s="27">
         <f t="shared" si="17"/>
         <v>0.26720241084881974</v>
       </c>
-      <c r="Z13" s="28">
+      <c r="Z13" s="27">
         <f t="shared" si="17"/>
         <v>0.37773456490034024</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="51">
         <f t="shared" si="17"/>
         <v>0.32244783665532362</v>
       </c>
-      <c r="AB13" s="66">
+      <c r="AB13" s="64">
         <f t="shared" si="17"/>
         <v>0.31525577053962084</v>
       </c>
-      <c r="AC13" s="66">
+      <c r="AC13" s="64">
         <f t="shared" ref="AC13:AI13" si="18">AC12/AC14</f>
         <v>0.244192524258629</v>
       </c>
-      <c r="AD13" s="66">
+      <c r="AD13" s="64">
         <f t="shared" si="18"/>
         <v>0.22272879038599935</v>
       </c>
-      <c r="AE13" s="66">
+      <c r="AE13" s="64">
         <f t="shared" si="18"/>
         <v>0.19676218464062287</v>
       </c>
-      <c r="AF13" s="66">
+      <c r="AF13" s="64">
         <f t="shared" si="18"/>
         <v>0.1709903249944163</v>
       </c>
-      <c r="AG13" s="66">
+      <c r="AG13" s="64">
         <f t="shared" si="18"/>
         <v>0.1438099907964866</v>
       </c>
-      <c r="AH13" s="66">
+      <c r="AH13" s="64">
         <f t="shared" si="18"/>
         <v>0.11510060251184485</v>
       </c>
-      <c r="AI13" s="66">
+      <c r="AI13" s="64">
         <f t="shared" si="18"/>
         <v>8.4438027957409373E-2</v>
       </c>
@@ -2966,42 +2962,42 @@
       <c r="Y14" s="1">
         <v>199.1</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="17">
         <v>205.7</v>
       </c>
-      <c r="AA14" s="51">
+      <c r="AA14" s="49">
         <f>Z14</f>
         <v>205.7</v>
       </c>
-      <c r="AB14" s="52">
+      <c r="AB14" s="50">
         <f>AA14</f>
         <v>205.7</v>
       </c>
-      <c r="AC14" s="52">
+      <c r="AC14" s="50">
         <f t="shared" ref="AC14:AI14" si="19">AB14</f>
         <v>205.7</v>
       </c>
-      <c r="AD14" s="52">
+      <c r="AD14" s="50">
         <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
-      <c r="AE14" s="52">
+      <c r="AE14" s="50">
         <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
-      <c r="AF14" s="52">
+      <c r="AF14" s="50">
         <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
-      <c r="AG14" s="52">
+      <c r="AG14" s="50">
         <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
-      <c r="AH14" s="52">
+      <c r="AH14" s="50">
         <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
-      <c r="AI14" s="52">
+      <c r="AI14" s="50">
         <f t="shared" si="19"/>
         <v>205.7</v>
       </c>
@@ -3010,66 +3006,66 @@
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="T16" s="29">
+      <c r="D16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="T16" s="28">
         <f t="shared" ref="T16" si="20">T4/S4-1</f>
         <v>-3.8033937975424648E-3</v>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="28">
         <f t="shared" ref="U16" si="21">U4/T4-1</f>
         <v>7.1953010279001361E-2</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="28">
         <f t="shared" ref="V16:W16" si="22">V4/U4-1</f>
         <v>3.6621004566209869E-2</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="28">
         <f t="shared" si="22"/>
         <v>3.0834287727954379E-3</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="28">
         <f>X4/W4-1</f>
         <v>1.4491480765852716E-2</v>
       </c>
-      <c r="Y16" s="29">
+      <c r="Y16" s="28">
         <f>Y4/X4-1</f>
         <v>0.11877759501341889</v>
       </c>
-      <c r="Z16" s="29">
+      <c r="Z16" s="28">
         <f>Z4/Y4-1</f>
         <v>5.9815832237096522E-2</v>
       </c>
-      <c r="AA16" s="55">
+      <c r="AA16" s="53">
         <v>0.05</v>
       </c>
-      <c r="AB16" s="56">
+      <c r="AB16" s="54">
         <v>0.05</v>
       </c>
-      <c r="AC16" s="56">
+      <c r="AC16" s="54">
         <v>0.03</v>
       </c>
-      <c r="AD16" s="56">
+      <c r="AD16" s="54">
         <v>0.02</v>
       </c>
-      <c r="AE16" s="56">
+      <c r="AE16" s="54">
         <v>0.02</v>
       </c>
-      <c r="AF16" s="56">
+      <c r="AF16" s="54">
         <v>0.02</v>
       </c>
-      <c r="AG16" s="56">
+      <c r="AG16" s="54">
         <v>0.02</v>
       </c>
-      <c r="AH16" s="56">
+      <c r="AH16" s="54">
         <v>0.02</v>
       </c>
-      <c r="AI16" s="56">
+      <c r="AI16" s="54">
         <v>0.02</v>
       </c>
     </row>
@@ -3077,28 +3073,28 @@
       <c r="B17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S17" s="20" t="s">
+      <c r="S17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="T17" s="20" t="s">
+      <c r="T17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="20" t="s">
+      <c r="U17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="20" t="s">
+      <c r="V17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="W17" s="20" t="s">
+      <c r="W17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="X17" s="20" t="s">
+      <c r="X17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="20" t="s">
+      <c r="Y17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="20" t="s">
+      <c r="Z17" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3106,69 +3102,69 @@
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S19" s="30">
-        <f t="shared" ref="S19:U19" si="23">S6/S4</f>
+      <c r="S19" s="29">
+        <f t="shared" ref="S19:T19" si="23">S6/S4</f>
         <v>0.53276770040959631</v>
       </c>
-      <c r="T19" s="30">
+      <c r="T19" s="29">
         <f t="shared" si="23"/>
         <v>0.53166911404796868</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="29">
         <f t="shared" ref="U19:W19" si="24">U6/U4</f>
         <v>0.51013698630136983</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="29">
         <f t="shared" si="24"/>
         <v>0.50233459607083075</v>
       </c>
-      <c r="W19" s="30">
+      <c r="W19" s="29">
         <f t="shared" si="24"/>
         <v>0.50851923414719824</v>
       </c>
-      <c r="X19" s="30">
+      <c r="X19" s="29">
         <f t="shared" ref="X19:Y19" si="25">X6/X4</f>
         <v>0.51051856982079469</v>
       </c>
-      <c r="Y19" s="30">
+      <c r="Y19" s="29">
         <f t="shared" si="25"/>
         <v>0.50785421341793702</v>
       </c>
-      <c r="Z19" s="30">
+      <c r="Z19" s="29">
         <f>Z6/Z4</f>
         <v>0.52694217289719625</v>
       </c>
-      <c r="AA19" s="58">
+      <c r="AA19" s="56">
         <v>0.53</v>
       </c>
-      <c r="AB19" s="61">
+      <c r="AB19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AC19" s="61">
+      <c r="AC19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AD19" s="61">
+      <c r="AD19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AE19" s="61">
+      <c r="AE19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AF19" s="61">
+      <c r="AF19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AG19" s="61">
+      <c r="AG19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AH19" s="61">
+      <c r="AH19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AI19" s="61">
+      <c r="AI19" s="59">
         <v>0.53</v>
       </c>
-      <c r="AK19" s="67" t="s">
+      <c r="AK19" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AL19" s="68">
+      <c r="AL19" s="66">
         <v>0.01</v>
       </c>
     </row>
@@ -3176,78 +3172,78 @@
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S20" s="30">
-        <f t="shared" ref="S20:U20" si="26">S8/S4</f>
+      <c r="S20" s="29">
+        <f t="shared" ref="S20:T20" si="26">S8/S4</f>
         <v>8.5137507314218902E-2</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="29">
         <f t="shared" si="26"/>
         <v>8.1057268722466977E-2</v>
       </c>
-      <c r="U20" s="30">
+      <c r="U20" s="29">
         <f t="shared" ref="U20:W20" si="27">U8/U4</f>
         <v>6.7305936073059403E-2</v>
       </c>
-      <c r="V20" s="30">
+      <c r="V20" s="29">
         <f t="shared" si="27"/>
         <v>6.1492379526032911E-2</v>
       </c>
-      <c r="W20" s="30">
+      <c r="W20" s="29">
         <f t="shared" si="27"/>
         <v>4.7777972949235789E-2</v>
       </c>
-      <c r="X20" s="30">
+      <c r="X20" s="29">
         <f t="shared" ref="X20:Y20" si="28">X8/X4</f>
         <v>2.8568955068825112E-2</v>
       </c>
-      <c r="Y20" s="30">
+      <c r="Y20" s="29">
         <f t="shared" si="28"/>
         <v>6.1518223322757873E-2</v>
       </c>
-      <c r="Z20" s="30">
+      <c r="Z20" s="29">
         <f>Z8/Z4</f>
         <v>7.878212616822429E-2</v>
       </c>
-      <c r="AA20" s="58">
+      <c r="AA20" s="56">
         <f>AA8/AA4</f>
         <v>6.6901285046729028E-2</v>
       </c>
-      <c r="AB20" s="30">
+      <c r="AB20" s="29">
         <f t="shared" ref="AB20:AI20" si="29">AB8/AB4</f>
         <v>6.2490821094793064E-2</v>
       </c>
-      <c r="AC20" s="30">
+      <c r="AC20" s="29">
         <f t="shared" si="29"/>
         <v>4.8874048893670516E-2</v>
       </c>
-      <c r="AD20" s="30">
+      <c r="AD20" s="29">
         <f t="shared" si="29"/>
         <v>4.4157127804392841E-2</v>
       </c>
-      <c r="AE20" s="30">
+      <c r="AE20" s="29">
         <f t="shared" si="29"/>
         <v>3.9393962390710448E-2</v>
       </c>
-      <c r="AF20" s="30">
+      <c r="AF20" s="29">
         <f t="shared" si="29"/>
         <v>3.4584099276893848E-2</v>
       </c>
-      <c r="AG20" s="30">
+      <c r="AG20" s="29">
         <f t="shared" si="29"/>
         <v>2.9727080642353645E-2</v>
       </c>
-      <c r="AH20" s="30">
+      <c r="AH20" s="29">
         <f t="shared" si="29"/>
         <v>2.4822444178062945E-2</v>
       </c>
-      <c r="AI20" s="30">
+      <c r="AI20" s="29">
         <f t="shared" si="29"/>
         <v>1.9869723042553758E-2</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AL20" s="69">
+      <c r="AL20" s="67">
         <v>0.06</v>
       </c>
     </row>
@@ -3255,78 +3251,78 @@
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S21" s="30">
-        <f t="shared" ref="S21:U21" si="30">S12/S4</f>
+      <c r="S21" s="29">
+        <f t="shared" ref="S21:T21" si="30">S12/S4</f>
         <v>6.4170079968792731E-2</v>
       </c>
-      <c r="T21" s="30">
+      <c r="T21" s="29">
         <f t="shared" si="30"/>
         <v>6.2163485070974071E-2</v>
       </c>
-      <c r="U21" s="30">
+      <c r="U21" s="29">
         <f t="shared" ref="U21:W21" si="31">U12/U4</f>
         <v>5.1506849315068534E-2</v>
       </c>
-      <c r="V21" s="30">
+      <c r="V21" s="29">
         <f t="shared" si="31"/>
         <v>4.818958682054441E-2</v>
       </c>
-      <c r="W21" s="30">
+      <c r="W21" s="29">
         <f t="shared" si="31"/>
         <v>3.6799578429650329E-2</v>
       </c>
-      <c r="X21" s="30">
+      <c r="X21" s="29">
         <f t="shared" ref="X21:Y21" si="32">X12/X4</f>
         <v>1.5150203445589028E-2</v>
       </c>
-      <c r="Y21" s="30">
+      <c r="Y21" s="29">
         <f t="shared" si="32"/>
         <v>4.1166911707807785E-2</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="29">
         <f>Z12/Z4</f>
         <v>5.6731892523364483E-2</v>
       </c>
-      <c r="AA21" s="58">
+      <c r="AA21" s="56">
         <f>AA12/AA4</f>
         <v>4.6122274143302229E-2</v>
       </c>
-      <c r="AB21" s="30">
+      <c r="AB21" s="29">
         <f t="shared" ref="AB21:AI21" si="33">AB12/AB4</f>
         <v>4.294622459575731E-2</v>
       </c>
-      <c r="AC21" s="30">
+      <c r="AC21" s="29">
         <f t="shared" si="33"/>
         <v>3.2296620901634696E-2</v>
       </c>
-      <c r="AD21" s="30">
+      <c r="AD21" s="29">
         <f t="shared" si="33"/>
         <v>2.8880247331266779E-2</v>
       </c>
-      <c r="AE21" s="30">
+      <c r="AE21" s="29">
         <f t="shared" si="33"/>
         <v>2.5013013289960959E-2</v>
       </c>
-      <c r="AF21" s="30">
+      <c r="AF21" s="29">
         <f t="shared" si="33"/>
         <v>2.1310603265101983E-2</v>
       </c>
-      <c r="AG21" s="30">
+      <c r="AG21" s="29">
         <f t="shared" si="33"/>
         <v>1.7571672202551899E-2</v>
       </c>
-      <c r="AH21" s="30">
+      <c r="AH21" s="29">
         <f t="shared" si="33"/>
         <v>1.3788005873016125E-2</v>
       </c>
-      <c r="AI21" s="30">
+      <c r="AI21" s="29">
         <f t="shared" si="33"/>
         <v>9.9165766429079125E-3</v>
       </c>
       <c r="AK21" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AL21" s="70">
+      <c r="AL21" s="68">
         <f>NPV(AL20,AA12:CS12)</f>
         <v>495.88636064297134</v>
       </c>
@@ -3335,77 +3331,77 @@
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S22" s="30">
-        <f t="shared" ref="S22:U22" si="34">S11/S10</f>
+      <c r="S22" s="29">
+        <f t="shared" ref="S22:T22" si="34">S11/S10</f>
         <v>0.21479713603818598</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T22" s="29">
         <f t="shared" si="34"/>
         <v>0.20426065162907267</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="29">
         <f t="shared" ref="U22:W22" si="35">U11/U10</f>
         <v>0.21008403361344524</v>
       </c>
-      <c r="V22" s="30">
+      <c r="V22" s="29">
         <f t="shared" si="35"/>
         <v>0.18479880774962756</v>
       </c>
-      <c r="W22" s="30">
+      <c r="W22" s="29">
         <f t="shared" si="35"/>
         <v>0.17843137254902008</v>
       </c>
-      <c r="X22" s="30">
+      <c r="X22" s="29">
         <f t="shared" ref="X22:Y22" si="36">X11/X10</f>
         <v>9.7938144329897489E-2</v>
       </c>
-      <c r="Y22" s="30">
+      <c r="Y22" s="29">
         <f t="shared" si="36"/>
         <v>0.17519379844961241</v>
       </c>
-      <c r="Z22" s="30">
+      <c r="Z22" s="29">
         <f>Z11/Z10</f>
         <v>0.19565217391304351</v>
       </c>
-      <c r="AA22" s="58">
+      <c r="AA22" s="56">
         <v>0.2</v>
       </c>
-      <c r="AB22" s="61">
+      <c r="AB22" s="59">
         <f>AA22</f>
         <v>0.2</v>
       </c>
-      <c r="AC22" s="61">
+      <c r="AC22" s="59">
         <f t="shared" ref="AC22:AI22" si="37">AB22</f>
         <v>0.2</v>
       </c>
-      <c r="AD22" s="61">
+      <c r="AD22" s="59">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AE22" s="61">
+      <c r="AE22" s="59">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AF22" s="61">
+      <c r="AF22" s="59">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AG22" s="61">
+      <c r="AG22" s="59">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AH22" s="61">
+      <c r="AH22" s="59">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AI22" s="61">
+      <c r="AI22" s="59">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
       <c r="AK22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AL22" s="70">
+      <c r="AL22" s="68">
         <f>Main!C11</f>
         <v>49.8</v>
       </c>
@@ -3414,7 +3410,7 @@
       <c r="AK23" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AL23" s="70">
+      <c r="AL23" s="68">
         <f>AL21-AL22</f>
         <v>446.08636064297133</v>
       </c>
@@ -3423,7 +3419,7 @@
       <c r="AK24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AL24" s="71">
+      <c r="AL24" s="69">
         <f>AL23/Main!C7</f>
         <v>2.1686259632618929</v>
       </c>
@@ -3438,13 +3434,13 @@
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>79</v>
       </c>
       <c r="AK26" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="AL26" s="72">
+      <c r="AL26" s="70">
         <f>AL24/AL25-1</f>
         <v>0.18568942769923069</v>
       </c>
@@ -3459,22 +3455,22 @@
       <c r="T27" s="1">
         <v>362.9</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="17">
         <v>394.1</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="17">
         <v>393.9</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="17">
         <v>387.4</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="17">
         <v>395.7</v>
       </c>
-      <c r="Y27" s="18">
+      <c r="Y27" s="17">
         <v>398.3</v>
       </c>
-      <c r="Z27" s="18">
+      <c r="Z27" s="17">
         <v>442.4</v>
       </c>
     </row>
@@ -3488,22 +3484,22 @@
       <c r="T28" s="1">
         <v>107.3</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="17">
         <v>102.8</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="17">
         <v>101.3</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="17">
         <v>97.3</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="17">
         <v>83.1</v>
       </c>
-      <c r="Y28" s="18">
+      <c r="Y28" s="17">
         <v>81.3</v>
       </c>
-      <c r="Z28" s="18">
+      <c r="Z28" s="17">
         <v>101.7</v>
       </c>
     </row>
@@ -3511,28 +3507,28 @@
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S29" s="18">
-        <v>0</v>
-      </c>
-      <c r="T29" s="18">
-        <v>0</v>
-      </c>
-      <c r="U29" s="18">
-        <v>0</v>
-      </c>
-      <c r="V29" s="18">
-        <v>0</v>
-      </c>
-      <c r="W29" s="18">
-        <v>0</v>
-      </c>
-      <c r="X29" s="18">
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <v>0</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
         <v>349.9</v>
       </c>
-      <c r="Y29" s="18">
+      <c r="Y29" s="17">
         <v>282.8</v>
       </c>
-      <c r="Z29" s="18">
+      <c r="Z29" s="17">
         <v>350.2</v>
       </c>
     </row>
@@ -3540,46 +3536,46 @@
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="S30" s="27">
-        <v>0</v>
-      </c>
-      <c r="T30" s="27">
-        <v>0</v>
-      </c>
-      <c r="U30" s="27">
-        <v>0</v>
-      </c>
-      <c r="V30" s="27">
-        <v>0</v>
-      </c>
-      <c r="W30" s="27">
-        <v>0</v>
-      </c>
-      <c r="X30" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="27">
+      <c r="D30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="S30" s="26">
+        <v>0</v>
+      </c>
+      <c r="T30" s="26">
+        <v>0</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0</v>
+      </c>
+      <c r="W30" s="26">
+        <v>0</v>
+      </c>
+      <c r="X30" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="26">
         <v>0.1</v>
       </c>
-      <c r="Z30" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
+      <c r="Z30" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="58"/>
+      <c r="AG30" s="58"/>
+      <c r="AH30" s="58"/>
+      <c r="AI30" s="58"/>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -3591,22 +3587,22 @@
       <c r="T31" s="1">
         <v>0</v>
       </c>
-      <c r="U31" s="18">
-        <v>0</v>
-      </c>
-      <c r="V31" s="18">
-        <v>0</v>
-      </c>
-      <c r="W31" s="18">
-        <v>0</v>
-      </c>
-      <c r="X31" s="18">
+      <c r="U31" s="17">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17">
+        <v>0</v>
+      </c>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
         <v>7.3</v>
       </c>
-      <c r="Y31" s="18">
+      <c r="Y31" s="17">
         <v>12.3</v>
       </c>
-      <c r="Z31" s="18">
+      <c r="Z31" s="17">
         <v>14.7</v>
       </c>
     </row>
@@ -3614,28 +3610,28 @@
       <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S32" s="18">
-        <v>0</v>
-      </c>
-      <c r="T32" s="18">
-        <v>0</v>
-      </c>
-      <c r="U32" s="18">
+      <c r="S32" s="17">
+        <v>0</v>
+      </c>
+      <c r="T32" s="17">
+        <v>0</v>
+      </c>
+      <c r="U32" s="17">
         <v>8.1</v>
       </c>
-      <c r="V32" s="18">
+      <c r="V32" s="17">
         <v>8.1</v>
       </c>
-      <c r="W32" s="18">
-        <v>0</v>
-      </c>
-      <c r="X32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="18">
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3643,35 +3639,35 @@
       <c r="B33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="17">
         <f t="shared" ref="S33:Z33" si="38">SUM(S27:S32)</f>
         <v>464.70000000000005</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="17">
         <f t="shared" si="38"/>
         <v>470.2</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="17">
         <f t="shared" si="38"/>
         <v>505.00000000000006</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="17">
         <f t="shared" si="38"/>
         <v>503.3</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="17">
         <f t="shared" si="38"/>
         <v>484.7</v>
       </c>
-      <c r="X33" s="18">
+      <c r="X33" s="17">
         <f t="shared" si="38"/>
         <v>835.99999999999989</v>
       </c>
-      <c r="Y33" s="18">
+      <c r="Y33" s="17">
         <f t="shared" si="38"/>
         <v>774.80000000000007</v>
       </c>
-      <c r="Z33" s="18">
+      <c r="Z33" s="17">
         <f t="shared" si="38"/>
         <v>909</v>
       </c>
@@ -3680,46 +3676,46 @@
       <c r="B34" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="P34" s="36"/>
+      <c r="D34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="P34" s="34"/>
       <c r="S34" s="2">
         <v>149.30000000000001</v>
       </c>
       <c r="T34" s="2">
         <v>157.9</v>
       </c>
-      <c r="U34" s="27">
+      <c r="U34" s="26">
         <v>191.1</v>
       </c>
-      <c r="V34" s="27">
+      <c r="V34" s="26">
         <v>195.5</v>
       </c>
-      <c r="W34" s="27">
+      <c r="W34" s="26">
         <v>173.7</v>
       </c>
-      <c r="X34" s="27">
+      <c r="X34" s="26">
         <v>173</v>
       </c>
-      <c r="Y34" s="27">
+      <c r="Y34" s="26">
         <v>143.9</v>
       </c>
-      <c r="Z34" s="27">
+      <c r="Z34" s="26">
         <v>222.1</v>
       </c>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="58"/>
+      <c r="AF34" s="58"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="58"/>
     </row>
     <row r="35" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -3731,22 +3727,22 @@
       <c r="T35" s="1">
         <v>60.7</v>
       </c>
-      <c r="U35" s="18">
+      <c r="U35" s="17">
         <v>58.4</v>
       </c>
-      <c r="V35" s="18">
+      <c r="V35" s="17">
         <v>56</v>
       </c>
-      <c r="W35" s="18">
+      <c r="W35" s="17">
         <v>59.1</v>
       </c>
-      <c r="X35" s="18">
+      <c r="X35" s="17">
         <v>53.5</v>
       </c>
-      <c r="Y35" s="18">
+      <c r="Y35" s="17">
         <v>74.099999999999994</v>
       </c>
-      <c r="Z35" s="18">
+      <c r="Z35" s="17">
         <v>92.6</v>
       </c>
     </row>
@@ -3754,28 +3750,28 @@
       <c r="B36" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S36" s="18">
-        <v>0</v>
-      </c>
-      <c r="T36" s="18">
-        <v>0</v>
-      </c>
-      <c r="U36" s="18">
-        <v>0</v>
-      </c>
-      <c r="V36" s="18">
-        <v>0</v>
-      </c>
-      <c r="W36" s="18">
-        <v>0</v>
-      </c>
-      <c r="X36" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="18">
+      <c r="S36" s="17">
+        <v>0</v>
+      </c>
+      <c r="T36" s="17">
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <v>0</v>
+      </c>
+      <c r="V36" s="17">
+        <v>0</v>
+      </c>
+      <c r="W36" s="17">
+        <v>0</v>
+      </c>
+      <c r="X36" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="17">
         <v>6</v>
       </c>
-      <c r="Z36" s="18">
+      <c r="Z36" s="17">
         <v>0</v>
       </c>
     </row>
@@ -3783,73 +3779,73 @@
       <c r="B37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="P37" s="36"/>
+      <c r="D37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="P37" s="34"/>
       <c r="S37" s="2">
         <v>3.9</v>
       </c>
       <c r="T37" s="2">
         <v>4.2</v>
       </c>
-      <c r="U37" s="27">
+      <c r="U37" s="26">
         <v>5.2</v>
       </c>
-      <c r="V37" s="27">
+      <c r="V37" s="26">
         <v>0.3</v>
       </c>
-      <c r="W37" s="27">
+      <c r="W37" s="26">
         <v>3.2</v>
       </c>
-      <c r="X37" s="27">
+      <c r="X37" s="26">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Y37" s="27">
+      <c r="Y37" s="26">
         <v>0.5</v>
       </c>
-      <c r="Z37" s="27">
+      <c r="Z37" s="26">
         <v>4.2</v>
       </c>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="60"/>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="58"/>
     </row>
     <row r="38" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S38" s="18">
-        <v>0</v>
-      </c>
-      <c r="T38" s="18">
-        <v>0</v>
-      </c>
-      <c r="U38" s="18">
-        <v>0</v>
-      </c>
-      <c r="V38" s="18">
-        <v>0</v>
-      </c>
-      <c r="W38" s="18">
-        <v>0</v>
-      </c>
-      <c r="X38" s="18">
+      <c r="S38" s="17">
+        <v>0</v>
+      </c>
+      <c r="T38" s="17">
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
+        <v>0</v>
+      </c>
+      <c r="V38" s="17">
+        <v>0</v>
+      </c>
+      <c r="W38" s="17">
+        <v>0</v>
+      </c>
+      <c r="X38" s="17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Y38" s="18">
+      <c r="Y38" s="17">
         <v>3.1</v>
       </c>
-      <c r="Z38" s="18">
+      <c r="Z38" s="17">
         <v>3.9</v>
       </c>
     </row>
@@ -3857,158 +3853,158 @@
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="P39" s="36"/>
+      <c r="D39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="P39" s="34"/>
       <c r="S39" s="2">
         <v>22.4</v>
       </c>
       <c r="T39" s="2">
         <v>11.9</v>
       </c>
-      <c r="U39" s="27">
+      <c r="U39" s="26">
         <v>16.5</v>
       </c>
-      <c r="V39" s="27">
+      <c r="V39" s="26">
         <v>27</v>
       </c>
-      <c r="W39" s="27">
+      <c r="W39" s="26">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X39" s="27">
+      <c r="X39" s="26">
         <v>115.5</v>
       </c>
-      <c r="Y39" s="27">
+      <c r="Y39" s="26">
         <v>67.2</v>
       </c>
-      <c r="Z39" s="27">
+      <c r="Z39" s="26">
         <v>46.3</v>
       </c>
-      <c r="AA39" s="59"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="60"/>
+      <c r="AA39" s="57"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S40" s="18">
+      <c r="S40" s="17">
         <f t="shared" ref="S40:Y40" si="39">SUM(S33:S39)</f>
         <v>696.09999999999991</v>
       </c>
-      <c r="T40" s="18">
+      <c r="T40" s="17">
         <f t="shared" si="39"/>
         <v>704.90000000000009</v>
       </c>
-      <c r="U40" s="18">
+      <c r="U40" s="17">
         <f t="shared" si="39"/>
         <v>776.2</v>
       </c>
-      <c r="V40" s="18">
+      <c r="V40" s="17">
         <f t="shared" si="39"/>
         <v>782.09999999999991</v>
       </c>
-      <c r="W40" s="18">
+      <c r="W40" s="17">
         <f t="shared" si="39"/>
         <v>730.5</v>
       </c>
-      <c r="X40" s="18">
+      <c r="X40" s="17">
         <f t="shared" si="39"/>
         <v>1194.9000000000001</v>
       </c>
-      <c r="Y40" s="18">
+      <c r="Y40" s="17">
         <f t="shared" si="39"/>
         <v>1069.6000000000001</v>
       </c>
-      <c r="Z40" s="18">
+      <c r="Z40" s="17">
         <f>SUM(Z33:Z39)</f>
         <v>1278.0999999999999</v>
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="Y41" s="18"/>
+      <c r="Y41" s="17"/>
     </row>
     <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="F42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="P42" s="36"/>
+      <c r="D42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="P42" s="34"/>
       <c r="S42" s="2">
         <v>22.9</v>
       </c>
       <c r="T42" s="2">
         <v>23.4</v>
       </c>
-      <c r="U42" s="27">
+      <c r="U42" s="26">
         <v>19.8</v>
       </c>
-      <c r="V42" s="27">
+      <c r="V42" s="26">
         <v>20.8</v>
       </c>
       <c r="W42" s="2">
         <v>18.5</v>
       </c>
-      <c r="X42" s="27">
+      <c r="X42" s="26">
         <v>0.2</v>
       </c>
-      <c r="Y42" s="27">
+      <c r="Y42" s="26">
         <v>0.2</v>
       </c>
-      <c r="Z42" s="27">
+      <c r="Z42" s="26">
         <v>0.2</v>
       </c>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="58"/>
+      <c r="AC42" s="58"/>
+      <c r="AD42" s="58"/>
+      <c r="AE42" s="58"/>
+      <c r="AF42" s="58"/>
+      <c r="AG42" s="58"/>
+      <c r="AH42" s="58"/>
+      <c r="AI42" s="58"/>
     </row>
     <row r="43" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S43" s="18">
-        <v>0</v>
-      </c>
-      <c r="T43" s="18">
-        <v>0</v>
-      </c>
-      <c r="U43" s="18">
-        <v>0</v>
-      </c>
-      <c r="V43" s="18">
-        <v>0</v>
-      </c>
-      <c r="W43" s="18">
-        <v>0</v>
-      </c>
-      <c r="X43" s="18">
+      <c r="S43" s="17">
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
         <v>83.2</v>
       </c>
-      <c r="Y43" s="18">
+      <c r="Y43" s="17">
         <v>63.4</v>
       </c>
-      <c r="Z43" s="18">
+      <c r="Z43" s="17">
         <v>74.5</v>
       </c>
     </row>
@@ -4016,46 +4012,46 @@
       <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="P44" s="36"/>
+      <c r="D44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="P44" s="34"/>
       <c r="S44" s="2">
         <v>0.1</v>
       </c>
-      <c r="T44" s="27">
-        <v>0</v>
-      </c>
-      <c r="U44" s="27">
+      <c r="T44" s="26">
+        <v>0</v>
+      </c>
+      <c r="U44" s="26">
         <v>1.5</v>
       </c>
-      <c r="V44" s="27">
+      <c r="V44" s="26">
         <v>5.4</v>
       </c>
       <c r="W44" s="2">
         <v>1.4</v>
       </c>
-      <c r="X44" s="27">
+      <c r="X44" s="26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y44" s="27">
+      <c r="Y44" s="26">
         <v>5.9</v>
       </c>
-      <c r="Z44" s="27">
+      <c r="Z44" s="26">
         <v>0.5</v>
       </c>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="60"/>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="58"/>
+      <c r="AC44" s="58"/>
+      <c r="AD44" s="58"/>
+      <c r="AE44" s="58"/>
+      <c r="AF44" s="58"/>
+      <c r="AG44" s="58"/>
+      <c r="AH44" s="58"/>
+      <c r="AI44" s="58"/>
     </row>
     <row r="45" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
@@ -4067,22 +4063,22 @@
       <c r="T45" s="1">
         <v>182.5</v>
       </c>
-      <c r="U45" s="18">
+      <c r="U45" s="17">
         <v>206.2</v>
       </c>
-      <c r="V45" s="18">
+      <c r="V45" s="17">
         <v>187</v>
       </c>
       <c r="W45" s="1">
         <v>176.4</v>
       </c>
-      <c r="X45" s="18">
+      <c r="X45" s="17">
         <v>217</v>
       </c>
-      <c r="Y45" s="18">
+      <c r="Y45" s="17">
         <v>258.2</v>
       </c>
-      <c r="Z45" s="18">
+      <c r="Z45" s="17">
         <v>299.60000000000002</v>
       </c>
     </row>
@@ -4096,22 +4092,22 @@
       <c r="T46" s="1">
         <v>7.5</v>
       </c>
-      <c r="U46" s="18">
+      <c r="U46" s="17">
         <v>8.6999999999999993</v>
       </c>
-      <c r="V46" s="18">
+      <c r="V46" s="17">
         <v>3.3</v>
       </c>
       <c r="W46" s="1">
         <v>3.3</v>
       </c>
-      <c r="X46" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="18">
+      <c r="X46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="17">
         <v>4</v>
       </c>
     </row>
@@ -4125,22 +4121,22 @@
       <c r="T47" s="1">
         <v>9.5</v>
       </c>
-      <c r="U47" s="18">
+      <c r="U47" s="17">
         <v>11</v>
       </c>
-      <c r="V47" s="18">
+      <c r="V47" s="17">
         <v>11.9</v>
       </c>
       <c r="W47" s="1">
         <v>15.1</v>
       </c>
-      <c r="X47" s="18">
+      <c r="X47" s="17">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Y47" s="18">
+      <c r="Y47" s="17">
         <v>24.5</v>
       </c>
-      <c r="Z47" s="18">
+      <c r="Z47" s="17">
         <v>20.5</v>
       </c>
     </row>
@@ -4148,35 +4144,35 @@
       <c r="B48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S48" s="18">
+      <c r="S48" s="17">
         <f t="shared" ref="S48:V48" si="40">SUM(S42:S47)</f>
         <v>227.4</v>
       </c>
-      <c r="T48" s="18">
+      <c r="T48" s="17">
         <f t="shared" si="40"/>
         <v>222.9</v>
       </c>
-      <c r="U48" s="18">
+      <c r="U48" s="17">
         <f t="shared" si="40"/>
         <v>247.2</v>
       </c>
-      <c r="V48" s="18">
+      <c r="V48" s="17">
         <f t="shared" si="40"/>
         <v>228.4</v>
       </c>
-      <c r="W48" s="18">
+      <c r="W48" s="17">
         <f>SUM(W42:W47)</f>
         <v>214.70000000000002</v>
       </c>
-      <c r="X48" s="18">
+      <c r="X48" s="17">
         <f>SUM(X42:X47)</f>
         <v>311.2</v>
       </c>
-      <c r="Y48" s="18">
+      <c r="Y48" s="17">
         <f>SUM(Y42:Y47)</f>
         <v>352.2</v>
       </c>
-      <c r="Z48" s="18">
+      <c r="Z48" s="17">
         <f>SUM(Z42:Z47)</f>
         <v>399.3</v>
       </c>
@@ -4185,46 +4181,46 @@
       <c r="B49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="P49" s="36"/>
+      <c r="D49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="P49" s="34"/>
       <c r="S49" s="2">
         <v>61.3</v>
       </c>
       <c r="T49" s="2">
         <v>36.4</v>
       </c>
-      <c r="U49" s="27">
+      <c r="U49" s="26">
         <v>82.6</v>
       </c>
-      <c r="V49" s="27">
+      <c r="V49" s="26">
         <v>94</v>
       </c>
       <c r="W49" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="X49" s="27">
+      <c r="X49" s="26">
         <v>179.1</v>
       </c>
-      <c r="Y49" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="60"/>
-      <c r="AC49" s="60"/>
-      <c r="AD49" s="60"/>
-      <c r="AE49" s="60"/>
-      <c r="AF49" s="60"/>
-      <c r="AG49" s="60"/>
-      <c r="AH49" s="60"/>
-      <c r="AI49" s="60"/>
+      <c r="Y49" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="58"/>
+      <c r="AC49" s="58"/>
+      <c r="AD49" s="58"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="58"/>
+      <c r="AI49" s="58"/>
     </row>
     <row r="50" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
@@ -4236,22 +4232,22 @@
       <c r="T50" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="U50" s="18">
+      <c r="U50" s="17">
         <v>31.9</v>
       </c>
-      <c r="V50" s="18">
+      <c r="V50" s="17">
         <v>31.2</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
       </c>
-      <c r="X50" s="18">
+      <c r="X50" s="17">
         <v>332.8</v>
       </c>
-      <c r="Y50" s="18">
+      <c r="Y50" s="17">
         <v>280.89999999999998</v>
       </c>
-      <c r="Z50" s="18">
+      <c r="Z50" s="17">
         <v>316.5</v>
       </c>
     </row>
@@ -4259,73 +4255,73 @@
       <c r="B51" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="S51" s="27">
-        <v>0</v>
-      </c>
-      <c r="T51" s="27">
-        <v>0</v>
-      </c>
-      <c r="U51" s="27">
-        <v>0</v>
-      </c>
-      <c r="V51" s="27">
+      <c r="D51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="S51" s="26">
+        <v>0</v>
+      </c>
+      <c r="T51" s="26">
+        <v>0</v>
+      </c>
+      <c r="U51" s="26">
+        <v>0</v>
+      </c>
+      <c r="V51" s="26">
         <v>0</v>
       </c>
       <c r="W51" s="2">
         <v>0</v>
       </c>
-      <c r="X51" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="27">
+      <c r="X51" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="26">
         <v>0.4</v>
       </c>
-      <c r="Z51" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="60"/>
-      <c r="AC51" s="60"/>
-      <c r="AD51" s="60"/>
-      <c r="AE51" s="60"/>
-      <c r="AF51" s="60"/>
-      <c r="AG51" s="60"/>
-      <c r="AH51" s="60"/>
-      <c r="AI51" s="60"/>
+      <c r="Z51" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="57"/>
+      <c r="AB51" s="58"/>
+      <c r="AC51" s="58"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="58"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="58"/>
+      <c r="AH51" s="58"/>
+      <c r="AI51" s="58"/>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S52" s="18">
-        <v>0</v>
-      </c>
-      <c r="T52" s="18">
-        <v>0</v>
-      </c>
-      <c r="U52" s="18">
-        <v>0</v>
-      </c>
-      <c r="V52" s="18">
+      <c r="S52" s="17">
+        <v>0</v>
+      </c>
+      <c r="T52" s="17">
+        <v>0</v>
+      </c>
+      <c r="U52" s="17">
+        <v>0</v>
+      </c>
+      <c r="V52" s="17">
         <v>0</v>
       </c>
       <c r="W52" s="1">
         <v>28.1</v>
       </c>
-      <c r="X52" s="18">
+      <c r="X52" s="17">
         <v>1.9</v>
       </c>
-      <c r="Y52" s="18">
+      <c r="Y52" s="17">
         <v>3.3</v>
       </c>
-      <c r="Z52" s="18">
+      <c r="Z52" s="17">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -4333,28 +4329,28 @@
       <c r="B53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S53" s="18">
-        <v>0</v>
-      </c>
-      <c r="T53" s="18">
-        <v>0</v>
-      </c>
-      <c r="U53" s="18">
+      <c r="S53" s="17">
+        <v>0</v>
+      </c>
+      <c r="T53" s="17">
+        <v>0</v>
+      </c>
+      <c r="U53" s="17">
         <v>0.8</v>
       </c>
-      <c r="V53" s="18">
+      <c r="V53" s="17">
         <v>2.7</v>
       </c>
       <c r="W53" s="1">
         <v>0.1</v>
       </c>
-      <c r="X53" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="18">
+      <c r="X53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4368,22 +4364,22 @@
       <c r="T54" s="1">
         <v>7.9</v>
       </c>
-      <c r="U54" s="18">
+      <c r="U54" s="17">
         <v>6.2</v>
       </c>
-      <c r="V54" s="18">
+      <c r="V54" s="17">
         <v>3.9</v>
       </c>
       <c r="W54" s="1">
         <v>5.2</v>
       </c>
-      <c r="X54" s="18">
+      <c r="X54" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y54" s="18">
+      <c r="Y54" s="17">
         <v>15</v>
       </c>
-      <c r="Z54" s="18">
+      <c r="Z54" s="17">
         <v>6.4</v>
       </c>
     </row>
@@ -4391,170 +4387,170 @@
       <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="S55" s="18">
+      <c r="S55" s="17">
         <f t="shared" ref="S55:V55" si="41">SUM(S48:S54)</f>
         <v>328.4</v>
       </c>
-      <c r="T55" s="18">
+      <c r="T55" s="17">
         <f t="shared" si="41"/>
         <v>299.5</v>
       </c>
-      <c r="U55" s="18">
+      <c r="U55" s="17">
         <f t="shared" si="41"/>
         <v>368.69999999999993</v>
       </c>
-      <c r="V55" s="18">
+      <c r="V55" s="17">
         <f t="shared" si="41"/>
         <v>360.19999999999993</v>
       </c>
-      <c r="W55" s="18">
+      <c r="W55" s="17">
         <f>SUM(W48:W54)</f>
         <v>321.20000000000005</v>
       </c>
-      <c r="X55" s="18">
+      <c r="X55" s="17">
         <f>SUM(X48:X54)</f>
         <v>829.09999999999991</v>
       </c>
-      <c r="Y55" s="18">
+      <c r="Y55" s="17">
         <f>SUM(Y48:Y54)</f>
         <v>651.79999999999984</v>
       </c>
-      <c r="Z55" s="18">
+      <c r="Z55" s="17">
         <f>SUM(Z48:Z54)</f>
         <v>727.09999999999991</v>
       </c>
     </row>
-    <row r="57" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
+    <row r="57" spans="2:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="P57" s="38"/>
-      <c r="S57" s="18">
+      <c r="D57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="S57" s="17">
         <v>367.7</v>
       </c>
-      <c r="T57" s="18">
+      <c r="T57" s="17">
         <v>405.4</v>
       </c>
-      <c r="U57" s="18">
+      <c r="U57" s="17">
         <v>407.5</v>
       </c>
-      <c r="V57" s="18">
+      <c r="V57" s="17">
         <v>421.9</v>
       </c>
-      <c r="W57" s="18">
+      <c r="W57" s="17">
         <v>409.3</v>
       </c>
-      <c r="X57" s="18">
+      <c r="X57" s="17">
         <v>365.8</v>
       </c>
-      <c r="Y57" s="18">
+      <c r="Y57" s="17">
         <v>417.8</v>
       </c>
-      <c r="Z57" s="18">
+      <c r="Z57" s="17">
         <v>551</v>
       </c>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="52"/>
-      <c r="AC57" s="52"/>
-      <c r="AD57" s="52"/>
-      <c r="AE57" s="52"/>
-      <c r="AF57" s="52"/>
-      <c r="AG57" s="52"/>
-      <c r="AH57" s="52"/>
-      <c r="AI57" s="52"/>
-    </row>
-    <row r="58" spans="2:35" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18" t="s">
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="50"/>
+      <c r="AC57" s="50"/>
+      <c r="AD57" s="50"/>
+      <c r="AE57" s="50"/>
+      <c r="AF57" s="50"/>
+      <c r="AG57" s="50"/>
+      <c r="AH57" s="50"/>
+      <c r="AI57" s="50"/>
+    </row>
+    <row r="58" spans="2:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="S58" s="18">
+      <c r="D58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="P58" s="36"/>
+      <c r="S58" s="17">
         <f t="shared" ref="S58:V58" si="42">S57+S55</f>
         <v>696.09999999999991</v>
       </c>
-      <c r="T58" s="18">
+      <c r="T58" s="17">
         <f t="shared" si="42"/>
         <v>704.9</v>
       </c>
-      <c r="U58" s="18">
+      <c r="U58" s="17">
         <f t="shared" si="42"/>
         <v>776.19999999999993</v>
       </c>
-      <c r="V58" s="18">
+      <c r="V58" s="17">
         <f t="shared" si="42"/>
         <v>782.09999999999991</v>
       </c>
-      <c r="W58" s="18">
+      <c r="W58" s="17">
         <f>W57+W55</f>
         <v>730.5</v>
       </c>
-      <c r="X58" s="18">
+      <c r="X58" s="17">
         <f>X57+X55</f>
         <v>1194.8999999999999</v>
       </c>
-      <c r="Y58" s="18">
+      <c r="Y58" s="17">
         <f>Y57+Y55</f>
         <v>1069.5999999999999</v>
       </c>
-      <c r="Z58" s="18">
+      <c r="Z58" s="17">
         <f>Z57+Z55</f>
         <v>1278.0999999999999</v>
       </c>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="52"/>
-      <c r="AE58" s="52"/>
-      <c r="AF58" s="52"/>
-      <c r="AG58" s="52"/>
-      <c r="AH58" s="52"/>
-      <c r="AI58" s="52"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="50"/>
+      <c r="AE58" s="50"/>
+      <c r="AF58" s="50"/>
+      <c r="AG58" s="50"/>
+      <c r="AH58" s="50"/>
+      <c r="AI58" s="50"/>
     </row>
     <row r="60" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S60" s="18">
-        <f t="shared" ref="S60:U60" si="43">S40-S55</f>
+      <c r="S60" s="17">
+        <f t="shared" ref="S60:T60" si="43">S40-S55</f>
         <v>367.69999999999993</v>
       </c>
-      <c r="T60" s="18">
+      <c r="T60" s="17">
         <f t="shared" si="43"/>
         <v>405.40000000000009</v>
       </c>
-      <c r="U60" s="18">
+      <c r="U60" s="17">
         <f t="shared" ref="U60:W60" si="44">U40-U55</f>
         <v>407.50000000000011</v>
       </c>
-      <c r="V60" s="18">
+      <c r="V60" s="17">
         <f t="shared" si="44"/>
         <v>421.9</v>
       </c>
-      <c r="W60" s="18">
+      <c r="W60" s="17">
         <f t="shared" si="44"/>
         <v>409.29999999999995</v>
       </c>
-      <c r="X60" s="18">
+      <c r="X60" s="17">
         <f t="shared" ref="X60:Y60" si="45">X40-X55</f>
         <v>365.80000000000018</v>
       </c>
-      <c r="Y60" s="18">
+      <c r="Y60" s="17">
         <f t="shared" si="45"/>
         <v>417.8000000000003</v>
       </c>
-      <c r="Z60" s="18">
+      <c r="Z60" s="17">
         <f>Z40-Z55</f>
         <v>551</v>
       </c>
@@ -4564,7 +4560,7 @@
         <v>101</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" ref="S61:U61" si="46">S60/S14</f>
+        <f t="shared" ref="S61:T61" si="46">S60/S14</f>
         <v>1.8627152988855114</v>
       </c>
       <c r="T61" s="1">
@@ -4600,35 +4596,35 @@
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S63" s="18">
-        <f t="shared" ref="S63:U63" si="49">S30+S37+S39</f>
+      <c r="S63" s="17">
+        <f t="shared" ref="S63:T63" si="49">S30+S37+S39</f>
         <v>26.299999999999997</v>
       </c>
-      <c r="T63" s="18">
+      <c r="T63" s="17">
         <f t="shared" si="49"/>
         <v>16.100000000000001</v>
       </c>
-      <c r="U63" s="18">
+      <c r="U63" s="17">
         <f t="shared" ref="U63:W63" si="50">U30+U37+U39</f>
         <v>21.7</v>
       </c>
-      <c r="V63" s="18">
+      <c r="V63" s="17">
         <f t="shared" si="50"/>
         <v>27.3</v>
       </c>
-      <c r="W63" s="18">
+      <c r="W63" s="17">
         <f t="shared" si="50"/>
         <v>13</v>
       </c>
-      <c r="X63" s="18">
+      <c r="X63" s="17">
         <f t="shared" ref="X63:Y63" si="51">X30+X37+X39</f>
         <v>124.2</v>
       </c>
-      <c r="Y63" s="18">
+      <c r="Y63" s="17">
         <f t="shared" si="51"/>
         <v>67.8</v>
       </c>
-      <c r="Z63" s="18">
+      <c r="Z63" s="17">
         <f>Z30+Z37+Z39</f>
         <v>50.5</v>
       </c>
@@ -4637,35 +4633,35 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S64" s="18">
-        <f t="shared" ref="S64:U64" si="52">S42+S44+S49+S51</f>
+      <c r="S64" s="17">
+        <f t="shared" ref="S64:T64" si="52">S42+S44+S49+S51</f>
         <v>84.3</v>
       </c>
-      <c r="T64" s="18">
+      <c r="T64" s="17">
         <f t="shared" si="52"/>
         <v>59.8</v>
       </c>
-      <c r="U64" s="18">
+      <c r="U64" s="17">
         <f t="shared" ref="U64:W64" si="53">U42+U44+U49+U51</f>
         <v>103.89999999999999</v>
       </c>
-      <c r="V64" s="18">
+      <c r="V64" s="17">
         <f t="shared" si="53"/>
         <v>120.2</v>
       </c>
-      <c r="W64" s="18">
+      <c r="W64" s="17">
         <f t="shared" si="53"/>
         <v>93</v>
       </c>
-      <c r="X64" s="18">
+      <c r="X64" s="17">
         <f t="shared" ref="X64:Y64" si="54">X42+X44+X49+X51</f>
         <v>180.4</v>
       </c>
-      <c r="Y64" s="18">
+      <c r="Y64" s="17">
         <f t="shared" si="54"/>
         <v>6.5000000000000009</v>
       </c>
-      <c r="Z64" s="18">
+      <c r="Z64" s="17">
         <f>Z42+Z44+Z49+Z51</f>
         <v>0.7</v>
       </c>
@@ -4674,166 +4670,166 @@
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S65" s="18">
-        <f t="shared" ref="S65:U65" si="55">S63-S64</f>
+      <c r="S65" s="17">
+        <f t="shared" ref="S65:T65" si="55">S63-S64</f>
         <v>-58</v>
       </c>
-      <c r="T65" s="18">
+      <c r="T65" s="17">
         <f t="shared" si="55"/>
         <v>-43.699999999999996</v>
       </c>
-      <c r="U65" s="18">
+      <c r="U65" s="17">
         <f t="shared" ref="U65:W65" si="56">U63-U64</f>
         <v>-82.199999999999989</v>
       </c>
-      <c r="V65" s="18">
+      <c r="V65" s="17">
         <f t="shared" si="56"/>
         <v>-92.9</v>
       </c>
-      <c r="W65" s="18">
+      <c r="W65" s="17">
         <f t="shared" si="56"/>
         <v>-80</v>
       </c>
-      <c r="X65" s="18">
+      <c r="X65" s="17">
         <f t="shared" ref="X65:Y65" si="57">X63-X64</f>
         <v>-56.2</v>
       </c>
-      <c r="Y65" s="18">
+      <c r="Y65" s="17">
         <f t="shared" si="57"/>
         <v>61.3</v>
       </c>
-      <c r="Z65" s="18">
+      <c r="Z65" s="17">
         <f>Z63-Z64</f>
         <v>49.8</v>
       </c>
     </row>
-    <row r="67" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="30" t="s">
+    <row r="67" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="T67" s="30">
+      <c r="D67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="J67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="T67" s="29">
         <f t="shared" ref="T67" si="58">T34/S34-1</f>
         <v>5.7602143335566014E-2</v>
       </c>
-      <c r="U67" s="30">
+      <c r="U67" s="29">
         <f t="shared" ref="U67" si="59">U34/T34-1</f>
         <v>0.21025965801139956</v>
       </c>
-      <c r="V67" s="30">
+      <c r="V67" s="29">
         <f t="shared" ref="V67:W67" si="60">V34/U34-1</f>
         <v>2.3024594453165959E-2</v>
       </c>
-      <c r="W67" s="30">
+      <c r="W67" s="29">
         <f t="shared" si="60"/>
         <v>-0.11150895140664963</v>
       </c>
-      <c r="X67" s="30">
+      <c r="X67" s="29">
         <f>X34/W34-1</f>
         <v>-4.029936672423684E-3</v>
       </c>
-      <c r="Y67" s="30">
+      <c r="Y67" s="29">
         <f>Y34/X34-1</f>
         <v>-0.16820809248554913</v>
       </c>
-      <c r="Z67" s="30">
+      <c r="Z67" s="29">
         <f>Z34/Y34-1</f>
         <v>0.54343293954134797</v>
       </c>
-      <c r="AA67" s="58"/>
-      <c r="AB67" s="61"/>
-      <c r="AC67" s="61"/>
-      <c r="AD67" s="61"/>
-      <c r="AE67" s="61"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="61"/>
-      <c r="AH67" s="61"/>
-      <c r="AI67" s="61"/>
-    </row>
-    <row r="69" spans="1:35" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="40" t="s">
+      <c r="AA67" s="56"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="59"/>
+      <c r="AE67" s="59"/>
+      <c r="AF67" s="59"/>
+      <c r="AG67" s="59"/>
+      <c r="AH67" s="59"/>
+      <c r="AI67" s="59"/>
+    </row>
+    <row r="69" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="S69" s="40">
+      <c r="D69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="S69" s="38">
         <v>3.0615000000000001</v>
       </c>
-      <c r="T69" s="40">
+      <c r="T69" s="38">
         <v>2.6158000000000001</v>
       </c>
-      <c r="U69" s="40">
+      <c r="U69" s="38">
         <v>2.5855999999999999</v>
       </c>
-      <c r="V69" s="40">
+      <c r="V69" s="38">
         <v>2.4986999999999999</v>
       </c>
-      <c r="W69" s="40">
+      <c r="W69" s="38">
         <v>1.7</v>
       </c>
-      <c r="X69" s="40">
+      <c r="X69" s="38">
         <v>0.60350000000000004</v>
       </c>
-      <c r="Y69" s="40">
+      <c r="Y69" s="38">
         <v>3.5316000000000001</v>
       </c>
-      <c r="Z69" s="40">
+      <c r="Z69" s="38">
         <v>2.4632000000000001</v>
       </c>
-      <c r="AA69" s="62"/>
-      <c r="AB69" s="63"/>
-      <c r="AC69" s="63"/>
-      <c r="AD69" s="63"/>
-      <c r="AE69" s="63"/>
-      <c r="AF69" s="63"/>
-      <c r="AG69" s="63"/>
-      <c r="AH69" s="63"/>
-      <c r="AI69" s="63"/>
+      <c r="AA69" s="60"/>
+      <c r="AB69" s="61"/>
+      <c r="AC69" s="61"/>
+      <c r="AD69" s="61"/>
+      <c r="AE69" s="61"/>
+      <c r="AF69" s="61"/>
+      <c r="AG69" s="61"/>
+      <c r="AH69" s="61"/>
+      <c r="AI69" s="61"/>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S70" s="18">
-        <f t="shared" ref="S70:W70" si="61">S69*S14</f>
+      <c r="S70" s="17">
+        <f t="shared" ref="S70:V70" si="61">S69*S14</f>
         <v>604.34010000000001</v>
       </c>
-      <c r="T70" s="18">
+      <c r="T70" s="17">
         <f t="shared" si="61"/>
         <v>513.48154000000011</v>
       </c>
-      <c r="U70" s="18">
+      <c r="U70" s="17">
         <f t="shared" si="61"/>
         <v>509.62175999999994</v>
       </c>
-      <c r="V70" s="18">
+      <c r="V70" s="17">
         <f t="shared" si="61"/>
         <v>496.24181999999996</v>
       </c>
-      <c r="W70" s="18">
+      <c r="W70" s="17">
         <f t="shared" ref="W70:X70" si="62">W69*W14</f>
         <v>338.46999999999997</v>
       </c>
-      <c r="X70" s="18">
+      <c r="X70" s="17">
         <f t="shared" si="62"/>
         <v>120.15685000000001</v>
       </c>
-      <c r="Y70" s="18">
+      <c r="Y70" s="17">
         <f>Y69*Y14</f>
         <v>703.14156000000003</v>
       </c>
-      <c r="Z70" s="18">
+      <c r="Z70" s="17">
         <f>Z69*Z14</f>
         <v>506.68023999999997</v>
       </c>
@@ -4842,310 +4838,310 @@
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S71" s="18">
+      <c r="S71" s="17">
         <f t="shared" ref="S71:V71" si="63">S70-S65</f>
         <v>662.34010000000001</v>
       </c>
-      <c r="T71" s="18">
+      <c r="T71" s="17">
         <f t="shared" si="63"/>
         <v>557.18154000000015</v>
       </c>
-      <c r="U71" s="18">
+      <c r="U71" s="17">
         <f t="shared" si="63"/>
         <v>591.82175999999993</v>
       </c>
-      <c r="V71" s="18">
+      <c r="V71" s="17">
         <f t="shared" si="63"/>
         <v>589.14181999999994</v>
       </c>
-      <c r="W71" s="18">
+      <c r="W71" s="17">
         <f>W70-W65</f>
         <v>418.46999999999997</v>
       </c>
-      <c r="X71" s="18">
+      <c r="X71" s="17">
         <f>X70-X65</f>
         <v>176.35685000000001</v>
       </c>
-      <c r="Y71" s="18">
+      <c r="Y71" s="17">
         <f>Y70-Y65</f>
         <v>641.84156000000007</v>
       </c>
-      <c r="Z71" s="18">
+      <c r="Z71" s="17">
         <f>Z70-Z65</f>
         <v>456.88023999999996</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" s="86">
+      <c r="A73" s="71">
         <f>AVERAGE(S73:Z73)</f>
         <v>1.1368672669892439</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S73" s="43">
-        <f t="shared" ref="S73:W73" si="64">S69/S61</f>
+      <c r="S73" s="41">
+        <f t="shared" ref="S73:V73" si="64">S69/S61</f>
         <v>1.6435683981506666</v>
       </c>
-      <c r="T73" s="43">
+      <c r="T73" s="41">
         <f t="shared" si="64"/>
         <v>1.2666046867291563</v>
       </c>
-      <c r="U73" s="43">
+      <c r="U73" s="41">
         <f t="shared" si="64"/>
         <v>1.2506055460122694</v>
       </c>
-      <c r="V73" s="43">
+      <c r="V73" s="41">
         <f t="shared" si="64"/>
         <v>1.1762072054989334</v>
       </c>
-      <c r="W73" s="43">
+      <c r="W73" s="41">
         <f t="shared" ref="W73:Y73" si="65">W69/W61</f>
         <v>0.82694844857073058</v>
       </c>
-      <c r="X73" s="43">
+      <c r="X73" s="41">
         <f t="shared" si="65"/>
         <v>0.32847689994532514</v>
       </c>
-      <c r="Y73" s="43">
+      <c r="Y73" s="41">
         <f t="shared" si="65"/>
         <v>1.682962087123024</v>
       </c>
-      <c r="Z73" s="43">
+      <c r="Z73" s="41">
         <f>Z69/Z61</f>
         <v>0.91956486388384751</v>
       </c>
     </row>
-    <row r="74" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="86">
+    <row r="74" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="71">
         <f t="shared" ref="A74:A77" si="66">AVERAGE(S74:Z74)</f>
         <v>0.41374638068405767</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="J74" s="44"/>
-      <c r="L74" s="44"/>
-      <c r="N74" s="44"/>
-      <c r="P74" s="44"/>
-      <c r="S74" s="43">
-        <f t="shared" ref="S74:W74" si="67">S70/S4</f>
+      <c r="D74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="S74" s="41">
+        <f t="shared" ref="S74:V74" si="67">S70/S4</f>
         <v>0.58937009947337615</v>
       </c>
-      <c r="T74" s="43">
+      <c r="T74" s="41">
         <f t="shared" si="67"/>
         <v>0.50267404796867365</v>
       </c>
-      <c r="U74" s="43">
+      <c r="U74" s="41">
         <f t="shared" si="67"/>
         <v>0.46540799999999993</v>
       </c>
-      <c r="V74" s="43">
+      <c r="V74" s="41">
         <f t="shared" si="67"/>
         <v>0.43717894458638007</v>
       </c>
-      <c r="W74" s="43">
+      <c r="W74" s="41">
         <f t="shared" ref="W74:Y74" si="68">W70/W4</f>
         <v>0.29726857544352714</v>
       </c>
-      <c r="X74" s="43">
+      <c r="X74" s="41">
         <f t="shared" si="68"/>
         <v>0.10402289845035063</v>
       </c>
-      <c r="Y74" s="43">
+      <c r="Y74" s="41">
         <f t="shared" si="68"/>
         <v>0.54410087440996679</v>
       </c>
-      <c r="Z74" s="43">
+      <c r="Z74" s="41">
         <f>Z70/Z4</f>
         <v>0.36994760514018693</v>
       </c>
-      <c r="AA74" s="64"/>
-      <c r="AB74" s="65"/>
-      <c r="AC74" s="65"/>
-      <c r="AD74" s="65"/>
-      <c r="AE74" s="65"/>
-      <c r="AF74" s="65"/>
-      <c r="AG74" s="65"/>
-      <c r="AH74" s="65"/>
-      <c r="AI74" s="65"/>
-    </row>
-    <row r="75" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="86">
+      <c r="AA74" s="62"/>
+      <c r="AB74" s="63"/>
+      <c r="AC74" s="63"/>
+      <c r="AD74" s="63"/>
+      <c r="AE74" s="63"/>
+      <c r="AF74" s="63"/>
+      <c r="AG74" s="63"/>
+      <c r="AH74" s="63"/>
+      <c r="AI74" s="63"/>
+    </row>
+    <row r="75" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="71">
         <f t="shared" si="66"/>
         <v>0.45016822490598901</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="L75" s="44"/>
-      <c r="N75" s="44"/>
-      <c r="P75" s="44"/>
-      <c r="S75" s="43">
-        <f t="shared" ref="S75:W75" si="69">S71/S4</f>
+      <c r="D75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="S75" s="41">
+        <f t="shared" ref="S75:V75" si="69">S71/S4</f>
         <v>0.64593339184708398</v>
       </c>
-      <c r="T75" s="43">
+      <c r="T75" s="41">
         <f t="shared" si="69"/>
         <v>0.54545427312775341</v>
       </c>
-      <c r="U75" s="43">
+      <c r="U75" s="41">
         <f t="shared" si="69"/>
         <v>0.54047649315068491</v>
       </c>
-      <c r="V75" s="43">
+      <c r="V75" s="41">
         <f t="shared" si="69"/>
         <v>0.51902195401286233</v>
       </c>
-      <c r="W75" s="43">
+      <c r="W75" s="41">
         <f t="shared" ref="W75:Y75" si="70">W71/W4</f>
         <v>0.36753030036887407</v>
       </c>
-      <c r="X75" s="43">
+      <c r="X75" s="41">
         <f t="shared" si="70"/>
         <v>0.15267669465847114</v>
       </c>
-      <c r="Y75" s="43">
+      <c r="Y75" s="41">
         <f t="shared" si="70"/>
         <v>0.49666606825040632</v>
       </c>
-      <c r="Z75" s="43">
+      <c r="Z75" s="41">
         <f>Z71/Z4</f>
         <v>0.33358662383177567</v>
       </c>
-      <c r="AA75" s="64"/>
-      <c r="AB75" s="65"/>
-      <c r="AC75" s="65"/>
-      <c r="AD75" s="65"/>
-      <c r="AE75" s="65"/>
-      <c r="AF75" s="65"/>
-      <c r="AG75" s="65"/>
-      <c r="AH75" s="65"/>
-      <c r="AI75" s="65"/>
-    </row>
-    <row r="76" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="86">
+      <c r="AA75" s="62"/>
+      <c r="AB75" s="63"/>
+      <c r="AC75" s="63"/>
+      <c r="AD75" s="63"/>
+      <c r="AE75" s="63"/>
+      <c r="AF75" s="63"/>
+      <c r="AG75" s="63"/>
+      <c r="AH75" s="63"/>
+      <c r="AI75" s="63"/>
+    </row>
+    <row r="76" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="71">
         <f t="shared" si="66"/>
         <v>8.7576011619956287</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="L76" s="44"/>
-      <c r="N76" s="44"/>
-      <c r="P76" s="44"/>
-      <c r="S76" s="43">
-        <f t="shared" ref="S76:W76" si="71">S69/S13</f>
+      <c r="D76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="S76" s="41">
+        <f t="shared" ref="S76:V76" si="71">S69/S13</f>
         <v>9.184499999999991</v>
       </c>
-      <c r="T76" s="43">
+      <c r="T76" s="41">
         <f t="shared" si="71"/>
         <v>8.0863234645669291</v>
       </c>
-      <c r="U76" s="43">
+      <c r="U76" s="41">
         <f t="shared" si="71"/>
         <v>9.0358468085106303</v>
       </c>
-      <c r="V76" s="43">
+      <c r="V76" s="41">
         <f t="shared" si="71"/>
         <v>9.072062522851926</v>
       </c>
-      <c r="W76" s="43">
+      <c r="W76" s="41">
         <f t="shared" ref="W76:Y76" si="72">W69/W13</f>
         <v>8.0780429594272327</v>
       </c>
-      <c r="X76" s="43">
+      <c r="X76" s="41">
         <f t="shared" si="72"/>
         <v>6.8661057142857596</v>
       </c>
-      <c r="Y76" s="43">
+      <c r="Y76" s="41">
         <f t="shared" si="72"/>
         <v>13.216946616541351</v>
       </c>
-      <c r="Z76" s="43">
+      <c r="Z76" s="41">
         <f>Z69/Z13</f>
         <v>6.520981209781211</v>
       </c>
-      <c r="AA76" s="64"/>
-      <c r="AB76" s="65"/>
-      <c r="AC76" s="65"/>
-      <c r="AD76" s="65"/>
-      <c r="AE76" s="65"/>
-      <c r="AF76" s="65"/>
-      <c r="AG76" s="65"/>
-      <c r="AH76" s="65"/>
-      <c r="AI76" s="65"/>
-    </row>
-    <row r="77" spans="1:35" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="86">
+      <c r="AA76" s="62"/>
+      <c r="AB76" s="63"/>
+      <c r="AC76" s="63"/>
+      <c r="AD76" s="63"/>
+      <c r="AE76" s="63"/>
+      <c r="AF76" s="63"/>
+      <c r="AG76" s="63"/>
+      <c r="AH76" s="63"/>
+      <c r="AI76" s="63"/>
+    </row>
+    <row r="77" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="71">
         <f t="shared" si="66"/>
         <v>9.7642266095637211</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="P77" s="44"/>
-      <c r="S77" s="43">
-        <f t="shared" ref="S77:W77" si="73">S71/S12</f>
+      <c r="D77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="S77" s="41">
+        <f t="shared" ref="S77:V77" si="73">S71/S12</f>
         <v>10.06595896656534</v>
       </c>
-      <c r="T77" s="43">
+      <c r="T77" s="41">
         <f t="shared" si="73"/>
         <v>8.774512440944882</v>
       </c>
-      <c r="U77" s="43">
+      <c r="U77" s="41">
         <f t="shared" si="73"/>
         <v>10.493293617021266</v>
       </c>
-      <c r="V77" s="43">
+      <c r="V77" s="41">
         <f t="shared" si="73"/>
         <v>10.770417184643518</v>
       </c>
-      <c r="W77" s="43">
+      <c r="W77" s="41">
         <f t="shared" ref="W77:Y77" si="74">W71/W12</f>
         <v>9.9873508353222267</v>
       </c>
-      <c r="X77" s="43">
+      <c r="X77" s="41">
         <f t="shared" si="74"/>
         <v>10.077534285714352</v>
       </c>
-      <c r="Y77" s="43">
+      <c r="Y77" s="41">
         <f t="shared" si="74"/>
         <v>12.064690977443609</v>
       </c>
-      <c r="Z77" s="43">
+      <c r="Z77" s="41">
         <f>Z71/Z12</f>
         <v>5.8800545688545691</v>
       </c>
-      <c r="AA77" s="64"/>
-      <c r="AB77" s="65"/>
-      <c r="AC77" s="65"/>
-      <c r="AD77" s="65"/>
-      <c r="AE77" s="65"/>
-      <c r="AF77" s="65"/>
-      <c r="AG77" s="65"/>
-      <c r="AH77" s="65"/>
-      <c r="AI77" s="65"/>
+      <c r="AA77" s="62"/>
+      <c r="AB77" s="63"/>
+      <c r="AC77" s="63"/>
+      <c r="AD77" s="63"/>
+      <c r="AE77" s="63"/>
+      <c r="AF77" s="63"/>
+      <c r="AG77" s="63"/>
+      <c r="AH77" s="63"/>
+      <c r="AI77" s="63"/>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="30" t="s">
         <v>107</v>
       </c>
     </row>

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA062A0-A977-48A7-BBBE-6CC867C28391}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775040A-AD96-4D70-8B9A-2B5BB1F71BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
   <si>
     <t>£HLF</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Shares spike on a rumour of a 270p per share takeover offer from Betaville</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,14 +744,19 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -764,26 +772,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1274,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1302,22 +1314,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="G5" s="76" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="G5" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1327,7 +1339,7 @@
         <v>1.829</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1348,8 +1360,12 @@
         <f>C29</f>
         <v>FY22</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="91">
+        <v>45200</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1367,7 +1383,7 @@
         <v>376.22529999999995</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1389,7 +1405,7 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1411,7 +1427,7 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1433,7 +1449,7 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G11" s="13"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1452,7 +1468,7 @@
         <v>326.42529999999994</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1463,7 +1479,7 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G13" s="13"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1474,7 +1490,7 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="13"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1485,12 +1501,12 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1504,11 +1520,11 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="G16" s="13"/>
+      <c r="D16" s="81"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1522,11 +1538,11 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="G17" s="13"/>
+      <c r="D17" s="81"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1540,11 +1556,11 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="80"/>
-      <c r="G18" s="13"/>
+      <c r="D18" s="81"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1558,11 +1574,11 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="76"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1573,11 +1589,11 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
@@ -1586,7 +1602,7 @@
       <c r="C23" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="81"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
@@ -1595,7 +1611,7 @@
       <c r="C24" s="86">
         <v>1892</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="81"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
@@ -1604,7 +1620,7 @@
       <c r="C25" s="86">
         <v>2004</v>
       </c>
-      <c r="D25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
@@ -1612,7 +1628,7 @@
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
       <c r="C26" s="86"/>
-      <c r="D26" s="80"/>
+      <c r="D26" s="81"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
@@ -1622,111 +1638,105 @@
         <f>'Financial Model'!Z34</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="80"/>
+      <c r="D27" s="81"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="86"/>
-      <c r="D28" s="80"/>
+      <c r="D28" s="81"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="88">
+      <c r="D29" s="74">
         <v>45093</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="88"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="72">
+      <c r="C34" s="82">
         <f>C6/'Financial Model'!Z61</f>
         <v>0.68280453720508161</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="72">
+      <c r="C35" s="82">
         <f>C8/'Financial Model'!Z4</f>
         <v>0.27469721086448595</v>
       </c>
-      <c r="D35" s="73"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="72">
+      <c r="C36" s="82">
         <f>C12/'Financial Model'!Z4</f>
         <v>0.23833622955607472</v>
       </c>
-      <c r="D36" s="73"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="72">
+      <c r="C37" s="82">
         <f>C6/'Financial Model'!Z13</f>
         <v>4.8420244530244538</v>
       </c>
-      <c r="D37" s="73"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="72">
+      <c r="C38" s="82">
         <f>C12/'Financial Model'!Z12</f>
         <v>4.201097812097812</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1743,6 +1753,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1761,7 +1777,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="AA69" sqref="AA69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0775040A-AD96-4D70-8B9A-2B5BB1F71BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531BF89-C0E8-4459-84BB-A4FD8B5851BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,25 +751,13 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -780,7 +768,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,15 +789,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -936,14 +940,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -960,8 +964,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9880600" y="0"/>
-          <a:ext cx="0" cy="16548100"/>
+          <a:off x="9899650" y="0"/>
+          <a:ext cx="0" cy="17202150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1286,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1314,22 +1318,22 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="G5" s="77" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="G5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="79"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
@@ -1339,7 +1343,7 @@
         <v>1.829</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="G6" s="89"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1360,7 +1364,7 @@
         <f>C29</f>
         <v>FY22</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="77">
         <v>45200</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1383,7 +1387,7 @@
         <v>376.22529999999995</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="G8" s="89"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1405,7 +1409,7 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G9" s="89"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1427,7 +1431,7 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G10" s="89"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1449,7 +1453,7 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G11" s="89"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1468,7 +1472,7 @@
         <v>326.42529999999994</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="G12" s="89"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1479,7 +1483,7 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G13" s="89"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1490,7 +1494,7 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="89"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1501,12 +1505,12 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="G15" s="89"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="G15" s="75"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1520,11 +1524,11 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="G16" s="89"/>
+      <c r="D16" s="86"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1538,11 +1542,11 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="G17" s="89"/>
+      <c r="D17" s="86"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1556,11 +1560,11 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="G18" s="89"/>
+      <c r="D18" s="86"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1574,11 +1578,11 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="G19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,61 +1593,61 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="86"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="85">
         <v>1892</v>
       </c>
-      <c r="D24" s="81"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="85">
         <v>2004</v>
       </c>
-      <c r="D25" s="81"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="81"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="85">
         <f>'Financial Model'!Z34</f>
         <v>222.1</v>
       </c>
-      <c r="D27" s="81"/>
+      <c r="D27" s="86"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1667,76 +1671,82 @@
       <c r="D30" s="88"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="78">
         <f>C6/'Financial Model'!Z61</f>
         <v>0.68280453720508161</v>
       </c>
-      <c r="D34" s="83"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="29"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="78">
         <f>C8/'Financial Model'!Z4</f>
         <v>0.27469721086448595</v>
       </c>
-      <c r="D35" s="83"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="29"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="78">
         <f>C12/'Financial Model'!Z4</f>
         <v>0.23833622955607472</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="29"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="78">
         <f>C6/'Financial Model'!Z13</f>
         <v>4.8420244530244538</v>
       </c>
-      <c r="D37" s="83"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="78">
         <f>C12/'Financial Model'!Z12</f>
         <v>4.201097812097812</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="84"/>
-      <c r="D39" s="85"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1753,12 +1763,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
@@ -1773,11 +1777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
   <dimension ref="A1:CS80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA69" sqref="AA69"/>
+      <selection pane="bottomRight" activeCell="M73" sqref="M73:O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1843,7 +1847,7 @@
       <c r="N1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="25" t="s">
         <v>46</v>
       </c>
       <c r="P1" s="32" t="s">
@@ -1916,7 +1920,13 @@
         <v>44470</v>
       </c>
       <c r="L2" s="33"/>
+      <c r="M2" s="24">
+        <v>44834</v>
+      </c>
       <c r="N2" s="33"/>
+      <c r="O2" s="24">
+        <v>45198</v>
+      </c>
       <c r="P2" s="33"/>
       <c r="S2" s="24">
         <v>42097</v>
@@ -1968,6 +1978,9 @@
         <v>44868</v>
       </c>
       <c r="N3" s="33"/>
+      <c r="O3" s="92">
+        <v>45259</v>
+      </c>
       <c r="P3" s="33"/>
       <c r="T3" s="23">
         <v>42522</v>
@@ -1995,7 +2008,13 @@
       <c r="H4" s="34"/>
       <c r="J4" s="34"/>
       <c r="L4" s="34"/>
+      <c r="M4" s="2">
+        <v>767.1</v>
+      </c>
       <c r="N4" s="34"/>
+      <c r="O4" s="2">
+        <v>873.5</v>
+      </c>
       <c r="P4" s="34"/>
       <c r="S4" s="26">
         <v>1025.4000000000001</v>
@@ -2061,6 +2080,12 @@
     <row r="5" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="M5" s="1">
+        <v>384.6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>456.2</v>
       </c>
       <c r="S5" s="17">
         <v>479.1</v>
@@ -2132,7 +2157,15 @@
       <c r="H6" s="34"/>
       <c r="J6" s="34"/>
       <c r="L6" s="34"/>
+      <c r="M6" s="2">
+        <f>M4-M5</f>
+        <v>382.5</v>
+      </c>
       <c r="N6" s="34"/>
+      <c r="O6" s="2">
+        <f>O4-O5</f>
+        <v>417.3</v>
+      </c>
       <c r="P6" s="34"/>
       <c r="S6" s="26">
         <f t="shared" ref="S6:V6" si="2">S4-S5</f>
@@ -2206,6 +2239,14 @@
     <row r="7" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="M7" s="1">
+        <f>358.7-0.3</f>
+        <v>358.4</v>
+      </c>
+      <c r="O7" s="1">
+        <f>389.7+2</f>
+        <v>391.7</v>
       </c>
       <c r="S7" s="17">
         <v>459</v>
@@ -2277,7 +2318,15 @@
       <c r="H8" s="34"/>
       <c r="J8" s="34"/>
       <c r="L8" s="34"/>
+      <c r="M8" s="2">
+        <f>M6-M7</f>
+        <v>24.100000000000023</v>
+      </c>
       <c r="N8" s="34"/>
+      <c r="O8" s="2">
+        <f>O6-O7</f>
+        <v>25.600000000000023</v>
+      </c>
       <c r="P8" s="34"/>
       <c r="S8" s="26">
         <f t="shared" ref="S8:V8" si="6">S6-S7</f>
@@ -2352,6 +2401,12 @@
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="M9" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.3</v>
+      </c>
       <c r="S9" s="17">
         <v>3.5</v>
       </c>
@@ -2418,6 +2473,14 @@
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="M10" s="1">
+        <f>M8-M9</f>
+        <v>18.700000000000024</v>
+      </c>
+      <c r="O10" s="1">
+        <f>O8-O9</f>
+        <v>19.300000000000022</v>
+      </c>
       <c r="S10" s="17">
         <f t="shared" ref="S10:V10" si="9">S8-S9</f>
         <v>83.800000000000068</v>
@@ -2490,6 +2553,13 @@
     <row r="11" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="M11" s="1">
+        <f>3.8+0.2</f>
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4.7</v>
       </c>
       <c r="S11" s="17">
         <v>18</v>
@@ -2561,7 +2631,15 @@
       <c r="H12" s="34"/>
       <c r="J12" s="34"/>
       <c r="L12" s="34"/>
+      <c r="M12" s="2">
+        <f>M10-M11</f>
+        <v>14.700000000000024</v>
+      </c>
       <c r="N12" s="34"/>
+      <c r="O12" s="2">
+        <f>O10-O11</f>
+        <v>14.600000000000023</v>
+      </c>
       <c r="P12" s="34"/>
       <c r="S12" s="26">
         <f t="shared" ref="S12:V12" si="12">S10-S11</f>
@@ -2880,10 +2958,25 @@
         <v>32.188263512376381</v>
       </c>
     </row>
-    <row r="13" spans="2:97" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:97" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
         <v>62</v>
       </c>
+      <c r="D13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="27">
+        <f>M12/M14</f>
+        <v>6.5566458519179416E-2</v>
+      </c>
+      <c r="N13" s="93"/>
+      <c r="O13" s="27">
+        <f>O12/O14</f>
+        <v>6.4345526663728614E-2</v>
+      </c>
+      <c r="P13" s="93"/>
       <c r="S13" s="27">
         <f t="shared" ref="S13:U13" si="15">S12/S14</f>
         <v>0.33333333333333365</v>
@@ -2956,6 +3049,12 @@
     <row r="14" spans="2:97" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>224.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>226.9</v>
       </c>
       <c r="S14" s="1">
         <v>197.4</v>
@@ -3028,6 +3127,10 @@
       <c r="J16" s="34"/>
       <c r="L16" s="34"/>
       <c r="N16" s="34"/>
+      <c r="O16" s="28">
+        <f>O4/M4-1</f>
+        <v>0.13870421066353789</v>
+      </c>
       <c r="P16" s="34"/>
       <c r="T16" s="28">
         <f t="shared" ref="T16" si="20">T4/S4-1</f>
@@ -3118,6 +3221,15 @@
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M19" s="29">
+        <f>M6/M4</f>
+        <v>0.49863120844739928</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="29">
+        <f>O6/O4</f>
+        <v>0.47773325701202063</v>
+      </c>
       <c r="S19" s="29">
         <f t="shared" ref="S19:T19" si="23">S6/S4</f>
         <v>0.53276770040959631</v>
@@ -3188,6 +3300,15 @@
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="M20" s="29">
+        <f>M8/M4</f>
+        <v>3.1417025159692379E-2</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="29">
+        <f>O8/O4</f>
+        <v>2.9307384087006321E-2</v>
+      </c>
       <c r="S20" s="29">
         <f t="shared" ref="S20:T20" si="26">S8/S4</f>
         <v>8.5137507314218902E-2</v>
@@ -3267,6 +3388,15 @@
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="M21" s="29">
+        <f>M12/M4</f>
+        <v>1.9163081736409886E-2</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="29">
+        <f>O12/O4</f>
+        <v>1.6714367487120803E-2</v>
+      </c>
       <c r="S21" s="29">
         <f t="shared" ref="S21:T21" si="30">S12/S4</f>
         <v>6.4170079968792731E-2</v>
@@ -3347,6 +3477,15 @@
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="M22" s="29">
+        <f>M11/M10</f>
+        <v>0.21390374331550774</v>
+      </c>
+      <c r="N22" s="40"/>
+      <c r="O22" s="29">
+        <f>O11/O10</f>
+        <v>0.24352331606217589</v>
+      </c>
       <c r="S22" s="29">
         <f t="shared" ref="S22:T22" si="34">S11/S10</f>
         <v>0.21479713603818598</v>
@@ -3465,6 +3604,12 @@
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="M27" s="17">
+        <v>444.7</v>
+      </c>
+      <c r="O27" s="17">
+        <v>481.6</v>
+      </c>
       <c r="S27" s="1">
         <v>356.8</v>
       </c>
@@ -3494,6 +3639,12 @@
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="M28" s="17">
+        <v>97.9</v>
+      </c>
+      <c r="O28" s="17">
+        <v>92.8</v>
+      </c>
       <c r="S28" s="1">
         <v>103.8</v>
       </c>
@@ -3522,6 +3673,12 @@
     <row r="29" spans="2:38" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
+      </c>
+      <c r="M29" s="17">
+        <v>329.8</v>
+      </c>
+      <c r="O29" s="17">
+        <v>294.5</v>
       </c>
       <c r="S29" s="17">
         <v>0</v>
@@ -3557,7 +3714,13 @@
       <c r="H30" s="34"/>
       <c r="J30" s="34"/>
       <c r="L30" s="34"/>
+      <c r="M30" s="26">
+        <v>0.7</v>
+      </c>
       <c r="N30" s="34"/>
+      <c r="O30" s="26">
+        <v>0.3</v>
+      </c>
       <c r="P30" s="34"/>
       <c r="S30" s="26">
         <v>0</v>
@@ -3597,6 +3760,12 @@
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="M31" s="17">
+        <v>13.1</v>
+      </c>
+      <c r="O31" s="17">
+        <v>9</v>
+      </c>
       <c r="S31" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -3626,6 +3795,12 @@
       <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="M32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
       <c r="S32" s="17">
         <v>0</v>
       </c>
@@ -3654,6 +3829,14 @@
     <row r="33" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>85</v>
+      </c>
+      <c r="M33" s="17">
+        <f>SUM(M27:M32)</f>
+        <v>886.20000000000016</v>
+      </c>
+      <c r="O33" s="17">
+        <f>SUM(O27:O32)</f>
+        <v>878.19999999999993</v>
       </c>
       <c r="S33" s="17">
         <f t="shared" ref="S33:Z33" si="38">SUM(S27:S32)</f>
@@ -3697,7 +3880,13 @@
       <c r="H34" s="34"/>
       <c r="J34" s="34"/>
       <c r="L34" s="34"/>
+      <c r="M34" s="26">
+        <v>248</v>
+      </c>
       <c r="N34" s="34"/>
+      <c r="O34" s="26">
+        <v>262.89999999999998</v>
+      </c>
       <c r="P34" s="34"/>
       <c r="S34" s="2">
         <v>149.30000000000001</v>
@@ -3737,6 +3926,12 @@
       <c r="B35" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="M35" s="17">
+        <v>118.2</v>
+      </c>
+      <c r="O35" s="17">
+        <v>162.5</v>
+      </c>
       <c r="S35" s="1">
         <v>55.8</v>
       </c>
@@ -3765,6 +3960,12 @@
     <row r="36" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="17">
+        <v>0</v>
       </c>
       <c r="S36" s="17">
         <v>0</v>
@@ -3800,7 +4001,13 @@
       <c r="H37" s="34"/>
       <c r="J37" s="34"/>
       <c r="L37" s="34"/>
+      <c r="M37" s="26">
+        <v>15.7</v>
+      </c>
       <c r="N37" s="34"/>
+      <c r="O37" s="26">
+        <v>1.4</v>
+      </c>
       <c r="P37" s="34"/>
       <c r="S37" s="2">
         <v>3.9</v>
@@ -3840,6 +4047,12 @@
       <c r="B38" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="M38" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="O38" s="17">
+        <v>7.5</v>
+      </c>
       <c r="S38" s="17">
         <v>0</v>
       </c>
@@ -3874,7 +4087,13 @@
       <c r="H39" s="34"/>
       <c r="J39" s="34"/>
       <c r="L39" s="34"/>
+      <c r="M39" s="26">
+        <v>78</v>
+      </c>
       <c r="N39" s="34"/>
+      <c r="O39" s="26">
+        <v>16.2</v>
+      </c>
       <c r="P39" s="34"/>
       <c r="S39" s="2">
         <v>22.4</v>
@@ -3914,6 +4133,14 @@
       <c r="B40" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="M40" s="17">
+        <f>SUM(M33:M39)</f>
+        <v>1347.9000000000003</v>
+      </c>
+      <c r="O40" s="17">
+        <f>SUM(O33:O39)</f>
+        <v>1328.7</v>
+      </c>
       <c r="S40" s="17">
         <f t="shared" ref="S40:Y40" si="39">SUM(S33:S39)</f>
         <v>696.09999999999991</v>
@@ -3948,6 +4175,8 @@
       </c>
     </row>
     <row r="41" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="M41" s="17"/>
+      <c r="O41" s="17"/>
       <c r="Y41" s="17"/>
     </row>
     <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3959,7 +4188,13 @@
       <c r="H42" s="34"/>
       <c r="J42" s="34"/>
       <c r="L42" s="34"/>
+      <c r="M42" s="26">
+        <v>11.5</v>
+      </c>
       <c r="N42" s="34"/>
+      <c r="O42" s="26">
+        <v>13.8</v>
+      </c>
       <c r="P42" s="34"/>
       <c r="S42" s="2">
         <v>22.9</v>
@@ -3999,6 +4234,12 @@
       <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="M43" s="17">
+        <v>75.2</v>
+      </c>
+      <c r="O43" s="17">
+        <v>71.900000000000006</v>
+      </c>
       <c r="S43" s="17">
         <v>0</v>
       </c>
@@ -4033,7 +4274,13 @@
       <c r="H44" s="34"/>
       <c r="J44" s="34"/>
       <c r="L44" s="34"/>
+      <c r="M44" s="26">
+        <v>0.1</v>
+      </c>
       <c r="N44" s="34"/>
+      <c r="O44" s="26">
+        <v>1.3</v>
+      </c>
       <c r="P44" s="34"/>
       <c r="S44" s="2">
         <v>0.1</v>
@@ -4073,6 +4320,12 @@
       <c r="B45" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="M45" s="17">
+        <v>350.8</v>
+      </c>
+      <c r="O45" s="17">
+        <v>360</v>
+      </c>
       <c r="S45" s="1">
         <v>181.4</v>
       </c>
@@ -4102,6 +4355,12 @@
       <c r="B46" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="M46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="17">
+        <v>0</v>
+      </c>
       <c r="S46" s="1">
         <v>12.4</v>
       </c>
@@ -4131,6 +4390,12 @@
       <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="M47" s="17">
+        <v>20.3</v>
+      </c>
+      <c r="O47" s="17">
+        <v>13.4</v>
+      </c>
       <c r="S47" s="1">
         <v>10.6</v>
       </c>
@@ -4159,6 +4424,14 @@
     <row r="48" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>96</v>
+      </c>
+      <c r="M48" s="17">
+        <f>SUM(M42:M47)</f>
+        <v>457.90000000000003</v>
+      </c>
+      <c r="O48" s="17">
+        <f>SUM(O42:O47)</f>
+        <v>460.4</v>
       </c>
       <c r="S48" s="17">
         <f t="shared" ref="S48:V48" si="40">SUM(S42:S47)</f>
@@ -4202,7 +4475,13 @@
       <c r="H49" s="34"/>
       <c r="J49" s="34"/>
       <c r="L49" s="34"/>
+      <c r="M49" s="26">
+        <v>34.200000000000003</v>
+      </c>
       <c r="N49" s="34"/>
+      <c r="O49" s="26">
+        <v>49.4</v>
+      </c>
       <c r="P49" s="34"/>
       <c r="S49" s="2">
         <v>61.3</v>
@@ -4242,6 +4521,12 @@
       <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="M50" s="17">
+        <v>293.10000000000002</v>
+      </c>
+      <c r="O50" s="17">
+        <v>253.4</v>
+      </c>
       <c r="S50" s="1">
         <v>31.5</v>
       </c>
@@ -4276,7 +4561,13 @@
       <c r="H51" s="34"/>
       <c r="J51" s="34"/>
       <c r="L51" s="34"/>
+      <c r="M51" s="26">
+        <v>0.1</v>
+      </c>
       <c r="N51" s="34"/>
+      <c r="O51" s="26">
+        <v>0</v>
+      </c>
       <c r="P51" s="34"/>
       <c r="S51" s="26">
         <v>0</v>
@@ -4316,6 +4607,12 @@
       <c r="B52" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="M52" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="O52" s="17">
+        <v>3.9</v>
+      </c>
       <c r="S52" s="17">
         <v>0</v>
       </c>
@@ -4345,6 +4642,12 @@
       <c r="B53" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+      <c r="O53" s="17">
+        <v>0</v>
+      </c>
       <c r="S53" s="17">
         <v>0</v>
       </c>
@@ -4374,6 +4677,12 @@
       <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="M54" s="17">
+        <v>4.3</v>
+      </c>
+      <c r="O54" s="17">
+        <v>11</v>
+      </c>
       <c r="S54" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -4403,6 +4712,14 @@
       <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="M55" s="17">
+        <f>SUM(M48:M54)</f>
+        <v>793.30000000000007</v>
+      </c>
+      <c r="O55" s="17">
+        <f>SUM(O48:O54)</f>
+        <v>778.09999999999991</v>
+      </c>
       <c r="S55" s="17">
         <f t="shared" ref="S55:V55" si="41">SUM(S48:S54)</f>
         <v>328.4</v>
@@ -4435,6 +4752,9 @@
         <f>SUM(Z48:Z54)</f>
         <v>727.09999999999991</v>
       </c>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="17" t="s">
@@ -4445,7 +4765,13 @@
       <c r="H57" s="36"/>
       <c r="J57" s="36"/>
       <c r="L57" s="36"/>
+      <c r="M57" s="17">
+        <v>554.6</v>
+      </c>
       <c r="N57" s="36"/>
+      <c r="O57" s="17">
+        <v>550.6</v>
+      </c>
       <c r="P57" s="36"/>
       <c r="S57" s="17">
         <v>367.7</v>
@@ -4490,7 +4816,15 @@
       <c r="H58" s="36"/>
       <c r="J58" s="36"/>
       <c r="L58" s="36"/>
+      <c r="M58" s="17">
+        <f>+M57+M55</f>
+        <v>1347.9</v>
+      </c>
       <c r="N58" s="36"/>
+      <c r="O58" s="17">
+        <f>+O57+O55</f>
+        <v>1328.6999999999998</v>
+      </c>
       <c r="P58" s="36"/>
       <c r="S58" s="17">
         <f t="shared" ref="S58:V58" si="42">S57+S55</f>
@@ -4538,6 +4872,14 @@
       <c r="B60" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="M60" s="17">
+        <f>M40-M55</f>
+        <v>554.60000000000025</v>
+      </c>
+      <c r="O60" s="17">
+        <f>O40-O55</f>
+        <v>550.60000000000014</v>
+      </c>
       <c r="S60" s="17">
         <f t="shared" ref="S60:T60" si="43">S40-S55</f>
         <v>367.69999999999993</v>
@@ -4575,6 +4917,14 @@
       <c r="B61" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="M61" s="1">
+        <f>M60/M14</f>
+        <v>2.4736842105263168</v>
+      </c>
+      <c r="O61" s="1">
+        <f>O60/O14</f>
+        <v>2.4266196562362281</v>
+      </c>
       <c r="S61" s="1">
         <f t="shared" ref="S61:T61" si="46">S60/S14</f>
         <v>1.8627152988855114</v>
@@ -4612,32 +4962,40 @@
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="M63" s="17">
+        <f t="shared" ref="M63:O63" si="49">M30+M37+M39</f>
+        <v>94.4</v>
+      </c>
+      <c r="O63" s="17">
+        <f t="shared" si="49"/>
+        <v>17.899999999999999</v>
+      </c>
       <c r="S63" s="17">
-        <f t="shared" ref="S63:T63" si="49">S30+S37+S39</f>
+        <f t="shared" ref="S63:T63" si="50">S30+S37+S39</f>
         <v>26.299999999999997</v>
       </c>
       <c r="T63" s="17">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>16.100000000000001</v>
       </c>
       <c r="U63" s="17">
-        <f t="shared" ref="U63:W63" si="50">U30+U37+U39</f>
+        <f t="shared" ref="U63:W63" si="51">U30+U37+U39</f>
         <v>21.7</v>
       </c>
       <c r="V63" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>27.3</v>
       </c>
       <c r="W63" s="17">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>13</v>
       </c>
       <c r="X63" s="17">
-        <f t="shared" ref="X63:Y63" si="51">X30+X37+X39</f>
+        <f t="shared" ref="X63:Y63" si="52">X30+X37+X39</f>
         <v>124.2</v>
       </c>
       <c r="Y63" s="17">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>67.8</v>
       </c>
       <c r="Z63" s="17">
@@ -4649,32 +5007,40 @@
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="M64" s="17">
+        <f t="shared" ref="M64:O64" si="53">M42+M44+M49+M51</f>
+        <v>45.900000000000006</v>
+      </c>
+      <c r="O64" s="17">
+        <f t="shared" si="53"/>
+        <v>64.5</v>
+      </c>
       <c r="S64" s="17">
-        <f t="shared" ref="S64:T64" si="52">S42+S44+S49+S51</f>
+        <f t="shared" ref="S64:T64" si="54">S42+S44+S49+S51</f>
         <v>84.3</v>
       </c>
       <c r="T64" s="17">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>59.8</v>
       </c>
       <c r="U64" s="17">
-        <f t="shared" ref="U64:W64" si="53">U42+U44+U49+U51</f>
+        <f t="shared" ref="U64:W64" si="55">U42+U44+U49+U51</f>
         <v>103.89999999999999</v>
       </c>
       <c r="V64" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>120.2</v>
       </c>
       <c r="W64" s="17">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>93</v>
       </c>
       <c r="X64" s="17">
-        <f t="shared" ref="X64:Y64" si="54">X42+X44+X49+X51</f>
+        <f t="shared" ref="X64:Y64" si="56">X42+X44+X49+X51</f>
         <v>180.4</v>
       </c>
       <c r="Y64" s="17">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>6.5000000000000009</v>
       </c>
       <c r="Z64" s="17">
@@ -4686,32 +5052,40 @@
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M65" s="17">
+        <f t="shared" ref="M65:O65" si="57">M63-M64</f>
+        <v>48.5</v>
+      </c>
+      <c r="O65" s="17">
+        <f t="shared" si="57"/>
+        <v>-46.6</v>
+      </c>
       <c r="S65" s="17">
-        <f t="shared" ref="S65:T65" si="55">S63-S64</f>
+        <f t="shared" ref="S65:T65" si="58">S63-S64</f>
         <v>-58</v>
       </c>
       <c r="T65" s="17">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>-43.699999999999996</v>
       </c>
       <c r="U65" s="17">
-        <f t="shared" ref="U65:W65" si="56">U63-U64</f>
+        <f t="shared" ref="U65:W65" si="59">U63-U64</f>
         <v>-82.199999999999989</v>
       </c>
       <c r="V65" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-92.9</v>
       </c>
       <c r="W65" s="17">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-80</v>
       </c>
       <c r="X65" s="17">
-        <f t="shared" ref="X65:Y65" si="57">X63-X64</f>
+        <f t="shared" ref="X65:Y65" si="60">X63-X64</f>
         <v>-56.2</v>
       </c>
       <c r="Y65" s="17">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>61.3</v>
       </c>
       <c r="Z65" s="17">
@@ -4729,21 +5103,25 @@
       <c r="J67" s="40"/>
       <c r="L67" s="40"/>
       <c r="N67" s="40"/>
+      <c r="O67" s="29">
+        <f>O34/M34-1</f>
+        <v>6.0080645161290303E-2</v>
+      </c>
       <c r="P67" s="40"/>
       <c r="T67" s="29">
-        <f t="shared" ref="T67" si="58">T34/S34-1</f>
+        <f t="shared" ref="T67" si="61">T34/S34-1</f>
         <v>5.7602143335566014E-2</v>
       </c>
       <c r="U67" s="29">
-        <f t="shared" ref="U67" si="59">U34/T34-1</f>
+        <f t="shared" ref="U67" si="62">U34/T34-1</f>
         <v>0.21025965801139956</v>
       </c>
       <c r="V67" s="29">
-        <f t="shared" ref="V67:W67" si="60">V34/U34-1</f>
+        <f t="shared" ref="V67:W67" si="63">V34/U34-1</f>
         <v>2.3024594453165959E-2</v>
       </c>
       <c r="W67" s="29">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>-0.11150895140664963</v>
       </c>
       <c r="X67" s="29">
@@ -4777,7 +5155,13 @@
       <c r="H69" s="39"/>
       <c r="J69" s="39"/>
       <c r="L69" s="39"/>
+      <c r="M69" s="1">
+        <v>1.7208000000000001</v>
+      </c>
       <c r="N69" s="39"/>
+      <c r="O69" s="1">
+        <v>1.85</v>
+      </c>
       <c r="P69" s="39"/>
       <c r="S69" s="38">
         <v>3.0615000000000001</v>
@@ -4817,28 +5201,36 @@
       <c r="B70" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M70" s="17">
+        <f t="shared" ref="M70" si="64">M69*M14</f>
+        <v>385.80336</v>
+      </c>
+      <c r="O70" s="17">
+        <f t="shared" ref="O70" si="65">O69*O14</f>
+        <v>419.76500000000004</v>
+      </c>
       <c r="S70" s="17">
-        <f t="shared" ref="S70:V70" si="61">S69*S14</f>
+        <f t="shared" ref="S70:V70" si="66">S69*S14</f>
         <v>604.34010000000001</v>
       </c>
       <c r="T70" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>513.48154000000011</v>
       </c>
       <c r="U70" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>509.62175999999994</v>
       </c>
       <c r="V70" s="17">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>496.24181999999996</v>
       </c>
       <c r="W70" s="17">
-        <f t="shared" ref="W70:X70" si="62">W69*W14</f>
+        <f t="shared" ref="W70:X70" si="67">W69*W14</f>
         <v>338.46999999999997</v>
       </c>
       <c r="X70" s="17">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>120.15685000000001</v>
       </c>
       <c r="Y70" s="17">
@@ -4854,20 +5246,28 @@
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="M71" s="17">
+        <f t="shared" ref="M71" si="68">M70-M65</f>
+        <v>337.30336</v>
+      </c>
+      <c r="O71" s="17">
+        <f t="shared" ref="O71" si="69">O70-O65</f>
+        <v>466.36500000000007</v>
+      </c>
       <c r="S71" s="17">
-        <f t="shared" ref="S71:V71" si="63">S70-S65</f>
+        <f t="shared" ref="S71:V71" si="70">S70-S65</f>
         <v>662.34010000000001</v>
       </c>
       <c r="T71" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>557.18154000000015</v>
       </c>
       <c r="U71" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>591.82175999999993</v>
       </c>
       <c r="V71" s="17">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>589.14181999999994</v>
       </c>
       <c r="W71" s="17">
@@ -4895,32 +5295,41 @@
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="M73" s="41">
+        <f>M69/M61</f>
+        <v>0.69564255319148915</v>
+      </c>
+      <c r="N73" s="42"/>
+      <c r="O73" s="41">
+        <f>O69/O61</f>
+        <v>0.76237740646567365</v>
+      </c>
       <c r="S73" s="41">
-        <f t="shared" ref="S73:V73" si="64">S69/S61</f>
+        <f t="shared" ref="S73:V73" si="71">S69/S61</f>
         <v>1.6435683981506666</v>
       </c>
       <c r="T73" s="41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1.2666046867291563</v>
       </c>
       <c r="U73" s="41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1.2506055460122694</v>
       </c>
       <c r="V73" s="41">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1.1762072054989334</v>
       </c>
       <c r="W73" s="41">
-        <f t="shared" ref="W73:Y73" si="65">W69/W61</f>
+        <f t="shared" ref="W73:Y73" si="72">W69/W61</f>
         <v>0.82694844857073058</v>
       </c>
       <c r="X73" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>0.32847689994532514</v>
       </c>
       <c r="Y73" s="41">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>1.682962087123024</v>
       </c>
       <c r="Z73" s="41">
@@ -4930,7 +5339,7 @@
     </row>
     <row r="74" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="71">
-        <f t="shared" ref="A74:A77" si="66">AVERAGE(S74:Z74)</f>
+        <f t="shared" ref="A74:A77" si="73">AVERAGE(S74:Z74)</f>
         <v>0.41374638068405767</v>
       </c>
       <c r="B74" s="41" t="s">
@@ -4944,31 +5353,31 @@
       <c r="N74" s="42"/>
       <c r="P74" s="42"/>
       <c r="S74" s="41">
-        <f t="shared" ref="S74:V74" si="67">S70/S4</f>
+        <f t="shared" ref="S74:V74" si="74">S70/S4</f>
         <v>0.58937009947337615</v>
       </c>
       <c r="T74" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.50267404796867365</v>
       </c>
       <c r="U74" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.46540799999999993</v>
       </c>
       <c r="V74" s="41">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0.43717894458638007</v>
       </c>
       <c r="W74" s="41">
-        <f t="shared" ref="W74:Y74" si="68">W70/W4</f>
+        <f t="shared" ref="W74:Y74" si="75">W70/W4</f>
         <v>0.29726857544352714</v>
       </c>
       <c r="X74" s="41">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>0.10402289845035063</v>
       </c>
       <c r="Y74" s="41">
-        <f t="shared" si="68"/>
+        <f t="shared" si="75"/>
         <v>0.54410087440996679</v>
       </c>
       <c r="Z74" s="41">
@@ -4987,7 +5396,7 @@
     </row>
     <row r="75" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0.45016822490598901</v>
       </c>
       <c r="B75" s="41" t="s">
@@ -5001,31 +5410,31 @@
       <c r="N75" s="42"/>
       <c r="P75" s="42"/>
       <c r="S75" s="41">
-        <f t="shared" ref="S75:V75" si="69">S71/S4</f>
+        <f t="shared" ref="S75:V75" si="76">S71/S4</f>
         <v>0.64593339184708398</v>
       </c>
       <c r="T75" s="41">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0.54545427312775341</v>
       </c>
       <c r="U75" s="41">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0.54047649315068491</v>
       </c>
       <c r="V75" s="41">
-        <f t="shared" si="69"/>
+        <f t="shared" si="76"/>
         <v>0.51902195401286233</v>
       </c>
       <c r="W75" s="41">
-        <f t="shared" ref="W75:Y75" si="70">W71/W4</f>
+        <f t="shared" ref="W75:Y75" si="77">W71/W4</f>
         <v>0.36753030036887407</v>
       </c>
       <c r="X75" s="41">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.15267669465847114</v>
       </c>
       <c r="Y75" s="41">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.49666606825040632</v>
       </c>
       <c r="Z75" s="41">
@@ -5044,7 +5453,7 @@
     </row>
     <row r="76" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>8.7576011619956287</v>
       </c>
       <c r="B76" s="41" t="s">
@@ -5058,31 +5467,31 @@
       <c r="N76" s="42"/>
       <c r="P76" s="42"/>
       <c r="S76" s="41">
-        <f t="shared" ref="S76:V76" si="71">S69/S13</f>
+        <f t="shared" ref="S76:V76" si="78">S69/S13</f>
         <v>9.184499999999991</v>
       </c>
       <c r="T76" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>8.0863234645669291</v>
       </c>
       <c r="U76" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>9.0358468085106303</v>
       </c>
       <c r="V76" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>9.072062522851926</v>
       </c>
       <c r="W76" s="41">
-        <f t="shared" ref="W76:Y76" si="72">W69/W13</f>
+        <f t="shared" ref="W76:Y76" si="79">W69/W13</f>
         <v>8.0780429594272327</v>
       </c>
       <c r="X76" s="41">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>6.8661057142857596</v>
       </c>
       <c r="Y76" s="41">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>13.216946616541351</v>
       </c>
       <c r="Z76" s="41">
@@ -5101,7 +5510,7 @@
     </row>
     <row r="77" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="71">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>9.7642266095637211</v>
       </c>
       <c r="B77" s="41" t="s">
@@ -5115,31 +5524,31 @@
       <c r="N77" s="42"/>
       <c r="P77" s="42"/>
       <c r="S77" s="41">
-        <f t="shared" ref="S77:V77" si="73">S71/S12</f>
+        <f t="shared" ref="S77:V77" si="80">S71/S12</f>
         <v>10.06595896656534</v>
       </c>
       <c r="T77" s="41">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>8.774512440944882</v>
       </c>
       <c r="U77" s="41">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>10.493293617021266</v>
       </c>
       <c r="V77" s="41">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>10.770417184643518</v>
       </c>
       <c r="W77" s="41">
-        <f t="shared" ref="W77:Y77" si="74">W71/W12</f>
+        <f t="shared" ref="W77:Y77" si="81">W71/W12</f>
         <v>9.9873508353222267</v>
       </c>
       <c r="X77" s="41">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>10.077534285714352</v>
       </c>
       <c r="Y77" s="41">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>12.064690977443609</v>
       </c>
       <c r="Z77" s="41">
@@ -5168,11 +5577,13 @@
     <hyperlink ref="X1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
     <hyperlink ref="V1" r:id="rId3" xr:uid="{13285A00-2106-4F98-B9F0-34A6A260A094}"/>
     <hyperlink ref="T1" r:id="rId4" xr:uid="{769CF0C5-F50D-4DA3-90F8-F8D13713771E}"/>
+    <hyperlink ref="O1" r:id="rId5" xr:uid="{269C442D-1224-4529-B6A0-B4A457C4FBF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="X9 AA7 AA11 AA9 AB11:AI11 AB9:AI9 AB7:AC7 AD7:AI7" formula="1"/>
+    <ignoredError sqref="X9 AA7 AA11 AA9 AB11:AI11 AB9:AI9 AB7:AC7 AD7:AI7 O7 M7 M11" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531BF89-C0E8-4459-84BB-A4FD8B5851BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663D96C-209D-4D50-8A48-A291748EA409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1290,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1364,12 +1364,8 @@
         <f>C29</f>
         <v>FY22</v>
       </c>
-      <c r="G7" s="77">
-        <v>45200</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="G7" s="75"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -1431,8 +1427,12 @@
         <f>$C$29</f>
         <v>FY22</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="77">
+        <v>45200</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -1777,11 +1777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
   <dimension ref="A1:CS80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M73" sqref="M73:O73"/>
+      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663D96C-209D-4D50-8A48-A291748EA409}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCCC8B-C647-47B1-974C-D0EC6E8904DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Prediction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="127">
   <si>
     <t>£HLF</t>
   </si>
@@ -355,9 +365,6 @@
     <t>FY17</t>
   </si>
   <si>
-    <t>(EST.)</t>
-  </si>
-  <si>
     <t>FY16</t>
   </si>
   <si>
@@ -389,15 +396,37 @@
   </si>
   <si>
     <t>Shares spike on a rumour of a 270p per share takeover offer from Betaville</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>H225</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>FCF Per Share</t>
+  </si>
+  <si>
+    <t>Price / FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -494,7 +523,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -663,9 +686,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -707,34 +727,19 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -745,7 +750,7 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,14 +765,16 @@
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -777,31 +784,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -890,15 +899,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -914,8 +923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16865600" y="0"/>
-          <a:ext cx="0" cy="16548100"/>
+          <a:off x="19024600" y="0"/>
+          <a:ext cx="0" cy="17202150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -948,7 +957,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -986,6 +995,55 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>306471</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FED675C1-C1DB-98BB-14C7-7D4C1E12B7C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="0"/>
+          <a:ext cx="11974596" cy="6068272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1290,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB5AEF-8447-4D06-8D6B-C9C6F674AB9E}">
   <dimension ref="B2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1303,14 +1361,14 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1318,32 +1376,32 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="G5" s="82" t="s">
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="G5" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="72"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1.829</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="G6" s="75"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1358,13 +1416,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="17">
-        <v>205.7</v>
+        <v>218.92873599999999</v>
       </c>
       <c r="D7" s="15" t="str">
         <f>C29</f>
-        <v>FY22</v>
-      </c>
-      <c r="G7" s="75"/>
+        <v>FY24</v>
+      </c>
+      <c r="G7" s="63"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1380,10 +1438,10 @@
       </c>
       <c r="C8" s="17">
         <f>C6*C7</f>
-        <v>376.22529999999995</v>
+        <v>349.41026265599999</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="G8" s="75"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1398,14 +1456,14 @@
         <v>6</v>
       </c>
       <c r="C9" s="17">
-        <f>'Financial Model'!Z63</f>
-        <v>50.5</v>
+        <f>'Financial Model'!AD64</f>
+        <v>13.5</v>
       </c>
       <c r="D9" s="15" t="str">
         <f>$C$29</f>
-        <v>FY22</v>
-      </c>
-      <c r="G9" s="75"/>
+        <v>FY24</v>
+      </c>
+      <c r="G9" s="63"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1420,18 +1478,18 @@
         <v>7</v>
       </c>
       <c r="C10" s="17">
-        <f>'Financial Model'!Z64</f>
-        <v>0.7</v>
+        <f>'Financial Model'!AD65</f>
+        <v>23.000000000000004</v>
       </c>
       <c r="D10" s="15" t="str">
         <f>$C$29</f>
-        <v>FY22</v>
-      </c>
-      <c r="G10" s="77">
+        <v>FY24</v>
+      </c>
+      <c r="G10" s="65">
         <v>45200</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1446,14 +1504,14 @@
         <v>8</v>
       </c>
       <c r="C11" s="17">
-        <f>C9-C10</f>
-        <v>49.8</v>
+        <f>'Financial Model'!AD66</f>
+        <v>-9.5000000000000036</v>
       </c>
       <c r="D11" s="15" t="str">
         <f>$C$29</f>
-        <v>FY22</v>
-      </c>
-      <c r="G11" s="75"/>
+        <v>FY24</v>
+      </c>
+      <c r="G11" s="63"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1469,10 +1527,10 @@
       </c>
       <c r="C12" s="18">
         <f>C8-C11</f>
-        <v>326.42529999999994</v>
+        <v>358.91026265599999</v>
       </c>
       <c r="D12" s="16"/>
-      <c r="G12" s="75"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1483,7 +1541,7 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G13" s="75"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1494,7 +1552,7 @@
       <c r="O13" s="7"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="75"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1505,12 +1563,12 @@
       <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="G15" s="75"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1524,11 +1582,11 @@
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="G16" s="75"/>
+      <c r="D16" s="74"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1542,11 +1600,11 @@
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="86"/>
-      <c r="G17" s="75"/>
+      <c r="D17" s="74"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1560,11 +1618,11 @@
       <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="86"/>
-      <c r="G18" s="75"/>
+      <c r="D18" s="74"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1578,11 +1636,11 @@
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="G19" s="76"/>
+      <c r="D19" s="69"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1593,160 +1651,155 @@
       <c r="O19" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="74"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="73">
         <v>1892</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="74"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="73">
         <v>2004</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="11"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="85">
-        <f>'Financial Model'!Z34</f>
-        <v>222.1</v>
-      </c>
-      <c r="D27" s="86"/>
+      <c r="C27" s="73">
+        <f>+'Financial Model'!AD35</f>
+        <v>237.5</v>
+      </c>
+      <c r="D27" s="74"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="74">
-        <v>45093</v>
-      </c>
-      <c r="F29" s="72"/>
+      <c r="C29" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="62">
+        <f>+'Financial Model'!AD14</f>
+        <v>217.4</v>
+      </c>
+      <c r="F29" s="60"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="80"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="78">
-        <f>C6/'Financial Model'!Z61</f>
-        <v>0.68280453720508161</v>
-      </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="29"/>
+      <c r="C34" s="75">
+        <f>C6/'Financial Model'!AD62</f>
+        <v>0.62652654387865669</v>
+      </c>
+      <c r="D34" s="76"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="78">
-        <f>C8/'Financial Model'!Z4</f>
-        <v>0.27469721086448595</v>
-      </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="29"/>
+      <c r="C35" s="75">
+        <f>C8/'Financial Model'!AD4</f>
+        <v>0.20595948285057469</v>
+      </c>
+      <c r="D35" s="76"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="78">
-        <f>C12/'Financial Model'!Z4</f>
-        <v>0.23833622955607472</v>
-      </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="29"/>
+      <c r="C36" s="75">
+        <f>C12/'Financial Model'!AD4</f>
+        <v>0.21155924707102858</v>
+      </c>
+      <c r="D36" s="76"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="78">
-        <f>C6/'Financial Model'!Z13</f>
-        <v>4.8420244530244538</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="29"/>
+      <c r="C37" s="75">
+        <f>C6/'Financial Model'!AD13</f>
+        <v>11.964496551724148</v>
+      </c>
+      <c r="D37" s="76"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="78">
-        <f>C12/'Financial Model'!Z12</f>
-        <v>4.201097812097812</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="29"/>
+      <c r="C38" s="75">
+        <f>C12/'Financial Model'!AD12</f>
+        <v>12.376215953655182</v>
+      </c>
+      <c r="D38" s="76"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
@@ -1763,25 +1816,34 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C30:D30" r:id="rId1" display="Link" xr:uid="{07676FE1-E26A-AE4D-A21B-792EB2B848FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="259" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError xmlns:x16r3="http://schemas.microsoft.com/office/spreadsheetml/2018/08/main" sqref="D29" x16r3:misleadingFormat="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF52FD5-5387-455B-8CDC-129D27EFA8D5}">
-  <dimension ref="A1:CS80"/>
+  <dimension ref="A1:CU87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U24" sqref="U24"/>
+      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1789,454 +1851,478 @@
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="35"/>
+    <col min="4" max="4" width="9.140625" style="34"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="35"/>
+    <col min="6" max="6" width="9.140625" style="34"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="35"/>
+    <col min="8" max="8" width="9.140625" style="34"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="35"/>
+    <col min="10" max="10" width="9.140625" style="34"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="35"/>
+    <col min="12" max="12" width="9.140625" style="34"/>
     <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="35"/>
+    <col min="14" max="14" width="9.140625" style="34"/>
     <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="35"/>
-    <col min="17" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="9.140625" style="55"/>
-    <col min="28" max="35" width="9.140625" style="52"/>
-    <col min="36" max="36" width="9.140625" style="1"/>
-    <col min="37" max="37" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="34"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="34"/>
+    <col min="19" max="30" width="9.140625" style="1"/>
+    <col min="31" max="37" width="9.140625" style="46"/>
+    <col min="38" max="38" width="9.140625" style="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:97" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="2:99" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="25" t="s">
+      <c r="Q1" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="X1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="Y1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Z1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="AA1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AB1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AC1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AD1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AE1" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AF1" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AG1" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AH1" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AI1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AJ1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AK1" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="D2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="24">
+    <row r="2" spans="2:99" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="23">
         <v>44106</v>
       </c>
-      <c r="J2" s="37">
+      <c r="J2" s="36">
         <v>44288</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="23">
         <v>44470</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="24">
+      <c r="L2" s="32"/>
+      <c r="M2" s="23">
         <v>44834</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="24">
+      <c r="N2" s="36">
+        <f>AC2</f>
+        <v>45016</v>
+      </c>
+      <c r="O2" s="23">
         <v>45198</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="S2" s="24">
+      <c r="P2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="U2" s="23">
         <v>42097</v>
       </c>
-      <c r="T2" s="24">
+      <c r="V2" s="23">
         <v>42461</v>
       </c>
-      <c r="U2" s="24">
+      <c r="W2" s="23">
         <v>42825</v>
       </c>
-      <c r="V2" s="24">
+      <c r="X2" s="23">
         <v>43189</v>
       </c>
-      <c r="W2" s="24">
+      <c r="Y2" s="23">
         <v>43553</v>
       </c>
-      <c r="X2" s="24">
+      <c r="Z2" s="23">
         <v>43924</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="AA2" s="23">
         <v>44288</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AB2" s="23">
         <v>44652</v>
       </c>
-      <c r="AA2" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-    </row>
-    <row r="3" spans="2:97" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="21"/>
-      <c r="D3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="23">
+      <c r="AC2" s="23">
+        <v>45016</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>45380</v>
+      </c>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+    </row>
+    <row r="3" spans="2:99" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="22">
         <v>44510</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="23">
+      <c r="L3" s="32"/>
+      <c r="M3" s="22">
         <v>44868</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="92">
+      <c r="N3" s="32"/>
+      <c r="O3" s="66">
         <v>45259</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="T3" s="23">
+      <c r="P3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="V3" s="22">
         <v>42522</v>
       </c>
-      <c r="X3" s="23"/>
-      <c r="Z3" s="23">
+      <c r="Z3" s="22"/>
+      <c r="AB3" s="22">
         <v>44728</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-    </row>
-    <row r="4" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22">
+        <v>45470</v>
+      </c>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+    </row>
+    <row r="4" spans="2:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="D4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="2">
         <v>767.1</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="81">
+        <f>AC4-M4</f>
+        <v>805.6</v>
+      </c>
       <c r="O4" s="2">
         <v>873.5</v>
       </c>
-      <c r="P4" s="34"/>
-      <c r="S4" s="26">
+      <c r="P4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="U4" s="25">
         <v>1025.4000000000001</v>
       </c>
-      <c r="T4" s="26">
+      <c r="V4" s="25">
         <v>1021.5</v>
       </c>
-      <c r="U4" s="26">
+      <c r="W4" s="25">
         <v>1095</v>
       </c>
-      <c r="V4" s="26">
+      <c r="X4" s="25">
         <v>1135.0999999999999</v>
       </c>
-      <c r="W4" s="26">
+      <c r="Y4" s="25">
         <v>1138.5999999999999</v>
       </c>
-      <c r="X4" s="26">
+      <c r="Z4" s="25">
         <v>1155.0999999999999</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="AA4" s="25">
         <v>1292.3</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="AB4" s="25">
         <v>1369.6</v>
       </c>
-      <c r="AA4" s="47">
-        <f>Z4*(1+AA16)</f>
-        <v>1438.08</v>
-      </c>
-      <c r="AB4" s="48">
-        <f>AA4*(1+AB16)</f>
-        <v>1509.9839999999999</v>
-      </c>
-      <c r="AC4" s="48">
-        <f t="shared" ref="AC4:AI4" si="0">AB4*(1+AC16)</f>
-        <v>1555.28352</v>
-      </c>
-      <c r="AD4" s="48">
+      <c r="AC4" s="25">
+        <v>1572.7</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>1696.5</v>
+      </c>
+      <c r="AE4" s="44">
+        <f t="shared" ref="AE4:AK4" si="0">AD4*(1+AE16)</f>
+        <v>1713.4649999999999</v>
+      </c>
+      <c r="AF4" s="44">
         <f t="shared" si="0"/>
-        <v>1586.3891904</v>
-      </c>
-      <c r="AE4" s="48">
+        <v>1747.7342999999998</v>
+      </c>
+      <c r="AG4" s="44">
         <f t="shared" si="0"/>
-        <v>1618.1169742080001</v>
-      </c>
-      <c r="AF4" s="48">
+        <v>1782.6889859999999</v>
+      </c>
+      <c r="AH4" s="44">
         <f t="shared" si="0"/>
-        <v>1650.4793136921601</v>
-      </c>
-      <c r="AG4" s="48">
+        <v>1818.34276572</v>
+      </c>
+      <c r="AI4" s="44">
         <f t="shared" si="0"/>
-        <v>1683.4888999660034</v>
-      </c>
-      <c r="AH4" s="48">
+        <v>1854.7096210344</v>
+      </c>
+      <c r="AJ4" s="44">
         <f t="shared" si="0"/>
-        <v>1717.1586779653235</v>
-      </c>
-      <c r="AI4" s="48">
+        <v>1891.8038134550879</v>
+      </c>
+      <c r="AK4" s="44">
         <f t="shared" si="0"/>
-        <v>1751.50185152463</v>
-      </c>
-    </row>
-    <row r="5" spans="2:97" x14ac:dyDescent="0.2">
+        <v>1929.6398897241897</v>
+      </c>
+    </row>
+    <row r="5" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="M5" s="1">
         <v>384.6</v>
       </c>
+      <c r="N5" s="35">
+        <f>AC5-M5</f>
+        <v>419.4</v>
+      </c>
       <c r="O5" s="1">
         <v>456.2</v>
       </c>
-      <c r="S5" s="17">
+      <c r="U5" s="17">
         <v>479.1</v>
       </c>
-      <c r="T5" s="17">
+      <c r="V5" s="17">
         <v>478.4</v>
       </c>
-      <c r="U5" s="17">
+      <c r="W5" s="17">
         <v>536.4</v>
       </c>
-      <c r="V5" s="17">
+      <c r="X5" s="17">
         <v>564.9</v>
       </c>
-      <c r="W5" s="17">
+      <c r="Y5" s="17">
         <v>559.6</v>
       </c>
-      <c r="X5" s="17">
+      <c r="Z5" s="17">
         <v>565.4</v>
       </c>
-      <c r="Y5" s="17">
+      <c r="AA5" s="17">
         <v>636</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="AB5" s="17">
         <v>647.9</v>
       </c>
-      <c r="AA5" s="49">
-        <f>AA4*(1-AA19)</f>
-        <v>675.8975999999999</v>
-      </c>
-      <c r="AB5" s="50">
-        <f t="shared" ref="AB5:AI5" si="1">AB4*(1-AB19)</f>
-        <v>709.69247999999993</v>
-      </c>
-      <c r="AC5" s="50">
+      <c r="AC5" s="17">
+        <v>804</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>873.9</v>
+      </c>
+      <c r="AE5" s="45">
+        <f t="shared" ref="AE5:AK5" si="1">AE4*(1-AE19)</f>
+        <v>805.32854999999995</v>
+      </c>
+      <c r="AF5" s="45">
         <f t="shared" si="1"/>
-        <v>730.98325439999996</v>
-      </c>
-      <c r="AD5" s="50">
+        <v>821.43512099999987</v>
+      </c>
+      <c r="AG5" s="45">
         <f t="shared" si="1"/>
-        <v>745.60291948799988</v>
-      </c>
-      <c r="AE5" s="50">
+        <v>837.8638234199999</v>
+      </c>
+      <c r="AH5" s="45">
         <f t="shared" si="1"/>
-        <v>760.51497787775997</v>
-      </c>
-      <c r="AF5" s="50">
+        <v>854.62109988839995</v>
+      </c>
+      <c r="AI5" s="45">
         <f t="shared" si="1"/>
-        <v>775.72527743531521</v>
-      </c>
-      <c r="AG5" s="50">
+        <v>871.713521886168</v>
+      </c>
+      <c r="AJ5" s="45">
         <f t="shared" si="1"/>
-        <v>791.23978298402153</v>
-      </c>
-      <c r="AH5" s="50">
+        <v>889.14779232389128</v>
+      </c>
+      <c r="AK5" s="45">
         <f t="shared" si="1"/>
-        <v>807.06457864370202</v>
-      </c>
-      <c r="AI5" s="50">
-        <f t="shared" si="1"/>
-        <v>823.20587021657605</v>
-      </c>
-    </row>
-    <row r="6" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>906.93074817036916</v>
+      </c>
+    </row>
+    <row r="6" spans="2:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="2">
         <f>M4-M5</f>
         <v>382.5</v>
       </c>
-      <c r="N6" s="34"/>
+      <c r="N6" s="33">
+        <f>N4-N5</f>
+        <v>386.20000000000005</v>
+      </c>
       <c r="O6" s="2">
         <f>O4-O5</f>
         <v>417.3</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="S6" s="26">
-        <f t="shared" ref="S6:V6" si="2">S4-S5</f>
+      <c r="P6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="U6" s="25">
+        <f t="shared" ref="U6:X6" si="2">U4-U5</f>
         <v>546.30000000000007</v>
       </c>
-      <c r="T6" s="26">
+      <c r="V6" s="25">
         <f t="shared" si="2"/>
         <v>543.1</v>
       </c>
-      <c r="U6" s="26">
+      <c r="W6" s="25">
         <f t="shared" si="2"/>
         <v>558.6</v>
       </c>
-      <c r="V6" s="26">
+      <c r="X6" s="25">
         <f t="shared" si="2"/>
         <v>570.19999999999993</v>
       </c>
-      <c r="W6" s="26">
-        <f>W4-W5</f>
+      <c r="Y6" s="25">
+        <f>Y4-Y5</f>
         <v>578.99999999999989</v>
       </c>
-      <c r="X6" s="26">
-        <f>X4-X5</f>
+      <c r="Z6" s="25">
+        <f>Z4-Z5</f>
         <v>589.69999999999993</v>
       </c>
-      <c r="Y6" s="26">
-        <f>Y4-Y5</f>
+      <c r="AA6" s="25">
+        <f>AA4-AA5</f>
         <v>656.3</v>
       </c>
-      <c r="Z6" s="26">
-        <f>Z4-Z5</f>
+      <c r="AB6" s="25">
+        <f>AB4-AB5</f>
         <v>721.69999999999993</v>
       </c>
-      <c r="AA6" s="47">
-        <f>AA4-AA5</f>
-        <v>762.18240000000003</v>
-      </c>
-      <c r="AB6" s="26">
-        <f t="shared" ref="AB6:AI6" si="3">AB4-AB5</f>
-        <v>800.29151999999999</v>
-      </c>
-      <c r="AC6" s="26">
+      <c r="AC6" s="25">
+        <f>AC4-AC5</f>
+        <v>768.7</v>
+      </c>
+      <c r="AD6" s="25">
+        <f t="shared" ref="AD6:AK6" si="3">AD4-AD5</f>
+        <v>822.6</v>
+      </c>
+      <c r="AE6" s="25">
         <f t="shared" si="3"/>
-        <v>824.30026559999999</v>
-      </c>
-      <c r="AD6" s="26">
+        <v>908.13644999999997</v>
+      </c>
+      <c r="AF6" s="25">
         <f t="shared" si="3"/>
-        <v>840.78627091200008</v>
-      </c>
-      <c r="AE6" s="26">
+        <v>926.29917899999998</v>
+      </c>
+      <c r="AG6" s="25">
         <f t="shared" si="3"/>
-        <v>857.60199633024013</v>
-      </c>
-      <c r="AF6" s="26">
+        <v>944.82516257999998</v>
+      </c>
+      <c r="AH6" s="25">
         <f t="shared" si="3"/>
-        <v>874.75403625684487</v>
-      </c>
-      <c r="AG6" s="26">
+        <v>963.72166583160003</v>
+      </c>
+      <c r="AI6" s="25">
         <f t="shared" si="3"/>
-        <v>892.24911698198184</v>
-      </c>
-      <c r="AH6" s="26">
+        <v>982.99609914823202</v>
+      </c>
+      <c r="AJ6" s="25">
         <f t="shared" si="3"/>
-        <v>910.09409932162146</v>
-      </c>
-      <c r="AI6" s="26">
+        <v>1002.6560211311967</v>
+      </c>
+      <c r="AK6" s="25">
         <f t="shared" si="3"/>
-        <v>928.29598130805391</v>
-      </c>
-    </row>
-    <row r="7" spans="2:97" x14ac:dyDescent="0.2">
+        <v>1022.7091415538206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
@@ -2244,232 +2330,240 @@
         <f>358.7-0.3</f>
         <v>358.4</v>
       </c>
+      <c r="N7" s="35">
+        <f>AC7-M7</f>
+        <v>359.20000000000005</v>
+      </c>
       <c r="O7" s="1">
         <f>389.7+2</f>
         <v>391.7</v>
       </c>
-      <c r="S7" s="17">
+      <c r="U7" s="17">
         <v>459</v>
       </c>
-      <c r="T7" s="17">
+      <c r="V7" s="17">
         <v>460.3</v>
       </c>
-      <c r="U7" s="17">
+      <c r="W7" s="17">
         <v>484.9</v>
       </c>
-      <c r="V7" s="17">
+      <c r="X7" s="17">
         <v>500.4</v>
       </c>
-      <c r="W7" s="17">
+      <c r="Y7" s="17">
         <v>524.6</v>
       </c>
-      <c r="X7" s="17">
+      <c r="Z7" s="17">
         <v>556.70000000000005</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="AA7" s="17">
         <v>576.79999999999995</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="AB7" s="17">
         <v>613.79999999999995</v>
       </c>
-      <c r="AA7" s="49">
-        <f>Z7*1.085</f>
-        <v>665.97299999999996</v>
-      </c>
-      <c r="AB7" s="50">
-        <f>AA7*1.06</f>
-        <v>705.93137999999999</v>
-      </c>
-      <c r="AC7" s="50">
-        <f t="shared" ref="AC7" si="4">AB7*1.06</f>
-        <v>748.28726280000001</v>
-      </c>
-      <c r="AD7" s="50">
-        <f>AC7*1.03</f>
-        <v>770.73588068399999</v>
-      </c>
-      <c r="AE7" s="50">
-        <f t="shared" ref="AE7:AI7" si="5">AD7*1.03</f>
-        <v>793.85795710451998</v>
-      </c>
-      <c r="AF7" s="50">
+      <c r="AC7" s="17">
+        <v>717.6</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>770.7</v>
+      </c>
+      <c r="AE7" s="45">
+        <f t="shared" ref="AE7" si="4">AD7*1.06</f>
+        <v>816.94200000000012</v>
+      </c>
+      <c r="AF7" s="45">
+        <f>AE7*1.03</f>
+        <v>841.45026000000018</v>
+      </c>
+      <c r="AG7" s="45">
+        <f t="shared" ref="AG7:AK7" si="5">AF7*1.03</f>
+        <v>866.69376780000016</v>
+      </c>
+      <c r="AH7" s="45">
         <f t="shared" si="5"/>
-        <v>817.67369581765558</v>
-      </c>
-      <c r="AG7" s="50">
+        <v>892.69458083400013</v>
+      </c>
+      <c r="AI7" s="45">
         <f t="shared" si="5"/>
-        <v>842.20390669218523</v>
-      </c>
-      <c r="AH7" s="50">
+        <v>919.47541825902022</v>
+      </c>
+      <c r="AJ7" s="45">
         <f t="shared" si="5"/>
-        <v>867.47002389295085</v>
-      </c>
-      <c r="AI7" s="50">
+        <v>947.05968080679088</v>
+      </c>
+      <c r="AK7" s="45">
         <f t="shared" si="5"/>
-        <v>893.4941246097394</v>
-      </c>
-    </row>
-    <row r="8" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>975.47147123099467</v>
+      </c>
+    </row>
+    <row r="8" spans="2:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="2">
         <f>M6-M7</f>
         <v>24.100000000000023</v>
       </c>
-      <c r="N8" s="34"/>
+      <c r="N8" s="33">
+        <f>N6-N7</f>
+        <v>27</v>
+      </c>
       <c r="O8" s="2">
         <f>O6-O7</f>
         <v>25.600000000000023</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="S8" s="26">
-        <f t="shared" ref="S8:V8" si="6">S6-S7</f>
+      <c r="P8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="U8" s="25">
+        <f t="shared" ref="U8:X8" si="6">U6-U7</f>
         <v>87.300000000000068</v>
       </c>
-      <c r="T8" s="26">
+      <c r="V8" s="25">
         <f t="shared" si="6"/>
         <v>82.800000000000011</v>
       </c>
-      <c r="U8" s="26">
+      <c r="W8" s="25">
         <f t="shared" si="6"/>
         <v>73.700000000000045</v>
       </c>
-      <c r="V8" s="26">
+      <c r="X8" s="25">
         <f t="shared" si="6"/>
         <v>69.799999999999955</v>
       </c>
-      <c r="W8" s="26">
-        <f>W6-W7</f>
+      <c r="Y8" s="25">
+        <f>Y6-Y7</f>
         <v>54.399999999999864</v>
       </c>
-      <c r="X8" s="26">
-        <f>X6-X7</f>
+      <c r="Z8" s="25">
+        <f>Z6-Z7</f>
         <v>32.999999999999886</v>
       </c>
-      <c r="Y8" s="26">
-        <f>Y6-Y7</f>
+      <c r="AA8" s="25">
+        <f>AA6-AA7</f>
         <v>79.5</v>
       </c>
-      <c r="Z8" s="26">
-        <f>Z6-Z7</f>
+      <c r="AB8" s="25">
+        <f>AB6-AB7</f>
         <v>107.89999999999998</v>
       </c>
-      <c r="AA8" s="47">
-        <f>AA6-AA7</f>
-        <v>96.209400000000073</v>
-      </c>
-      <c r="AB8" s="26">
-        <f t="shared" ref="AB8:AI8" si="7">AB6-AB7</f>
-        <v>94.360140000000001</v>
-      </c>
-      <c r="AC8" s="26">
+      <c r="AC8" s="25">
+        <f>AC6-AC7</f>
+        <v>51.100000000000023</v>
+      </c>
+      <c r="AD8" s="25">
+        <f t="shared" ref="AD8:AK8" si="7">AD6-AD7</f>
+        <v>51.899999999999977</v>
+      </c>
+      <c r="AE8" s="25">
         <f t="shared" si="7"/>
-        <v>76.013002799999981</v>
-      </c>
-      <c r="AD8" s="26">
+        <v>91.194449999999847</v>
+      </c>
+      <c r="AF8" s="25">
         <f t="shared" si="7"/>
-        <v>70.050390228000083</v>
-      </c>
-      <c r="AE8" s="26">
+        <v>84.848918999999796</v>
+      </c>
+      <c r="AG8" s="25">
         <f t="shared" si="7"/>
-        <v>63.744039225720144</v>
-      </c>
-      <c r="AF8" s="26">
+        <v>78.131394779999823</v>
+      </c>
+      <c r="AH8" s="25">
         <f t="shared" si="7"/>
-        <v>57.080340439189285</v>
-      </c>
-      <c r="AG8" s="26">
+        <v>71.0270849975999</v>
+      </c>
+      <c r="AI8" s="25">
         <f t="shared" si="7"/>
-        <v>50.045210289796614</v>
-      </c>
-      <c r="AH8" s="26">
+        <v>63.520680889211803</v>
+      </c>
+      <c r="AJ8" s="25">
         <f t="shared" si="7"/>
-        <v>42.624075428670608</v>
-      </c>
-      <c r="AI8" s="26">
+        <v>55.596340324405787</v>
+      </c>
+      <c r="AK8" s="25">
         <f t="shared" si="7"/>
-        <v>34.801856698314509</v>
-      </c>
-    </row>
-    <row r="9" spans="2:97" x14ac:dyDescent="0.2">
+        <v>47.23767032282592</v>
+      </c>
+    </row>
+    <row r="9" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="M9" s="1">
         <v>5.4</v>
       </c>
+      <c r="N9" s="35">
+        <f>AC9-M9</f>
+        <v>6.6999999999999993</v>
+      </c>
       <c r="O9" s="1">
         <v>6.3</v>
       </c>
-      <c r="S9" s="17">
+      <c r="U9" s="17">
         <v>3.5</v>
       </c>
-      <c r="T9" s="17">
+      <c r="V9" s="17">
         <v>3</v>
       </c>
-      <c r="U9" s="17">
+      <c r="W9" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V9" s="17">
+      <c r="X9" s="17">
         <v>2.7</v>
       </c>
-      <c r="W9" s="17">
+      <c r="Y9" s="17">
         <v>3.4</v>
       </c>
-      <c r="X9" s="17">
+      <c r="Z9" s="17">
         <f>13.9-0.3</f>
         <v>13.6</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="AA9" s="17">
         <v>15</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="AB9" s="17">
         <v>11.3</v>
       </c>
-      <c r="AA9" s="49">
-        <f>AVERAGE(X9:Z9)</f>
-        <v>13.300000000000002</v>
-      </c>
-      <c r="AB9" s="50">
-        <f>AVERAGE(X9:AA9)</f>
-        <v>13.300000000000002</v>
-      </c>
-      <c r="AC9" s="50">
-        <f t="shared" ref="AC9:AI9" si="8">AVERAGE(Y9:AB9)</f>
-        <v>13.225000000000001</v>
-      </c>
-      <c r="AD9" s="50">
+      <c r="AC9" s="17">
+        <v>12.1</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>13.1</v>
+      </c>
+      <c r="AE9" s="45">
+        <f>AVERAGE(Z9:AD9)</f>
+        <v>13.020000000000001</v>
+      </c>
+      <c r="AF9" s="45">
+        <f t="shared" ref="AF9:AK9" si="8">AVERAGE(AA9:AE9)</f>
+        <v>12.904</v>
+      </c>
+      <c r="AG9" s="45">
         <f t="shared" si="8"/>
-        <v>12.781250000000002</v>
-      </c>
-      <c r="AE9" s="50">
+        <v>12.484800000000002</v>
+      </c>
+      <c r="AH9" s="45">
         <f t="shared" si="8"/>
-        <v>13.151562500000001</v>
-      </c>
-      <c r="AF9" s="50">
+        <v>12.72176</v>
+      </c>
+      <c r="AI9" s="45">
         <f t="shared" si="8"/>
-        <v>13.114453125000001</v>
-      </c>
-      <c r="AG9" s="50">
+        <v>12.846112</v>
+      </c>
+      <c r="AJ9" s="45">
         <f t="shared" si="8"/>
-        <v>13.068066406250001</v>
-      </c>
-      <c r="AH9" s="50">
+        <v>12.7953344</v>
+      </c>
+      <c r="AK9" s="45">
         <f t="shared" si="8"/>
-        <v>13.028833007812501</v>
-      </c>
-      <c r="AI9" s="50">
-        <f t="shared" si="8"/>
-        <v>13.090728759765627</v>
-      </c>
-    </row>
-    <row r="10" spans="2:97" x14ac:dyDescent="0.2">
+        <v>12.750401280000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
@@ -2477,80 +2571,84 @@
         <f>M8-M9</f>
         <v>18.700000000000024</v>
       </c>
+      <c r="N10" s="34">
+        <f>N8-N9</f>
+        <v>20.3</v>
+      </c>
       <c r="O10" s="1">
         <f>O8-O9</f>
         <v>19.300000000000022</v>
       </c>
-      <c r="S10" s="17">
-        <f t="shared" ref="S10:V10" si="9">S8-S9</f>
+      <c r="U10" s="17">
+        <f t="shared" ref="U10:X10" si="9">U8-U9</f>
         <v>83.800000000000068</v>
       </c>
-      <c r="T10" s="17">
+      <c r="V10" s="17">
         <f t="shared" si="9"/>
         <v>79.800000000000011</v>
       </c>
-      <c r="U10" s="17">
+      <c r="W10" s="17">
         <f t="shared" si="9"/>
         <v>71.400000000000048</v>
       </c>
-      <c r="V10" s="17">
+      <c r="X10" s="17">
         <f t="shared" si="9"/>
         <v>67.099999999999952</v>
       </c>
-      <c r="W10" s="17">
-        <f>W8-W9</f>
-        <v>50.999999999999865</v>
-      </c>
-      <c r="X10" s="17">
-        <f>X8-X9</f>
-        <v>19.399999999999885</v>
-      </c>
       <c r="Y10" s="17">
         <f>Y8-Y9</f>
-        <v>64.5</v>
+        <v>50.999999999999865</v>
       </c>
       <c r="Z10" s="17">
         <f>Z8-Z9</f>
+        <v>19.399999999999885</v>
+      </c>
+      <c r="AA10" s="17">
+        <f>AA8-AA9</f>
+        <v>64.5</v>
+      </c>
+      <c r="AB10" s="17">
+        <f>AB8-AB9</f>
         <v>96.59999999999998</v>
       </c>
-      <c r="AA10" s="49">
-        <f>AA8-AA9</f>
-        <v>82.909400000000076</v>
-      </c>
-      <c r="AB10" s="17">
-        <f t="shared" ref="AB10:AI10" si="10">AB8-AB9</f>
-        <v>81.060140000000004</v>
-      </c>
       <c r="AC10" s="17">
-        <f t="shared" si="10"/>
-        <v>62.78800279999998</v>
+        <f>AC8-AC9</f>
+        <v>39.000000000000021</v>
       </c>
       <c r="AD10" s="17">
-        <f t="shared" si="10"/>
-        <v>57.269140228000083</v>
+        <f t="shared" ref="AD10:AK10" si="10">AD8-AD9</f>
+        <v>38.799999999999976</v>
       </c>
       <c r="AE10" s="17">
         <f t="shared" si="10"/>
-        <v>50.592476725720147</v>
+        <v>78.174449999999851</v>
       </c>
       <c r="AF10" s="17">
         <f t="shared" si="10"/>
-        <v>43.965887314189288</v>
+        <v>71.9449189999998</v>
       </c>
       <c r="AG10" s="17">
         <f t="shared" si="10"/>
-        <v>36.977143883546617</v>
+        <v>65.646594779999816</v>
       </c>
       <c r="AH10" s="17">
         <f t="shared" si="10"/>
-        <v>29.595242420858106</v>
+        <v>58.305324997599897</v>
       </c>
       <c r="AI10" s="17">
         <f t="shared" si="10"/>
-        <v>21.711127938548884</v>
-      </c>
-    </row>
-    <row r="11" spans="2:97" x14ac:dyDescent="0.2">
+        <v>50.674568889211805</v>
+      </c>
+      <c r="AJ10" s="17">
+        <f t="shared" si="10"/>
+        <v>42.801005924405786</v>
+      </c>
+      <c r="AK10" s="17">
+        <f t="shared" si="10"/>
+        <v>34.487269042825915</v>
+      </c>
+    </row>
+    <row r="11" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
@@ -2558,1049 +2656,1098 @@
         <f>3.8+0.2</f>
         <v>4</v>
       </c>
+      <c r="N11" s="35">
+        <f>AC11-M11</f>
+        <v>6.8999999999999986</v>
+      </c>
       <c r="O11" s="1">
         <v>4.7</v>
       </c>
-      <c r="S11" s="17">
+      <c r="U11" s="17">
         <v>18</v>
       </c>
-      <c r="T11" s="17">
+      <c r="V11" s="17">
         <v>16.3</v>
       </c>
-      <c r="U11" s="17">
+      <c r="W11" s="17">
         <v>15</v>
       </c>
-      <c r="V11" s="17">
+      <c r="X11" s="17">
         <v>12.4</v>
       </c>
-      <c r="W11" s="17">
+      <c r="Y11" s="17">
         <v>9.1</v>
       </c>
-      <c r="X11" s="17">
+      <c r="Z11" s="17">
         <v>1.9</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="AA11" s="17">
         <v>11.3</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="AB11" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="AA11" s="49">
-        <f>AA10*AA22</f>
-        <v>16.581880000000016</v>
-      </c>
-      <c r="AB11" s="50">
-        <f t="shared" ref="AB11:AI11" si="11">AB10*AB22</f>
-        <v>16.212028</v>
-      </c>
-      <c r="AC11" s="50">
+      <c r="AC11" s="17">
+        <f>8.1+2.8</f>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AE11" s="45">
+        <f t="shared" ref="AE11:AK11" si="11">AE10*AE22</f>
+        <v>15.63488999999997</v>
+      </c>
+      <c r="AF11" s="45">
         <f t="shared" si="11"/>
-        <v>12.557600559999997</v>
-      </c>
-      <c r="AD11" s="50">
+        <v>14.388983799999961</v>
+      </c>
+      <c r="AG11" s="45">
         <f t="shared" si="11"/>
-        <v>11.453828045600018</v>
-      </c>
-      <c r="AE11" s="50">
+        <v>13.129318955999963</v>
+      </c>
+      <c r="AH11" s="45">
         <f t="shared" si="11"/>
-        <v>10.11849534514403</v>
-      </c>
-      <c r="AF11" s="50">
+        <v>11.661064999519979</v>
+      </c>
+      <c r="AI11" s="45">
         <f t="shared" si="11"/>
-        <v>8.7931774628378587</v>
-      </c>
-      <c r="AG11" s="50">
+        <v>10.134913777842362</v>
+      </c>
+      <c r="AJ11" s="45">
         <f t="shared" si="11"/>
-        <v>7.3954287767093234</v>
-      </c>
-      <c r="AH11" s="50">
+        <v>8.5602011848811568</v>
+      </c>
+      <c r="AK11" s="45">
         <f t="shared" si="11"/>
-        <v>5.919048484171622</v>
-      </c>
-      <c r="AI11" s="50">
-        <f t="shared" si="11"/>
-        <v>4.3422255877097768</v>
-      </c>
-    </row>
-    <row r="12" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.8974538085651833</v>
+      </c>
+    </row>
+    <row r="12" spans="2:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="L12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="2">
         <f>M10-M11</f>
         <v>14.700000000000024</v>
       </c>
-      <c r="N12" s="34"/>
+      <c r="N12" s="33">
+        <f>N10-N11</f>
+        <v>13.400000000000002</v>
+      </c>
       <c r="O12" s="2">
         <f>O10-O11</f>
         <v>14.600000000000023</v>
       </c>
-      <c r="P12" s="34"/>
-      <c r="S12" s="26">
-        <f t="shared" ref="S12:V12" si="12">S10-S11</f>
+      <c r="P12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="U12" s="25">
+        <f t="shared" ref="U12:X12" si="12">U10-U11</f>
         <v>65.800000000000068</v>
       </c>
-      <c r="T12" s="26">
+      <c r="V12" s="25">
         <f t="shared" si="12"/>
         <v>63.500000000000014</v>
       </c>
-      <c r="U12" s="26">
+      <c r="W12" s="25">
         <f t="shared" si="12"/>
         <v>56.400000000000048</v>
       </c>
-      <c r="V12" s="26">
+      <c r="X12" s="25">
         <f t="shared" si="12"/>
         <v>54.699999999999953</v>
       </c>
-      <c r="W12" s="26">
-        <f>W10-W11</f>
+      <c r="Y12" s="25">
+        <f>Y10-Y11</f>
         <v>41.899999999999864</v>
       </c>
-      <c r="X12" s="26">
-        <f>X10-X11</f>
+      <c r="Z12" s="25">
+        <f>Z10-Z11</f>
         <v>17.499999999999886</v>
       </c>
-      <c r="Y12" s="26">
-        <f>Y10-Y11</f>
+      <c r="AA12" s="25">
+        <f>AA10-AA11</f>
         <v>53.2</v>
       </c>
-      <c r="Z12" s="26">
-        <f>Z10-Z11</f>
+      <c r="AB12" s="25">
+        <f>AB10-AB11</f>
         <v>77.699999999999989</v>
       </c>
-      <c r="AA12" s="47">
-        <f>AA10-AA11</f>
-        <v>66.327520000000064</v>
-      </c>
-      <c r="AB12" s="26">
-        <f t="shared" ref="AB12:AI12" si="13">AB10-AB11</f>
-        <v>64.848112</v>
-      </c>
-      <c r="AC12" s="26">
+      <c r="AC12" s="25">
+        <f>AC10-AC11</f>
+        <v>28.100000000000023</v>
+      </c>
+      <c r="AD12" s="25">
+        <f t="shared" ref="AD12:AK12" si="13">AD10-AD11</f>
+        <v>28.999999999999975</v>
+      </c>
+      <c r="AE12" s="25">
         <f t="shared" si="13"/>
-        <v>50.230402239999982</v>
-      </c>
-      <c r="AD12" s="26">
+        <v>62.539559999999881</v>
+      </c>
+      <c r="AF12" s="25">
         <f t="shared" si="13"/>
-        <v>45.815312182400064</v>
-      </c>
-      <c r="AE12" s="26">
+        <v>57.555935199999837</v>
+      </c>
+      <c r="AG12" s="25">
         <f t="shared" si="13"/>
-        <v>40.47398138057612</v>
-      </c>
-      <c r="AF12" s="26">
+        <v>52.517275823999853</v>
+      </c>
+      <c r="AH12" s="25">
         <f t="shared" si="13"/>
-        <v>35.172709851351428</v>
-      </c>
-      <c r="AG12" s="26">
+        <v>46.644259998079917</v>
+      </c>
+      <c r="AI12" s="25">
         <f t="shared" si="13"/>
-        <v>29.581715106837294</v>
-      </c>
-      <c r="AH12" s="26">
+        <v>40.539655111369441</v>
+      </c>
+      <c r="AJ12" s="25">
         <f t="shared" si="13"/>
-        <v>23.676193936686484</v>
-      </c>
-      <c r="AI12" s="26">
+        <v>34.240804739524627</v>
+      </c>
+      <c r="AK12" s="25">
         <f t="shared" si="13"/>
-        <v>17.368902350839107</v>
-      </c>
-      <c r="AJ12" s="26">
-        <f>AI12*(1+$AL$19)</f>
-        <v>17.542591374347499</v>
-      </c>
-      <c r="AK12" s="26">
-        <f t="shared" ref="AK12:CS12" si="14">AJ12*(1+$AL$19)</f>
-        <v>17.718017288090973</v>
-      </c>
-      <c r="AL12" s="26">
+        <v>27.589815234260733</v>
+      </c>
+      <c r="AL12" s="25">
+        <f>AK12*(1+$AN$19)</f>
+        <v>27.865713386603339</v>
+      </c>
+      <c r="AM12" s="25">
+        <f t="shared" ref="AM12:CU12" si="14">AL12*(1+$AN$19)</f>
+        <v>28.144370520469373</v>
+      </c>
+      <c r="AN12" s="25">
         <f t="shared" si="14"/>
-        <v>17.895197460971882</v>
-      </c>
-      <c r="AM12" s="26">
+        <v>28.425814225674067</v>
+      </c>
+      <c r="AO12" s="25">
         <f t="shared" si="14"/>
-        <v>18.074149435581603</v>
-      </c>
-      <c r="AN12" s="26">
+        <v>28.710072367930806</v>
+      </c>
+      <c r="AP12" s="25">
         <f t="shared" si="14"/>
-        <v>18.254890929937421</v>
-      </c>
-      <c r="AO12" s="26">
+        <v>28.997173091610115</v>
+      </c>
+      <c r="AQ12" s="25">
         <f t="shared" si="14"/>
-        <v>18.437439839236795</v>
-      </c>
-      <c r="AP12" s="26">
+        <v>29.287144822526216</v>
+      </c>
+      <c r="AR12" s="25">
         <f t="shared" si="14"/>
-        <v>18.621814237629163</v>
-      </c>
-      <c r="AQ12" s="26">
+        <v>29.580016270751479</v>
+      </c>
+      <c r="AS12" s="25">
         <f t="shared" si="14"/>
-        <v>18.808032380005454</v>
-      </c>
-      <c r="AR12" s="26">
+        <v>29.875816433458994</v>
+      </c>
+      <c r="AT12" s="25">
         <f t="shared" si="14"/>
-        <v>18.996112703805508</v>
-      </c>
-      <c r="AS12" s="26">
+        <v>30.174574597793583</v>
+      </c>
+      <c r="AU12" s="25">
         <f t="shared" si="14"/>
-        <v>19.186073830843565</v>
-      </c>
-      <c r="AT12" s="26">
+        <v>30.476320343771519</v>
+      </c>
+      <c r="AV12" s="25">
         <f t="shared" si="14"/>
-        <v>19.377934569152</v>
-      </c>
-      <c r="AU12" s="26">
+        <v>30.781083547209235</v>
+      </c>
+      <c r="AW12" s="25">
         <f t="shared" si="14"/>
-        <v>19.571713914843521</v>
-      </c>
-      <c r="AV12" s="26">
+        <v>31.088894382681328</v>
+      </c>
+      <c r="AX12" s="25">
         <f t="shared" si="14"/>
-        <v>19.767431053991956</v>
-      </c>
-      <c r="AW12" s="26">
+        <v>31.399783326508143</v>
+      </c>
+      <c r="AY12" s="25">
         <f t="shared" si="14"/>
-        <v>19.965105364531876</v>
-      </c>
-      <c r="AX12" s="26">
+        <v>31.713781159773223</v>
+      </c>
+      <c r="AZ12" s="25">
         <f t="shared" si="14"/>
-        <v>20.164756418177195</v>
-      </c>
-      <c r="AY12" s="26">
+        <v>32.030918971370959</v>
+      </c>
+      <c r="BA12" s="25">
         <f t="shared" si="14"/>
-        <v>20.366403982358968</v>
-      </c>
-      <c r="AZ12" s="26">
+        <v>32.35122816108467</v>
+      </c>
+      <c r="BB12" s="25">
         <f t="shared" si="14"/>
-        <v>20.570068022182557</v>
-      </c>
-      <c r="BA12" s="26">
+        <v>32.674740442695516</v>
+      </c>
+      <c r="BC12" s="25">
         <f t="shared" si="14"/>
-        <v>20.775768702404385</v>
-      </c>
-      <c r="BB12" s="26">
+        <v>33.001487847122469</v>
+      </c>
+      <c r="BD12" s="25">
         <f t="shared" si="14"/>
-        <v>20.98352638942843</v>
-      </c>
-      <c r="BC12" s="26">
+        <v>33.331502725593694</v>
+      </c>
+      <c r="BE12" s="25">
         <f t="shared" si="14"/>
-        <v>21.193361653322714</v>
-      </c>
-      <c r="BD12" s="26">
+        <v>33.664817752849629</v>
+      </c>
+      <c r="BF12" s="25">
         <f t="shared" si="14"/>
-        <v>21.405295269855941</v>
-      </c>
-      <c r="BE12" s="26">
+        <v>34.001465930378124</v>
+      </c>
+      <c r="BG12" s="25">
         <f t="shared" si="14"/>
-        <v>21.6193482225545</v>
-      </c>
-      <c r="BF12" s="26">
+        <v>34.341480589681908</v>
+      </c>
+      <c r="BH12" s="25">
         <f t="shared" si="14"/>
-        <v>21.835541704780045</v>
-      </c>
-      <c r="BG12" s="26">
+        <v>34.684895395578728</v>
+      </c>
+      <c r="BI12" s="25">
         <f t="shared" si="14"/>
-        <v>22.053897121827845</v>
-      </c>
-      <c r="BH12" s="26">
+        <v>35.031744349534513</v>
+      </c>
+      <c r="BJ12" s="25">
         <f t="shared" si="14"/>
-        <v>22.274436093046123</v>
-      </c>
-      <c r="BI12" s="26">
+        <v>35.382061793029855</v>
+      </c>
+      <c r="BK12" s="25">
         <f t="shared" si="14"/>
-        <v>22.497180453976586</v>
-      </c>
-      <c r="BJ12" s="26">
+        <v>35.735882410960151</v>
+      </c>
+      <c r="BL12" s="25">
         <f t="shared" si="14"/>
-        <v>22.722152258516353</v>
-      </c>
-      <c r="BK12" s="26">
+        <v>36.093241235069755</v>
+      </c>
+      <c r="BM12" s="25">
         <f t="shared" si="14"/>
-        <v>22.949373781101517</v>
-      </c>
-      <c r="BL12" s="26">
+        <v>36.454173647420454</v>
+      </c>
+      <c r="BN12" s="25">
         <f t="shared" si="14"/>
-        <v>23.178867518912533</v>
-      </c>
-      <c r="BM12" s="26">
+        <v>36.818715383894656</v>
+      </c>
+      <c r="BO12" s="25">
         <f t="shared" si="14"/>
-        <v>23.410656194101659</v>
-      </c>
-      <c r="BN12" s="26">
+        <v>37.186902537733602</v>
+      </c>
+      <c r="BP12" s="25">
         <f t="shared" si="14"/>
-        <v>23.644762756042674</v>
-      </c>
-      <c r="BO12" s="26">
+        <v>37.558771563110938</v>
+      </c>
+      <c r="BQ12" s="25">
         <f t="shared" si="14"/>
-        <v>23.881210383603101</v>
-      </c>
-      <c r="BP12" s="26">
+        <v>37.93435927874205</v>
+      </c>
+      <c r="BR12" s="25">
         <f t="shared" si="14"/>
-        <v>24.120022487439133</v>
-      </c>
-      <c r="BQ12" s="26">
+        <v>38.313702871529472</v>
+      </c>
+      <c r="BS12" s="25">
         <f t="shared" si="14"/>
-        <v>24.361222712313523</v>
-      </c>
-      <c r="BR12" s="26">
+        <v>38.696839900244768</v>
+      </c>
+      <c r="BT12" s="25">
         <f t="shared" si="14"/>
-        <v>24.60483493943666</v>
-      </c>
-      <c r="BS12" s="26">
+        <v>39.083808299247217</v>
+      </c>
+      <c r="BU12" s="25">
         <f t="shared" si="14"/>
-        <v>24.850883288831028</v>
-      </c>
-      <c r="BT12" s="26">
+        <v>39.47464638223969</v>
+      </c>
+      <c r="BV12" s="25">
         <f t="shared" si="14"/>
-        <v>25.09939212171934</v>
-      </c>
-      <c r="BU12" s="26">
+        <v>39.869392846062091</v>
+      </c>
+      <c r="BW12" s="25">
         <f t="shared" si="14"/>
-        <v>25.350386042936535</v>
-      </c>
-      <c r="BV12" s="26">
+        <v>40.268086774522715</v>
+      </c>
+      <c r="BX12" s="25">
         <f t="shared" si="14"/>
-        <v>25.6038899033659</v>
-      </c>
-      <c r="BW12" s="26">
+        <v>40.67076764226794</v>
+      </c>
+      <c r="BY12" s="25">
         <f t="shared" si="14"/>
-        <v>25.859928802399558</v>
-      </c>
-      <c r="BX12" s="26">
+        <v>41.077475318690617</v>
+      </c>
+      <c r="BZ12" s="25">
         <f t="shared" si="14"/>
-        <v>26.118528090423553</v>
-      </c>
-      <c r="BY12" s="26">
+        <v>41.488250071877523</v>
+      </c>
+      <c r="CA12" s="25">
         <f t="shared" si="14"/>
-        <v>26.379713371327789</v>
-      </c>
-      <c r="BZ12" s="26">
+        <v>41.903132572596299</v>
+      </c>
+      <c r="CB12" s="25">
         <f t="shared" si="14"/>
-        <v>26.643510505041068</v>
-      </c>
-      <c r="CA12" s="26">
+        <v>42.322163898322259</v>
+      </c>
+      <c r="CC12" s="25">
         <f t="shared" si="14"/>
-        <v>26.90994561009148</v>
-      </c>
-      <c r="CB12" s="26">
+        <v>42.745385537305481</v>
+      </c>
+      <c r="CD12" s="25">
         <f t="shared" si="14"/>
-        <v>27.179045066192394</v>
-      </c>
-      <c r="CC12" s="26">
+        <v>43.172839392678533</v>
+      </c>
+      <c r="CE12" s="25">
         <f t="shared" si="14"/>
-        <v>27.450835516854319</v>
-      </c>
-      <c r="CD12" s="26">
+        <v>43.604567786605315</v>
+      </c>
+      <c r="CF12" s="25">
         <f t="shared" si="14"/>
-        <v>27.725343872022862</v>
-      </c>
-      <c r="CE12" s="26">
+        <v>44.04061346447137</v>
+      </c>
+      <c r="CG12" s="25">
         <f t="shared" si="14"/>
-        <v>28.002597310743091</v>
-      </c>
-      <c r="CF12" s="26">
+        <v>44.481019599116081</v>
+      </c>
+      <c r="CH12" s="25">
         <f t="shared" si="14"/>
-        <v>28.282623283850523</v>
-      </c>
-      <c r="CG12" s="26">
+        <v>44.925829795107241</v>
+      </c>
+      <c r="CI12" s="25">
         <f t="shared" si="14"/>
-        <v>28.565449516689029</v>
-      </c>
-      <c r="CH12" s="26">
+        <v>45.375088093058316</v>
+      </c>
+      <c r="CJ12" s="25">
         <f t="shared" si="14"/>
-        <v>28.85110401185592</v>
-      </c>
-      <c r="CI12" s="26">
+        <v>45.828838973988901</v>
+      </c>
+      <c r="CK12" s="25">
         <f t="shared" si="14"/>
-        <v>29.139615051974481</v>
-      </c>
-      <c r="CJ12" s="26">
+        <v>46.287127363728793</v>
+      </c>
+      <c r="CL12" s="25">
         <f t="shared" si="14"/>
-        <v>29.431011202494226</v>
-      </c>
-      <c r="CK12" s="26">
+        <v>46.749998637366083</v>
+      </c>
+      <c r="CM12" s="25">
         <f t="shared" si="14"/>
-        <v>29.725321314519167</v>
-      </c>
-      <c r="CL12" s="26">
+        <v>47.217498623739743</v>
+      </c>
+      <c r="CN12" s="25">
         <f t="shared" si="14"/>
-        <v>30.022574527664361</v>
-      </c>
-      <c r="CM12" s="26">
+        <v>47.689673609977142</v>
+      </c>
+      <c r="CO12" s="25">
         <f t="shared" si="14"/>
-        <v>30.322800272941006</v>
-      </c>
-      <c r="CN12" s="26">
+        <v>48.166570346076917</v>
+      </c>
+      <c r="CP12" s="25">
         <f t="shared" si="14"/>
-        <v>30.626028275670418</v>
-      </c>
-      <c r="CO12" s="26">
+        <v>48.648236049537687</v>
+      </c>
+      <c r="CQ12" s="25">
         <f t="shared" si="14"/>
-        <v>30.932288558427121</v>
-      </c>
-      <c r="CP12" s="26">
+        <v>49.134718410033067</v>
+      </c>
+      <c r="CR12" s="25">
         <f t="shared" si="14"/>
-        <v>31.241611444011394</v>
-      </c>
-      <c r="CQ12" s="26">
+        <v>49.626065594133401</v>
+      </c>
+      <c r="CS12" s="25">
         <f t="shared" si="14"/>
-        <v>31.554027558451509</v>
-      </c>
-      <c r="CR12" s="26">
+        <v>50.122326250074735</v>
+      </c>
+      <c r="CT12" s="25">
         <f t="shared" si="14"/>
-        <v>31.869567834036022</v>
-      </c>
-      <c r="CS12" s="26">
+        <v>50.623549512575487</v>
+      </c>
+      <c r="CU12" s="25">
         <f t="shared" si="14"/>
-        <v>32.188263512376381</v>
-      </c>
-    </row>
-    <row r="13" spans="2:97" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
+        <v>51.129785007701244</v>
+      </c>
+    </row>
+    <row r="13" spans="2:99" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="27">
+      <c r="D13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="26">
         <f>M12/M14</f>
         <v>6.5566458519179416E-2</v>
       </c>
-      <c r="N13" s="93"/>
-      <c r="O13" s="27">
+      <c r="N13" s="67">
+        <f>N12/N14</f>
+        <v>6.1637534498620063E-2</v>
+      </c>
+      <c r="O13" s="26">
         <f>O12/O14</f>
         <v>6.4345526663728614E-2</v>
       </c>
-      <c r="P13" s="93"/>
-      <c r="S13" s="27">
-        <f t="shared" ref="S13:U13" si="15">S12/S14</f>
+      <c r="P13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="U13" s="26">
+        <f t="shared" ref="U13:W13" si="15">U12/U14</f>
         <v>0.33333333333333365</v>
       </c>
-      <c r="T13" s="27">
+      <c r="V13" s="26">
         <f t="shared" si="15"/>
         <v>0.32348446255731028</v>
       </c>
-      <c r="U13" s="27">
+      <c r="W13" s="26">
         <f t="shared" si="15"/>
         <v>0.28614916286149189</v>
       </c>
-      <c r="V13" s="27">
-        <f t="shared" ref="V13" si="16">V12/V14</f>
+      <c r="X13" s="26">
+        <f t="shared" ref="X13" si="16">X12/X14</f>
         <v>0.2754279959718024</v>
       </c>
-      <c r="W13" s="27">
-        <f t="shared" ref="W13:AB13" si="17">W12/W14</f>
+      <c r="Y13" s="26">
+        <f t="shared" ref="Y13:AD13" si="17">Y12/Y14</f>
         <v>0.21044701155198325</v>
       </c>
-      <c r="X13" s="27">
+      <c r="Z13" s="26">
         <f t="shared" si="17"/>
         <v>8.7895529884479587E-2</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="AA13" s="26">
         <f t="shared" si="17"/>
         <v>0.26720241084881974</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="AB13" s="26">
         <f t="shared" si="17"/>
         <v>0.37773456490034024</v>
       </c>
-      <c r="AA13" s="51">
+      <c r="AC13" s="26">
         <f t="shared" si="17"/>
-        <v>0.32244783665532362</v>
-      </c>
-      <c r="AB13" s="64">
+        <v>0.12925482980680783</v>
+      </c>
+      <c r="AD13" s="26">
         <f t="shared" si="17"/>
-        <v>0.31525577053962084</v>
-      </c>
-      <c r="AC13" s="64">
-        <f t="shared" ref="AC13:AI13" si="18">AC12/AC14</f>
-        <v>0.244192524258629</v>
-      </c>
-      <c r="AD13" s="64">
+        <v>0.13339466421343135</v>
+      </c>
+      <c r="AE13" s="52">
+        <f t="shared" ref="AE13:AK13" si="18">AE12/AE14</f>
+        <v>0.28767046918123218</v>
+      </c>
+      <c r="AF13" s="52">
         <f t="shared" si="18"/>
-        <v>0.22272879038599935</v>
-      </c>
-      <c r="AE13" s="64">
+        <v>0.26474671205151717</v>
+      </c>
+      <c r="AG13" s="52">
         <f t="shared" si="18"/>
-        <v>0.19676218464062287</v>
-      </c>
-      <c r="AF13" s="64">
+        <v>0.24156980599815939</v>
+      </c>
+      <c r="AH13" s="52">
         <f t="shared" si="18"/>
-        <v>0.1709903249944163</v>
-      </c>
-      <c r="AG13" s="64">
+        <v>0.21455501379061598</v>
+      </c>
+      <c r="AI13" s="52">
         <f t="shared" si="18"/>
-        <v>0.1438099907964866</v>
-      </c>
-      <c r="AH13" s="64">
+        <v>0.18647495451411886</v>
+      </c>
+      <c r="AJ13" s="52">
         <f t="shared" si="18"/>
-        <v>0.11510060251184485</v>
-      </c>
-      <c r="AI13" s="64">
+        <v>0.15750140174574345</v>
+      </c>
+      <c r="AK13" s="52">
         <f t="shared" si="18"/>
-        <v>8.4438027957409373E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:97" x14ac:dyDescent="0.2">
+        <v>0.12690807375464919</v>
+      </c>
+    </row>
+    <row r="14" spans="2:99" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="1">
         <v>224.2</v>
       </c>
+      <c r="N14" s="35">
+        <f>AC14</f>
+        <v>217.4</v>
+      </c>
       <c r="O14" s="1">
         <v>226.9</v>
       </c>
-      <c r="S14" s="1">
+      <c r="U14" s="1">
         <v>197.4</v>
       </c>
-      <c r="T14" s="1">
+      <c r="V14" s="1">
         <v>196.3</v>
       </c>
-      <c r="U14" s="1">
+      <c r="W14" s="1">
         <v>197.1</v>
       </c>
-      <c r="V14" s="1">
+      <c r="X14" s="1">
         <v>198.6</v>
-      </c>
-      <c r="W14" s="1">
-        <v>199.1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>199.1</v>
       </c>
       <c r="Y14" s="1">
         <v>199.1</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="Z14" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>199.1</v>
+      </c>
+      <c r="AB14" s="17">
         <v>205.7</v>
       </c>
-      <c r="AA14" s="49">
-        <f>Z14</f>
-        <v>205.7</v>
-      </c>
-      <c r="AB14" s="50">
-        <f>AA14</f>
-        <v>205.7</v>
-      </c>
-      <c r="AC14" s="50">
-        <f t="shared" ref="AC14:AI14" si="19">AB14</f>
-        <v>205.7</v>
-      </c>
-      <c r="AD14" s="50">
+      <c r="AC14" s="17">
+        <v>217.4</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>217.4</v>
+      </c>
+      <c r="AE14" s="45">
+        <f t="shared" ref="AE14:AK14" si="19">AD14</f>
+        <v>217.4</v>
+      </c>
+      <c r="AF14" s="45">
         <f t="shared" si="19"/>
-        <v>205.7</v>
-      </c>
-      <c r="AE14" s="50">
+        <v>217.4</v>
+      </c>
+      <c r="AG14" s="45">
         <f t="shared" si="19"/>
-        <v>205.7</v>
-      </c>
-      <c r="AF14" s="50">
+        <v>217.4</v>
+      </c>
+      <c r="AH14" s="45">
         <f t="shared" si="19"/>
-        <v>205.7</v>
-      </c>
-      <c r="AG14" s="50">
+        <v>217.4</v>
+      </c>
+      <c r="AI14" s="45">
         <f t="shared" si="19"/>
-        <v>205.7</v>
-      </c>
-      <c r="AH14" s="50">
+        <v>217.4</v>
+      </c>
+      <c r="AJ14" s="45">
         <f t="shared" si="19"/>
-        <v>205.7</v>
-      </c>
-      <c r="AI14" s="50">
+        <v>217.4</v>
+      </c>
+      <c r="AK14" s="45">
         <f t="shared" si="19"/>
-        <v>205.7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:97" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>217.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:99" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="28">
+      <c r="D16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="27">
         <f>O4/M4-1</f>
         <v>0.13870421066353789</v>
       </c>
-      <c r="P16" s="34"/>
-      <c r="T16" s="28">
-        <f t="shared" ref="T16" si="20">T4/S4-1</f>
+      <c r="P16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="V16" s="27">
+        <f t="shared" ref="V16" si="20">V4/U4-1</f>
         <v>-3.8033937975424648E-3</v>
       </c>
-      <c r="U16" s="28">
-        <f t="shared" ref="U16" si="21">U4/T4-1</f>
+      <c r="W16" s="27">
+        <f t="shared" ref="W16" si="21">W4/V4-1</f>
         <v>7.1953010279001361E-2</v>
       </c>
-      <c r="V16" s="28">
-        <f t="shared" ref="V16:W16" si="22">V4/U4-1</f>
+      <c r="X16" s="27">
+        <f t="shared" ref="X16:Y16" si="22">X4/W4-1</f>
         <v>3.6621004566209869E-2</v>
       </c>
-      <c r="W16" s="28">
+      <c r="Y16" s="27">
         <f t="shared" si="22"/>
         <v>3.0834287727954379E-3</v>
       </c>
-      <c r="X16" s="28">
-        <f>X4/W4-1</f>
+      <c r="Z16" s="27">
+        <f>Z4/Y4-1</f>
         <v>1.4491480765852716E-2</v>
       </c>
-      <c r="Y16" s="28">
-        <f>Y4/X4-1</f>
+      <c r="AA16" s="27">
+        <f>AA4/Z4-1</f>
         <v>0.11877759501341889</v>
       </c>
-      <c r="Z16" s="28">
-        <f>Z4/Y4-1</f>
+      <c r="AB16" s="27">
+        <f>AB4/AA4-1</f>
         <v>5.9815832237096522E-2</v>
       </c>
-      <c r="AA16" s="53">
+      <c r="AC16" s="27">
         <v>0.05</v>
       </c>
-      <c r="AB16" s="54">
+      <c r="AD16" s="27">
         <v>0.05</v>
       </c>
-      <c r="AC16" s="54">
-        <v>0.03</v>
-      </c>
-      <c r="AD16" s="54">
+      <c r="AE16" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="AF16" s="47">
         <v>0.02</v>
       </c>
-      <c r="AE16" s="54">
+      <c r="AG16" s="47">
         <v>0.02</v>
       </c>
-      <c r="AF16" s="54">
+      <c r="AH16" s="47">
         <v>0.02</v>
       </c>
-      <c r="AG16" s="54">
+      <c r="AI16" s="47">
         <v>0.02</v>
       </c>
-      <c r="AH16" s="54">
+      <c r="AJ16" s="47">
         <v>0.02</v>
       </c>
-      <c r="AI16" s="54">
+      <c r="AK16" s="47">
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:40" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="S17" s="19" t="s">
+      <c r="D17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="N17" s="39">
+        <f>N4/M4-1</f>
+        <v>5.0189023595359039E-2</v>
+      </c>
+      <c r="O17" s="28">
+        <f>O4/N4-1</f>
+        <v>8.4285004965243271E-2</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="U17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="V17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="19" t="s">
+      <c r="W17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="V17" s="19" t="s">
+      <c r="X17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="W17" s="19" t="s">
+      <c r="Y17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="X17" s="19" t="s">
+      <c r="Z17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="Y17" s="19" t="s">
+      <c r="AA17" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="Z17" s="19" t="s">
+      <c r="AB17" s="85" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AC17" s="85"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="28">
         <f>M6/M4</f>
         <v>0.49863120844739928</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="29">
+      <c r="N19" s="39">
+        <f>N6/N4</f>
+        <v>0.47939424031777561</v>
+      </c>
+      <c r="O19" s="28">
         <f>O6/O4</f>
         <v>0.47773325701202063</v>
       </c>
-      <c r="S19" s="29">
-        <f t="shared" ref="S19:T19" si="23">S6/S4</f>
+      <c r="U19" s="28">
+        <f t="shared" ref="U19:V19" si="23">U6/U4</f>
         <v>0.53276770040959631</v>
       </c>
-      <c r="T19" s="29">
+      <c r="V19" s="28">
         <f t="shared" si="23"/>
         <v>0.53166911404796868</v>
       </c>
-      <c r="U19" s="29">
-        <f t="shared" ref="U19:W19" si="24">U6/U4</f>
+      <c r="W19" s="28">
+        <f t="shared" ref="W19:Y19" si="24">W6/W4</f>
         <v>0.51013698630136983</v>
       </c>
-      <c r="V19" s="29">
+      <c r="X19" s="28">
         <f t="shared" si="24"/>
         <v>0.50233459607083075</v>
       </c>
-      <c r="W19" s="29">
+      <c r="Y19" s="28">
         <f t="shared" si="24"/>
         <v>0.50851923414719824</v>
       </c>
-      <c r="X19" s="29">
-        <f t="shared" ref="X19:Y19" si="25">X6/X4</f>
+      <c r="Z19" s="28">
+        <f t="shared" ref="Z19:AA19" si="25">Z6/Z4</f>
         <v>0.51051856982079469</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="AA19" s="28">
         <f t="shared" si="25"/>
         <v>0.50785421341793702</v>
       </c>
-      <c r="Z19" s="29">
-        <f>Z6/Z4</f>
+      <c r="AB19" s="28">
+        <f>AB6/AB4</f>
         <v>0.52694217289719625</v>
       </c>
-      <c r="AA19" s="56">
+      <c r="AC19" s="28">
         <v>0.53</v>
       </c>
-      <c r="AB19" s="59">
+      <c r="AD19" s="28">
         <v>0.53</v>
       </c>
-      <c r="AC19" s="59">
+      <c r="AE19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AD19" s="59">
+      <c r="AF19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AE19" s="59">
+      <c r="AG19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AF19" s="59">
+      <c r="AH19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AG19" s="59">
+      <c r="AI19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AH19" s="59">
+      <c r="AJ19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AI19" s="59">
+      <c r="AK19" s="49">
         <v>0.53</v>
       </c>
-      <c r="AK19" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL19" s="66">
+      <c r="AM19" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN19" s="54">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="28">
         <f>M8/M4</f>
         <v>3.1417025159692379E-2</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="29">
+      <c r="N20" s="39">
+        <f>N8/N4</f>
+        <v>3.3515392254220455E-2</v>
+      </c>
+      <c r="O20" s="28">
         <f>O8/O4</f>
         <v>2.9307384087006321E-2</v>
       </c>
-      <c r="S20" s="29">
-        <f t="shared" ref="S20:T20" si="26">S8/S4</f>
+      <c r="U20" s="28">
+        <f t="shared" ref="U20:V20" si="26">U8/U4</f>
         <v>8.5137507314218902E-2</v>
       </c>
-      <c r="T20" s="29">
+      <c r="V20" s="28">
         <f t="shared" si="26"/>
         <v>8.1057268722466977E-2</v>
       </c>
-      <c r="U20" s="29">
-        <f t="shared" ref="U20:W20" si="27">U8/U4</f>
+      <c r="W20" s="28">
+        <f t="shared" ref="W20:Y20" si="27">W8/W4</f>
         <v>6.7305936073059403E-2</v>
       </c>
-      <c r="V20" s="29">
+      <c r="X20" s="28">
         <f t="shared" si="27"/>
         <v>6.1492379526032911E-2</v>
       </c>
-      <c r="W20" s="29">
+      <c r="Y20" s="28">
         <f t="shared" si="27"/>
         <v>4.7777972949235789E-2</v>
       </c>
-      <c r="X20" s="29">
-        <f t="shared" ref="X20:Y20" si="28">X8/X4</f>
+      <c r="Z20" s="28">
+        <f t="shared" ref="Z20:AA20" si="28">Z8/Z4</f>
         <v>2.8568955068825112E-2</v>
       </c>
-      <c r="Y20" s="29">
+      <c r="AA20" s="28">
         <f t="shared" si="28"/>
         <v>6.1518223322757873E-2</v>
       </c>
-      <c r="Z20" s="29">
-        <f>Z8/Z4</f>
+      <c r="AB20" s="28">
+        <f>AB8/AB4</f>
         <v>7.878212616822429E-2</v>
       </c>
-      <c r="AA20" s="56">
-        <f>AA8/AA4</f>
-        <v>6.6901285046729028E-2</v>
-      </c>
-      <c r="AB20" s="29">
-        <f t="shared" ref="AB20:AI20" si="29">AB8/AB4</f>
-        <v>6.2490821094793064E-2</v>
-      </c>
-      <c r="AC20" s="29">
+      <c r="AC20" s="28">
+        <f>AC8/AC4</f>
+        <v>3.2491892922998679E-2</v>
+      </c>
+      <c r="AD20" s="28">
+        <f t="shared" ref="AD20:AK20" si="29">AD8/AD4</f>
+        <v>3.0592396109637477E-2</v>
+      </c>
+      <c r="AE20" s="28">
         <f t="shared" si="29"/>
-        <v>4.8874048893670516E-2</v>
-      </c>
-      <c r="AD20" s="29">
+        <v>5.3222242648667963E-2</v>
+      </c>
+      <c r="AF20" s="28">
         <f t="shared" si="29"/>
-        <v>4.4157127804392841E-2</v>
-      </c>
-      <c r="AE20" s="29">
+        <v>4.8547950909929388E-2</v>
+      </c>
+      <c r="AG20" s="28">
         <f t="shared" si="29"/>
-        <v>3.9393962390710448E-2</v>
-      </c>
-      <c r="AF20" s="29">
+        <v>4.3827832781595383E-2</v>
+      </c>
+      <c r="AH20" s="28">
         <f t="shared" si="29"/>
-        <v>3.4584099276893848E-2</v>
-      </c>
-      <c r="AG20" s="29">
+        <v>3.9061438985336552E-2</v>
+      </c>
+      <c r="AI20" s="28">
         <f t="shared" si="29"/>
-        <v>2.9727080642353645E-2</v>
-      </c>
-      <c r="AH20" s="29">
+        <v>3.4248315838133918E-2</v>
+      </c>
+      <c r="AJ20" s="28">
         <f t="shared" si="29"/>
-        <v>2.4822444178062945E-2</v>
-      </c>
-      <c r="AI20" s="29">
+        <v>2.9388005209095992E-2</v>
+      </c>
+      <c r="AK20" s="28">
         <f t="shared" si="29"/>
-        <v>1.9869723042553758E-2</v>
-      </c>
-      <c r="AK20" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL20" s="67">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.2">
+        <v>2.4480044475851795E-2</v>
+      </c>
+      <c r="AM20" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN20" s="55">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="28">
         <f>M12/M4</f>
         <v>1.9163081736409886E-2</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="29">
+      <c r="N21" s="39">
+        <f>N12/N4</f>
+        <v>1.6633565044687191E-2</v>
+      </c>
+      <c r="O21" s="28">
         <f>O12/O4</f>
         <v>1.6714367487120803E-2</v>
       </c>
-      <c r="S21" s="29">
-        <f t="shared" ref="S21:T21" si="30">S12/S4</f>
+      <c r="U21" s="28">
+        <f t="shared" ref="U21:V21" si="30">U12/U4</f>
         <v>6.4170079968792731E-2</v>
       </c>
-      <c r="T21" s="29">
+      <c r="V21" s="28">
         <f t="shared" si="30"/>
         <v>6.2163485070974071E-2</v>
       </c>
-      <c r="U21" s="29">
-        <f t="shared" ref="U21:W21" si="31">U12/U4</f>
+      <c r="W21" s="28">
+        <f t="shared" ref="W21:Y21" si="31">W12/W4</f>
         <v>5.1506849315068534E-2</v>
       </c>
-      <c r="V21" s="29">
+      <c r="X21" s="28">
         <f t="shared" si="31"/>
         <v>4.818958682054441E-2</v>
       </c>
-      <c r="W21" s="29">
+      <c r="Y21" s="28">
         <f t="shared" si="31"/>
         <v>3.6799578429650329E-2</v>
       </c>
-      <c r="X21" s="29">
-        <f t="shared" ref="X21:Y21" si="32">X12/X4</f>
+      <c r="Z21" s="28">
+        <f t="shared" ref="Z21:AA21" si="32">Z12/Z4</f>
         <v>1.5150203445589028E-2</v>
       </c>
-      <c r="Y21" s="29">
+      <c r="AA21" s="28">
         <f t="shared" si="32"/>
         <v>4.1166911707807785E-2</v>
       </c>
-      <c r="Z21" s="29">
-        <f>Z12/Z4</f>
+      <c r="AB21" s="28">
+        <f>AB12/AB4</f>
         <v>5.6731892523364483E-2</v>
       </c>
-      <c r="AA21" s="56">
-        <f>AA12/AA4</f>
-        <v>4.6122274143302229E-2</v>
-      </c>
-      <c r="AB21" s="29">
-        <f t="shared" ref="AB21:AI21" si="33">AB12/AB4</f>
-        <v>4.294622459575731E-2</v>
-      </c>
-      <c r="AC21" s="29">
+      <c r="AC21" s="28">
+        <f>AC12/AC4</f>
+        <v>1.7867361861766403E-2</v>
+      </c>
+      <c r="AD21" s="28">
+        <f t="shared" ref="AD21:AK21" si="33">AD12/AD4</f>
+        <v>1.7094017094017078E-2</v>
+      </c>
+      <c r="AE21" s="28">
         <f t="shared" si="33"/>
-        <v>3.2296620901634696E-2</v>
-      </c>
-      <c r="AD21" s="29">
+        <v>3.6498883840638638E-2</v>
+      </c>
+      <c r="AF21" s="28">
         <f t="shared" si="33"/>
-        <v>2.8880247331266779E-2</v>
-      </c>
-      <c r="AE21" s="29">
+        <v>3.2931742084594803E-2</v>
+      </c>
+      <c r="AG21" s="28">
         <f t="shared" si="33"/>
-        <v>2.5013013289960959E-2</v>
-      </c>
-      <c r="AF21" s="29">
+        <v>2.9459583941132766E-2</v>
+      </c>
+      <c r="AH21" s="28">
         <f t="shared" si="33"/>
-        <v>2.1310603265101983E-2</v>
-      </c>
-      <c r="AG21" s="29">
+        <v>2.5652072248111276E-2</v>
+      </c>
+      <c r="AI21" s="28">
         <f t="shared" si="33"/>
-        <v>1.7571672202551899E-2</v>
-      </c>
-      <c r="AH21" s="29">
+        <v>2.1857683085053418E-2</v>
+      </c>
+      <c r="AJ21" s="28">
         <f t="shared" si="33"/>
-        <v>1.3788005873016125E-2</v>
-      </c>
-      <c r="AI21" s="29">
+        <v>1.8099553714816273E-2</v>
+      </c>
+      <c r="AK21" s="28">
         <f t="shared" si="33"/>
-        <v>9.9165766429079125E-3</v>
-      </c>
-      <c r="AK21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL21" s="68">
-        <f>NPV(AL20,AA12:CS12)</f>
-        <v>495.88636064297134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.2">
+        <v>1.4297908838422822E-2</v>
+      </c>
+      <c r="AM21" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN21" s="56">
+        <f>NPV(AN20,AC12:CU12)</f>
+        <v>459.93948504604202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="28">
         <f>M11/M10</f>
         <v>0.21390374331550774</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="29">
+      <c r="N22" s="39">
+        <f>N11/N10</f>
+        <v>0.33990147783251223</v>
+      </c>
+      <c r="O22" s="28">
         <f>O11/O10</f>
         <v>0.24352331606217589</v>
       </c>
-      <c r="S22" s="29">
-        <f t="shared" ref="S22:T22" si="34">S11/S10</f>
+      <c r="U22" s="28">
+        <f t="shared" ref="U22:V22" si="34">U11/U10</f>
         <v>0.21479713603818598</v>
       </c>
-      <c r="T22" s="29">
+      <c r="V22" s="28">
         <f t="shared" si="34"/>
         <v>0.20426065162907267</v>
       </c>
-      <c r="U22" s="29">
-        <f t="shared" ref="U22:W22" si="35">U11/U10</f>
+      <c r="W22" s="28">
+        <f t="shared" ref="W22:Y22" si="35">W11/W10</f>
         <v>0.21008403361344524</v>
       </c>
-      <c r="V22" s="29">
+      <c r="X22" s="28">
         <f t="shared" si="35"/>
         <v>0.18479880774962756</v>
       </c>
-      <c r="W22" s="29">
+      <c r="Y22" s="28">
         <f t="shared" si="35"/>
         <v>0.17843137254902008</v>
       </c>
-      <c r="X22" s="29">
-        <f t="shared" ref="X22:Y22" si="36">X11/X10</f>
+      <c r="Z22" s="28">
+        <f t="shared" ref="Z22:AA22" si="36">Z11/Z10</f>
         <v>9.7938144329897489E-2</v>
       </c>
-      <c r="Y22" s="29">
+      <c r="AA22" s="28">
         <f t="shared" si="36"/>
         <v>0.17519379844961241</v>
       </c>
-      <c r="Z22" s="29">
-        <f>Z11/Z10</f>
+      <c r="AB22" s="28">
+        <f>AB11/AB10</f>
         <v>0.19565217391304351</v>
       </c>
-      <c r="AA22" s="56">
+      <c r="AC22" s="28">
         <v>0.2</v>
       </c>
-      <c r="AB22" s="59">
-        <f>AA22</f>
+      <c r="AD22" s="28">
+        <f>AC22</f>
         <v>0.2</v>
       </c>
-      <c r="AC22" s="59">
-        <f t="shared" ref="AC22:AI22" si="37">AB22</f>
+      <c r="AE22" s="49">
+        <f t="shared" ref="AE22:AK22" si="37">AD22</f>
         <v>0.2</v>
       </c>
-      <c r="AD22" s="59">
+      <c r="AF22" s="49">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AE22" s="59">
+      <c r="AG22" s="49">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AF22" s="59">
+      <c r="AH22" s="49">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AG22" s="59">
+      <c r="AI22" s="49">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AH22" s="59">
+      <c r="AJ22" s="49">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AI22" s="59">
+      <c r="AK22" s="49">
         <f t="shared" si="37"/>
         <v>0.2</v>
       </c>
-      <c r="AK22" s="13" t="s">
+      <c r="AM22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AL22" s="68">
+      <c r="AN22" s="56">
         <f>Main!C11</f>
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AK23" s="13" t="s">
+        <v>-9.5000000000000036</v>
+      </c>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AM23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN23" s="56">
+        <f>AN21-AN22</f>
+        <v>469.43948504604202</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AM24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AL23" s="68">
-        <f>AL21-AL22</f>
-        <v>446.08636064297133</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AK24" s="3" t="s">
+      <c r="AN24" s="57">
+        <f>AN23/Main!C7</f>
+        <v>2.1442570473984834</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AM25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AL24" s="69">
-        <f>AL23/Main!C7</f>
-        <v>2.1686259632618929</v>
-      </c>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="AK25" s="13" t="s">
+      <c r="AN25" s="7">
+        <f>Main!C6</f>
+        <v>1.5960000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B26" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM26" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AL25" s="7">
-        <f>Main!C6</f>
-        <v>1.829</v>
-      </c>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK26" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL26" s="70">
-        <f>AL24/AL25-1</f>
-        <v>0.18568942769923069</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AN26" s="58">
+        <f>AN24/AN25-1</f>
+        <v>0.34351945325719502</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3610,32 +3757,38 @@
       <c r="O27" s="17">
         <v>481.6</v>
       </c>
-      <c r="S27" s="1">
+      <c r="U27" s="1">
         <v>356.8</v>
       </c>
-      <c r="T27" s="1">
+      <c r="V27" s="1">
         <v>362.9</v>
       </c>
-      <c r="U27" s="17">
+      <c r="W27" s="17">
         <v>394.1</v>
       </c>
-      <c r="V27" s="17">
+      <c r="X27" s="17">
         <v>393.9</v>
       </c>
-      <c r="W27" s="17">
+      <c r="Y27" s="17">
         <v>387.4</v>
       </c>
-      <c r="X27" s="17">
+      <c r="Z27" s="17">
         <v>395.7</v>
       </c>
-      <c r="Y27" s="17">
+      <c r="AA27" s="17">
         <v>398.3</v>
       </c>
-      <c r="Z27" s="17">
+      <c r="AB27" s="17">
         <v>442.4</v>
       </c>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AC27" s="17">
+        <v>482</v>
+      </c>
+      <c r="AD27" s="17">
+        <v>483.9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>81</v>
       </c>
@@ -3645,32 +3798,38 @@
       <c r="O28" s="17">
         <v>92.8</v>
       </c>
-      <c r="S28" s="1">
+      <c r="U28" s="1">
         <v>103.8</v>
       </c>
-      <c r="T28" s="1">
+      <c r="V28" s="1">
         <v>107.3</v>
       </c>
-      <c r="U28" s="17">
+      <c r="W28" s="17">
         <v>102.8</v>
       </c>
-      <c r="V28" s="17">
+      <c r="X28" s="17">
         <v>101.3</v>
       </c>
-      <c r="W28" s="17">
+      <c r="Y28" s="17">
         <v>97.3</v>
       </c>
-      <c r="X28" s="17">
+      <c r="Z28" s="17">
         <v>83.1</v>
       </c>
-      <c r="Y28" s="17">
+      <c r="AA28" s="17">
         <v>81.3</v>
       </c>
-      <c r="Z28" s="17">
+      <c r="AB28" s="17">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AC28" s="17">
+        <v>97.8</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>82</v>
       </c>
@@ -3680,12 +3839,6 @@
       <c r="O29" s="17">
         <v>294.5</v>
       </c>
-      <c r="S29" s="17">
-        <v>0</v>
-      </c>
-      <c r="T29" s="17">
-        <v>0</v>
-      </c>
       <c r="U29" s="17">
         <v>0</v>
       </c>
@@ -3696,67 +3849,84 @@
         <v>0</v>
       </c>
       <c r="X29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
         <v>349.9</v>
       </c>
-      <c r="Y29" s="17">
+      <c r="AA29" s="17">
         <v>282.8</v>
       </c>
-      <c r="Z29" s="17">
+      <c r="AB29" s="17">
         <v>350.2</v>
       </c>
-    </row>
-    <row r="30" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC29" s="17">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>278.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:40" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="26">
+      <c r="D30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="25">
         <v>0.7</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="26">
+      <c r="N30" s="33"/>
+      <c r="O30" s="25">
         <v>0.3</v>
       </c>
-      <c r="P30" s="34"/>
-      <c r="S30" s="26">
-        <v>0</v>
-      </c>
-      <c r="T30" s="26">
-        <v>0</v>
-      </c>
-      <c r="U30" s="26">
-        <v>0</v>
-      </c>
-      <c r="V30" s="26">
-        <v>0</v>
-      </c>
-      <c r="W30" s="26">
-        <v>0</v>
-      </c>
-      <c r="X30" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="26">
+      <c r="P30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="U30" s="25">
+        <v>0</v>
+      </c>
+      <c r="V30" s="25">
+        <v>0</v>
+      </c>
+      <c r="W30" s="25">
+        <v>0</v>
+      </c>
+      <c r="X30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="25">
         <v>0.1</v>
       </c>
-      <c r="Z30" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="58"/>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AB30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="48"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+    </row>
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
@@ -3766,34 +3936,40 @@
       <c r="O31" s="17">
         <v>9</v>
       </c>
-      <c r="S31" s="1">
+      <c r="U31" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T31" s="1">
-        <v>0</v>
-      </c>
-      <c r="U31" s="17">
-        <v>0</v>
-      </c>
-      <c r="V31" s="17">
+      <c r="V31" s="1">
         <v>0</v>
       </c>
       <c r="W31" s="17">
         <v>0</v>
       </c>
       <c r="X31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
         <v>7.3</v>
       </c>
-      <c r="Y31" s="17">
+      <c r="AA31" s="17">
         <v>12.3</v>
       </c>
-      <c r="Z31" s="17">
+      <c r="AB31" s="17">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.2">
+      <c r="AC31" s="17">
+        <v>10.9</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M32" s="17">
         <v>0</v>
@@ -3801,1789 +3977,2244 @@
       <c r="O32" s="17">
         <v>0</v>
       </c>
-      <c r="S32" s="17">
-        <v>0</v>
-      </c>
-      <c r="T32" s="17">
-        <v>0</v>
-      </c>
       <c r="U32" s="17">
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
+        <v>0</v>
+      </c>
+      <c r="W32" s="17">
         <v>8.1</v>
       </c>
-      <c r="V32" s="17">
+      <c r="X32" s="17">
         <v>8.1</v>
       </c>
-      <c r="W32" s="17">
-        <v>0</v>
-      </c>
-      <c r="X32" s="17">
-        <v>0</v>
-      </c>
       <c r="Y32" s="17">
         <v>0</v>
       </c>
       <c r="Z32" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AA32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:37" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="U33" s="17">
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M33" s="17">
-        <f>SUM(M27:M32)</f>
+      <c r="M34" s="17">
+        <f>SUM(M27:M33)</f>
         <v>886.20000000000016</v>
       </c>
-      <c r="O33" s="17">
-        <f>SUM(O27:O32)</f>
+      <c r="O34" s="17">
+        <f>SUM(O27:O33)</f>
         <v>878.19999999999993</v>
       </c>
-      <c r="S33" s="17">
-        <f t="shared" ref="S33:Z33" si="38">SUM(S27:S32)</f>
+      <c r="U34" s="17">
+        <f>SUM(U27:U33)</f>
         <v>464.70000000000005</v>
       </c>
-      <c r="T33" s="17">
-        <f t="shared" si="38"/>
+      <c r="V34" s="17">
+        <f t="shared" ref="V34:AD34" si="38">SUM(V27:V33)</f>
         <v>470.2</v>
       </c>
-      <c r="U33" s="17">
+      <c r="W34" s="17">
         <f t="shared" si="38"/>
         <v>505.00000000000006</v>
       </c>
-      <c r="V33" s="17">
+      <c r="X34" s="17">
         <f t="shared" si="38"/>
         <v>503.3</v>
       </c>
-      <c r="W33" s="17">
+      <c r="Y34" s="17">
         <f t="shared" si="38"/>
         <v>484.7</v>
       </c>
-      <c r="X33" s="17">
+      <c r="Z34" s="17">
         <f t="shared" si="38"/>
         <v>835.99999999999989</v>
       </c>
-      <c r="Y33" s="17">
+      <c r="AA34" s="17">
         <f t="shared" si="38"/>
         <v>774.80000000000007</v>
       </c>
-      <c r="Z33" s="17">
+      <c r="AB34" s="17">
         <f t="shared" si="38"/>
         <v>909</v>
       </c>
-    </row>
-    <row r="34" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+      <c r="AC34" s="17">
+        <f t="shared" ref="AC34" si="39">SUM(AC27:AC33)</f>
+        <v>903.3</v>
+      </c>
+      <c r="AD34" s="17">
+        <f t="shared" si="38"/>
+        <v>859.1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="26">
+      <c r="D35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="25">
         <v>248</v>
       </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="26">
+      <c r="N35" s="33"/>
+      <c r="O35" s="25">
         <v>262.89999999999998</v>
       </c>
-      <c r="P34" s="34"/>
-      <c r="S34" s="2">
+      <c r="P35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="U35" s="2">
         <v>149.30000000000001</v>
       </c>
-      <c r="T34" s="2">
+      <c r="V35" s="2">
         <v>157.9</v>
       </c>
-      <c r="U34" s="26">
+      <c r="W35" s="25">
         <v>191.1</v>
       </c>
-      <c r="V34" s="26">
+      <c r="X35" s="25">
         <v>195.5</v>
       </c>
-      <c r="W34" s="26">
+      <c r="Y35" s="25">
         <v>173.7</v>
       </c>
-      <c r="X34" s="26">
+      <c r="Z35" s="25">
         <v>173</v>
       </c>
-      <c r="Y34" s="26">
+      <c r="AA35" s="25">
         <v>143.9</v>
       </c>
-      <c r="Z34" s="26">
+      <c r="AB35" s="25">
         <v>222.1</v>
       </c>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="58"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="58"/>
-    </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="AC35" s="25">
+        <v>256.2</v>
+      </c>
+      <c r="AD35" s="25">
+        <v>237.5</v>
+      </c>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+    </row>
+    <row r="36" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M36" s="17">
         <v>118.2</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O36" s="17">
         <v>162.5</v>
       </c>
-      <c r="S35" s="1">
+      <c r="U36" s="1">
         <v>55.8</v>
       </c>
-      <c r="T35" s="1">
+      <c r="V36" s="1">
         <v>60.7</v>
       </c>
-      <c r="U35" s="17">
+      <c r="W36" s="17">
         <v>58.4</v>
       </c>
-      <c r="V35" s="17">
+      <c r="X36" s="17">
         <v>56</v>
       </c>
-      <c r="W35" s="17">
+      <c r="Y36" s="17">
         <v>59.1</v>
       </c>
-      <c r="X35" s="17">
+      <c r="Z36" s="17">
         <v>53.5</v>
       </c>
-      <c r="Y35" s="17">
+      <c r="AA36" s="17">
         <v>74.099999999999994</v>
       </c>
-      <c r="Z35" s="17">
+      <c r="AB36" s="17">
         <v>92.6</v>
       </c>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="AC36" s="17">
+        <v>144.6</v>
+      </c>
+      <c r="AD36" s="17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="17">
-        <v>0</v>
-      </c>
-      <c r="O36" s="17">
-        <v>0</v>
-      </c>
-      <c r="S36" s="17">
-        <v>0</v>
-      </c>
-      <c r="T36" s="17">
-        <v>0</v>
-      </c>
-      <c r="U36" s="17">
-        <v>0</v>
-      </c>
-      <c r="V36" s="17">
-        <v>0</v>
-      </c>
-      <c r="W36" s="17">
-        <v>0</v>
-      </c>
-      <c r="X36" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="17">
+      <c r="M37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0</v>
+      </c>
+      <c r="U37" s="17">
+        <v>0</v>
+      </c>
+      <c r="V37" s="17">
+        <v>0</v>
+      </c>
+      <c r="W37" s="17">
+        <v>0</v>
+      </c>
+      <c r="X37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="17">
         <v>6</v>
       </c>
-      <c r="Z36" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
+      <c r="AB37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="26">
+      <c r="D38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="25">
         <v>15.7</v>
       </c>
-      <c r="N37" s="34"/>
-      <c r="O37" s="26">
+      <c r="N38" s="33"/>
+      <c r="O38" s="25">
         <v>1.4</v>
       </c>
-      <c r="P37" s="34"/>
-      <c r="S37" s="2">
+      <c r="P38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="U38" s="2">
         <v>3.9</v>
       </c>
-      <c r="T37" s="2">
+      <c r="V38" s="2">
         <v>4.2</v>
       </c>
-      <c r="U37" s="26">
+      <c r="W38" s="25">
         <v>5.2</v>
       </c>
-      <c r="V37" s="26">
+      <c r="X38" s="25">
         <v>0.3</v>
       </c>
-      <c r="W37" s="26">
+      <c r="Y38" s="25">
         <v>3.2</v>
       </c>
-      <c r="X37" s="26">
+      <c r="Z38" s="25">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Y37" s="26">
+      <c r="AA38" s="25">
         <v>0.5</v>
       </c>
-      <c r="Z37" s="26">
+      <c r="AB38" s="25">
         <v>4.2</v>
       </c>
-      <c r="AA37" s="57"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-      <c r="AD37" s="58"/>
-      <c r="AE37" s="58"/>
-      <c r="AF37" s="58"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58"/>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="AC38" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD38" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+    </row>
+    <row r="39" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M39" s="17">
         <v>1.8</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O39" s="17">
         <v>7.5</v>
       </c>
-      <c r="S38" s="17">
-        <v>0</v>
-      </c>
-      <c r="T38" s="17">
-        <v>0</v>
-      </c>
-      <c r="U38" s="17">
-        <v>0</v>
-      </c>
-      <c r="V38" s="17">
-        <v>0</v>
-      </c>
-      <c r="W38" s="17">
-        <v>0</v>
-      </c>
-      <c r="X38" s="17">
+      <c r="U39" s="17">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17">
+        <v>0</v>
+      </c>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Y38" s="17">
+      <c r="AA39" s="17">
         <v>3.1</v>
       </c>
-      <c r="Z38" s="17">
+      <c r="AB39" s="17">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="39" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+      <c r="AC39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="26">
+      <c r="D40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="25">
         <v>78</v>
       </c>
-      <c r="N39" s="34"/>
-      <c r="O39" s="26">
+      <c r="N40" s="33"/>
+      <c r="O40" s="25">
         <v>16.2</v>
       </c>
-      <c r="P39" s="34"/>
-      <c r="S39" s="2">
+      <c r="P40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="U40" s="2">
         <v>22.4</v>
       </c>
-      <c r="T39" s="2">
+      <c r="V40" s="2">
         <v>11.9</v>
       </c>
-      <c r="U39" s="26">
+      <c r="W40" s="25">
         <v>16.5</v>
       </c>
-      <c r="V39" s="26">
+      <c r="X40" s="25">
         <v>27</v>
       </c>
-      <c r="W39" s="26">
+      <c r="Y40" s="25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="X39" s="26">
+      <c r="Z40" s="25">
         <v>115.5</v>
       </c>
-      <c r="Y39" s="26">
+      <c r="AA40" s="25">
         <v>67.2</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="AB40" s="25">
         <v>46.3</v>
       </c>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-      <c r="AD39" s="58"/>
-      <c r="AE39" s="58"/>
-      <c r="AF39" s="58"/>
-      <c r="AG39" s="58"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="58"/>
-    </row>
-    <row r="40" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
+      <c r="AC40" s="25">
+        <v>41.9</v>
+      </c>
+      <c r="AD40" s="25">
+        <v>13.3</v>
+      </c>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="48"/>
+      <c r="AH40" s="48"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="48"/>
+    </row>
+    <row r="41" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M40" s="17">
-        <f>SUM(M33:M39)</f>
+      <c r="M41" s="17">
+        <f>SUM(M34:M40)</f>
         <v>1347.9000000000003</v>
       </c>
-      <c r="O40" s="17">
-        <f>SUM(O33:O39)</f>
+      <c r="O41" s="17">
+        <f>SUM(O34:O40)</f>
         <v>1328.7</v>
       </c>
-      <c r="S40" s="17">
-        <f t="shared" ref="S40:Y40" si="39">SUM(S33:S39)</f>
+      <c r="U41" s="17">
+        <f t="shared" ref="U41:AA41" si="40">SUM(U34:U40)</f>
         <v>696.09999999999991</v>
       </c>
-      <c r="T40" s="17">
-        <f t="shared" si="39"/>
+      <c r="V41" s="17">
+        <f t="shared" si="40"/>
         <v>704.90000000000009</v>
       </c>
-      <c r="U40" s="17">
-        <f t="shared" si="39"/>
+      <c r="W41" s="17">
+        <f t="shared" si="40"/>
         <v>776.2</v>
       </c>
-      <c r="V40" s="17">
-        <f t="shared" si="39"/>
+      <c r="X41" s="17">
+        <f t="shared" si="40"/>
         <v>782.09999999999991</v>
       </c>
-      <c r="W40" s="17">
-        <f t="shared" si="39"/>
+      <c r="Y41" s="17">
+        <f t="shared" si="40"/>
         <v>730.5</v>
       </c>
-      <c r="X40" s="17">
-        <f t="shared" si="39"/>
+      <c r="Z41" s="17">
+        <f t="shared" si="40"/>
         <v>1194.9000000000001</v>
       </c>
-      <c r="Y40" s="17">
-        <f t="shared" si="39"/>
+      <c r="AA41" s="17">
+        <f t="shared" si="40"/>
         <v>1069.6000000000001</v>
       </c>
-      <c r="Z40" s="17">
-        <f>SUM(Z33:Z39)</f>
+      <c r="AB41" s="17">
+        <f>SUM(AB34:AB40)</f>
         <v>1278.0999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="M41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="Y41" s="17"/>
-    </row>
-    <row r="42" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
+      <c r="AC41" s="17">
+        <f t="shared" ref="AC41" si="41">SUM(AC34:AC40)</f>
+        <v>1347.1</v>
+      </c>
+      <c r="AD41" s="17">
+        <f>SUM(AD34:AD40)</f>
+        <v>1279.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="M42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="AA42" s="17"/>
+    </row>
+    <row r="43" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="26">
+      <c r="D43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="25">
         <v>11.5</v>
       </c>
-      <c r="N42" s="34"/>
-      <c r="O42" s="26">
+      <c r="N43" s="33"/>
+      <c r="O43" s="25">
         <v>13.8</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="S42" s="2">
+      <c r="P43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="U43" s="2">
         <v>22.9</v>
       </c>
-      <c r="T42" s="2">
+      <c r="V43" s="2">
         <v>23.4</v>
       </c>
-      <c r="U42" s="26">
+      <c r="W43" s="25">
         <v>19.8</v>
       </c>
-      <c r="V42" s="26">
+      <c r="X43" s="25">
         <v>20.8</v>
       </c>
-      <c r="W42" s="2">
+      <c r="Y43" s="2">
         <v>18.5</v>
       </c>
-      <c r="X42" s="26">
+      <c r="Z43" s="25">
         <v>0.2</v>
       </c>
-      <c r="Y42" s="26">
+      <c r="AA43" s="25">
         <v>0.2</v>
       </c>
-      <c r="Z42" s="26">
+      <c r="AB43" s="25">
         <v>0.2</v>
       </c>
-      <c r="AA42" s="57"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="58"/>
-    </row>
-    <row r="43" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+      <c r="AC43" s="25">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AD43" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="48"/>
+      <c r="AH43" s="48"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+    </row>
+    <row r="44" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M44" s="17">
         <v>75.2</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O44" s="17">
         <v>71.900000000000006</v>
       </c>
-      <c r="S43" s="17">
-        <v>0</v>
-      </c>
-      <c r="T43" s="17">
-        <v>0</v>
-      </c>
-      <c r="U43" s="17">
-        <v>0</v>
-      </c>
-      <c r="V43" s="17">
-        <v>0</v>
-      </c>
-      <c r="W43" s="17">
-        <v>0</v>
-      </c>
-      <c r="X43" s="17">
+      <c r="U44" s="17">
+        <v>0</v>
+      </c>
+      <c r="V44" s="17">
+        <v>0</v>
+      </c>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="17">
         <v>83.2</v>
       </c>
-      <c r="Y43" s="17">
+      <c r="AA44" s="17">
         <v>63.4</v>
       </c>
-      <c r="Z43" s="17">
+      <c r="AB44" s="17">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="44" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
+      <c r="AC44" s="17">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AD44" s="17">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="26">
+      <c r="D45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="25">
         <v>0.1</v>
       </c>
-      <c r="N44" s="34"/>
-      <c r="O44" s="26">
+      <c r="N45" s="33"/>
+      <c r="O45" s="25">
         <v>1.3</v>
       </c>
-      <c r="P44" s="34"/>
-      <c r="S44" s="2">
+      <c r="P45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="U45" s="2">
         <v>0.1</v>
       </c>
-      <c r="T44" s="26">
-        <v>0</v>
-      </c>
-      <c r="U44" s="26">
+      <c r="V45" s="25">
+        <v>0</v>
+      </c>
+      <c r="W45" s="25">
         <v>1.5</v>
       </c>
-      <c r="V44" s="26">
+      <c r="X45" s="25">
         <v>5.4</v>
       </c>
-      <c r="W44" s="2">
+      <c r="Y45" s="2">
         <v>1.4</v>
       </c>
-      <c r="X44" s="26">
+      <c r="Z45" s="25">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Y44" s="26">
+      <c r="AA45" s="25">
         <v>5.9</v>
       </c>
-      <c r="Z44" s="26">
+      <c r="AB45" s="25">
         <v>0.5</v>
       </c>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="58"/>
-      <c r="AC44" s="58"/>
-      <c r="AD44" s="58"/>
-      <c r="AE44" s="58"/>
-      <c r="AF44" s="58"/>
-      <c r="AG44" s="58"/>
-      <c r="AH44" s="58"/>
-      <c r="AI44" s="58"/>
-    </row>
-    <row r="45" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+      <c r="AC45" s="25">
+        <v>3.7</v>
+      </c>
+      <c r="AD45" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AE45" s="48"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="48"/>
+      <c r="AH45" s="48"/>
+      <c r="AI45" s="48"/>
+      <c r="AJ45" s="48"/>
+      <c r="AK45" s="48"/>
+    </row>
+    <row r="46" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M46" s="17">
         <v>350.8</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O46" s="17">
         <v>360</v>
       </c>
-      <c r="S45" s="1">
+      <c r="U46" s="1">
         <v>181.4</v>
       </c>
-      <c r="T45" s="1">
+      <c r="V46" s="1">
         <v>182.5</v>
       </c>
-      <c r="U45" s="17">
+      <c r="W46" s="17">
         <v>206.2</v>
       </c>
-      <c r="V45" s="17">
+      <c r="X46" s="17">
         <v>187</v>
       </c>
-      <c r="W45" s="1">
+      <c r="Y46" s="1">
         <v>176.4</v>
       </c>
-      <c r="X45" s="17">
+      <c r="Z46" s="17">
         <v>217</v>
       </c>
-      <c r="Y45" s="17">
+      <c r="AA46" s="17">
         <v>258.2</v>
       </c>
-      <c r="Z45" s="17">
+      <c r="AB46" s="17">
         <v>299.60000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+      <c r="AC46" s="17">
+        <v>362.3</v>
+      </c>
+      <c r="AD46" s="17">
+        <v>368.4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M46" s="17">
-        <v>0</v>
-      </c>
-      <c r="O46" s="17">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1">
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="O47" s="17">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
         <v>12.4</v>
       </c>
-      <c r="T46" s="1">
+      <c r="V47" s="1">
         <v>7.5</v>
       </c>
-      <c r="U46" s="17">
+      <c r="W47" s="17">
         <v>8.6999999999999993</v>
       </c>
-      <c r="V46" s="17">
+      <c r="X47" s="17">
         <v>3.3</v>
       </c>
-      <c r="W46" s="1">
+      <c r="Y47" s="1">
         <v>3.3</v>
       </c>
-      <c r="X46" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="17">
+      <c r="Z47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="AC47" s="17">
+        <v>3.6</v>
+      </c>
+      <c r="AD47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M48" s="17">
         <v>20.3</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O48" s="17">
         <v>13.4</v>
       </c>
-      <c r="S47" s="1">
+      <c r="U48" s="1">
         <v>10.6</v>
       </c>
-      <c r="T47" s="1">
+      <c r="V48" s="1">
         <v>9.5</v>
       </c>
-      <c r="U47" s="17">
+      <c r="W48" s="17">
         <v>11</v>
       </c>
-      <c r="V47" s="17">
+      <c r="X48" s="17">
         <v>11.9</v>
       </c>
-      <c r="W47" s="1">
+      <c r="Y48" s="1">
         <v>15.1</v>
       </c>
-      <c r="X47" s="17">
+      <c r="Z48" s="17">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Y47" s="17">
+      <c r="AA48" s="17">
         <v>24.5</v>
       </c>
-      <c r="Z47" s="17">
+      <c r="AB48" s="17">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="48" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+      <c r="AC48" s="17">
+        <v>11.2</v>
+      </c>
+      <c r="AD48" s="17">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="M48" s="17">
-        <f>SUM(M42:M47)</f>
+      <c r="M49" s="17">
+        <f>SUM(M43:M48)</f>
         <v>457.90000000000003</v>
       </c>
-      <c r="O48" s="17">
-        <f>SUM(O42:O47)</f>
+      <c r="O49" s="17">
+        <f>SUM(O43:O48)</f>
         <v>460.4</v>
       </c>
-      <c r="S48" s="17">
-        <f t="shared" ref="S48:V48" si="40">SUM(S42:S47)</f>
+      <c r="U49" s="17">
+        <f t="shared" ref="U49:X49" si="42">SUM(U43:U48)</f>
         <v>227.4</v>
       </c>
-      <c r="T48" s="17">
-        <f t="shared" si="40"/>
+      <c r="V49" s="17">
+        <f t="shared" si="42"/>
         <v>222.9</v>
       </c>
-      <c r="U48" s="17">
-        <f t="shared" si="40"/>
+      <c r="W49" s="17">
+        <f t="shared" si="42"/>
         <v>247.2</v>
       </c>
-      <c r="V48" s="17">
-        <f t="shared" si="40"/>
+      <c r="X49" s="17">
+        <f t="shared" si="42"/>
         <v>228.4</v>
       </c>
-      <c r="W48" s="17">
-        <f>SUM(W42:W47)</f>
+      <c r="Y49" s="17">
+        <f>SUM(Y43:Y48)</f>
         <v>214.70000000000002</v>
       </c>
-      <c r="X48" s="17">
-        <f>SUM(X42:X47)</f>
+      <c r="Z49" s="17">
+        <f>SUM(Z43:Z48)</f>
         <v>311.2</v>
       </c>
-      <c r="Y48" s="17">
-        <f>SUM(Y42:Y47)</f>
+      <c r="AA49" s="17">
+        <f>SUM(AA43:AA48)</f>
         <v>352.2</v>
       </c>
-      <c r="Z48" s="17">
-        <f>SUM(Z42:Z47)</f>
+      <c r="AB49" s="17">
+        <f>SUM(AB43:AB48)</f>
         <v>399.3</v>
       </c>
-    </row>
-    <row r="49" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+      <c r="AC49" s="17">
+        <f t="shared" ref="AC49" si="43">SUM(AC43:AC48)</f>
+        <v>468.1</v>
+      </c>
+      <c r="AD49" s="17">
+        <f>SUM(AD43:AD48)</f>
+        <v>463.19999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="26">
+      <c r="D50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="25">
         <v>34.200000000000003</v>
       </c>
-      <c r="N49" s="34"/>
-      <c r="O49" s="26">
+      <c r="N50" s="33"/>
+      <c r="O50" s="25">
         <v>49.4</v>
       </c>
-      <c r="P49" s="34"/>
-      <c r="S49" s="2">
+      <c r="P50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="U50" s="2">
         <v>61.3</v>
       </c>
-      <c r="T49" s="2">
+      <c r="V50" s="2">
         <v>36.4</v>
       </c>
-      <c r="U49" s="26">
+      <c r="W50" s="25">
         <v>82.6</v>
       </c>
-      <c r="V49" s="26">
+      <c r="X50" s="25">
         <v>94</v>
       </c>
-      <c r="W49" s="2">
+      <c r="Y50" s="2">
         <v>73.099999999999994</v>
       </c>
-      <c r="X49" s="26">
+      <c r="Z50" s="25">
         <v>179.1</v>
       </c>
-      <c r="Y49" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="58"/>
-      <c r="AG49" s="58"/>
-      <c r="AH49" s="58"/>
-      <c r="AI49" s="58"/>
-    </row>
-    <row r="50" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+      <c r="AA50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="25">
+        <v>34</v>
+      </c>
+      <c r="AD50" s="25">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AE50" s="48"/>
+      <c r="AF50" s="48"/>
+      <c r="AG50" s="48"/>
+      <c r="AH50" s="48"/>
+      <c r="AI50" s="48"/>
+      <c r="AJ50" s="48"/>
+      <c r="AK50" s="48"/>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M51" s="17">
         <v>293.10000000000002</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O51" s="17">
         <v>253.4</v>
       </c>
-      <c r="S50" s="1">
+      <c r="U51" s="1">
         <v>31.5</v>
       </c>
-      <c r="T50" s="1">
+      <c r="V51" s="1">
         <v>32.299999999999997</v>
       </c>
-      <c r="U50" s="17">
+      <c r="W51" s="17">
         <v>31.9</v>
       </c>
-      <c r="V50" s="17">
+      <c r="X51" s="17">
         <v>31.2</v>
       </c>
-      <c r="W50" s="1">
-        <v>0</v>
-      </c>
-      <c r="X50" s="17">
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="17">
         <v>332.8</v>
       </c>
-      <c r="Y50" s="17">
+      <c r="AA51" s="17">
         <v>280.89999999999998</v>
       </c>
-      <c r="Z50" s="17">
+      <c r="AB51" s="17">
         <v>316.5</v>
       </c>
-    </row>
-    <row r="51" spans="2:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
+      <c r="AC51" s="17">
+        <v>269.3</v>
+      </c>
+      <c r="AD51" s="17">
+        <v>228.1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="26">
+      <c r="D52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="25">
         <v>0.1</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="26">
-        <v>0</v>
-      </c>
-      <c r="P51" s="34"/>
-      <c r="S51" s="26">
-        <v>0</v>
-      </c>
-      <c r="T51" s="26">
-        <v>0</v>
-      </c>
-      <c r="U51" s="26">
-        <v>0</v>
-      </c>
-      <c r="V51" s="26">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
-        <v>0</v>
-      </c>
-      <c r="X51" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="26">
+      <c r="N52" s="33"/>
+      <c r="O52" s="25">
+        <v>0</v>
+      </c>
+      <c r="P52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="U52" s="25">
+        <v>0</v>
+      </c>
+      <c r="V52" s="25">
+        <v>0</v>
+      </c>
+      <c r="W52" s="25">
+        <v>0</v>
+      </c>
+      <c r="X52" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="25">
         <v>0.4</v>
       </c>
-      <c r="Z51" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="58"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="58"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="58"/>
-      <c r="AH51" s="58"/>
-      <c r="AI51" s="58"/>
-    </row>
-    <row r="52" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+      <c r="AB52" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AD52" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AE52" s="48"/>
+      <c r="AF52" s="48"/>
+      <c r="AG52" s="48"/>
+      <c r="AH52" s="48"/>
+      <c r="AI52" s="48"/>
+      <c r="AJ52" s="48"/>
+      <c r="AK52" s="48"/>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M53" s="25">
         <v>3.7</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O53" s="17">
         <v>3.9</v>
       </c>
-      <c r="S52" s="17">
-        <v>0</v>
-      </c>
-      <c r="T52" s="17">
-        <v>0</v>
-      </c>
-      <c r="U52" s="17">
-        <v>0</v>
-      </c>
-      <c r="V52" s="17">
-        <v>0</v>
-      </c>
-      <c r="W52" s="1">
+      <c r="U53" s="17">
+        <v>0</v>
+      </c>
+      <c r="V53" s="17">
+        <v>0</v>
+      </c>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
         <v>28.1</v>
       </c>
-      <c r="X52" s="17">
+      <c r="Z53" s="17">
         <v>1.9</v>
       </c>
-      <c r="Y52" s="17">
+      <c r="AA53" s="17">
         <v>3.3</v>
       </c>
-      <c r="Z52" s="17">
+      <c r="AB53" s="17">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+      <c r="AC53" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="AD53" s="17">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M53" s="17">
-        <v>0</v>
-      </c>
-      <c r="O53" s="17">
-        <v>0</v>
-      </c>
-      <c r="S53" s="17">
-        <v>0</v>
-      </c>
-      <c r="T53" s="17">
-        <v>0</v>
-      </c>
-      <c r="U53" s="17">
+      <c r="M54" s="17">
+        <v>0</v>
+      </c>
+      <c r="O54" s="17">
+        <v>0</v>
+      </c>
+      <c r="U54" s="17">
+        <v>0</v>
+      </c>
+      <c r="V54" s="17">
+        <v>0</v>
+      </c>
+      <c r="W54" s="17">
         <v>0.8</v>
       </c>
-      <c r="V53" s="17">
+      <c r="X54" s="17">
         <v>2.7</v>
       </c>
-      <c r="W53" s="1">
+      <c r="Y54" s="1">
         <v>0.1</v>
       </c>
-      <c r="X53" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="Z54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="17">
         <v>4.3</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O55" s="17">
         <v>11</v>
       </c>
-      <c r="S54" s="1">
+      <c r="U55" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T54" s="1">
+      <c r="V55" s="1">
         <v>7.9</v>
       </c>
-      <c r="U54" s="17">
+      <c r="W55" s="17">
         <v>6.2</v>
       </c>
-      <c r="V54" s="17">
+      <c r="X55" s="17">
         <v>3.9</v>
       </c>
-      <c r="W54" s="1">
+      <c r="Y55" s="1">
         <v>5.2</v>
       </c>
-      <c r="X54" s="17">
+      <c r="Z55" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y54" s="17">
+      <c r="AA55" s="17">
         <v>15</v>
       </c>
-      <c r="Z54" s="17">
+      <c r="AB55" s="17">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+      <c r="AC55" s="17">
+        <v>14.8</v>
+      </c>
+      <c r="AD55" s="17">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M55" s="17">
-        <f>SUM(M48:M54)</f>
+      <c r="M56" s="17">
+        <f>SUM(M49:M55)</f>
         <v>793.30000000000007</v>
       </c>
-      <c r="O55" s="17">
-        <f>SUM(O48:O54)</f>
+      <c r="O56" s="17">
+        <f>SUM(O49:O55)</f>
         <v>778.09999999999991</v>
       </c>
-      <c r="S55" s="17">
-        <f t="shared" ref="S55:V55" si="41">SUM(S48:S54)</f>
+      <c r="U56" s="17">
+        <f t="shared" ref="U56:X56" si="44">SUM(U49:U55)</f>
         <v>328.4</v>
       </c>
-      <c r="T55" s="17">
-        <f t="shared" si="41"/>
+      <c r="V56" s="17">
+        <f t="shared" si="44"/>
         <v>299.5</v>
       </c>
-      <c r="U55" s="17">
-        <f t="shared" si="41"/>
+      <c r="W56" s="17">
+        <f t="shared" si="44"/>
         <v>368.69999999999993</v>
       </c>
-      <c r="V55" s="17">
-        <f t="shared" si="41"/>
+      <c r="X56" s="17">
+        <f t="shared" si="44"/>
         <v>360.19999999999993</v>
       </c>
-      <c r="W55" s="17">
-        <f>SUM(W48:W54)</f>
+      <c r="Y56" s="17">
+        <f>SUM(Y49:Y55)</f>
         <v>321.20000000000005</v>
       </c>
-      <c r="X55" s="17">
-        <f>SUM(X48:X54)</f>
+      <c r="Z56" s="17">
+        <f>SUM(Z49:Z55)</f>
         <v>829.09999999999991</v>
       </c>
-      <c r="Y55" s="17">
-        <f>SUM(Y48:Y54)</f>
+      <c r="AA56" s="17">
+        <f>SUM(AA49:AA55)</f>
         <v>651.79999999999984</v>
       </c>
-      <c r="Z55" s="17">
-        <f>SUM(Z48:Z54)</f>
+      <c r="AB56" s="17">
+        <f>SUM(AB49:AB55)</f>
         <v>727.09999999999991</v>
       </c>
-    </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="O56" s="17"/>
-    </row>
-    <row r="57" spans="2:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="17" t="s">
+      <c r="AC56" s="17">
+        <f t="shared" ref="AC56" si="45">SUM(AC49:AC55)</f>
+        <v>790.2</v>
+      </c>
+      <c r="AD56" s="17">
+        <f>SUM(AD49:AD55)</f>
+        <v>725.7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="O57" s="17"/>
+    </row>
+    <row r="58" spans="2:37" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="17">
+      <c r="D58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="17">
         <v>554.6</v>
       </c>
-      <c r="N57" s="36"/>
-      <c r="O57" s="17">
+      <c r="N58" s="35"/>
+      <c r="O58" s="17">
         <v>550.6</v>
       </c>
-      <c r="P57" s="36"/>
-      <c r="S57" s="17">
+      <c r="P58" s="35"/>
+      <c r="R58" s="35"/>
+      <c r="U58" s="17">
         <v>367.7</v>
       </c>
-      <c r="T57" s="17">
+      <c r="V58" s="17">
         <v>405.4</v>
       </c>
-      <c r="U57" s="17">
+      <c r="W58" s="17">
         <v>407.5</v>
       </c>
-      <c r="V57" s="17">
+      <c r="X58" s="17">
         <v>421.9</v>
       </c>
-      <c r="W57" s="17">
+      <c r="Y58" s="17">
         <v>409.3</v>
       </c>
-      <c r="X57" s="17">
+      <c r="Z58" s="17">
         <v>365.8</v>
       </c>
-      <c r="Y57" s="17">
+      <c r="AA58" s="17">
         <v>417.8</v>
       </c>
-      <c r="Z57" s="17">
+      <c r="AB58" s="17">
         <v>551</v>
       </c>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="50"/>
-      <c r="AC57" s="50"/>
-      <c r="AD57" s="50"/>
-      <c r="AE57" s="50"/>
-      <c r="AF57" s="50"/>
-      <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="50"/>
-    </row>
-    <row r="58" spans="2:35" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="17" t="s">
+      <c r="AC58" s="17">
+        <v>556.9</v>
+      </c>
+      <c r="AD58" s="17">
+        <v>553.79999999999995</v>
+      </c>
+      <c r="AE58" s="45"/>
+      <c r="AF58" s="45"/>
+      <c r="AG58" s="45"/>
+      <c r="AH58" s="45"/>
+      <c r="AI58" s="45"/>
+      <c r="AJ58" s="45"/>
+      <c r="AK58" s="45"/>
+    </row>
+    <row r="59" spans="2:37" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="17">
-        <f>+M57+M55</f>
+      <c r="D59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="17">
+        <f>+M58+M56</f>
         <v>1347.9</v>
       </c>
-      <c r="N58" s="36"/>
-      <c r="O58" s="17">
-        <f>+O57+O55</f>
+      <c r="N59" s="35"/>
+      <c r="O59" s="17">
+        <f>+O58+O56</f>
         <v>1328.6999999999998</v>
       </c>
-      <c r="P58" s="36"/>
-      <c r="S58" s="17">
-        <f t="shared" ref="S58:V58" si="42">S57+S55</f>
+      <c r="P59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="U59" s="17">
+        <f t="shared" ref="U59:X59" si="46">U58+U56</f>
         <v>696.09999999999991</v>
       </c>
-      <c r="T58" s="17">
-        <f t="shared" si="42"/>
+      <c r="V59" s="17">
+        <f t="shared" si="46"/>
         <v>704.9</v>
       </c>
-      <c r="U58" s="17">
-        <f t="shared" si="42"/>
+      <c r="W59" s="17">
+        <f t="shared" si="46"/>
         <v>776.19999999999993</v>
       </c>
-      <c r="V58" s="17">
-        <f t="shared" si="42"/>
+      <c r="X59" s="17">
+        <f t="shared" si="46"/>
         <v>782.09999999999991</v>
       </c>
-      <c r="W58" s="17">
-        <f>W57+W55</f>
+      <c r="Y59" s="17">
+        <f>Y58+Y56</f>
         <v>730.5</v>
       </c>
-      <c r="X58" s="17">
-        <f>X57+X55</f>
+      <c r="Z59" s="17">
+        <f>Z58+Z56</f>
         <v>1194.8999999999999</v>
       </c>
-      <c r="Y58" s="17">
-        <f>Y57+Y55</f>
+      <c r="AA59" s="17">
+        <f>AA58+AA56</f>
         <v>1069.5999999999999</v>
       </c>
-      <c r="Z58" s="17">
-        <f>Z57+Z55</f>
+      <c r="AB59" s="17">
+        <f>AB58+AB56</f>
         <v>1278.0999999999999</v>
       </c>
-      <c r="AA58" s="49"/>
-      <c r="AB58" s="50"/>
-      <c r="AC58" s="50"/>
-      <c r="AD58" s="50"/>
-      <c r="AE58" s="50"/>
-      <c r="AF58" s="50"/>
-      <c r="AG58" s="50"/>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="50"/>
-    </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="AC59" s="17">
+        <f>AC58+AC56</f>
+        <v>1347.1</v>
+      </c>
+      <c r="AD59" s="17">
+        <f>AD58+AD56</f>
+        <v>1279.5</v>
+      </c>
+      <c r="AE59" s="45"/>
+      <c r="AF59" s="45"/>
+      <c r="AG59" s="45"/>
+      <c r="AH59" s="45"/>
+      <c r="AI59" s="45"/>
+      <c r="AJ59" s="45"/>
+      <c r="AK59" s="45"/>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="M60" s="17">
-        <f>M40-M55</f>
+      <c r="M61" s="17">
+        <f>M41-M56</f>
         <v>554.60000000000025</v>
       </c>
-      <c r="O60" s="17">
-        <f>O40-O55</f>
+      <c r="O61" s="17">
+        <f>O41-O56</f>
         <v>550.60000000000014</v>
       </c>
-      <c r="S60" s="17">
-        <f t="shared" ref="S60:T60" si="43">S40-S55</f>
+      <c r="U61" s="17">
+        <f t="shared" ref="U61:V61" si="47">U41-U56</f>
         <v>367.69999999999993</v>
       </c>
-      <c r="T60" s="17">
-        <f t="shared" si="43"/>
+      <c r="V61" s="17">
+        <f t="shared" si="47"/>
         <v>405.40000000000009</v>
       </c>
-      <c r="U60" s="17">
-        <f t="shared" ref="U60:W60" si="44">U40-U55</f>
+      <c r="W61" s="17">
+        <f t="shared" ref="W61:Y61" si="48">W41-W56</f>
         <v>407.50000000000011</v>
       </c>
-      <c r="V60" s="17">
-        <f t="shared" si="44"/>
+      <c r="X61" s="17">
+        <f t="shared" si="48"/>
         <v>421.9</v>
       </c>
-      <c r="W60" s="17">
-        <f t="shared" si="44"/>
+      <c r="Y61" s="17">
+        <f t="shared" si="48"/>
         <v>409.29999999999995</v>
       </c>
-      <c r="X60" s="17">
-        <f t="shared" ref="X60:Y60" si="45">X40-X55</f>
+      <c r="Z61" s="17">
+        <f t="shared" ref="Z61:AA61" si="49">Z41-Z56</f>
         <v>365.80000000000018</v>
       </c>
-      <c r="Y60" s="17">
-        <f t="shared" si="45"/>
+      <c r="AA61" s="17">
+        <f t="shared" si="49"/>
         <v>417.8000000000003</v>
       </c>
-      <c r="Z60" s="17">
-        <f>Z40-Z55</f>
+      <c r="AB61" s="17">
+        <f>AB41-AB56</f>
         <v>551</v>
       </c>
-    </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="AC61" s="17">
+        <f>AC41-AC56</f>
+        <v>556.89999999999986</v>
+      </c>
+      <c r="AD61" s="17">
+        <f>AD41-AD56</f>
+        <v>553.79999999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M61" s="1">
-        <f>M60/M14</f>
+      <c r="M62" s="1">
+        <f>M61/M14</f>
         <v>2.4736842105263168</v>
       </c>
-      <c r="O61" s="1">
-        <f>O60/O14</f>
+      <c r="O62" s="1">
+        <f>O61/O14</f>
         <v>2.4266196562362281</v>
       </c>
-      <c r="S61" s="1">
-        <f t="shared" ref="S61:T61" si="46">S60/S14</f>
+      <c r="U62" s="1">
+        <f t="shared" ref="U62:V62" si="50">U61/U14</f>
         <v>1.8627152988855114</v>
       </c>
-      <c r="T61" s="1">
-        <f t="shared" si="46"/>
+      <c r="V62" s="1">
+        <f t="shared" si="50"/>
         <v>2.0652063168619463</v>
       </c>
-      <c r="U61" s="1">
-        <f t="shared" ref="U61:W61" si="47">U60/U14</f>
+      <c r="W62" s="1">
+        <f t="shared" ref="W62:Y62" si="51">W61/W14</f>
         <v>2.0674784373414519</v>
       </c>
-      <c r="V61" s="1">
-        <f t="shared" si="47"/>
+      <c r="X62" s="1">
+        <f t="shared" si="51"/>
         <v>2.1243705941591138</v>
       </c>
-      <c r="W61" s="1">
-        <f t="shared" si="47"/>
+      <c r="Y62" s="1">
+        <f t="shared" si="51"/>
         <v>2.0557508789552985</v>
       </c>
-      <c r="X61" s="1">
-        <f t="shared" ref="X61:Y61" si="48">X60/X14</f>
+      <c r="Z62" s="1">
+        <f t="shared" ref="Z62:AA62" si="52">Z61/Z14</f>
         <v>1.8372677046710206</v>
       </c>
-      <c r="Y61" s="1">
-        <f t="shared" si="48"/>
+      <c r="AA62" s="1">
+        <f t="shared" si="52"/>
         <v>2.0984429934706195</v>
       </c>
-      <c r="Z61" s="1">
-        <f>Z60/Z14</f>
+      <c r="AB62" s="1">
+        <f>AB61/AB14</f>
         <v>2.6786582401555665</v>
       </c>
-    </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
+      <c r="AC62" s="1">
+        <f>AC61/AC14</f>
+        <v>2.5616375344986193</v>
+      </c>
+      <c r="AD62" s="1">
+        <f>AD61/AD14</f>
+        <v>2.5473781048758046</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M63" s="17">
-        <f t="shared" ref="M63:O63" si="49">M30+M37+M39</f>
+      <c r="M64" s="17">
+        <f t="shared" ref="M64:O64" si="53">M30+M38+M40</f>
         <v>94.4</v>
-      </c>
-      <c r="O63" s="17">
-        <f t="shared" si="49"/>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="S63" s="17">
-        <f t="shared" ref="S63:T63" si="50">S30+S37+S39</f>
-        <v>26.299999999999997</v>
-      </c>
-      <c r="T63" s="17">
-        <f t="shared" si="50"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="U63" s="17">
-        <f t="shared" ref="U63:W63" si="51">U30+U37+U39</f>
-        <v>21.7</v>
-      </c>
-      <c r="V63" s="17">
-        <f t="shared" si="51"/>
-        <v>27.3</v>
-      </c>
-      <c r="W63" s="17">
-        <f t="shared" si="51"/>
-        <v>13</v>
-      </c>
-      <c r="X63" s="17">
-        <f t="shared" ref="X63:Y63" si="52">X30+X37+X39</f>
-        <v>124.2</v>
-      </c>
-      <c r="Y63" s="17">
-        <f t="shared" si="52"/>
-        <v>67.8</v>
-      </c>
-      <c r="Z63" s="17">
-        <f>Z30+Z37+Z39</f>
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M64" s="17">
-        <f t="shared" ref="M64:O64" si="53">M42+M44+M49+M51</f>
-        <v>45.900000000000006</v>
       </c>
       <c r="O64" s="17">
         <f t="shared" si="53"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="U64" s="17">
+        <f t="shared" ref="U64:V64" si="54">U30+U38+U40</f>
+        <v>26.299999999999997</v>
+      </c>
+      <c r="V64" s="17">
+        <f t="shared" si="54"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="W64" s="17">
+        <f t="shared" ref="W64:Y64" si="55">W30+W38+W40</f>
+        <v>21.7</v>
+      </c>
+      <c r="X64" s="17">
+        <f t="shared" si="55"/>
+        <v>27.3</v>
+      </c>
+      <c r="Y64" s="17">
+        <f t="shared" si="55"/>
+        <v>13</v>
+      </c>
+      <c r="Z64" s="17">
+        <f t="shared" ref="Z64:AA64" si="56">Z30+Z38+Z40</f>
+        <v>124.2</v>
+      </c>
+      <c r="AA64" s="17">
+        <f t="shared" si="56"/>
+        <v>67.8</v>
+      </c>
+      <c r="AB64" s="17">
+        <f>AB30+AB38+AB40</f>
+        <v>50.5</v>
+      </c>
+      <c r="AC64" s="17">
+        <f t="shared" ref="AC64:AD64" si="57">AC30+AC38+AC40</f>
+        <v>43</v>
+      </c>
+      <c r="AD64" s="17">
+        <f>AD30+AD38+AD40</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="17">
+        <f t="shared" ref="M65:O65" si="58">M43+M45+M50+M52</f>
+        <v>45.900000000000006</v>
+      </c>
+      <c r="O65" s="17">
+        <f t="shared" si="58"/>
         <v>64.5</v>
       </c>
-      <c r="S64" s="17">
-        <f t="shared" ref="S64:T64" si="54">S42+S44+S49+S51</f>
+      <c r="U65" s="17">
+        <f t="shared" ref="U65:V65" si="59">U43+U45+U50+U52</f>
         <v>84.3</v>
-      </c>
-      <c r="T64" s="17">
-        <f t="shared" si="54"/>
-        <v>59.8</v>
-      </c>
-      <c r="U64" s="17">
-        <f t="shared" ref="U64:W64" si="55">U42+U44+U49+U51</f>
-        <v>103.89999999999999</v>
-      </c>
-      <c r="V64" s="17">
-        <f t="shared" si="55"/>
-        <v>120.2</v>
-      </c>
-      <c r="W64" s="17">
-        <f t="shared" si="55"/>
-        <v>93</v>
-      </c>
-      <c r="X64" s="17">
-        <f t="shared" ref="X64:Y64" si="56">X42+X44+X49+X51</f>
-        <v>180.4</v>
-      </c>
-      <c r="Y64" s="17">
-        <f t="shared" si="56"/>
-        <v>6.5000000000000009</v>
-      </c>
-      <c r="Z64" s="17">
-        <f>Z42+Z44+Z49+Z51</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M65" s="17">
-        <f t="shared" ref="M65:O65" si="57">M63-M64</f>
-        <v>48.5</v>
-      </c>
-      <c r="O65" s="17">
-        <f t="shared" si="57"/>
-        <v>-46.6</v>
-      </c>
-      <c r="S65" s="17">
-        <f t="shared" ref="S65:T65" si="58">S63-S64</f>
-        <v>-58</v>
-      </c>
-      <c r="T65" s="17">
-        <f t="shared" si="58"/>
-        <v>-43.699999999999996</v>
-      </c>
-      <c r="U65" s="17">
-        <f t="shared" ref="U65:W65" si="59">U63-U64</f>
-        <v>-82.199999999999989</v>
       </c>
       <c r="V65" s="17">
         <f t="shared" si="59"/>
-        <v>-92.9</v>
+        <v>59.8</v>
       </c>
       <c r="W65" s="17">
-        <f t="shared" si="59"/>
-        <v>-80</v>
+        <f t="shared" ref="W65:Y65" si="60">W43+W45+W50+W52</f>
+        <v>103.89999999999999</v>
       </c>
       <c r="X65" s="17">
-        <f t="shared" ref="X65:Y65" si="60">X63-X64</f>
-        <v>-56.2</v>
+        <f t="shared" si="60"/>
+        <v>120.2</v>
       </c>
       <c r="Y65" s="17">
         <f t="shared" si="60"/>
+        <v>93</v>
+      </c>
+      <c r="Z65" s="17">
+        <f t="shared" ref="Z65:AA65" si="61">Z43+Z45+Z50+Z52</f>
+        <v>180.4</v>
+      </c>
+      <c r="AA65" s="17">
+        <f t="shared" si="61"/>
+        <v>6.5000000000000009</v>
+      </c>
+      <c r="AB65" s="17">
+        <f>AB43+AB45+AB50+AB52</f>
+        <v>0.7</v>
+      </c>
+      <c r="AC65" s="17">
+        <f t="shared" ref="AC65:AD65" si="62">AC43+AC45+AC50+AC52</f>
+        <v>47.9</v>
+      </c>
+      <c r="AD65" s="17">
+        <f>AD43+AD45+AD50+AD52</f>
+        <v>23.000000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="17">
+        <f t="shared" ref="M66:O66" si="63">M64-M65</f>
+        <v>48.5</v>
+      </c>
+      <c r="O66" s="17">
+        <f t="shared" si="63"/>
+        <v>-46.6</v>
+      </c>
+      <c r="U66" s="17">
+        <f t="shared" ref="U66:V66" si="64">U64-U65</f>
+        <v>-58</v>
+      </c>
+      <c r="V66" s="17">
+        <f t="shared" si="64"/>
+        <v>-43.699999999999996</v>
+      </c>
+      <c r="W66" s="17">
+        <f t="shared" ref="W66:Y66" si="65">W64-W65</f>
+        <v>-82.199999999999989</v>
+      </c>
+      <c r="X66" s="17">
+        <f t="shared" si="65"/>
+        <v>-92.9</v>
+      </c>
+      <c r="Y66" s="17">
+        <f t="shared" si="65"/>
+        <v>-80</v>
+      </c>
+      <c r="Z66" s="17">
+        <f t="shared" ref="Z66:AA66" si="66">Z64-Z65</f>
+        <v>-56.2</v>
+      </c>
+      <c r="AA66" s="17">
+        <f t="shared" si="66"/>
         <v>61.3</v>
       </c>
-      <c r="Z65" s="17">
-        <f>Z63-Z64</f>
+      <c r="AB66" s="17">
+        <f>AB64-AB65</f>
         <v>49.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="29" t="s">
+      <c r="AC66" s="17">
+        <f t="shared" ref="AC66" si="67">AC64-AC65</f>
+        <v>-4.8999999999999986</v>
+      </c>
+      <c r="AD66" s="17">
+        <f>AD64-AD65</f>
+        <v>-9.5000000000000036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:37" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="29">
-        <f>O34/M34-1</f>
+      <c r="D68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="28">
+        <f>O35/M35-1</f>
         <v>6.0080645161290303E-2</v>
       </c>
-      <c r="P67" s="40"/>
-      <c r="T67" s="29">
-        <f t="shared" ref="T67" si="61">T34/S34-1</f>
+      <c r="P68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="V68" s="28">
+        <f t="shared" ref="V68" si="68">V35/U35-1</f>
         <v>5.7602143335566014E-2</v>
       </c>
-      <c r="U67" s="29">
-        <f t="shared" ref="U67" si="62">U34/T34-1</f>
+      <c r="W68" s="28">
+        <f t="shared" ref="W68" si="69">W35/V35-1</f>
         <v>0.21025965801139956</v>
       </c>
-      <c r="V67" s="29">
-        <f t="shared" ref="V67:W67" si="63">V34/U34-1</f>
+      <c r="X68" s="28">
+        <f t="shared" ref="X68:Y68" si="70">X35/W35-1</f>
         <v>2.3024594453165959E-2</v>
       </c>
-      <c r="W67" s="29">
-        <f t="shared" si="63"/>
+      <c r="Y68" s="28">
+        <f t="shared" si="70"/>
         <v>-0.11150895140664963</v>
       </c>
-      <c r="X67" s="29">
-        <f>X34/W34-1</f>
+      <c r="Z68" s="28">
+        <f>Z35/Y35-1</f>
         <v>-4.029936672423684E-3</v>
       </c>
-      <c r="Y67" s="29">
-        <f>Y34/X34-1</f>
+      <c r="AA68" s="28">
+        <f>AA35/Z35-1</f>
         <v>-0.16820809248554913</v>
       </c>
-      <c r="Z67" s="29">
-        <f>Z34/Y34-1</f>
+      <c r="AB68" s="28">
+        <f>AB35/AA35-1</f>
         <v>0.54343293954134797</v>
       </c>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="59"/>
-      <c r="AC67" s="59"/>
-      <c r="AD67" s="59"/>
-      <c r="AE67" s="59"/>
-      <c r="AF67" s="59"/>
-      <c r="AG67" s="59"/>
-      <c r="AH67" s="59"/>
-      <c r="AI67" s="59"/>
-    </row>
-    <row r="69" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="38" t="s">
+      <c r="AC68" s="28">
+        <f>AC35/AB35-1</f>
+        <v>0.15353444394416926</v>
+      </c>
+      <c r="AD68" s="28">
+        <f>AD35/AC35-1</f>
+        <v>-7.2989851678376239E-2</v>
+      </c>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
+      <c r="AH68" s="49"/>
+      <c r="AI68" s="49"/>
+      <c r="AJ68" s="49"/>
+      <c r="AK68" s="49"/>
+    </row>
+    <row r="70" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="1">
+      <c r="D70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="1">
         <v>1.7208000000000001</v>
       </c>
-      <c r="N69" s="39"/>
-      <c r="O69" s="1">
+      <c r="N70" s="38"/>
+      <c r="O70" s="1">
         <v>1.85</v>
       </c>
-      <c r="P69" s="39"/>
-      <c r="S69" s="38">
+      <c r="P70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="U70" s="37">
         <v>3.0615000000000001</v>
       </c>
-      <c r="T69" s="38">
+      <c r="V70" s="37">
         <v>2.6158000000000001</v>
       </c>
-      <c r="U69" s="38">
+      <c r="W70" s="37">
         <v>2.5855999999999999</v>
       </c>
-      <c r="V69" s="38">
+      <c r="X70" s="37">
         <v>2.4986999999999999</v>
       </c>
-      <c r="W69" s="38">
+      <c r="Y70" s="37">
         <v>1.7</v>
       </c>
-      <c r="X69" s="38">
+      <c r="Z70" s="37">
         <v>0.60350000000000004</v>
       </c>
-      <c r="Y69" s="38">
+      <c r="AA70" s="37">
         <v>3.5316000000000001</v>
       </c>
-      <c r="Z69" s="38">
+      <c r="AB70" s="37">
         <v>2.4632000000000001</v>
       </c>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="61"/>
-      <c r="AC69" s="61"/>
-      <c r="AD69" s="61"/>
-      <c r="AE69" s="61"/>
-      <c r="AF69" s="61"/>
-      <c r="AG69" s="61"/>
-      <c r="AH69" s="61"/>
-      <c r="AI69" s="61"/>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+      <c r="AC70" s="37">
+        <v>1.5487</v>
+      </c>
+      <c r="AD70" s="37">
+        <v>1.6029</v>
+      </c>
+      <c r="AE70" s="50"/>
+      <c r="AF70" s="50"/>
+      <c r="AG70" s="50"/>
+      <c r="AH70" s="50"/>
+      <c r="AI70" s="50"/>
+      <c r="AJ70" s="50"/>
+      <c r="AK70" s="50"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M70" s="17">
-        <f t="shared" ref="M70" si="64">M69*M14</f>
+      <c r="M71" s="17">
+        <f t="shared" ref="M71" si="71">M70*M14</f>
         <v>385.80336</v>
       </c>
-      <c r="O70" s="17">
-        <f t="shared" ref="O70" si="65">O69*O14</f>
+      <c r="O71" s="17">
+        <f t="shared" ref="O71" si="72">O70*O14</f>
         <v>419.76500000000004</v>
       </c>
-      <c r="S70" s="17">
-        <f t="shared" ref="S70:V70" si="66">S69*S14</f>
+      <c r="U71" s="17">
+        <f t="shared" ref="U71:X71" si="73">U70*U14</f>
         <v>604.34010000000001</v>
       </c>
-      <c r="T70" s="17">
-        <f t="shared" si="66"/>
+      <c r="V71" s="17">
+        <f t="shared" si="73"/>
         <v>513.48154000000011</v>
       </c>
-      <c r="U70" s="17">
-        <f t="shared" si="66"/>
+      <c r="W71" s="17">
+        <f t="shared" si="73"/>
         <v>509.62175999999994</v>
       </c>
-      <c r="V70" s="17">
-        <f t="shared" si="66"/>
+      <c r="X71" s="17">
+        <f t="shared" si="73"/>
         <v>496.24181999999996</v>
       </c>
-      <c r="W70" s="17">
-        <f t="shared" ref="W70:X70" si="67">W69*W14</f>
+      <c r="Y71" s="17">
+        <f t="shared" ref="Y71:Z71" si="74">Y70*Y14</f>
         <v>338.46999999999997</v>
       </c>
-      <c r="X70" s="17">
-        <f t="shared" si="67"/>
+      <c r="Z71" s="17">
+        <f t="shared" si="74"/>
         <v>120.15685000000001</v>
       </c>
-      <c r="Y70" s="17">
-        <f>Y69*Y14</f>
+      <c r="AA71" s="17">
+        <f>AA70*AA14</f>
         <v>703.14156000000003</v>
       </c>
-      <c r="Z70" s="17">
-        <f>Z69*Z14</f>
+      <c r="AB71" s="17">
+        <f>AB70*AB14</f>
         <v>506.68023999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="AC71" s="17">
+        <f t="shared" ref="AC71:AD71" si="75">AC70*AC14</f>
+        <v>336.68738000000002</v>
+      </c>
+      <c r="AD71" s="17">
+        <f t="shared" si="75"/>
+        <v>348.47046</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M71" s="17">
-        <f t="shared" ref="M71" si="68">M70-M65</f>
+      <c r="M72" s="17">
+        <f t="shared" ref="M72" si="76">M71-M66</f>
         <v>337.30336</v>
       </c>
-      <c r="O71" s="17">
-        <f t="shared" ref="O71" si="69">O70-O65</f>
+      <c r="O72" s="17">
+        <f t="shared" ref="O72" si="77">O71-O66</f>
         <v>466.36500000000007</v>
       </c>
-      <c r="S71" s="17">
-        <f t="shared" ref="S71:V71" si="70">S70-S65</f>
+      <c r="U72" s="17">
+        <f t="shared" ref="U72:X72" si="78">U71-U66</f>
         <v>662.34010000000001</v>
       </c>
-      <c r="T71" s="17">
-        <f t="shared" si="70"/>
+      <c r="V72" s="17">
+        <f t="shared" si="78"/>
         <v>557.18154000000015</v>
       </c>
-      <c r="U71" s="17">
-        <f t="shared" si="70"/>
+      <c r="W72" s="17">
+        <f t="shared" si="78"/>
         <v>591.82175999999993</v>
       </c>
-      <c r="V71" s="17">
-        <f t="shared" si="70"/>
+      <c r="X72" s="17">
+        <f t="shared" si="78"/>
         <v>589.14181999999994</v>
       </c>
-      <c r="W71" s="17">
-        <f>W70-W65</f>
+      <c r="Y72" s="17">
+        <f>Y71-Y66</f>
         <v>418.46999999999997</v>
       </c>
-      <c r="X71" s="17">
-        <f>X70-X65</f>
+      <c r="Z72" s="17">
+        <f>Z71-Z66</f>
         <v>176.35685000000001</v>
       </c>
-      <c r="Y71" s="17">
-        <f>Y70-Y65</f>
+      <c r="AA72" s="17">
+        <f>AA71-AA66</f>
         <v>641.84156000000007</v>
       </c>
-      <c r="Z71" s="17">
-        <f>Z70-Z65</f>
+      <c r="AB72" s="17">
+        <f>AB71-AB66</f>
         <v>456.88023999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" s="71">
-        <f>AVERAGE(S73:Z73)</f>
+      <c r="AC72" s="17">
+        <f t="shared" ref="AC72:AD72" si="79">AC71-AC66</f>
+        <v>341.58738</v>
+      </c>
+      <c r="AD72" s="17">
+        <f t="shared" si="79"/>
+        <v>357.97046</v>
+      </c>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A74" s="59">
+        <f>AVERAGE(U74:AB74)</f>
         <v>1.1368672669892439</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M73" s="41">
-        <f>M69/M61</f>
+      <c r="M74" s="40">
+        <f>M70/M62</f>
         <v>0.69564255319148915</v>
       </c>
-      <c r="N73" s="42"/>
-      <c r="O73" s="41">
-        <f>O69/O61</f>
+      <c r="N74" s="41"/>
+      <c r="O74" s="40">
+        <f>O70/O62</f>
         <v>0.76237740646567365</v>
       </c>
-      <c r="S73" s="41">
-        <f t="shared" ref="S73:V73" si="71">S69/S61</f>
+      <c r="U74" s="40">
+        <f t="shared" ref="U74:X74" si="80">U70/U62</f>
         <v>1.6435683981506666</v>
       </c>
-      <c r="T73" s="41">
-        <f t="shared" si="71"/>
+      <c r="V74" s="40">
+        <f t="shared" si="80"/>
         <v>1.2666046867291563</v>
       </c>
-      <c r="U73" s="41">
-        <f t="shared" si="71"/>
+      <c r="W74" s="40">
+        <f t="shared" si="80"/>
         <v>1.2506055460122694</v>
       </c>
-      <c r="V73" s="41">
-        <f t="shared" si="71"/>
+      <c r="X74" s="40">
+        <f t="shared" si="80"/>
         <v>1.1762072054989334</v>
       </c>
-      <c r="W73" s="41">
-        <f t="shared" ref="W73:Y73" si="72">W69/W61</f>
+      <c r="Y74" s="40">
+        <f t="shared" ref="Y74:AA74" si="81">Y70/Y62</f>
         <v>0.82694844857073058</v>
       </c>
-      <c r="X73" s="41">
-        <f t="shared" si="72"/>
+      <c r="Z74" s="40">
+        <f t="shared" si="81"/>
         <v>0.32847689994532514</v>
       </c>
-      <c r="Y73" s="41">
-        <f t="shared" si="72"/>
+      <c r="AA74" s="40">
+        <f t="shared" si="81"/>
         <v>1.682962087123024</v>
       </c>
-      <c r="Z73" s="41">
-        <f>Z69/Z61</f>
+      <c r="AB74" s="40">
+        <f>AB70/AB62</f>
         <v>0.91956486388384751</v>
       </c>
-    </row>
-    <row r="74" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="71">
-        <f t="shared" ref="A74:A77" si="73">AVERAGE(S74:Z74)</f>
+      <c r="AC74" s="40">
+        <f>AC70/AC62</f>
+        <v>0.60457421440114933</v>
+      </c>
+      <c r="AD74" s="40">
+        <f>AD70/AD62</f>
+        <v>0.62923521126760573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:37" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="59">
+        <f t="shared" ref="A75:A78" si="82">AVERAGE(U75:AB75)</f>
         <v>0.41374638068405767</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B75" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="N74" s="42"/>
-      <c r="P74" s="42"/>
-      <c r="S74" s="41">
-        <f t="shared" ref="S74:V74" si="74">S70/S4</f>
+      <c r="D75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="U75" s="40">
+        <f t="shared" ref="U75:X75" si="83">U71/U4</f>
         <v>0.58937009947337615</v>
       </c>
-      <c r="T74" s="41">
-        <f t="shared" si="74"/>
+      <c r="V75" s="40">
+        <f t="shared" si="83"/>
         <v>0.50267404796867365</v>
       </c>
-      <c r="U74" s="41">
-        <f t="shared" si="74"/>
+      <c r="W75" s="40">
+        <f t="shared" si="83"/>
         <v>0.46540799999999993</v>
       </c>
-      <c r="V74" s="41">
-        <f t="shared" si="74"/>
+      <c r="X75" s="40">
+        <f t="shared" si="83"/>
         <v>0.43717894458638007</v>
       </c>
-      <c r="W74" s="41">
-        <f t="shared" ref="W74:Y74" si="75">W70/W4</f>
+      <c r="Y75" s="40">
+        <f t="shared" ref="Y75:AA75" si="84">Y71/Y4</f>
         <v>0.29726857544352714</v>
       </c>
-      <c r="X74" s="41">
-        <f t="shared" si="75"/>
+      <c r="Z75" s="40">
+        <f t="shared" si="84"/>
         <v>0.10402289845035063</v>
       </c>
-      <c r="Y74" s="41">
-        <f t="shared" si="75"/>
+      <c r="AA75" s="40">
+        <f t="shared" si="84"/>
         <v>0.54410087440996679</v>
       </c>
-      <c r="Z74" s="41">
-        <f>Z70/Z4</f>
+      <c r="AB75" s="40">
+        <f>AB71/AB4</f>
         <v>0.36994760514018693</v>
       </c>
-      <c r="AA74" s="62"/>
-      <c r="AB74" s="63"/>
-      <c r="AC74" s="63"/>
-      <c r="AD74" s="63"/>
-      <c r="AE74" s="63"/>
-      <c r="AF74" s="63"/>
-      <c r="AG74" s="63"/>
-      <c r="AH74" s="63"/>
-      <c r="AI74" s="63"/>
-    </row>
-    <row r="75" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="71">
-        <f t="shared" si="73"/>
+      <c r="AC75" s="40">
+        <f>AC71/AC4</f>
+        <v>0.21408239333630064</v>
+      </c>
+      <c r="AD75" s="40">
+        <f>AD71/AD4</f>
+        <v>0.20540551724137932</v>
+      </c>
+      <c r="AE75" s="51"/>
+      <c r="AF75" s="51"/>
+      <c r="AG75" s="51"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="51"/>
+      <c r="AJ75" s="51"/>
+      <c r="AK75" s="51"/>
+    </row>
+    <row r="76" spans="1:37" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="59">
+        <f t="shared" si="82"/>
         <v>0.45016822490598901</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B76" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="N75" s="42"/>
-      <c r="P75" s="42"/>
-      <c r="S75" s="41">
-        <f t="shared" ref="S75:V75" si="76">S71/S4</f>
+      <c r="D76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="U76" s="40">
+        <f t="shared" ref="U76:X76" si="85">U72/U4</f>
         <v>0.64593339184708398</v>
       </c>
-      <c r="T75" s="41">
-        <f t="shared" si="76"/>
+      <c r="V76" s="40">
+        <f t="shared" si="85"/>
         <v>0.54545427312775341</v>
       </c>
-      <c r="U75" s="41">
-        <f t="shared" si="76"/>
+      <c r="W76" s="40">
+        <f t="shared" si="85"/>
         <v>0.54047649315068491</v>
       </c>
-      <c r="V75" s="41">
-        <f t="shared" si="76"/>
+      <c r="X76" s="40">
+        <f t="shared" si="85"/>
         <v>0.51902195401286233</v>
       </c>
-      <c r="W75" s="41">
-        <f t="shared" ref="W75:Y75" si="77">W71/W4</f>
+      <c r="Y76" s="40">
+        <f t="shared" ref="Y76:AA76" si="86">Y72/Y4</f>
         <v>0.36753030036887407</v>
       </c>
-      <c r="X75" s="41">
-        <f t="shared" si="77"/>
+      <c r="Z76" s="40">
+        <f t="shared" si="86"/>
         <v>0.15267669465847114</v>
       </c>
-      <c r="Y75" s="41">
-        <f t="shared" si="77"/>
+      <c r="AA76" s="40">
+        <f t="shared" si="86"/>
         <v>0.49666606825040632</v>
       </c>
-      <c r="Z75" s="41">
-        <f>Z71/Z4</f>
+      <c r="AB76" s="40">
+        <f>AB72/AB4</f>
         <v>0.33358662383177567</v>
       </c>
-      <c r="AA75" s="62"/>
-      <c r="AB75" s="63"/>
-      <c r="AC75" s="63"/>
-      <c r="AD75" s="63"/>
-      <c r="AE75" s="63"/>
-      <c r="AF75" s="63"/>
-      <c r="AG75" s="63"/>
-      <c r="AH75" s="63"/>
-      <c r="AI75" s="63"/>
-    </row>
-    <row r="76" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="71">
-        <f t="shared" si="73"/>
+      <c r="AC76" s="40">
+        <f>AC72/AC4</f>
+        <v>0.21719805430151967</v>
+      </c>
+      <c r="AD76" s="40">
+        <f>AD72/AD4</f>
+        <v>0.2110052814618332</v>
+      </c>
+      <c r="AE76" s="51"/>
+      <c r="AF76" s="51"/>
+      <c r="AG76" s="51"/>
+      <c r="AH76" s="51"/>
+      <c r="AI76" s="51"/>
+      <c r="AJ76" s="51"/>
+      <c r="AK76" s="51"/>
+    </row>
+    <row r="77" spans="1:37" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="59">
+        <f t="shared" si="82"/>
         <v>8.7576011619956287</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B77" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="N76" s="42"/>
-      <c r="P76" s="42"/>
-      <c r="S76" s="41">
-        <f t="shared" ref="S76:V76" si="78">S69/S13</f>
+      <c r="D77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="U77" s="40">
+        <f t="shared" ref="U77:X77" si="87">U70/U13</f>
         <v>9.184499999999991</v>
       </c>
-      <c r="T76" s="41">
-        <f t="shared" si="78"/>
+      <c r="V77" s="40">
+        <f t="shared" si="87"/>
         <v>8.0863234645669291</v>
       </c>
-      <c r="U76" s="41">
-        <f t="shared" si="78"/>
+      <c r="W77" s="40">
+        <f t="shared" si="87"/>
         <v>9.0358468085106303</v>
       </c>
-      <c r="V76" s="41">
-        <f t="shared" si="78"/>
+      <c r="X77" s="40">
+        <f t="shared" si="87"/>
         <v>9.072062522851926</v>
       </c>
-      <c r="W76" s="41">
-        <f t="shared" ref="W76:Y76" si="79">W69/W13</f>
+      <c r="Y77" s="40">
+        <f t="shared" ref="Y77:AA77" si="88">Y70/Y13</f>
         <v>8.0780429594272327</v>
       </c>
-      <c r="X76" s="41">
-        <f t="shared" si="79"/>
+      <c r="Z77" s="40">
+        <f t="shared" si="88"/>
         <v>6.8661057142857596</v>
       </c>
-      <c r="Y76" s="41">
-        <f t="shared" si="79"/>
+      <c r="AA77" s="40">
+        <f t="shared" si="88"/>
         <v>13.216946616541351</v>
       </c>
-      <c r="Z76" s="41">
-        <f>Z69/Z13</f>
+      <c r="AB77" s="40">
+        <f>AB70/AB13</f>
         <v>6.520981209781211</v>
       </c>
-      <c r="AA76" s="62"/>
-      <c r="AB76" s="63"/>
-      <c r="AC76" s="63"/>
-      <c r="AD76" s="63"/>
-      <c r="AE76" s="63"/>
-      <c r="AF76" s="63"/>
-      <c r="AG76" s="63"/>
-      <c r="AH76" s="63"/>
-      <c r="AI76" s="63"/>
-    </row>
-    <row r="77" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="71">
-        <f t="shared" si="73"/>
+      <c r="AC77" s="40">
+        <f>AC70/AC13</f>
+        <v>11.981757295373656</v>
+      </c>
+      <c r="AD77" s="40">
+        <f>AD70/AD13</f>
+        <v>12.0162227586207</v>
+      </c>
+      <c r="AE77" s="51"/>
+      <c r="AF77" s="51"/>
+      <c r="AG77" s="51"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="51"/>
+      <c r="AJ77" s="51"/>
+      <c r="AK77" s="51"/>
+    </row>
+    <row r="78" spans="1:37" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="59">
+        <f t="shared" si="82"/>
         <v>9.7642266095637211</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B78" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="N77" s="42"/>
-      <c r="P77" s="42"/>
-      <c r="S77" s="41">
-        <f t="shared" ref="S77:V77" si="80">S71/S12</f>
+      <c r="D78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="U78" s="40">
+        <f t="shared" ref="U78:X78" si="89">U72/U12</f>
         <v>10.06595896656534</v>
       </c>
-      <c r="T77" s="41">
-        <f t="shared" si="80"/>
+      <c r="V78" s="40">
+        <f t="shared" si="89"/>
         <v>8.774512440944882</v>
       </c>
-      <c r="U77" s="41">
-        <f t="shared" si="80"/>
+      <c r="W78" s="40">
+        <f t="shared" si="89"/>
         <v>10.493293617021266</v>
       </c>
-      <c r="V77" s="41">
-        <f t="shared" si="80"/>
+      <c r="X78" s="40">
+        <f t="shared" si="89"/>
         <v>10.770417184643518</v>
       </c>
-      <c r="W77" s="41">
-        <f t="shared" ref="W77:Y77" si="81">W71/W12</f>
+      <c r="Y78" s="40">
+        <f t="shared" ref="Y78:AA78" si="90">Y72/Y12</f>
         <v>9.9873508353222267</v>
       </c>
-      <c r="X77" s="41">
-        <f t="shared" si="81"/>
+      <c r="Z78" s="40">
+        <f t="shared" si="90"/>
         <v>10.077534285714352</v>
       </c>
-      <c r="Y77" s="41">
-        <f t="shared" si="81"/>
+      <c r="AA78" s="40">
+        <f t="shared" si="90"/>
         <v>12.064690977443609</v>
       </c>
-      <c r="Z77" s="41">
-        <f>Z71/Z12</f>
+      <c r="AB78" s="40">
+        <f>AB72/AB12</f>
         <v>5.8800545688545691</v>
       </c>
-      <c r="AA77" s="62"/>
-      <c r="AB77" s="63"/>
-      <c r="AC77" s="63"/>
-      <c r="AD77" s="63"/>
-      <c r="AE77" s="63"/>
-      <c r="AF77" s="63"/>
-      <c r="AG77" s="63"/>
-      <c r="AH77" s="63"/>
-      <c r="AI77" s="63"/>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B80" s="30" t="s">
+      <c r="AC78" s="40">
+        <f>AC72/AC12</f>
+        <v>12.156134519572944</v>
+      </c>
+      <c r="AD78" s="40">
+        <f>AD72/AD12</f>
+        <v>12.343808965517253</v>
+      </c>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="51"/>
+      <c r="AI78" s="51"/>
+      <c r="AJ78" s="51"/>
+      <c r="AK78" s="51"/>
+    </row>
+    <row r="81" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B81" s="29" t="s">
         <v>107</v>
       </c>
+    </row>
+    <row r="82" spans="2:37" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="83"/>
+      <c r="F82" s="83"/>
+      <c r="H82" s="83"/>
+      <c r="J82" s="83"/>
+      <c r="L82" s="83"/>
+      <c r="N82" s="83"/>
+      <c r="P82" s="83"/>
+      <c r="R82" s="83"/>
+      <c r="AC82" s="82">
+        <f>150.6-4.2</f>
+        <v>146.4</v>
+      </c>
+      <c r="AD82" s="82">
+        <f>177.9-10.5</f>
+        <v>167.4</v>
+      </c>
+      <c r="AE82" s="84"/>
+      <c r="AF82" s="84"/>
+      <c r="AG82" s="84"/>
+      <c r="AH82" s="84"/>
+      <c r="AI82" s="84"/>
+      <c r="AJ82" s="84"/>
+      <c r="AK82" s="84"/>
+    </row>
+    <row r="83" spans="2:37" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="H83" s="83"/>
+      <c r="J83" s="83"/>
+      <c r="L83" s="83"/>
+      <c r="N83" s="83"/>
+      <c r="P83" s="83"/>
+      <c r="R83" s="83"/>
+      <c r="AC83" s="82">
+        <f>32.6+29.1</f>
+        <v>61.7</v>
+      </c>
+      <c r="AD83" s="82">
+        <f>21.9+0.6</f>
+        <v>22.5</v>
+      </c>
+      <c r="AE83" s="84"/>
+      <c r="AF83" s="84"/>
+      <c r="AG83" s="84"/>
+      <c r="AH83" s="84"/>
+      <c r="AI83" s="84"/>
+      <c r="AJ83" s="84"/>
+      <c r="AK83" s="84"/>
+    </row>
+    <row r="84" spans="2:37" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="83"/>
+      <c r="F84" s="83"/>
+      <c r="H84" s="83"/>
+      <c r="J84" s="83"/>
+      <c r="L84" s="83"/>
+      <c r="N84" s="83"/>
+      <c r="P84" s="83"/>
+      <c r="R84" s="83"/>
+      <c r="AC84" s="84">
+        <f>AC82-AC83</f>
+        <v>84.7</v>
+      </c>
+      <c r="AD84" s="82">
+        <f>AD82-AD83</f>
+        <v>144.9</v>
+      </c>
+      <c r="AE84" s="84"/>
+      <c r="AF84" s="84"/>
+      <c r="AG84" s="84"/>
+      <c r="AH84" s="84"/>
+      <c r="AI84" s="84"/>
+      <c r="AJ84" s="84"/>
+      <c r="AK84" s="84"/>
+    </row>
+    <row r="86" spans="2:37" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="L86" s="38"/>
+      <c r="N86" s="38"/>
+      <c r="P86" s="38"/>
+      <c r="R86" s="38"/>
+      <c r="AC86" s="50">
+        <f>AC84/AC14</f>
+        <v>0.38960441582336708</v>
+      </c>
+      <c r="AD86" s="37">
+        <f>AD84/AD14</f>
+        <v>0.66651333946642133</v>
+      </c>
+      <c r="AE86" s="50"/>
+      <c r="AF86" s="50"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="50"/>
+      <c r="AI86" s="50"/>
+      <c r="AJ86" s="50"/>
+      <c r="AK86" s="50"/>
+    </row>
+    <row r="87" spans="2:37" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="AC87" s="51">
+        <f>AC70/AC86</f>
+        <v>3.9750576151121604</v>
+      </c>
+      <c r="AD87" s="40">
+        <f>AD70/AD86</f>
+        <v>2.404903105590062</v>
+      </c>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="51"/>
+      <c r="AH87" s="51"/>
+      <c r="AI87" s="51"/>
+      <c r="AJ87" s="51"/>
+      <c r="AK87" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Z1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
-    <hyperlink ref="X1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
-    <hyperlink ref="V1" r:id="rId3" xr:uid="{13285A00-2106-4F98-B9F0-34A6A260A094}"/>
-    <hyperlink ref="T1" r:id="rId4" xr:uid="{769CF0C5-F50D-4DA3-90F8-F8D13713771E}"/>
+    <hyperlink ref="AB1" r:id="rId1" xr:uid="{596F9973-92FB-3340-BC7A-375E4C25351C}"/>
+    <hyperlink ref="Z1" r:id="rId2" xr:uid="{92846B6F-2839-284E-AA85-90B408C1E203}"/>
+    <hyperlink ref="X1" r:id="rId3" xr:uid="{13285A00-2106-4F98-B9F0-34A6A260A094}"/>
+    <hyperlink ref="V1" r:id="rId4" xr:uid="{769CF0C5-F50D-4DA3-90F8-F8D13713771E}"/>
     <hyperlink ref="O1" r:id="rId5" xr:uid="{269C442D-1224-4529-B6A0-B4A457C4FBF1}"/>
+    <hyperlink ref="AD1" r:id="rId6" xr:uid="{C99FBCF4-17C5-4F70-83A9-AB7C8C688FA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="X9 AA7 AA11 AA9 AB11:AI11 AB9:AI9 AB7:AC7 AD7:AI7 O7 M7 M11" formula="1"/>
+    <ignoredError sqref="Z9 AE11:AK11 AE7 AF7:AK7 O7 M7 M11 AC11 N6:N13 AE9:AK9" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F99091-B771-4659-9332-5B81EA28D27A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/£HFD.xlsx
+++ b/£HFD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DCCC8B-C647-47B1-974C-D0EC6E8904DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB18B7-4AA1-44D3-AB58-785DB6905BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
+    <workbookView xWindow="1410" yWindow="1020" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{3483339E-0186-4DD8-B843-20C8BDA2099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1349,7 +1349,7 @@
   <dimension ref="B2:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1840,10 +1840,10 @@
   <dimension ref="A1:CU87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomRight" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3522,7 +3522,7 @@
         <v>113</v>
       </c>
       <c r="AN20" s="55">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="2:40" x14ac:dyDescent="0.2">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="AN21" s="56">
         <f>NPV(AN20,AC12:CU12)</f>
-        <v>459.93948504604202</v>
+        <v>373.87515069401144</v>
       </c>
     </row>
     <row r="22" spans="2:40" x14ac:dyDescent="0.2">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="AN23" s="56">
         <f>AN21-AN22</f>
-        <v>469.43948504604202</v>
+        <v>383.37515069401144</v>
       </c>
     </row>
     <row r="24" spans="2:40" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="AN24" s="57">
         <f>AN23/Main!C7</f>
-        <v>2.1442570473984834</v>
+        <v>1.7511412969287479</v>
       </c>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.2">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="AN26" s="58">
         <f>AN24/AN25-1</f>
-        <v>0.34351945325719502</v>
+        <v>9.7206326396458431E-2</v>
       </c>
     </row>
     <row r="27" spans="2:40" x14ac:dyDescent="0.2">
